--- a/doc/voca.xlsx
+++ b/doc/voca.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2526" uniqueCount="1987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2526" uniqueCount="1999">
   <si>
     <t>#</t>
   </si>
@@ -3122,9 +3122,6 @@
     <t>[動詞]</t>
   </si>
   <si>
-    <t>[數詞]</t>
-  </si>
-  <si>
     <t>I can count to zero.</t>
   </si>
   <si>
@@ -5549,9 +5546,6 @@
     <t>貓在盒子裡。</t>
   </si>
   <si>
-    <t>出去</t>
-  </si>
-  <si>
     <t>We go out to play.</t>
   </si>
   <si>
@@ -5567,18 +5561,12 @@
     <t>我搭公車上學。</t>
   </si>
   <si>
-    <t>在外面</t>
-  </si>
-  <si>
     <t>The dog is outside.</t>
   </si>
   <si>
     <t>狗在外面。</t>
   </si>
   <si>
-    <t>在裡面</t>
-  </si>
-  <si>
     <t>The bird is inside the cage.</t>
   </si>
   <si>
@@ -5744,9 +5732,6 @@
     <t>可以的。</t>
   </si>
   <si>
-    <t>只有/僅僅</t>
-  </si>
-  <si>
     <t>This is my only pen.</t>
   </si>
   <si>
@@ -5976,6 +5961,74 @@
   </si>
   <si>
     <t>鯨魚很大。</t>
+  </si>
+  <si>
+    <t>[受格]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[受格]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[所有格]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[名詞]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[形容詞/副詞]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[形容詞]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>僅有的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>僅僅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[副詞]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I only have a pen.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我只有一支筆。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[感嘆詞]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[介系詞]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向外</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在...外面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在...裡面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[助動詞]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6342,14 +6395,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A493" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F511" sqref="F511"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="35.125" customWidth="1"/>
     <col min="6" max="6" width="26.25" customWidth="1"/>
   </cols>
@@ -6585,7 +6639,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>1028</v>
+        <v>1982</v>
       </c>
       <c r="E12" t="s">
         <v>44</v>
@@ -6605,7 +6659,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>1028</v>
+        <v>1983</v>
       </c>
       <c r="E13" t="s">
         <v>45</v>
@@ -6625,7 +6679,7 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>1028</v>
+        <v>1983</v>
       </c>
       <c r="E14" t="s">
         <v>46</v>
@@ -6645,7 +6699,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>1028</v>
+        <v>1983</v>
       </c>
       <c r="E15" t="s">
         <v>47</v>
@@ -6665,7 +6719,7 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>1028</v>
+        <v>1984</v>
       </c>
       <c r="E16" t="s">
         <v>48</v>
@@ -6685,7 +6739,7 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>1028</v>
+        <v>1984</v>
       </c>
       <c r="E17" t="s">
         <v>49</v>
@@ -6705,7 +6759,7 @@
         <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>1028</v>
+        <v>1984</v>
       </c>
       <c r="E18" t="s">
         <v>50</v>
@@ -6725,7 +6779,7 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>1028</v>
+        <v>1984</v>
       </c>
       <c r="E19" t="s">
         <v>51</v>
@@ -6745,7 +6799,7 @@
         <v>544</v>
       </c>
       <c r="D20" t="s">
-        <v>1028</v>
+        <v>1984</v>
       </c>
       <c r="E20" t="s">
         <v>545</v>
@@ -6765,7 +6819,7 @@
         <v>547</v>
       </c>
       <c r="D21" t="s">
-        <v>1028</v>
+        <v>1984</v>
       </c>
       <c r="E21" t="s">
         <v>548</v>
@@ -6785,7 +6839,7 @@
         <v>550</v>
       </c>
       <c r="D22" t="s">
-        <v>1028</v>
+        <v>1984</v>
       </c>
       <c r="E22" t="s">
         <v>551</v>
@@ -6845,7 +6899,7 @@
         <v>559</v>
       </c>
       <c r="D25" t="s">
-        <v>873</v>
+        <v>1998</v>
       </c>
       <c r="E25" t="s">
         <v>560</v>
@@ -7445,7 +7499,7 @@
         <v>648</v>
       </c>
       <c r="D55" t="s">
-        <v>873</v>
+        <v>1985</v>
       </c>
       <c r="E55" t="s">
         <v>649</v>
@@ -7465,13 +7519,13 @@
         <v>651</v>
       </c>
       <c r="D56" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E56" t="s">
         <v>1035</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>1036</v>
-      </c>
-      <c r="F56" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7485,13 +7539,13 @@
         <v>652</v>
       </c>
       <c r="D57" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E57" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F57" t="s">
         <v>1038</v>
-      </c>
-      <c r="F57" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7505,13 +7559,13 @@
         <v>653</v>
       </c>
       <c r="D58" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E58" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F58" t="s">
         <v>1040</v>
-      </c>
-      <c r="F58" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7525,13 +7579,13 @@
         <v>654</v>
       </c>
       <c r="D59" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E59" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F59" t="s">
         <v>1042</v>
-      </c>
-      <c r="F59" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7545,13 +7599,13 @@
         <v>655</v>
       </c>
       <c r="D60" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E60" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F60" t="s">
         <v>1044</v>
-      </c>
-      <c r="F60" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7565,13 +7619,13 @@
         <v>656</v>
       </c>
       <c r="D61" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E61" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F61" t="s">
         <v>1046</v>
-      </c>
-      <c r="F61" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7585,13 +7639,13 @@
         <v>657</v>
       </c>
       <c r="D62" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E62" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F62" t="s">
         <v>1048</v>
-      </c>
-      <c r="F62" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7605,13 +7659,13 @@
         <v>658</v>
       </c>
       <c r="D63" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E63" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F63" t="s">
         <v>1050</v>
-      </c>
-      <c r="F63" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7625,13 +7679,13 @@
         <v>659</v>
       </c>
       <c r="D64" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E64" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F64" t="s">
         <v>1052</v>
-      </c>
-      <c r="F64" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7645,13 +7699,13 @@
         <v>660</v>
       </c>
       <c r="D65" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E65" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F65" t="s">
         <v>1054</v>
-      </c>
-      <c r="F65" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7665,13 +7719,13 @@
         <v>661</v>
       </c>
       <c r="D66" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E66" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F66" t="s">
         <v>1056</v>
-      </c>
-      <c r="F66" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7685,13 +7739,13 @@
         <v>662</v>
       </c>
       <c r="D67" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E67" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F67" t="s">
         <v>1058</v>
-      </c>
-      <c r="F67" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7705,13 +7759,13 @@
         <v>663</v>
       </c>
       <c r="D68" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E68" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F68" t="s">
         <v>1060</v>
-      </c>
-      <c r="F68" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7725,13 +7779,13 @@
         <v>664</v>
       </c>
       <c r="D69" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E69" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F69" t="s">
         <v>1062</v>
-      </c>
-      <c r="F69" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7745,13 +7799,13 @@
         <v>665</v>
       </c>
       <c r="D70" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E70" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F70" t="s">
         <v>1064</v>
-      </c>
-      <c r="F70" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7765,13 +7819,13 @@
         <v>666</v>
       </c>
       <c r="D71" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E71" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F71" t="s">
         <v>1066</v>
-      </c>
-      <c r="F71" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7785,13 +7839,13 @@
         <v>667</v>
       </c>
       <c r="D72" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E72" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F72" t="s">
         <v>1068</v>
-      </c>
-      <c r="F72" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7805,13 +7859,13 @@
         <v>668</v>
       </c>
       <c r="D73" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E73" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F73" t="s">
         <v>1070</v>
-      </c>
-      <c r="F73" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7825,13 +7879,13 @@
         <v>669</v>
       </c>
       <c r="D74" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E74" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F74" t="s">
         <v>1072</v>
-      </c>
-      <c r="F74" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -7845,13 +7899,13 @@
         <v>670</v>
       </c>
       <c r="D75" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E75" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F75" t="s">
         <v>1074</v>
-      </c>
-      <c r="F75" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7865,13 +7919,13 @@
         <v>671</v>
       </c>
       <c r="D76" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E76" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F76" t="s">
         <v>1076</v>
-      </c>
-      <c r="F76" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7885,13 +7939,13 @@
         <v>672</v>
       </c>
       <c r="D77" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E77" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F77" t="s">
         <v>1078</v>
-      </c>
-      <c r="F77" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7905,13 +7959,13 @@
         <v>673</v>
       </c>
       <c r="D78" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E78" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F78" t="s">
         <v>1080</v>
-      </c>
-      <c r="F78" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -7925,13 +7979,13 @@
         <v>674</v>
       </c>
       <c r="D79" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E79" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F79" t="s">
         <v>1082</v>
-      </c>
-      <c r="F79" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -7945,13 +7999,13 @@
         <v>675</v>
       </c>
       <c r="D80" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E80" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F80" t="s">
         <v>1084</v>
-      </c>
-      <c r="F80" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -7965,13 +8019,13 @@
         <v>676</v>
       </c>
       <c r="D81" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E81" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F81" t="s">
         <v>1086</v>
-      </c>
-      <c r="F81" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -7985,13 +8039,13 @@
         <v>677</v>
       </c>
       <c r="D82" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E82" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F82" t="s">
         <v>1088</v>
-      </c>
-      <c r="F82" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8005,13 +8059,13 @@
         <v>678</v>
       </c>
       <c r="D83" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E83" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F83" t="s">
         <v>1090</v>
-      </c>
-      <c r="F83" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8025,13 +8079,13 @@
         <v>679</v>
       </c>
       <c r="D84" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E84" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F84" t="s">
         <v>1092</v>
-      </c>
-      <c r="F84" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8045,7 +8099,7 @@
         <v>680</v>
       </c>
       <c r="D85" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E85" t="s">
         <v>681</v>
@@ -8065,7 +8119,7 @@
         <v>683</v>
       </c>
       <c r="D86" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E86" t="s">
         <v>684</v>
@@ -8085,7 +8139,7 @@
         <v>686</v>
       </c>
       <c r="D87" t="s">
-        <v>1035</v>
+        <v>1985</v>
       </c>
       <c r="E87" t="s">
         <v>687</v>
@@ -8568,10 +8622,10 @@
         <v>873</v>
       </c>
       <c r="E111" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F111" t="s">
         <v>1094</v>
-      </c>
-      <c r="F111" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -8628,10 +8682,10 @@
         <v>873</v>
       </c>
       <c r="E114" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F114" t="s">
         <v>1096</v>
-      </c>
-      <c r="F114" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -9825,7 +9879,7 @@
         <v>942</v>
       </c>
       <c r="D174" t="s">
-        <v>943</v>
+        <v>1986</v>
       </c>
       <c r="E174" t="s">
         <v>944</v>
@@ -10362,16 +10416,16 @@
         <v>251</v>
       </c>
       <c r="C201" t="s">
-        <v>1984</v>
+        <v>1979</v>
       </c>
       <c r="D201" t="s">
         <v>873</v>
       </c>
       <c r="E201" t="s">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="F201" t="s">
-        <v>1986</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -10382,16 +10436,16 @@
         <v>252</v>
       </c>
       <c r="C202" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D202" t="s">
+        <v>873</v>
+      </c>
+      <c r="E202" t="s">
         <v>1098</v>
       </c>
-      <c r="D202" t="s">
-        <v>873</v>
-      </c>
-      <c r="E202" t="s">
+      <c r="F202" t="s">
         <v>1099</v>
-      </c>
-      <c r="F202" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -10402,16 +10456,16 @@
         <v>253</v>
       </c>
       <c r="C203" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D203" t="s">
+        <v>873</v>
+      </c>
+      <c r="E203" t="s">
         <v>1101</v>
       </c>
-      <c r="D203" t="s">
-        <v>873</v>
-      </c>
-      <c r="E203" t="s">
+      <c r="F203" t="s">
         <v>1102</v>
-      </c>
-      <c r="F203" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -10422,16 +10476,16 @@
         <v>254</v>
       </c>
       <c r="C204" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D204" t="s">
+        <v>873</v>
+      </c>
+      <c r="E204" t="s">
         <v>1104</v>
       </c>
-      <c r="D204" t="s">
-        <v>873</v>
-      </c>
-      <c r="E204" t="s">
+      <c r="F204" t="s">
         <v>1105</v>
-      </c>
-      <c r="F204" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -10442,16 +10496,16 @@
         <v>255</v>
       </c>
       <c r="C205" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D205" t="s">
+        <v>873</v>
+      </c>
+      <c r="E205" t="s">
         <v>1107</v>
       </c>
-      <c r="D205" t="s">
-        <v>873</v>
-      </c>
-      <c r="E205" t="s">
+      <c r="F205" t="s">
         <v>1108</v>
-      </c>
-      <c r="F205" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -10462,16 +10516,16 @@
         <v>256</v>
       </c>
       <c r="C206" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D206" t="s">
         <v>1034</v>
       </c>
       <c r="E206" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F206" t="s">
         <v>1111</v>
-      </c>
-      <c r="F206" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -10482,16 +10536,16 @@
         <v>257</v>
       </c>
       <c r="C207" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D207" t="s">
+        <v>873</v>
+      </c>
+      <c r="E207" t="s">
         <v>1113</v>
       </c>
-      <c r="D207" t="s">
-        <v>873</v>
-      </c>
-      <c r="E207" t="s">
+      <c r="F207" t="s">
         <v>1114</v>
-      </c>
-      <c r="F207" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -10502,16 +10556,16 @@
         <v>258</v>
       </c>
       <c r="C208" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D208" t="s">
+        <v>873</v>
+      </c>
+      <c r="E208" t="s">
         <v>1116</v>
       </c>
-      <c r="D208" t="s">
-        <v>873</v>
-      </c>
-      <c r="E208" t="s">
+      <c r="F208" t="s">
         <v>1117</v>
-      </c>
-      <c r="F208" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -10522,16 +10576,16 @@
         <v>259</v>
       </c>
       <c r="C209" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D209" t="s">
+        <v>873</v>
+      </c>
+      <c r="E209" t="s">
         <v>1119</v>
       </c>
-      <c r="D209" t="s">
-        <v>873</v>
-      </c>
-      <c r="E209" t="s">
+      <c r="F209" t="s">
         <v>1120</v>
-      </c>
-      <c r="F209" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -10542,16 +10596,16 @@
         <v>260</v>
       </c>
       <c r="C210" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D210" t="s">
+        <v>873</v>
+      </c>
+      <c r="E210" t="s">
         <v>1122</v>
       </c>
-      <c r="D210" t="s">
-        <v>873</v>
-      </c>
-      <c r="E210" t="s">
+      <c r="F210" t="s">
         <v>1123</v>
-      </c>
-      <c r="F210" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -10562,16 +10616,16 @@
         <v>261</v>
       </c>
       <c r="C211" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D211" t="s">
+        <v>873</v>
+      </c>
+      <c r="E211" t="s">
         <v>1125</v>
       </c>
-      <c r="D211" t="s">
-        <v>873</v>
-      </c>
-      <c r="E211" t="s">
+      <c r="F211" t="s">
         <v>1126</v>
-      </c>
-      <c r="F211" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -10582,16 +10636,16 @@
         <v>262</v>
       </c>
       <c r="C212" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D212" t="s">
+        <v>873</v>
+      </c>
+      <c r="E212" t="s">
         <v>1128</v>
       </c>
-      <c r="D212" t="s">
-        <v>873</v>
-      </c>
-      <c r="E212" t="s">
+      <c r="F212" t="s">
         <v>1129</v>
-      </c>
-      <c r="F212" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -10602,16 +10656,16 @@
         <v>263</v>
       </c>
       <c r="C213" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D213" t="s">
+        <v>873</v>
+      </c>
+      <c r="E213" t="s">
         <v>1131</v>
       </c>
-      <c r="D213" t="s">
-        <v>873</v>
-      </c>
-      <c r="E213" t="s">
+      <c r="F213" t="s">
         <v>1132</v>
-      </c>
-      <c r="F213" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -10622,16 +10676,16 @@
         <v>264</v>
       </c>
       <c r="C214" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D214" t="s">
+        <v>873</v>
+      </c>
+      <c r="E214" t="s">
         <v>1134</v>
       </c>
-      <c r="D214" t="s">
-        <v>873</v>
-      </c>
-      <c r="E214" t="s">
+      <c r="F214" t="s">
         <v>1135</v>
-      </c>
-      <c r="F214" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -10639,19 +10693,19 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C215" t="s">
         <v>1137</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
+        <v>873</v>
+      </c>
+      <c r="E215" t="s">
         <v>1138</v>
       </c>
-      <c r="D215" t="s">
-        <v>873</v>
-      </c>
-      <c r="E215" t="s">
+      <c r="F215" t="s">
         <v>1139</v>
-      </c>
-      <c r="F215" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -10662,16 +10716,16 @@
         <v>265</v>
       </c>
       <c r="C216" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D216" t="s">
+        <v>873</v>
+      </c>
+      <c r="E216" t="s">
         <v>1141</v>
       </c>
-      <c r="D216" t="s">
-        <v>873</v>
-      </c>
-      <c r="E216" t="s">
+      <c r="F216" t="s">
         <v>1142</v>
-      </c>
-      <c r="F216" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -10682,16 +10736,16 @@
         <v>266</v>
       </c>
       <c r="C217" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D217" t="s">
+        <v>873</v>
+      </c>
+      <c r="E217" t="s">
         <v>1144</v>
       </c>
-      <c r="D217" t="s">
-        <v>873</v>
-      </c>
-      <c r="E217" t="s">
+      <c r="F217" t="s">
         <v>1145</v>
-      </c>
-      <c r="F217" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -10702,16 +10756,16 @@
         <v>267</v>
       </c>
       <c r="C218" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D218" t="s">
+        <v>873</v>
+      </c>
+      <c r="E218" t="s">
         <v>1147</v>
       </c>
-      <c r="D218" t="s">
-        <v>873</v>
-      </c>
-      <c r="E218" t="s">
+      <c r="F218" t="s">
         <v>1148</v>
-      </c>
-      <c r="F218" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -10722,16 +10776,16 @@
         <v>268</v>
       </c>
       <c r="C219" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D219" t="s">
+        <v>873</v>
+      </c>
+      <c r="E219" t="s">
         <v>1150</v>
       </c>
-      <c r="D219" t="s">
-        <v>873</v>
-      </c>
-      <c r="E219" t="s">
+      <c r="F219" t="s">
         <v>1151</v>
-      </c>
-      <c r="F219" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -10742,16 +10796,16 @@
         <v>269</v>
       </c>
       <c r="C220" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D220" t="s">
+        <v>873</v>
+      </c>
+      <c r="E220" t="s">
         <v>1153</v>
       </c>
-      <c r="D220" t="s">
-        <v>873</v>
-      </c>
-      <c r="E220" t="s">
+      <c r="F220" t="s">
         <v>1154</v>
-      </c>
-      <c r="F220" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -10762,16 +10816,16 @@
         <v>270</v>
       </c>
       <c r="C221" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D221" t="s">
+        <v>873</v>
+      </c>
+      <c r="E221" t="s">
         <v>1156</v>
       </c>
-      <c r="D221" t="s">
-        <v>873</v>
-      </c>
-      <c r="E221" t="s">
+      <c r="F221" t="s">
         <v>1157</v>
-      </c>
-      <c r="F221" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -10782,16 +10836,16 @@
         <v>271</v>
       </c>
       <c r="C222" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D222" t="s">
         <v>1034</v>
       </c>
       <c r="E222" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F222" t="s">
         <v>1160</v>
-      </c>
-      <c r="F222" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -10802,16 +10856,16 @@
         <v>272</v>
       </c>
       <c r="C223" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D223" t="s">
+        <v>873</v>
+      </c>
+      <c r="E223" t="s">
         <v>1162</v>
       </c>
-      <c r="D223" t="s">
-        <v>873</v>
-      </c>
-      <c r="E223" t="s">
+      <c r="F223" t="s">
         <v>1163</v>
-      </c>
-      <c r="F223" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -10822,16 +10876,16 @@
         <v>273</v>
       </c>
       <c r="C224" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D224" t="s">
+        <v>873</v>
+      </c>
+      <c r="E224" t="s">
         <v>1165</v>
       </c>
-      <c r="D224" t="s">
-        <v>873</v>
-      </c>
-      <c r="E224" t="s">
+      <c r="F224" t="s">
         <v>1166</v>
-      </c>
-      <c r="F224" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -10842,16 +10896,16 @@
         <v>274</v>
       </c>
       <c r="C225" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D225" t="s">
+        <v>873</v>
+      </c>
+      <c r="E225" t="s">
         <v>1168</v>
       </c>
-      <c r="D225" t="s">
-        <v>873</v>
-      </c>
-      <c r="E225" t="s">
+      <c r="F225" t="s">
         <v>1169</v>
-      </c>
-      <c r="F225" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -10862,16 +10916,16 @@
         <v>275</v>
       </c>
       <c r="C226" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D226" t="s">
+        <v>873</v>
+      </c>
+      <c r="E226" t="s">
         <v>1171</v>
       </c>
-      <c r="D226" t="s">
-        <v>873</v>
-      </c>
-      <c r="E226" t="s">
+      <c r="F226" t="s">
         <v>1172</v>
-      </c>
-      <c r="F226" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -10882,16 +10936,16 @@
         <v>276</v>
       </c>
       <c r="C227" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D227" t="s">
+        <v>873</v>
+      </c>
+      <c r="E227" t="s">
         <v>1174</v>
       </c>
-      <c r="D227" t="s">
-        <v>873</v>
-      </c>
-      <c r="E227" t="s">
+      <c r="F227" t="s">
         <v>1175</v>
-      </c>
-      <c r="F227" t="s">
-        <v>1176</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -10902,16 +10956,16 @@
         <v>277</v>
       </c>
       <c r="C228" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D228" t="s">
+        <v>873</v>
+      </c>
+      <c r="E228" t="s">
         <v>1177</v>
       </c>
-      <c r="D228" t="s">
-        <v>873</v>
-      </c>
-      <c r="E228" t="s">
+      <c r="F228" t="s">
         <v>1178</v>
-      </c>
-      <c r="F228" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -10922,16 +10976,16 @@
         <v>278</v>
       </c>
       <c r="C229" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D229" t="s">
+        <v>873</v>
+      </c>
+      <c r="E229" t="s">
         <v>1180</v>
       </c>
-      <c r="D229" t="s">
-        <v>873</v>
-      </c>
-      <c r="E229" t="s">
+      <c r="F229" t="s">
         <v>1181</v>
-      </c>
-      <c r="F229" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -10942,16 +10996,16 @@
         <v>279</v>
       </c>
       <c r="C230" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D230" t="s">
+        <v>873</v>
+      </c>
+      <c r="E230" t="s">
         <v>1183</v>
       </c>
-      <c r="D230" t="s">
-        <v>873</v>
-      </c>
-      <c r="E230" t="s">
+      <c r="F230" t="s">
         <v>1184</v>
-      </c>
-      <c r="F230" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -10962,16 +11016,16 @@
         <v>280</v>
       </c>
       <c r="C231" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D231" t="s">
+        <v>873</v>
+      </c>
+      <c r="E231" t="s">
         <v>1186</v>
       </c>
-      <c r="D231" t="s">
-        <v>873</v>
-      </c>
-      <c r="E231" t="s">
+      <c r="F231" t="s">
         <v>1187</v>
-      </c>
-      <c r="F231" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -10982,16 +11036,16 @@
         <v>281</v>
       </c>
       <c r="C232" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D232" t="s">
+        <v>873</v>
+      </c>
+      <c r="E232" t="s">
         <v>1189</v>
       </c>
-      <c r="D232" t="s">
-        <v>873</v>
-      </c>
-      <c r="E232" t="s">
+      <c r="F232" t="s">
         <v>1190</v>
-      </c>
-      <c r="F232" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -11002,16 +11056,16 @@
         <v>282</v>
       </c>
       <c r="C233" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D233" t="s">
+        <v>873</v>
+      </c>
+      <c r="E233" t="s">
         <v>1192</v>
       </c>
-      <c r="D233" t="s">
-        <v>873</v>
-      </c>
-      <c r="E233" t="s">
+      <c r="F233" t="s">
         <v>1193</v>
-      </c>
-      <c r="F233" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -11022,16 +11076,16 @@
         <v>283</v>
       </c>
       <c r="C234" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D234" t="s">
+        <v>873</v>
+      </c>
+      <c r="E234" t="s">
         <v>1195</v>
       </c>
-      <c r="D234" t="s">
-        <v>873</v>
-      </c>
-      <c r="E234" t="s">
+      <c r="F234" t="s">
         <v>1196</v>
-      </c>
-      <c r="F234" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -11042,16 +11096,16 @@
         <v>284</v>
       </c>
       <c r="C235" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D235" t="s">
+        <v>873</v>
+      </c>
+      <c r="E235" t="s">
         <v>1198</v>
       </c>
-      <c r="D235" t="s">
-        <v>873</v>
-      </c>
-      <c r="E235" t="s">
+      <c r="F235" t="s">
         <v>1199</v>
-      </c>
-      <c r="F235" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -11062,16 +11116,16 @@
         <v>285</v>
       </c>
       <c r="C236" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D236" t="s">
         <v>1034</v>
       </c>
       <c r="E236" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F236" t="s">
         <v>1202</v>
-      </c>
-      <c r="F236" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -11082,16 +11136,16 @@
         <v>286</v>
       </c>
       <c r="C237" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D237" t="s">
         <v>1034</v>
       </c>
       <c r="E237" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F237" t="s">
         <v>1205</v>
-      </c>
-      <c r="F237" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -11102,16 +11156,16 @@
         <v>287</v>
       </c>
       <c r="C238" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D238" t="s">
+        <v>873</v>
+      </c>
+      <c r="E238" t="s">
         <v>1207</v>
       </c>
-      <c r="D238" t="s">
-        <v>873</v>
-      </c>
-      <c r="E238" t="s">
+      <c r="F238" t="s">
         <v>1208</v>
-      </c>
-      <c r="F238" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -11122,16 +11176,16 @@
         <v>288</v>
       </c>
       <c r="C239" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D239" t="s">
+        <v>873</v>
+      </c>
+      <c r="E239" t="s">
         <v>1210</v>
       </c>
-      <c r="D239" t="s">
-        <v>873</v>
-      </c>
-      <c r="E239" t="s">
+      <c r="F239" t="s">
         <v>1211</v>
-      </c>
-      <c r="F239" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -11142,16 +11196,16 @@
         <v>289</v>
       </c>
       <c r="C240" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D240" t="s">
+        <v>873</v>
+      </c>
+      <c r="E240" t="s">
         <v>1213</v>
       </c>
-      <c r="D240" t="s">
-        <v>873</v>
-      </c>
-      <c r="E240" t="s">
+      <c r="F240" t="s">
         <v>1214</v>
-      </c>
-      <c r="F240" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -11162,16 +11216,16 @@
         <v>290</v>
       </c>
       <c r="C241" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D241" t="s">
+        <v>873</v>
+      </c>
+      <c r="E241" t="s">
         <v>1216</v>
       </c>
-      <c r="D241" t="s">
-        <v>873</v>
-      </c>
-      <c r="E241" t="s">
+      <c r="F241" t="s">
         <v>1217</v>
-      </c>
-      <c r="F241" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -11182,16 +11236,16 @@
         <v>291</v>
       </c>
       <c r="C242" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D242" t="s">
+        <v>873</v>
+      </c>
+      <c r="E242" t="s">
         <v>1219</v>
       </c>
-      <c r="D242" t="s">
-        <v>873</v>
-      </c>
-      <c r="E242" t="s">
+      <c r="F242" t="s">
         <v>1220</v>
-      </c>
-      <c r="F242" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -11202,16 +11256,16 @@
         <v>177</v>
       </c>
       <c r="C243" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D243" t="s">
+        <v>873</v>
+      </c>
+      <c r="E243" t="s">
         <v>1222</v>
       </c>
-      <c r="D243" t="s">
-        <v>873</v>
-      </c>
-      <c r="E243" t="s">
+      <c r="F243" t="s">
         <v>1223</v>
-      </c>
-      <c r="F243" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -11222,16 +11276,16 @@
         <v>292</v>
       </c>
       <c r="C244" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D244" t="s">
+        <v>873</v>
+      </c>
+      <c r="E244" t="s">
         <v>1225</v>
       </c>
-      <c r="D244" t="s">
-        <v>873</v>
-      </c>
-      <c r="E244" t="s">
+      <c r="F244" t="s">
         <v>1226</v>
-      </c>
-      <c r="F244" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -11242,16 +11296,16 @@
         <v>293</v>
       </c>
       <c r="C245" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D245" t="s">
+        <v>873</v>
+      </c>
+      <c r="E245" t="s">
         <v>1228</v>
       </c>
-      <c r="D245" t="s">
-        <v>873</v>
-      </c>
-      <c r="E245" t="s">
+      <c r="F245" t="s">
         <v>1229</v>
-      </c>
-      <c r="F245" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -11262,16 +11316,16 @@
         <v>294</v>
       </c>
       <c r="C246" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D246" t="s">
+        <v>873</v>
+      </c>
+      <c r="E246" t="s">
         <v>1231</v>
       </c>
-      <c r="D246" t="s">
-        <v>873</v>
-      </c>
-      <c r="E246" t="s">
+      <c r="F246" t="s">
         <v>1232</v>
-      </c>
-      <c r="F246" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -11282,16 +11336,16 @@
         <v>231</v>
       </c>
       <c r="C247" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D247" t="s">
+        <v>873</v>
+      </c>
+      <c r="E247" t="s">
         <v>1234</v>
       </c>
-      <c r="D247" t="s">
-        <v>873</v>
-      </c>
-      <c r="E247" t="s">
+      <c r="F247" t="s">
         <v>1235</v>
-      </c>
-      <c r="F247" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -11302,16 +11356,16 @@
         <v>253</v>
       </c>
       <c r="C248" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D248" t="s">
+        <v>873</v>
+      </c>
+      <c r="E248" t="s">
         <v>1237</v>
       </c>
-      <c r="D248" t="s">
-        <v>873</v>
-      </c>
-      <c r="E248" t="s">
+      <c r="F248" t="s">
         <v>1238</v>
-      </c>
-      <c r="F248" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -11322,16 +11376,16 @@
         <v>248</v>
       </c>
       <c r="C249" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D249" t="s">
+        <v>873</v>
+      </c>
+      <c r="E249" t="s">
         <v>1240</v>
       </c>
-      <c r="D249" t="s">
-        <v>873</v>
-      </c>
-      <c r="E249" t="s">
+      <c r="F249" t="s">
         <v>1241</v>
-      </c>
-      <c r="F249" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -11342,16 +11396,16 @@
         <v>295</v>
       </c>
       <c r="C250" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D250" t="s">
+        <v>873</v>
+      </c>
+      <c r="E250" t="s">
         <v>1243</v>
       </c>
-      <c r="D250" t="s">
-        <v>873</v>
-      </c>
-      <c r="E250" t="s">
+      <c r="F250" t="s">
         <v>1244</v>
-      </c>
-      <c r="F250" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -11362,16 +11416,16 @@
         <v>296</v>
       </c>
       <c r="C251" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D251" t="s">
+        <v>873</v>
+      </c>
+      <c r="E251" t="s">
         <v>1246</v>
       </c>
-      <c r="D251" t="s">
-        <v>873</v>
-      </c>
-      <c r="E251" t="s">
+      <c r="F251" t="s">
         <v>1247</v>
-      </c>
-      <c r="F251" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -11382,16 +11436,16 @@
         <v>297</v>
       </c>
       <c r="C252" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D252" t="s">
+        <v>873</v>
+      </c>
+      <c r="E252" t="s">
         <v>1249</v>
       </c>
-      <c r="D252" t="s">
-        <v>873</v>
-      </c>
-      <c r="E252" t="s">
+      <c r="F252" t="s">
         <v>1250</v>
-      </c>
-      <c r="F252" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -11402,16 +11456,16 @@
         <v>298</v>
       </c>
       <c r="C253" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D253" t="s">
+        <v>873</v>
+      </c>
+      <c r="E253" t="s">
         <v>1252</v>
       </c>
-      <c r="D253" t="s">
-        <v>873</v>
-      </c>
-      <c r="E253" t="s">
+      <c r="F253" t="s">
         <v>1253</v>
-      </c>
-      <c r="F253" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -11422,16 +11476,16 @@
         <v>299</v>
       </c>
       <c r="C254" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D254" t="s">
+        <v>873</v>
+      </c>
+      <c r="E254" t="s">
         <v>1255</v>
       </c>
-      <c r="D254" t="s">
-        <v>873</v>
-      </c>
-      <c r="E254" t="s">
+      <c r="F254" t="s">
         <v>1256</v>
-      </c>
-      <c r="F254" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -11442,16 +11496,16 @@
         <v>300</v>
       </c>
       <c r="C255" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D255" t="s">
+        <v>873</v>
+      </c>
+      <c r="E255" t="s">
         <v>1258</v>
       </c>
-      <c r="D255" t="s">
-        <v>873</v>
-      </c>
-      <c r="E255" t="s">
+      <c r="F255" t="s">
         <v>1259</v>
-      </c>
-      <c r="F255" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -11462,16 +11516,16 @@
         <v>301</v>
       </c>
       <c r="C256" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D256" t="s">
+        <v>873</v>
+      </c>
+      <c r="E256" t="s">
         <v>1261</v>
       </c>
-      <c r="D256" t="s">
-        <v>873</v>
-      </c>
-      <c r="E256" t="s">
+      <c r="F256" t="s">
         <v>1262</v>
-      </c>
-      <c r="F256" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -11482,16 +11536,16 @@
         <v>302</v>
       </c>
       <c r="C257" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D257" t="s">
+        <v>873</v>
+      </c>
+      <c r="E257" t="s">
         <v>1264</v>
       </c>
-      <c r="D257" t="s">
-        <v>873</v>
-      </c>
-      <c r="E257" t="s">
+      <c r="F257" t="s">
         <v>1265</v>
-      </c>
-      <c r="F257" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -11502,16 +11556,16 @@
         <v>303</v>
       </c>
       <c r="C258" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D258" t="s">
+        <v>873</v>
+      </c>
+      <c r="E258" t="s">
         <v>1267</v>
       </c>
-      <c r="D258" t="s">
-        <v>873</v>
-      </c>
-      <c r="E258" t="s">
+      <c r="F258" t="s">
         <v>1268</v>
-      </c>
-      <c r="F258" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -11522,16 +11576,16 @@
         <v>304</v>
       </c>
       <c r="C259" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D259" t="s">
+        <v>873</v>
+      </c>
+      <c r="E259" t="s">
         <v>1270</v>
       </c>
-      <c r="D259" t="s">
-        <v>873</v>
-      </c>
-      <c r="E259" t="s">
+      <c r="F259" t="s">
         <v>1271</v>
-      </c>
-      <c r="F259" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -11542,16 +11596,16 @@
         <v>305</v>
       </c>
       <c r="C260" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D260" t="s">
+        <v>873</v>
+      </c>
+      <c r="E260" t="s">
         <v>1273</v>
       </c>
-      <c r="D260" t="s">
-        <v>873</v>
-      </c>
-      <c r="E260" t="s">
+      <c r="F260" t="s">
         <v>1274</v>
-      </c>
-      <c r="F260" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -11562,16 +11616,16 @@
         <v>306</v>
       </c>
       <c r="C261" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D261" t="s">
+        <v>873</v>
+      </c>
+      <c r="E261" t="s">
         <v>1276</v>
       </c>
-      <c r="D261" t="s">
-        <v>873</v>
-      </c>
-      <c r="E261" t="s">
+      <c r="F261" t="s">
         <v>1277</v>
-      </c>
-      <c r="F261" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -11582,16 +11636,16 @@
         <v>307</v>
       </c>
       <c r="C262" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D262" t="s">
+        <v>873</v>
+      </c>
+      <c r="E262" t="s">
         <v>1279</v>
       </c>
-      <c r="D262" t="s">
-        <v>873</v>
-      </c>
-      <c r="E262" t="s">
+      <c r="F262" t="s">
         <v>1280</v>
-      </c>
-      <c r="F262" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -11602,16 +11656,16 @@
         <v>308</v>
       </c>
       <c r="C263" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D263" t="s">
+        <v>873</v>
+      </c>
+      <c r="E263" t="s">
         <v>1282</v>
       </c>
-      <c r="D263" t="s">
-        <v>873</v>
-      </c>
-      <c r="E263" t="s">
+      <c r="F263" t="s">
         <v>1283</v>
-      </c>
-      <c r="F263" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -11622,16 +11676,16 @@
         <v>309</v>
       </c>
       <c r="C264" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D264" t="s">
+        <v>873</v>
+      </c>
+      <c r="E264" t="s">
         <v>1285</v>
       </c>
-      <c r="D264" t="s">
-        <v>873</v>
-      </c>
-      <c r="E264" t="s">
+      <c r="F264" t="s">
         <v>1286</v>
-      </c>
-      <c r="F264" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -11642,16 +11696,16 @@
         <v>310</v>
       </c>
       <c r="C265" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D265" t="s">
+        <v>873</v>
+      </c>
+      <c r="E265" t="s">
         <v>1288</v>
       </c>
-      <c r="D265" t="s">
-        <v>873</v>
-      </c>
-      <c r="E265" t="s">
+      <c r="F265" t="s">
         <v>1289</v>
-      </c>
-      <c r="F265" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -11662,16 +11716,16 @@
         <v>311</v>
       </c>
       <c r="C266" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D266" t="s">
+        <v>873</v>
+      </c>
+      <c r="E266" t="s">
         <v>1291</v>
       </c>
-      <c r="D266" t="s">
-        <v>873</v>
-      </c>
-      <c r="E266" t="s">
+      <c r="F266" t="s">
         <v>1292</v>
-      </c>
-      <c r="F266" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -11682,16 +11736,16 @@
         <v>312</v>
       </c>
       <c r="C267" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D267" t="s">
+        <v>873</v>
+      </c>
+      <c r="E267" t="s">
         <v>1294</v>
       </c>
-      <c r="D267" t="s">
-        <v>873</v>
-      </c>
-      <c r="E267" t="s">
+      <c r="F267" t="s">
         <v>1295</v>
-      </c>
-      <c r="F267" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -11702,16 +11756,16 @@
         <v>313</v>
       </c>
       <c r="C268" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D268" t="s">
+        <v>873</v>
+      </c>
+      <c r="E268" t="s">
         <v>1297</v>
       </c>
-      <c r="D268" t="s">
-        <v>873</v>
-      </c>
-      <c r="E268" t="s">
+      <c r="F268" t="s">
         <v>1298</v>
-      </c>
-      <c r="F268" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -11722,16 +11776,16 @@
         <v>314</v>
       </c>
       <c r="C269" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D269" t="s">
+        <v>873</v>
+      </c>
+      <c r="E269" t="s">
         <v>1300</v>
       </c>
-      <c r="D269" t="s">
-        <v>873</v>
-      </c>
-      <c r="E269" t="s">
+      <c r="F269" t="s">
         <v>1301</v>
-      </c>
-      <c r="F269" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -11742,16 +11796,16 @@
         <v>315</v>
       </c>
       <c r="C270" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D270" t="s">
+        <v>873</v>
+      </c>
+      <c r="E270" t="s">
         <v>1303</v>
       </c>
-      <c r="D270" t="s">
-        <v>873</v>
-      </c>
-      <c r="E270" t="s">
+      <c r="F270" t="s">
         <v>1304</v>
-      </c>
-      <c r="F270" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -11762,16 +11816,16 @@
         <v>316</v>
       </c>
       <c r="C271" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D271" t="s">
+        <v>873</v>
+      </c>
+      <c r="E271" t="s">
         <v>1306</v>
       </c>
-      <c r="D271" t="s">
-        <v>873</v>
-      </c>
-      <c r="E271" t="s">
+      <c r="F271" t="s">
         <v>1307</v>
-      </c>
-      <c r="F271" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -11782,16 +11836,16 @@
         <v>317</v>
       </c>
       <c r="C272" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D272" t="s">
+        <v>873</v>
+      </c>
+      <c r="E272" t="s">
         <v>1309</v>
       </c>
-      <c r="D272" t="s">
-        <v>873</v>
-      </c>
-      <c r="E272" t="s">
+      <c r="F272" t="s">
         <v>1310</v>
-      </c>
-      <c r="F272" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -11802,16 +11856,16 @@
         <v>318</v>
       </c>
       <c r="C273" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D273" t="s">
+        <v>873</v>
+      </c>
+      <c r="E273" t="s">
         <v>1312</v>
       </c>
-      <c r="D273" t="s">
-        <v>873</v>
-      </c>
-      <c r="E273" t="s">
+      <c r="F273" t="s">
         <v>1313</v>
-      </c>
-      <c r="F273" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -11822,16 +11876,16 @@
         <v>319</v>
       </c>
       <c r="C274" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="D274" t="s">
         <v>1034</v>
       </c>
       <c r="E274" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F274" t="s">
         <v>1316</v>
-      </c>
-      <c r="F274" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -11842,16 +11896,16 @@
         <v>320</v>
       </c>
       <c r="C275" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D275" t="s">
         <v>1034</v>
       </c>
       <c r="E275" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F275" t="s">
         <v>1319</v>
-      </c>
-      <c r="F275" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -11862,16 +11916,16 @@
         <v>321</v>
       </c>
       <c r="C276" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D276" t="s">
         <v>1034</v>
       </c>
       <c r="E276" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F276" t="s">
         <v>1322</v>
-      </c>
-      <c r="F276" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -11882,16 +11936,16 @@
         <v>322</v>
       </c>
       <c r="C277" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D277" t="s">
         <v>1034</v>
       </c>
       <c r="E277" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F277" t="s">
         <v>1325</v>
-      </c>
-      <c r="F277" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -11902,16 +11956,16 @@
         <v>323</v>
       </c>
       <c r="C278" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D278" t="s">
+        <v>873</v>
+      </c>
+      <c r="E278" t="s">
         <v>1327</v>
       </c>
-      <c r="D278" t="s">
-        <v>873</v>
-      </c>
-      <c r="E278" t="s">
+      <c r="F278" t="s">
         <v>1328</v>
-      </c>
-      <c r="F278" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -11922,16 +11976,16 @@
         <v>324</v>
       </c>
       <c r="C279" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D279" t="s">
+        <v>873</v>
+      </c>
+      <c r="E279" t="s">
         <v>1330</v>
       </c>
-      <c r="D279" t="s">
-        <v>873</v>
-      </c>
-      <c r="E279" t="s">
+      <c r="F279" t="s">
         <v>1331</v>
-      </c>
-      <c r="F279" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -11942,16 +11996,16 @@
         <v>325</v>
       </c>
       <c r="C280" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D280" t="s">
+        <v>873</v>
+      </c>
+      <c r="E280" t="s">
         <v>1333</v>
       </c>
-      <c r="D280" t="s">
-        <v>873</v>
-      </c>
-      <c r="E280" t="s">
+      <c r="F280" t="s">
         <v>1334</v>
-      </c>
-      <c r="F280" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -11962,16 +12016,16 @@
         <v>326</v>
       </c>
       <c r="C281" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D281" t="s">
+        <v>873</v>
+      </c>
+      <c r="E281" t="s">
         <v>1336</v>
       </c>
-      <c r="D281" t="s">
-        <v>873</v>
-      </c>
-      <c r="E281" t="s">
+      <c r="F281" t="s">
         <v>1337</v>
-      </c>
-      <c r="F281" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -11982,16 +12036,16 @@
         <v>327</v>
       </c>
       <c r="C282" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D282" t="s">
+        <v>873</v>
+      </c>
+      <c r="E282" t="s">
         <v>1339</v>
       </c>
-      <c r="D282" t="s">
-        <v>873</v>
-      </c>
-      <c r="E282" t="s">
+      <c r="F282" t="s">
         <v>1340</v>
-      </c>
-      <c r="F282" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -12002,16 +12056,16 @@
         <v>328</v>
       </c>
       <c r="C283" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D283" t="s">
+        <v>873</v>
+      </c>
+      <c r="E283" t="s">
         <v>1342</v>
       </c>
-      <c r="D283" t="s">
-        <v>873</v>
-      </c>
-      <c r="E283" t="s">
+      <c r="F283" t="s">
         <v>1343</v>
-      </c>
-      <c r="F283" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -12022,16 +12076,16 @@
         <v>329</v>
       </c>
       <c r="C284" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D284" t="s">
+        <v>873</v>
+      </c>
+      <c r="E284" t="s">
         <v>1345</v>
       </c>
-      <c r="D284" t="s">
-        <v>873</v>
-      </c>
-      <c r="E284" t="s">
+      <c r="F284" t="s">
         <v>1346</v>
-      </c>
-      <c r="F284" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -12042,16 +12096,16 @@
         <v>330</v>
       </c>
       <c r="C285" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D285" t="s">
+        <v>873</v>
+      </c>
+      <c r="E285" t="s">
         <v>1348</v>
       </c>
-      <c r="D285" t="s">
-        <v>873</v>
-      </c>
-      <c r="E285" t="s">
+      <c r="F285" t="s">
         <v>1349</v>
-      </c>
-      <c r="F285" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -12062,16 +12116,16 @@
         <v>331</v>
       </c>
       <c r="C286" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D286" t="s">
+        <v>873</v>
+      </c>
+      <c r="E286" t="s">
         <v>1351</v>
       </c>
-      <c r="D286" t="s">
-        <v>873</v>
-      </c>
-      <c r="E286" t="s">
+      <c r="F286" t="s">
         <v>1352</v>
-      </c>
-      <c r="F286" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -12082,16 +12136,16 @@
         <v>332</v>
       </c>
       <c r="C287" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D287" t="s">
+        <v>873</v>
+      </c>
+      <c r="E287" t="s">
         <v>1354</v>
       </c>
-      <c r="D287" t="s">
-        <v>873</v>
-      </c>
-      <c r="E287" t="s">
+      <c r="F287" t="s">
         <v>1355</v>
-      </c>
-      <c r="F287" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -12102,16 +12156,16 @@
         <v>333</v>
       </c>
       <c r="C288" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D288" t="s">
+        <v>873</v>
+      </c>
+      <c r="E288" t="s">
         <v>1357</v>
       </c>
-      <c r="D288" t="s">
-        <v>873</v>
-      </c>
-      <c r="E288" t="s">
+      <c r="F288" t="s">
         <v>1358</v>
-      </c>
-      <c r="F288" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -12122,16 +12176,16 @@
         <v>334</v>
       </c>
       <c r="C289" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D289" t="s">
+        <v>873</v>
+      </c>
+      <c r="E289" t="s">
         <v>1360</v>
       </c>
-      <c r="D289" t="s">
-        <v>873</v>
-      </c>
-      <c r="E289" t="s">
+      <c r="F289" t="s">
         <v>1361</v>
-      </c>
-      <c r="F289" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -12142,16 +12196,16 @@
         <v>335</v>
       </c>
       <c r="C290" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D290" t="s">
+        <v>873</v>
+      </c>
+      <c r="E290" t="s">
         <v>1363</v>
       </c>
-      <c r="D290" t="s">
-        <v>873</v>
-      </c>
-      <c r="E290" t="s">
+      <c r="F290" t="s">
         <v>1364</v>
-      </c>
-      <c r="F290" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -12162,16 +12216,16 @@
         <v>336</v>
       </c>
       <c r="C291" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D291" t="s">
+        <v>873</v>
+      </c>
+      <c r="E291" t="s">
         <v>1366</v>
       </c>
-      <c r="D291" t="s">
-        <v>873</v>
-      </c>
-      <c r="E291" t="s">
+      <c r="F291" t="s">
         <v>1367</v>
-      </c>
-      <c r="F291" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -12182,16 +12236,16 @@
         <v>337</v>
       </c>
       <c r="C292" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D292" t="s">
+        <v>873</v>
+      </c>
+      <c r="E292" t="s">
         <v>1369</v>
       </c>
-      <c r="D292" t="s">
-        <v>873</v>
-      </c>
-      <c r="E292" t="s">
+      <c r="F292" t="s">
         <v>1370</v>
-      </c>
-      <c r="F292" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -12202,16 +12256,16 @@
         <v>338</v>
       </c>
       <c r="C293" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D293" t="s">
+        <v>873</v>
+      </c>
+      <c r="E293" t="s">
         <v>1372</v>
       </c>
-      <c r="D293" t="s">
-        <v>873</v>
-      </c>
-      <c r="E293" t="s">
+      <c r="F293" t="s">
         <v>1373</v>
-      </c>
-      <c r="F293" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -12222,16 +12276,16 @@
         <v>339</v>
       </c>
       <c r="C294" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D294" t="s">
+        <v>873</v>
+      </c>
+      <c r="E294" t="s">
         <v>1375</v>
       </c>
-      <c r="D294" t="s">
-        <v>873</v>
-      </c>
-      <c r="E294" t="s">
+      <c r="F294" t="s">
         <v>1376</v>
-      </c>
-      <c r="F294" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -12242,16 +12296,16 @@
         <v>340</v>
       </c>
       <c r="C295" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D295" t="s">
+        <v>873</v>
+      </c>
+      <c r="E295" t="s">
         <v>1378</v>
       </c>
-      <c r="D295" t="s">
-        <v>873</v>
-      </c>
-      <c r="E295" t="s">
+      <c r="F295" t="s">
         <v>1379</v>
-      </c>
-      <c r="F295" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -12262,16 +12316,16 @@
         <v>341</v>
       </c>
       <c r="C296" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D296" t="s">
+        <v>873</v>
+      </c>
+      <c r="E296" t="s">
         <v>1381</v>
       </c>
-      <c r="D296" t="s">
-        <v>873</v>
-      </c>
-      <c r="E296" t="s">
+      <c r="F296" t="s">
         <v>1382</v>
-      </c>
-      <c r="F296" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -12282,16 +12336,16 @@
         <v>342</v>
       </c>
       <c r="C297" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D297" t="s">
+        <v>873</v>
+      </c>
+      <c r="E297" t="s">
         <v>1384</v>
       </c>
-      <c r="D297" t="s">
-        <v>873</v>
-      </c>
-      <c r="E297" t="s">
+      <c r="F297" t="s">
         <v>1385</v>
-      </c>
-      <c r="F297" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -12302,16 +12356,16 @@
         <v>343</v>
       </c>
       <c r="C298" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D298" t="s">
+        <v>873</v>
+      </c>
+      <c r="E298" t="s">
         <v>1387</v>
       </c>
-      <c r="D298" t="s">
-        <v>873</v>
-      </c>
-      <c r="E298" t="s">
+      <c r="F298" t="s">
         <v>1388</v>
-      </c>
-      <c r="F298" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -12322,16 +12376,16 @@
         <v>344</v>
       </c>
       <c r="C299" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D299" t="s">
+        <v>873</v>
+      </c>
+      <c r="E299" t="s">
         <v>1390</v>
       </c>
-      <c r="D299" t="s">
-        <v>873</v>
-      </c>
-      <c r="E299" t="s">
+      <c r="F299" t="s">
         <v>1391</v>
-      </c>
-      <c r="F299" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -12342,16 +12396,16 @@
         <v>345</v>
       </c>
       <c r="C300" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D300" t="s">
+        <v>873</v>
+      </c>
+      <c r="E300" t="s">
         <v>1393</v>
       </c>
-      <c r="D300" t="s">
-        <v>873</v>
-      </c>
-      <c r="E300" t="s">
+      <c r="F300" t="s">
         <v>1394</v>
-      </c>
-      <c r="F300" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -12362,16 +12416,16 @@
         <v>346</v>
       </c>
       <c r="C301" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D301" t="s">
+        <v>873</v>
+      </c>
+      <c r="E301" t="s">
         <v>1396</v>
       </c>
-      <c r="D301" t="s">
-        <v>873</v>
-      </c>
-      <c r="E301" t="s">
+      <c r="F301" t="s">
         <v>1397</v>
-      </c>
-      <c r="F301" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -12382,16 +12436,16 @@
         <v>347</v>
       </c>
       <c r="C302" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D302" t="s">
+        <v>873</v>
+      </c>
+      <c r="E302" t="s">
         <v>1399</v>
       </c>
-      <c r="D302" t="s">
-        <v>873</v>
-      </c>
-      <c r="E302" t="s">
+      <c r="F302" t="s">
         <v>1400</v>
-      </c>
-      <c r="F302" t="s">
-        <v>1401</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -12402,16 +12456,16 @@
         <v>348</v>
       </c>
       <c r="C303" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D303" t="s">
+        <v>873</v>
+      </c>
+      <c r="E303" t="s">
         <v>1402</v>
       </c>
-      <c r="D303" t="s">
-        <v>873</v>
-      </c>
-      <c r="E303" t="s">
+      <c r="F303" t="s">
         <v>1403</v>
-      </c>
-      <c r="F303" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -12422,16 +12476,16 @@
         <v>349</v>
       </c>
       <c r="C304" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D304" t="s">
+        <v>873</v>
+      </c>
+      <c r="E304" t="s">
         <v>1405</v>
       </c>
-      <c r="D304" t="s">
-        <v>873</v>
-      </c>
-      <c r="E304" t="s">
+      <c r="F304" t="s">
         <v>1406</v>
-      </c>
-      <c r="F304" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -12442,16 +12496,16 @@
         <v>350</v>
       </c>
       <c r="C305" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D305" t="s">
+        <v>873</v>
+      </c>
+      <c r="E305" t="s">
         <v>1408</v>
       </c>
-      <c r="D305" t="s">
-        <v>873</v>
-      </c>
-      <c r="E305" t="s">
+      <c r="F305" t="s">
         <v>1409</v>
-      </c>
-      <c r="F305" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -12462,16 +12516,16 @@
         <v>351</v>
       </c>
       <c r="C306" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D306" t="s">
+        <v>873</v>
+      </c>
+      <c r="E306" t="s">
         <v>1411</v>
       </c>
-      <c r="D306" t="s">
-        <v>873</v>
-      </c>
-      <c r="E306" t="s">
+      <c r="F306" t="s">
         <v>1412</v>
-      </c>
-      <c r="F306" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -12482,16 +12536,16 @@
         <v>352</v>
       </c>
       <c r="C307" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D307" t="s">
+        <v>873</v>
+      </c>
+      <c r="E307" t="s">
         <v>1414</v>
       </c>
-      <c r="D307" t="s">
-        <v>873</v>
-      </c>
-      <c r="E307" t="s">
+      <c r="F307" t="s">
         <v>1415</v>
-      </c>
-      <c r="F307" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -12502,16 +12556,16 @@
         <v>353</v>
       </c>
       <c r="C308" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D308" t="s">
+        <v>873</v>
+      </c>
+      <c r="E308" t="s">
         <v>1417</v>
       </c>
-      <c r="D308" t="s">
-        <v>873</v>
-      </c>
-      <c r="E308" t="s">
+      <c r="F308" t="s">
         <v>1418</v>
-      </c>
-      <c r="F308" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -12522,16 +12576,16 @@
         <v>354</v>
       </c>
       <c r="C309" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D309" t="s">
+        <v>873</v>
+      </c>
+      <c r="E309" t="s">
         <v>1420</v>
       </c>
-      <c r="D309" t="s">
-        <v>873</v>
-      </c>
-      <c r="E309" t="s">
+      <c r="F309" t="s">
         <v>1421</v>
-      </c>
-      <c r="F309" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -12542,16 +12596,16 @@
         <v>355</v>
       </c>
       <c r="C310" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D310" t="s">
+        <v>873</v>
+      </c>
+      <c r="E310" t="s">
         <v>1423</v>
       </c>
-      <c r="D310" t="s">
-        <v>873</v>
-      </c>
-      <c r="E310" t="s">
+      <c r="F310" t="s">
         <v>1424</v>
-      </c>
-      <c r="F310" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -12562,16 +12616,16 @@
         <v>356</v>
       </c>
       <c r="C311" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D311" t="s">
+        <v>873</v>
+      </c>
+      <c r="E311" t="s">
         <v>1426</v>
       </c>
-      <c r="D311" t="s">
-        <v>873</v>
-      </c>
-      <c r="E311" t="s">
+      <c r="F311" t="s">
         <v>1427</v>
-      </c>
-      <c r="F311" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -12582,16 +12636,16 @@
         <v>357</v>
       </c>
       <c r="C312" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D312" t="s">
+        <v>873</v>
+      </c>
+      <c r="E312" t="s">
         <v>1429</v>
       </c>
-      <c r="D312" t="s">
-        <v>873</v>
-      </c>
-      <c r="E312" t="s">
+      <c r="F312" t="s">
         <v>1430</v>
-      </c>
-      <c r="F312" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -12602,16 +12656,16 @@
         <v>358</v>
       </c>
       <c r="C313" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D313" t="s">
+        <v>873</v>
+      </c>
+      <c r="E313" t="s">
         <v>1432</v>
       </c>
-      <c r="D313" t="s">
-        <v>873</v>
-      </c>
-      <c r="E313" t="s">
+      <c r="F313" t="s">
         <v>1433</v>
-      </c>
-      <c r="F313" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -12622,16 +12676,16 @@
         <v>359</v>
       </c>
       <c r="C314" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D314" t="s">
+        <v>873</v>
+      </c>
+      <c r="E314" t="s">
         <v>1435</v>
       </c>
-      <c r="D314" t="s">
-        <v>873</v>
-      </c>
-      <c r="E314" t="s">
+      <c r="F314" t="s">
         <v>1436</v>
-      </c>
-      <c r="F314" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -12642,16 +12696,16 @@
         <v>360</v>
       </c>
       <c r="C315" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D315" t="s">
         <v>1034</v>
       </c>
       <c r="E315" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F315" t="s">
         <v>1439</v>
-      </c>
-      <c r="F315" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -12662,7 +12716,7 @@
         <v>361</v>
       </c>
       <c r="C316" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D316" t="s">
         <v>1034</v>
@@ -12682,16 +12736,16 @@
         <v>362</v>
       </c>
       <c r="C317" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D317" t="s">
         <v>1034</v>
       </c>
       <c r="E317" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F317" t="s">
         <v>1443</v>
-      </c>
-      <c r="F317" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -12702,16 +12756,16 @@
         <v>363</v>
       </c>
       <c r="C318" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D318" t="s">
         <v>873</v>
       </c>
       <c r="E318" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F318" t="s">
         <v>1445</v>
-      </c>
-      <c r="F318" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -12722,16 +12776,16 @@
         <v>319</v>
       </c>
       <c r="C319" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D319" t="s">
+        <v>873</v>
+      </c>
+      <c r="E319" t="s">
         <v>1447</v>
       </c>
-      <c r="D319" t="s">
-        <v>873</v>
-      </c>
-      <c r="E319" t="s">
+      <c r="F319" t="s">
         <v>1448</v>
-      </c>
-      <c r="F319" t="s">
-        <v>1449</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -12742,16 +12796,16 @@
         <v>364</v>
       </c>
       <c r="C320" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D320" t="s">
+        <v>873</v>
+      </c>
+      <c r="E320" t="s">
         <v>1450</v>
       </c>
-      <c r="D320" t="s">
-        <v>873</v>
-      </c>
-      <c r="E320" t="s">
+      <c r="F320" t="s">
         <v>1451</v>
-      </c>
-      <c r="F320" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -12762,16 +12816,16 @@
         <v>365</v>
       </c>
       <c r="C321" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D321" t="s">
+        <v>873</v>
+      </c>
+      <c r="E321" t="s">
         <v>1453</v>
       </c>
-      <c r="D321" t="s">
-        <v>873</v>
-      </c>
-      <c r="E321" t="s">
+      <c r="F321" t="s">
         <v>1454</v>
-      </c>
-      <c r="F321" t="s">
-        <v>1455</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -12782,16 +12836,16 @@
         <v>366</v>
       </c>
       <c r="C322" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D322" t="s">
+        <v>873</v>
+      </c>
+      <c r="E322" t="s">
         <v>1456</v>
       </c>
-      <c r="D322" t="s">
-        <v>873</v>
-      </c>
-      <c r="E322" t="s">
+      <c r="F322" t="s">
         <v>1457</v>
-      </c>
-      <c r="F322" t="s">
-        <v>1458</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -12802,16 +12856,16 @@
         <v>367</v>
       </c>
       <c r="C323" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D323" t="s">
+        <v>873</v>
+      </c>
+      <c r="E323" t="s">
         <v>1459</v>
       </c>
-      <c r="D323" t="s">
-        <v>873</v>
-      </c>
-      <c r="E323" t="s">
+      <c r="F323" t="s">
         <v>1460</v>
-      </c>
-      <c r="F323" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -12822,16 +12876,16 @@
         <v>368</v>
       </c>
       <c r="C324" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D324" t="s">
+        <v>873</v>
+      </c>
+      <c r="E324" t="s">
         <v>1462</v>
       </c>
-      <c r="D324" t="s">
-        <v>873</v>
-      </c>
-      <c r="E324" t="s">
+      <c r="F324" t="s">
         <v>1463</v>
-      </c>
-      <c r="F324" t="s">
-        <v>1464</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -12842,16 +12896,16 @@
         <v>369</v>
       </c>
       <c r="C325" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D325" t="s">
+        <v>873</v>
+      </c>
+      <c r="E325" t="s">
         <v>1465</v>
       </c>
-      <c r="D325" t="s">
-        <v>873</v>
-      </c>
-      <c r="E325" t="s">
+      <c r="F325" t="s">
         <v>1466</v>
-      </c>
-      <c r="F325" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -12862,16 +12916,16 @@
         <v>370</v>
       </c>
       <c r="C326" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D326" t="s">
+        <v>873</v>
+      </c>
+      <c r="E326" t="s">
         <v>1468</v>
       </c>
-      <c r="D326" t="s">
-        <v>873</v>
-      </c>
-      <c r="E326" t="s">
+      <c r="F326" t="s">
         <v>1469</v>
-      </c>
-      <c r="F326" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -12882,16 +12936,16 @@
         <v>371</v>
       </c>
       <c r="C327" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E327" t="s">
         <v>1471</v>
       </c>
-      <c r="D327" t="s">
-        <v>873</v>
-      </c>
-      <c r="E327" t="s">
+      <c r="F327" t="s">
         <v>1472</v>
-      </c>
-      <c r="F327" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -12902,16 +12956,16 @@
         <v>372</v>
       </c>
       <c r="C328" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E328" t="s">
         <v>1474</v>
       </c>
-      <c r="D328" t="s">
-        <v>873</v>
-      </c>
-      <c r="E328" t="s">
+      <c r="F328" t="s">
         <v>1475</v>
-      </c>
-      <c r="F328" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -12922,16 +12976,16 @@
         <v>373</v>
       </c>
       <c r="C329" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E329" t="s">
         <v>1477</v>
       </c>
-      <c r="D329" t="s">
-        <v>873</v>
-      </c>
-      <c r="E329" t="s">
+      <c r="F329" t="s">
         <v>1478</v>
-      </c>
-      <c r="F329" t="s">
-        <v>1479</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -12942,16 +12996,16 @@
         <v>374</v>
       </c>
       <c r="C330" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D330" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E330" t="s">
         <v>1480</v>
       </c>
-      <c r="D330" t="s">
-        <v>873</v>
-      </c>
-      <c r="E330" t="s">
+      <c r="F330" t="s">
         <v>1481</v>
-      </c>
-      <c r="F330" t="s">
-        <v>1482</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -12962,16 +13016,16 @@
         <v>375</v>
       </c>
       <c r="C331" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D331" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E331" t="s">
         <v>1483</v>
       </c>
-      <c r="D331" t="s">
-        <v>873</v>
-      </c>
-      <c r="E331" t="s">
+      <c r="F331" t="s">
         <v>1484</v>
-      </c>
-      <c r="F331" t="s">
-        <v>1485</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -12982,16 +13036,16 @@
         <v>376</v>
       </c>
       <c r="C332" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E332" t="s">
         <v>1486</v>
       </c>
-      <c r="D332" t="s">
-        <v>873</v>
-      </c>
-      <c r="E332" t="s">
+      <c r="F332" t="s">
         <v>1487</v>
-      </c>
-      <c r="F332" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -13002,16 +13056,16 @@
         <v>377</v>
       </c>
       <c r="C333" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D333" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E333" t="s">
         <v>1489</v>
       </c>
-      <c r="D333" t="s">
-        <v>873</v>
-      </c>
-      <c r="E333" t="s">
+      <c r="F333" t="s">
         <v>1490</v>
-      </c>
-      <c r="F333" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -13022,16 +13076,16 @@
         <v>378</v>
       </c>
       <c r="C334" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E334" t="s">
         <v>1492</v>
       </c>
-      <c r="D334" t="s">
-        <v>873</v>
-      </c>
-      <c r="E334" t="s">
+      <c r="F334" t="s">
         <v>1493</v>
-      </c>
-      <c r="F334" t="s">
-        <v>1494</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -13042,16 +13096,16 @@
         <v>379</v>
       </c>
       <c r="C335" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E335" t="s">
         <v>1495</v>
       </c>
-      <c r="D335" t="s">
-        <v>873</v>
-      </c>
-      <c r="E335" t="s">
+      <c r="F335" t="s">
         <v>1496</v>
-      </c>
-      <c r="F335" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -13062,16 +13116,16 @@
         <v>380</v>
       </c>
       <c r="C336" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D336" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E336" t="s">
         <v>1498</v>
       </c>
-      <c r="D336" t="s">
-        <v>873</v>
-      </c>
-      <c r="E336" t="s">
+      <c r="F336" t="s">
         <v>1499</v>
-      </c>
-      <c r="F336" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -13082,16 +13136,16 @@
         <v>381</v>
       </c>
       <c r="C337" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D337" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E337" t="s">
         <v>1501</v>
       </c>
-      <c r="D337" t="s">
-        <v>873</v>
-      </c>
-      <c r="E337" t="s">
+      <c r="F337" t="s">
         <v>1502</v>
-      </c>
-      <c r="F337" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -13102,16 +13156,16 @@
         <v>382</v>
       </c>
       <c r="C338" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D338" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E338" t="s">
         <v>1504</v>
       </c>
-      <c r="D338" t="s">
-        <v>873</v>
-      </c>
-      <c r="E338" t="s">
+      <c r="F338" t="s">
         <v>1505</v>
-      </c>
-      <c r="F338" t="s">
-        <v>1506</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -13122,16 +13176,16 @@
         <v>383</v>
       </c>
       <c r="C339" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E339" t="s">
         <v>1507</v>
       </c>
-      <c r="D339" t="s">
-        <v>873</v>
-      </c>
-      <c r="E339" t="s">
+      <c r="F339" t="s">
         <v>1508</v>
-      </c>
-      <c r="F339" t="s">
-        <v>1509</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -13142,16 +13196,16 @@
         <v>384</v>
       </c>
       <c r="C340" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E340" t="s">
         <v>1510</v>
       </c>
-      <c r="D340" t="s">
-        <v>873</v>
-      </c>
-      <c r="E340" t="s">
+      <c r="F340" t="s">
         <v>1511</v>
-      </c>
-      <c r="F340" t="s">
-        <v>1512</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -13162,16 +13216,16 @@
         <v>385</v>
       </c>
       <c r="C341" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D341" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E341" t="s">
         <v>1513</v>
       </c>
-      <c r="D341" t="s">
-        <v>873</v>
-      </c>
-      <c r="E341" t="s">
+      <c r="F341" t="s">
         <v>1514</v>
-      </c>
-      <c r="F341" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -13182,16 +13236,16 @@
         <v>386</v>
       </c>
       <c r="C342" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D342" t="s">
+        <v>873</v>
+      </c>
+      <c r="E342" t="s">
         <v>1516</v>
       </c>
-      <c r="D342" t="s">
-        <v>873</v>
-      </c>
-      <c r="E342" t="s">
+      <c r="F342" t="s">
         <v>1517</v>
-      </c>
-      <c r="F342" t="s">
-        <v>1518</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -13202,16 +13256,16 @@
         <v>387</v>
       </c>
       <c r="C343" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D343" t="s">
+        <v>873</v>
+      </c>
+      <c r="E343" t="s">
         <v>1519</v>
       </c>
-      <c r="D343" t="s">
-        <v>873</v>
-      </c>
-      <c r="E343" t="s">
+      <c r="F343" t="s">
         <v>1520</v>
-      </c>
-      <c r="F343" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -13222,16 +13276,16 @@
         <v>388</v>
       </c>
       <c r="C344" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D344" t="s">
+        <v>873</v>
+      </c>
+      <c r="E344" t="s">
         <v>1522</v>
       </c>
-      <c r="D344" t="s">
-        <v>873</v>
-      </c>
-      <c r="E344" t="s">
+      <c r="F344" t="s">
         <v>1523</v>
-      </c>
-      <c r="F344" t="s">
-        <v>1524</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -13242,16 +13296,16 @@
         <v>389</v>
       </c>
       <c r="C345" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D345" t="s">
+        <v>873</v>
+      </c>
+      <c r="E345" t="s">
         <v>1525</v>
       </c>
-      <c r="D345" t="s">
-        <v>873</v>
-      </c>
-      <c r="E345" t="s">
+      <c r="F345" t="s">
         <v>1526</v>
-      </c>
-      <c r="F345" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -13262,16 +13316,16 @@
         <v>390</v>
       </c>
       <c r="C346" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D346" t="s">
+        <v>873</v>
+      </c>
+      <c r="E346" t="s">
         <v>1528</v>
       </c>
-      <c r="D346" t="s">
-        <v>873</v>
-      </c>
-      <c r="E346" t="s">
+      <c r="F346" t="s">
         <v>1529</v>
-      </c>
-      <c r="F346" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -13282,13 +13336,13 @@
         <v>391</v>
       </c>
       <c r="C347" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D347" t="s">
+        <v>873</v>
+      </c>
+      <c r="E347" t="s">
         <v>1531</v>
-      </c>
-      <c r="D347" t="s">
-        <v>873</v>
-      </c>
-      <c r="E347" t="s">
-        <v>1532</v>
       </c>
       <c r="F347" t="s">
         <v>60</v>
@@ -13302,16 +13356,16 @@
         <v>392</v>
       </c>
       <c r="C348" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D348" t="s">
         <v>873</v>
       </c>
       <c r="E348" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="F348" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -13322,16 +13376,16 @@
         <v>393</v>
       </c>
       <c r="C349" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D349" t="s">
+        <v>873</v>
+      </c>
+      <c r="E349" t="s">
         <v>1534</v>
       </c>
-      <c r="D349" t="s">
-        <v>873</v>
-      </c>
-      <c r="E349" t="s">
+      <c r="F349" t="s">
         <v>1535</v>
-      </c>
-      <c r="F349" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -13342,16 +13396,16 @@
         <v>394</v>
       </c>
       <c r="C350" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D350" t="s">
+        <v>873</v>
+      </c>
+      <c r="E350" t="s">
         <v>1537</v>
       </c>
-      <c r="D350" t="s">
-        <v>873</v>
-      </c>
-      <c r="E350" t="s">
+      <c r="F350" t="s">
         <v>1538</v>
-      </c>
-      <c r="F350" t="s">
-        <v>1539</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -13362,16 +13416,16 @@
         <v>395</v>
       </c>
       <c r="C351" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D351" t="s">
+        <v>873</v>
+      </c>
+      <c r="E351" t="s">
         <v>1540</v>
       </c>
-      <c r="D351" t="s">
-        <v>873</v>
-      </c>
-      <c r="E351" t="s">
+      <c r="F351" t="s">
         <v>1541</v>
-      </c>
-      <c r="F351" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -13382,16 +13436,16 @@
         <v>396</v>
       </c>
       <c r="C352" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D352" t="s">
+        <v>873</v>
+      </c>
+      <c r="E352" t="s">
         <v>1543</v>
       </c>
-      <c r="D352" t="s">
-        <v>873</v>
-      </c>
-      <c r="E352" t="s">
+      <c r="F352" t="s">
         <v>1544</v>
-      </c>
-      <c r="F352" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -13402,16 +13456,16 @@
         <v>397</v>
       </c>
       <c r="C353" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D353" t="s">
+        <v>873</v>
+      </c>
+      <c r="E353" t="s">
         <v>1546</v>
       </c>
-      <c r="D353" t="s">
-        <v>873</v>
-      </c>
-      <c r="E353" t="s">
+      <c r="F353" t="s">
         <v>1547</v>
-      </c>
-      <c r="F353" t="s">
-        <v>1548</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -13422,16 +13476,16 @@
         <v>398</v>
       </c>
       <c r="C354" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D354" t="s">
+        <v>873</v>
+      </c>
+      <c r="E354" t="s">
         <v>1549</v>
       </c>
-      <c r="D354" t="s">
-        <v>873</v>
-      </c>
-      <c r="E354" t="s">
+      <c r="F354" t="s">
         <v>1550</v>
-      </c>
-      <c r="F354" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -13442,16 +13496,16 @@
         <v>399</v>
       </c>
       <c r="C355" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D355" t="s">
+        <v>873</v>
+      </c>
+      <c r="E355" t="s">
         <v>1552</v>
       </c>
-      <c r="D355" t="s">
-        <v>873</v>
-      </c>
-      <c r="E355" t="s">
+      <c r="F355" t="s">
         <v>1553</v>
-      </c>
-      <c r="F355" t="s">
-        <v>1554</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -13462,16 +13516,16 @@
         <v>400</v>
       </c>
       <c r="C356" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D356" t="s">
+        <v>873</v>
+      </c>
+      <c r="E356" t="s">
         <v>1555</v>
       </c>
-      <c r="D356" t="s">
-        <v>873</v>
-      </c>
-      <c r="E356" t="s">
+      <c r="F356" t="s">
         <v>1556</v>
-      </c>
-      <c r="F356" t="s">
-        <v>1557</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -13482,16 +13536,16 @@
         <v>401</v>
       </c>
       <c r="C357" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D357" t="s">
+        <v>873</v>
+      </c>
+      <c r="E357" t="s">
         <v>1558</v>
       </c>
-      <c r="D357" t="s">
-        <v>873</v>
-      </c>
-      <c r="E357" t="s">
+      <c r="F357" t="s">
         <v>1559</v>
-      </c>
-      <c r="F357" t="s">
-        <v>1560</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -13502,16 +13556,16 @@
         <v>402</v>
       </c>
       <c r="C358" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D358" t="s">
+        <v>873</v>
+      </c>
+      <c r="E358" t="s">
         <v>1561</v>
       </c>
-      <c r="D358" t="s">
-        <v>873</v>
-      </c>
-      <c r="E358" t="s">
+      <c r="F358" t="s">
         <v>1562</v>
-      </c>
-      <c r="F358" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -13522,16 +13576,16 @@
         <v>150</v>
       </c>
       <c r="C359" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D359" t="s">
+        <v>873</v>
+      </c>
+      <c r="E359" t="s">
         <v>1564</v>
       </c>
-      <c r="D359" t="s">
-        <v>873</v>
-      </c>
-      <c r="E359" t="s">
+      <c r="F359" t="s">
         <v>1565</v>
-      </c>
-      <c r="F359" t="s">
-        <v>1566</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -13542,16 +13596,16 @@
         <v>403</v>
       </c>
       <c r="C360" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D360" t="s">
+        <v>873</v>
+      </c>
+      <c r="E360" t="s">
         <v>1567</v>
       </c>
-      <c r="D360" t="s">
-        <v>873</v>
-      </c>
-      <c r="E360" t="s">
+      <c r="F360" t="s">
         <v>1568</v>
-      </c>
-      <c r="F360" t="s">
-        <v>1569</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -13562,16 +13616,16 @@
         <v>404</v>
       </c>
       <c r="C361" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D361" t="s">
+        <v>873</v>
+      </c>
+      <c r="E361" t="s">
         <v>1570</v>
       </c>
-      <c r="D361" t="s">
-        <v>873</v>
-      </c>
-      <c r="E361" t="s">
+      <c r="F361" t="s">
         <v>1571</v>
-      </c>
-      <c r="F361" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -13582,16 +13636,16 @@
         <v>405</v>
       </c>
       <c r="C362" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D362" t="s">
+        <v>873</v>
+      </c>
+      <c r="E362" t="s">
         <v>1573</v>
       </c>
-      <c r="D362" t="s">
-        <v>873</v>
-      </c>
-      <c r="E362" t="s">
+      <c r="F362" t="s">
         <v>1574</v>
-      </c>
-      <c r="F362" t="s">
-        <v>1575</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -13602,16 +13656,16 @@
         <v>406</v>
       </c>
       <c r="C363" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D363" t="s">
+        <v>873</v>
+      </c>
+      <c r="E363" t="s">
         <v>1576</v>
       </c>
-      <c r="D363" t="s">
-        <v>873</v>
-      </c>
-      <c r="E363" t="s">
+      <c r="F363" t="s">
         <v>1577</v>
-      </c>
-      <c r="F363" t="s">
-        <v>1578</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -13622,16 +13676,16 @@
         <v>407</v>
       </c>
       <c r="C364" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D364" t="s">
+        <v>873</v>
+      </c>
+      <c r="E364" t="s">
         <v>1579</v>
       </c>
-      <c r="D364" t="s">
-        <v>873</v>
-      </c>
-      <c r="E364" t="s">
+      <c r="F364" t="s">
         <v>1580</v>
-      </c>
-      <c r="F364" t="s">
-        <v>1581</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -13642,16 +13696,16 @@
         <v>408</v>
       </c>
       <c r="C365" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D365" t="s">
+        <v>873</v>
+      </c>
+      <c r="E365" t="s">
         <v>1582</v>
       </c>
-      <c r="D365" t="s">
-        <v>873</v>
-      </c>
-      <c r="E365" t="s">
+      <c r="F365" t="s">
         <v>1583</v>
-      </c>
-      <c r="F365" t="s">
-        <v>1584</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -13662,16 +13716,16 @@
         <v>409</v>
       </c>
       <c r="C366" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D366" t="s">
+        <v>873</v>
+      </c>
+      <c r="E366" t="s">
         <v>1585</v>
       </c>
-      <c r="D366" t="s">
-        <v>873</v>
-      </c>
-      <c r="E366" t="s">
+      <c r="F366" t="s">
         <v>1586</v>
-      </c>
-      <c r="F366" t="s">
-        <v>1587</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -13682,16 +13736,16 @@
         <v>410</v>
       </c>
       <c r="C367" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D367" t="s">
+        <v>873</v>
+      </c>
+      <c r="E367" t="s">
         <v>1588</v>
       </c>
-      <c r="D367" t="s">
-        <v>873</v>
-      </c>
-      <c r="E367" t="s">
+      <c r="F367" t="s">
         <v>1589</v>
-      </c>
-      <c r="F367" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -13702,16 +13756,16 @@
         <v>411</v>
       </c>
       <c r="C368" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D368" t="s">
+        <v>873</v>
+      </c>
+      <c r="E368" t="s">
         <v>1591</v>
       </c>
-      <c r="D368" t="s">
-        <v>873</v>
-      </c>
-      <c r="E368" t="s">
+      <c r="F368" t="s">
         <v>1592</v>
-      </c>
-      <c r="F368" t="s">
-        <v>1593</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -13722,16 +13776,16 @@
         <v>412</v>
       </c>
       <c r="C369" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D369" t="s">
+        <v>873</v>
+      </c>
+      <c r="E369" t="s">
         <v>1594</v>
       </c>
-      <c r="D369" t="s">
-        <v>873</v>
-      </c>
-      <c r="E369" t="s">
+      <c r="F369" t="s">
         <v>1595</v>
-      </c>
-      <c r="F369" t="s">
-        <v>1596</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -13748,10 +13802,10 @@
         <v>873</v>
       </c>
       <c r="E370" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F370" t="s">
         <v>1597</v>
-      </c>
-      <c r="F370" t="s">
-        <v>1598</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -13762,16 +13816,16 @@
         <v>414</v>
       </c>
       <c r="C371" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D371" t="s">
+        <v>873</v>
+      </c>
+      <c r="E371" t="s">
         <v>1599</v>
       </c>
-      <c r="D371" t="s">
-        <v>873</v>
-      </c>
-      <c r="E371" t="s">
+      <c r="F371" t="s">
         <v>1600</v>
-      </c>
-      <c r="F371" t="s">
-        <v>1601</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -13782,16 +13836,16 @@
         <v>415</v>
       </c>
       <c r="C372" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D372" t="s">
+        <v>873</v>
+      </c>
+      <c r="E372" t="s">
         <v>1602</v>
       </c>
-      <c r="D372" t="s">
-        <v>873</v>
-      </c>
-      <c r="E372" t="s">
+      <c r="F372" t="s">
         <v>1603</v>
-      </c>
-      <c r="F372" t="s">
-        <v>1604</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -13802,16 +13856,16 @@
         <v>416</v>
       </c>
       <c r="C373" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D373" t="s">
+        <v>873</v>
+      </c>
+      <c r="E373" t="s">
         <v>1605</v>
       </c>
-      <c r="D373" t="s">
-        <v>873</v>
-      </c>
-      <c r="E373" t="s">
+      <c r="F373" t="s">
         <v>1606</v>
-      </c>
-      <c r="F373" t="s">
-        <v>1607</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -13822,16 +13876,16 @@
         <v>418</v>
       </c>
       <c r="C374" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D374" t="s">
+        <v>873</v>
+      </c>
+      <c r="E374" t="s">
         <v>1608</v>
       </c>
-      <c r="D374" t="s">
-        <v>873</v>
-      </c>
-      <c r="E374" t="s">
+      <c r="F374" t="s">
         <v>1609</v>
-      </c>
-      <c r="F374" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -13842,16 +13896,16 @@
         <v>417</v>
       </c>
       <c r="C375" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D375" t="s">
+        <v>873</v>
+      </c>
+      <c r="E375" t="s">
         <v>1611</v>
       </c>
-      <c r="D375" t="s">
-        <v>873</v>
-      </c>
-      <c r="E375" t="s">
+      <c r="F375" t="s">
         <v>1612</v>
-      </c>
-      <c r="F375" t="s">
-        <v>1613</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -13862,16 +13916,16 @@
         <v>419</v>
       </c>
       <c r="C376" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D376" t="s">
+        <v>873</v>
+      </c>
+      <c r="E376" t="s">
         <v>1614</v>
       </c>
-      <c r="D376" t="s">
-        <v>873</v>
-      </c>
-      <c r="E376" t="s">
+      <c r="F376" t="s">
         <v>1615</v>
-      </c>
-      <c r="F376" t="s">
-        <v>1616</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -13882,16 +13936,16 @@
         <v>420</v>
       </c>
       <c r="C377" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D377" t="s">
+        <v>873</v>
+      </c>
+      <c r="E377" t="s">
         <v>1617</v>
       </c>
-      <c r="D377" t="s">
-        <v>873</v>
-      </c>
-      <c r="E377" t="s">
+      <c r="F377" t="s">
         <v>1618</v>
-      </c>
-      <c r="F377" t="s">
-        <v>1619</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -13902,16 +13956,16 @@
         <v>421</v>
       </c>
       <c r="C378" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D378" t="s">
+        <v>873</v>
+      </c>
+      <c r="E378" t="s">
         <v>1620</v>
       </c>
-      <c r="D378" t="s">
-        <v>873</v>
-      </c>
-      <c r="E378" t="s">
+      <c r="F378" t="s">
         <v>1621</v>
-      </c>
-      <c r="F378" t="s">
-        <v>1622</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -13922,16 +13976,16 @@
         <v>422</v>
       </c>
       <c r="C379" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D379" t="s">
+        <v>873</v>
+      </c>
+      <c r="E379" t="s">
         <v>1623</v>
       </c>
-      <c r="D379" t="s">
-        <v>873</v>
-      </c>
-      <c r="E379" t="s">
+      <c r="F379" t="s">
         <v>1624</v>
-      </c>
-      <c r="F379" t="s">
-        <v>1625</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -13942,7 +13996,7 @@
         <v>423</v>
       </c>
       <c r="C380" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D380" t="s">
         <v>873</v>
@@ -13951,7 +14005,7 @@
         <v>613</v>
       </c>
       <c r="F380" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -13962,16 +14016,16 @@
         <v>424</v>
       </c>
       <c r="C381" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D381" t="s">
+        <v>873</v>
+      </c>
+      <c r="E381" t="s">
         <v>1628</v>
       </c>
-      <c r="D381" t="s">
-        <v>873</v>
-      </c>
-      <c r="E381" t="s">
+      <c r="F381" t="s">
         <v>1629</v>
-      </c>
-      <c r="F381" t="s">
-        <v>1630</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -13982,16 +14036,16 @@
         <v>425</v>
       </c>
       <c r="C382" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D382" t="s">
+        <v>873</v>
+      </c>
+      <c r="E382" t="s">
         <v>1631</v>
       </c>
-      <c r="D382" t="s">
-        <v>873</v>
-      </c>
-      <c r="E382" t="s">
+      <c r="F382" t="s">
         <v>1632</v>
-      </c>
-      <c r="F382" t="s">
-        <v>1633</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -14002,16 +14056,16 @@
         <v>426</v>
       </c>
       <c r="C383" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D383" t="s">
+        <v>873</v>
+      </c>
+      <c r="E383" t="s">
         <v>1634</v>
       </c>
-      <c r="D383" t="s">
-        <v>873</v>
-      </c>
-      <c r="E383" t="s">
+      <c r="F383" t="s">
         <v>1635</v>
-      </c>
-      <c r="F383" t="s">
-        <v>1636</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -14022,16 +14076,16 @@
         <v>427</v>
       </c>
       <c r="C384" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D384" t="s">
+        <v>873</v>
+      </c>
+      <c r="E384" t="s">
         <v>1637</v>
       </c>
-      <c r="D384" t="s">
-        <v>873</v>
-      </c>
-      <c r="E384" t="s">
+      <c r="F384" t="s">
         <v>1638</v>
-      </c>
-      <c r="F384" t="s">
-        <v>1639</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -14042,16 +14096,16 @@
         <v>428</v>
       </c>
       <c r="C385" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D385" t="s">
+        <v>873</v>
+      </c>
+      <c r="E385" t="s">
         <v>1640</v>
       </c>
-      <c r="D385" t="s">
-        <v>873</v>
-      </c>
-      <c r="E385" t="s">
+      <c r="F385" t="s">
         <v>1641</v>
-      </c>
-      <c r="F385" t="s">
-        <v>1642</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -14062,16 +14116,16 @@
         <v>429</v>
       </c>
       <c r="C386" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D386" t="s">
+        <v>873</v>
+      </c>
+      <c r="E386" t="s">
         <v>1643</v>
       </c>
-      <c r="D386" t="s">
-        <v>873</v>
-      </c>
-      <c r="E386" t="s">
+      <c r="F386" t="s">
         <v>1644</v>
-      </c>
-      <c r="F386" t="s">
-        <v>1645</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -14082,16 +14136,16 @@
         <v>430</v>
       </c>
       <c r="C387" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D387" t="s">
         <v>1034</v>
       </c>
       <c r="E387" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F387" t="s">
         <v>1647</v>
-      </c>
-      <c r="F387" t="s">
-        <v>1648</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -14102,16 +14156,16 @@
         <v>431</v>
       </c>
       <c r="C388" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="D388" t="s">
         <v>1034</v>
       </c>
       <c r="E388" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F388" t="s">
         <v>1650</v>
-      </c>
-      <c r="F388" t="s">
-        <v>1651</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -14122,16 +14176,16 @@
         <v>432</v>
       </c>
       <c r="C389" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="D389" t="s">
         <v>1034</v>
       </c>
       <c r="E389" t="s">
+        <v>1652</v>
+      </c>
+      <c r="F389" t="s">
         <v>1653</v>
-      </c>
-      <c r="F389" t="s">
-        <v>1654</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -14142,16 +14196,16 @@
         <v>433</v>
       </c>
       <c r="C390" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D390" t="s">
         <v>1034</v>
       </c>
       <c r="E390" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F390" t="s">
         <v>1656</v>
-      </c>
-      <c r="F390" t="s">
-        <v>1657</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -14162,16 +14216,16 @@
         <v>434</v>
       </c>
       <c r="C391" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D391" t="s">
         <v>1034</v>
       </c>
       <c r="E391" t="s">
+        <v>1658</v>
+      </c>
+      <c r="F391" t="s">
         <v>1659</v>
-      </c>
-      <c r="F391" t="s">
-        <v>1660</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -14182,16 +14236,16 @@
         <v>435</v>
       </c>
       <c r="C392" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D392" t="s">
         <v>1034</v>
       </c>
       <c r="E392" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F392" t="s">
         <v>1662</v>
-      </c>
-      <c r="F392" t="s">
-        <v>1663</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -14202,16 +14256,16 @@
         <v>436</v>
       </c>
       <c r="C393" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="D393" t="s">
         <v>1034</v>
       </c>
       <c r="E393" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F393" t="s">
         <v>1665</v>
-      </c>
-      <c r="F393" t="s">
-        <v>1666</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -14222,16 +14276,16 @@
         <v>437</v>
       </c>
       <c r="C394" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="D394" t="s">
         <v>1034</v>
       </c>
       <c r="E394" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F394" t="s">
         <v>1668</v>
-      </c>
-      <c r="F394" t="s">
-        <v>1669</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -14242,16 +14296,16 @@
         <v>438</v>
       </c>
       <c r="C395" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="D395" t="s">
         <v>1034</v>
       </c>
       <c r="E395" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F395" t="s">
         <v>1671</v>
-      </c>
-      <c r="F395" t="s">
-        <v>1672</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -14262,16 +14316,16 @@
         <v>439</v>
       </c>
       <c r="C396" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D396" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E396" t="s">
         <v>1673</v>
       </c>
-      <c r="D396" t="s">
-        <v>873</v>
-      </c>
-      <c r="E396" t="s">
+      <c r="F396" t="s">
         <v>1674</v>
-      </c>
-      <c r="F396" t="s">
-        <v>1675</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -14282,16 +14336,16 @@
         <v>440</v>
       </c>
       <c r="C397" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D397" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E397" t="s">
         <v>1676</v>
       </c>
-      <c r="D397" t="s">
-        <v>873</v>
-      </c>
-      <c r="E397" t="s">
+      <c r="F397" t="s">
         <v>1677</v>
-      </c>
-      <c r="F397" t="s">
-        <v>1678</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -14302,16 +14356,16 @@
         <v>441</v>
       </c>
       <c r="C398" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D398" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E398" t="s">
         <v>1679</v>
       </c>
-      <c r="D398" t="s">
-        <v>873</v>
-      </c>
-      <c r="E398" t="s">
+      <c r="F398" t="s">
         <v>1680</v>
-      </c>
-      <c r="F398" t="s">
-        <v>1681</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -14322,16 +14376,16 @@
         <v>376</v>
       </c>
       <c r="C399" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D399" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E399" t="s">
         <v>1486</v>
       </c>
-      <c r="D399" t="s">
-        <v>873</v>
-      </c>
-      <c r="E399" t="s">
+      <c r="F399" t="s">
         <v>1487</v>
-      </c>
-      <c r="F399" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -14342,16 +14396,16 @@
         <v>442</v>
       </c>
       <c r="C400" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D400" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E400" t="s">
         <v>1682</v>
       </c>
-      <c r="D400" t="s">
-        <v>873</v>
-      </c>
-      <c r="E400" t="s">
+      <c r="F400" t="s">
         <v>1683</v>
-      </c>
-      <c r="F400" t="s">
-        <v>1684</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -14362,16 +14416,16 @@
         <v>443</v>
       </c>
       <c r="C401" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D401" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E401" t="s">
         <v>1685</v>
       </c>
-      <c r="D401" t="s">
-        <v>873</v>
-      </c>
-      <c r="E401" t="s">
+      <c r="F401" t="s">
         <v>1686</v>
-      </c>
-      <c r="F401" t="s">
-        <v>1687</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -14382,16 +14436,16 @@
         <v>444</v>
       </c>
       <c r="C402" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="D402" t="s">
-        <v>873</v>
+        <v>1030</v>
       </c>
       <c r="E402" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F402" t="s">
         <v>1688</v>
-      </c>
-      <c r="F402" t="s">
-        <v>1689</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -14402,16 +14456,16 @@
         <v>445</v>
       </c>
       <c r="C403" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D403" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E403" t="s">
         <v>1690</v>
       </c>
-      <c r="D403" t="s">
-        <v>873</v>
-      </c>
-      <c r="E403" t="s">
+      <c r="F403" t="s">
         <v>1691</v>
-      </c>
-      <c r="F403" t="s">
-        <v>1692</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -14422,16 +14476,16 @@
         <v>446</v>
       </c>
       <c r="C404" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D404" t="s">
+        <v>873</v>
+      </c>
+      <c r="E404" t="s">
         <v>1693</v>
       </c>
-      <c r="D404" t="s">
-        <v>873</v>
-      </c>
-      <c r="E404" t="s">
+      <c r="F404" t="s">
         <v>1694</v>
-      </c>
-      <c r="F404" t="s">
-        <v>1695</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -14442,16 +14496,16 @@
         <v>447</v>
       </c>
       <c r="C405" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D405" t="s">
+        <v>873</v>
+      </c>
+      <c r="E405" t="s">
         <v>1696</v>
       </c>
-      <c r="D405" t="s">
-        <v>873</v>
-      </c>
-      <c r="E405" t="s">
+      <c r="F405" t="s">
         <v>1697</v>
-      </c>
-      <c r="F405" t="s">
-        <v>1698</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -14462,16 +14516,16 @@
         <v>448</v>
       </c>
       <c r="C406" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D406" t="s">
+        <v>873</v>
+      </c>
+      <c r="E406" t="s">
         <v>1699</v>
       </c>
-      <c r="D406" t="s">
-        <v>873</v>
-      </c>
-      <c r="E406" t="s">
+      <c r="F406" t="s">
         <v>1700</v>
-      </c>
-      <c r="F406" t="s">
-        <v>1701</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -14482,16 +14536,16 @@
         <v>449</v>
       </c>
       <c r="C407" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D407" t="s">
+        <v>873</v>
+      </c>
+      <c r="E407" t="s">
         <v>1702</v>
       </c>
-      <c r="D407" t="s">
-        <v>873</v>
-      </c>
-      <c r="E407" t="s">
+      <c r="F407" t="s">
         <v>1703</v>
-      </c>
-      <c r="F407" t="s">
-        <v>1704</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -14502,16 +14556,16 @@
         <v>450</v>
       </c>
       <c r="C408" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D408" t="s">
+        <v>873</v>
+      </c>
+      <c r="E408" t="s">
         <v>1705</v>
       </c>
-      <c r="D408" t="s">
-        <v>873</v>
-      </c>
-      <c r="E408" t="s">
+      <c r="F408" t="s">
         <v>1706</v>
-      </c>
-      <c r="F408" t="s">
-        <v>1707</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -14522,16 +14576,16 @@
         <v>451</v>
       </c>
       <c r="C409" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D409" t="s">
+        <v>873</v>
+      </c>
+      <c r="E409" t="s">
         <v>1708</v>
       </c>
-      <c r="D409" t="s">
-        <v>873</v>
-      </c>
-      <c r="E409" t="s">
+      <c r="F409" t="s">
         <v>1709</v>
-      </c>
-      <c r="F409" t="s">
-        <v>1710</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -14542,16 +14596,16 @@
         <v>452</v>
       </c>
       <c r="C410" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D410" t="s">
+        <v>873</v>
+      </c>
+      <c r="E410" t="s">
         <v>1711</v>
       </c>
-      <c r="D410" t="s">
-        <v>873</v>
-      </c>
-      <c r="E410" t="s">
+      <c r="F410" t="s">
         <v>1712</v>
-      </c>
-      <c r="F410" t="s">
-        <v>1713</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -14562,16 +14616,16 @@
         <v>453</v>
       </c>
       <c r="C411" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D411" t="s">
+        <v>873</v>
+      </c>
+      <c r="E411" t="s">
         <v>1714</v>
       </c>
-      <c r="D411" t="s">
-        <v>873</v>
-      </c>
-      <c r="E411" t="s">
+      <c r="F411" t="s">
         <v>1715</v>
-      </c>
-      <c r="F411" t="s">
-        <v>1716</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -14582,16 +14636,16 @@
         <v>454</v>
       </c>
       <c r="C412" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D412" t="s">
+        <v>873</v>
+      </c>
+      <c r="E412" t="s">
         <v>1717</v>
       </c>
-      <c r="D412" t="s">
-        <v>873</v>
-      </c>
-      <c r="E412" t="s">
+      <c r="F412" t="s">
         <v>1718</v>
-      </c>
-      <c r="F412" t="s">
-        <v>1719</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -14602,16 +14656,16 @@
         <v>455</v>
       </c>
       <c r="C413" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D413" t="s">
+        <v>873</v>
+      </c>
+      <c r="E413" t="s">
         <v>1720</v>
       </c>
-      <c r="D413" t="s">
-        <v>873</v>
-      </c>
-      <c r="E413" t="s">
+      <c r="F413" t="s">
         <v>1721</v>
-      </c>
-      <c r="F413" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -14622,16 +14676,16 @@
         <v>456</v>
       </c>
       <c r="C414" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D414" t="s">
+        <v>873</v>
+      </c>
+      <c r="E414" t="s">
         <v>1723</v>
       </c>
-      <c r="D414" t="s">
-        <v>873</v>
-      </c>
-      <c r="E414" t="s">
+      <c r="F414" t="s">
         <v>1724</v>
-      </c>
-      <c r="F414" t="s">
-        <v>1725</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -14642,16 +14696,16 @@
         <v>457</v>
       </c>
       <c r="C415" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D415" t="s">
+        <v>873</v>
+      </c>
+      <c r="E415" t="s">
         <v>1726</v>
       </c>
-      <c r="D415" t="s">
-        <v>873</v>
-      </c>
-      <c r="E415" t="s">
+      <c r="F415" t="s">
         <v>1727</v>
-      </c>
-      <c r="F415" t="s">
-        <v>1728</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -14662,16 +14716,16 @@
         <v>458</v>
       </c>
       <c r="C416" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D416" t="s">
+        <v>873</v>
+      </c>
+      <c r="E416" t="s">
         <v>1729</v>
       </c>
-      <c r="D416" t="s">
-        <v>873</v>
-      </c>
-      <c r="E416" t="s">
+      <c r="F416" t="s">
         <v>1730</v>
-      </c>
-      <c r="F416" t="s">
-        <v>1731</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -14682,16 +14736,16 @@
         <v>459</v>
       </c>
       <c r="C417" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D417" t="s">
+        <v>873</v>
+      </c>
+      <c r="E417" t="s">
         <v>1732</v>
       </c>
-      <c r="D417" t="s">
-        <v>873</v>
-      </c>
-      <c r="E417" t="s">
+      <c r="F417" t="s">
         <v>1733</v>
-      </c>
-      <c r="F417" t="s">
-        <v>1734</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -14702,16 +14756,16 @@
         <v>460</v>
       </c>
       <c r="C418" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D418" t="s">
         <v>1034</v>
       </c>
       <c r="E418" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F418" t="s">
         <v>1736</v>
-      </c>
-      <c r="F418" t="s">
-        <v>1737</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -14722,16 +14776,16 @@
         <v>461</v>
       </c>
       <c r="C419" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="D419" t="s">
         <v>1034</v>
       </c>
       <c r="E419" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F419" t="s">
         <v>1739</v>
-      </c>
-      <c r="F419" t="s">
-        <v>1740</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -14742,16 +14796,16 @@
         <v>248</v>
       </c>
       <c r="C420" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="D420" t="s">
         <v>1034</v>
       </c>
       <c r="E420" t="s">
+        <v>1741</v>
+      </c>
+      <c r="F420" t="s">
         <v>1742</v>
-      </c>
-      <c r="F420" t="s">
-        <v>1743</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -14762,16 +14816,16 @@
         <v>462</v>
       </c>
       <c r="C421" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="D421" t="s">
         <v>1034</v>
       </c>
       <c r="E421" t="s">
+        <v>1744</v>
+      </c>
+      <c r="F421" t="s">
         <v>1745</v>
-      </c>
-      <c r="F421" t="s">
-        <v>1746</v>
       </c>
     </row>
     <row r="422" spans="1:6">
@@ -14782,16 +14836,16 @@
         <v>463</v>
       </c>
       <c r="C422" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="D422" t="s">
         <v>1034</v>
       </c>
       <c r="E422" t="s">
+        <v>1747</v>
+      </c>
+      <c r="F422" t="s">
         <v>1748</v>
-      </c>
-      <c r="F422" t="s">
-        <v>1749</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -14802,16 +14856,16 @@
         <v>464</v>
       </c>
       <c r="C423" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="D423" t="s">
         <v>1034</v>
       </c>
       <c r="E423" t="s">
+        <v>1750</v>
+      </c>
+      <c r="F423" t="s">
         <v>1751</v>
-      </c>
-      <c r="F423" t="s">
-        <v>1752</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -14822,16 +14876,16 @@
         <v>465</v>
       </c>
       <c r="C424" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="D424" t="s">
         <v>1034</v>
       </c>
       <c r="E424" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F424" t="s">
         <v>1754</v>
-      </c>
-      <c r="F424" t="s">
-        <v>1755</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -14842,16 +14896,16 @@
         <v>466</v>
       </c>
       <c r="C425" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="D425" t="s">
         <v>1034</v>
       </c>
       <c r="E425" t="s">
+        <v>1756</v>
+      </c>
+      <c r="F425" t="s">
         <v>1757</v>
-      </c>
-      <c r="F425" t="s">
-        <v>1758</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -14862,16 +14916,16 @@
         <v>467</v>
       </c>
       <c r="C426" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="D426" t="s">
         <v>1034</v>
       </c>
       <c r="E426" t="s">
+        <v>1759</v>
+      </c>
+      <c r="F426" t="s">
         <v>1760</v>
-      </c>
-      <c r="F426" t="s">
-        <v>1761</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -14882,16 +14936,16 @@
         <v>468</v>
       </c>
       <c r="C427" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D427" t="s">
+        <v>873</v>
+      </c>
+      <c r="E427" t="s">
         <v>1762</v>
       </c>
-      <c r="D427" t="s">
-        <v>873</v>
-      </c>
-      <c r="E427" t="s">
+      <c r="F427" t="s">
         <v>1763</v>
-      </c>
-      <c r="F427" t="s">
-        <v>1764</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -14902,16 +14956,16 @@
         <v>469</v>
       </c>
       <c r="C428" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D428" t="s">
+        <v>873</v>
+      </c>
+      <c r="E428" t="s">
         <v>1765</v>
       </c>
-      <c r="D428" t="s">
-        <v>873</v>
-      </c>
-      <c r="E428" t="s">
+      <c r="F428" t="s">
         <v>1766</v>
-      </c>
-      <c r="F428" t="s">
-        <v>1767</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -14922,16 +14976,16 @@
         <v>470</v>
       </c>
       <c r="C429" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D429" t="s">
+        <v>873</v>
+      </c>
+      <c r="E429" t="s">
         <v>1768</v>
       </c>
-      <c r="D429" t="s">
-        <v>873</v>
-      </c>
-      <c r="E429" t="s">
+      <c r="F429" t="s">
         <v>1769</v>
-      </c>
-      <c r="F429" t="s">
-        <v>1770</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -14942,16 +14996,16 @@
         <v>471</v>
       </c>
       <c r="C430" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D430" t="s">
+        <v>873</v>
+      </c>
+      <c r="E430" t="s">
         <v>1771</v>
       </c>
-      <c r="D430" t="s">
-        <v>873</v>
-      </c>
-      <c r="E430" t="s">
+      <c r="F430" t="s">
         <v>1772</v>
-      </c>
-      <c r="F430" t="s">
-        <v>1773</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -14962,16 +15016,16 @@
         <v>472</v>
       </c>
       <c r="C431" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D431" t="s">
+        <v>873</v>
+      </c>
+      <c r="E431" t="s">
         <v>1774</v>
       </c>
-      <c r="D431" t="s">
-        <v>873</v>
-      </c>
-      <c r="E431" t="s">
+      <c r="F431" t="s">
         <v>1775</v>
-      </c>
-      <c r="F431" t="s">
-        <v>1776</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -14982,16 +15036,16 @@
         <v>473</v>
       </c>
       <c r="C432" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D432" t="s">
+        <v>873</v>
+      </c>
+      <c r="E432" t="s">
         <v>1777</v>
       </c>
-      <c r="D432" t="s">
-        <v>873</v>
-      </c>
-      <c r="E432" t="s">
+      <c r="F432" t="s">
         <v>1778</v>
-      </c>
-      <c r="F432" t="s">
-        <v>1779</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -15002,16 +15056,16 @@
         <v>474</v>
       </c>
       <c r="C433" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D433" t="s">
+        <v>873</v>
+      </c>
+      <c r="E433" t="s">
         <v>1780</v>
       </c>
-      <c r="D433" t="s">
-        <v>873</v>
-      </c>
-      <c r="E433" t="s">
+      <c r="F433" t="s">
         <v>1781</v>
-      </c>
-      <c r="F433" t="s">
-        <v>1782</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -15022,16 +15076,16 @@
         <v>475</v>
       </c>
       <c r="C434" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D434" t="s">
+        <v>873</v>
+      </c>
+      <c r="E434" t="s">
         <v>1783</v>
       </c>
-      <c r="D434" t="s">
-        <v>873</v>
-      </c>
-      <c r="E434" t="s">
+      <c r="F434" t="s">
         <v>1784</v>
-      </c>
-      <c r="F434" t="s">
-        <v>1785</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -15042,16 +15096,16 @@
         <v>476</v>
       </c>
       <c r="C435" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D435" t="s">
+        <v>873</v>
+      </c>
+      <c r="E435" t="s">
         <v>1786</v>
       </c>
-      <c r="D435" t="s">
-        <v>873</v>
-      </c>
-      <c r="E435" t="s">
+      <c r="F435" t="s">
         <v>1787</v>
-      </c>
-      <c r="F435" t="s">
-        <v>1788</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -15062,16 +15116,16 @@
         <v>477</v>
       </c>
       <c r="C436" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D436" t="s">
+        <v>873</v>
+      </c>
+      <c r="E436" t="s">
         <v>1789</v>
       </c>
-      <c r="D436" t="s">
-        <v>873</v>
-      </c>
-      <c r="E436" t="s">
+      <c r="F436" t="s">
         <v>1790</v>
-      </c>
-      <c r="F436" t="s">
-        <v>1791</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -15082,16 +15136,16 @@
         <v>478</v>
       </c>
       <c r="C437" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D437" t="s">
+        <v>873</v>
+      </c>
+      <c r="E437" t="s">
         <v>1792</v>
       </c>
-      <c r="D437" t="s">
-        <v>873</v>
-      </c>
-      <c r="E437" t="s">
+      <c r="F437" t="s">
         <v>1793</v>
-      </c>
-      <c r="F437" t="s">
-        <v>1794</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -15102,16 +15156,16 @@
         <v>479</v>
       </c>
       <c r="C438" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D438" t="s">
+        <v>873</v>
+      </c>
+      <c r="E438" t="s">
         <v>1795</v>
       </c>
-      <c r="D438" t="s">
-        <v>873</v>
-      </c>
-      <c r="E438" t="s">
+      <c r="F438" t="s">
         <v>1796</v>
-      </c>
-      <c r="F438" t="s">
-        <v>1797</v>
       </c>
     </row>
     <row r="439" spans="1:6">
@@ -15122,16 +15176,16 @@
         <v>480</v>
       </c>
       <c r="C439" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D439" t="s">
+        <v>873</v>
+      </c>
+      <c r="E439" t="s">
         <v>1798</v>
       </c>
-      <c r="D439" t="s">
-        <v>873</v>
-      </c>
-      <c r="E439" t="s">
+      <c r="F439" t="s">
         <v>1799</v>
-      </c>
-      <c r="F439" t="s">
-        <v>1800</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -15142,16 +15196,16 @@
         <v>481</v>
       </c>
       <c r="C440" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D440" t="s">
+        <v>873</v>
+      </c>
+      <c r="E440" t="s">
         <v>1801</v>
       </c>
-      <c r="D440" t="s">
-        <v>873</v>
-      </c>
-      <c r="E440" t="s">
+      <c r="F440" t="s">
         <v>1802</v>
-      </c>
-      <c r="F440" t="s">
-        <v>1803</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -15162,16 +15216,16 @@
         <v>482</v>
       </c>
       <c r="C441" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D441" t="s">
+        <v>873</v>
+      </c>
+      <c r="E441" t="s">
         <v>1804</v>
       </c>
-      <c r="D441" t="s">
-        <v>873</v>
-      </c>
-      <c r="E441" t="s">
+      <c r="F441" t="s">
         <v>1805</v>
-      </c>
-      <c r="F441" t="s">
-        <v>1806</v>
       </c>
     </row>
     <row r="442" spans="1:6">
@@ -15182,16 +15236,16 @@
         <v>483</v>
       </c>
       <c r="C442" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D442" t="s">
+        <v>873</v>
+      </c>
+      <c r="E442" t="s">
         <v>1807</v>
       </c>
-      <c r="D442" t="s">
-        <v>873</v>
-      </c>
-      <c r="E442" t="s">
+      <c r="F442" t="s">
         <v>1808</v>
-      </c>
-      <c r="F442" t="s">
-        <v>1809</v>
       </c>
     </row>
     <row r="443" spans="1:6">
@@ -15202,16 +15256,16 @@
         <v>484</v>
       </c>
       <c r="C443" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D443" t="s">
+        <v>873</v>
+      </c>
+      <c r="E443" t="s">
         <v>1810</v>
       </c>
-      <c r="D443" t="s">
-        <v>873</v>
-      </c>
-      <c r="E443" t="s">
+      <c r="F443" t="s">
         <v>1811</v>
-      </c>
-      <c r="F443" t="s">
-        <v>1812</v>
       </c>
     </row>
     <row r="444" spans="1:6">
@@ -15222,16 +15276,16 @@
         <v>485</v>
       </c>
       <c r="C444" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D444" t="s">
+        <v>873</v>
+      </c>
+      <c r="E444" t="s">
         <v>1813</v>
       </c>
-      <c r="D444" t="s">
-        <v>873</v>
-      </c>
-      <c r="E444" t="s">
+      <c r="F444" t="s">
         <v>1814</v>
-      </c>
-      <c r="F444" t="s">
-        <v>1815</v>
       </c>
     </row>
     <row r="445" spans="1:6">
@@ -15242,16 +15296,16 @@
         <v>486</v>
       </c>
       <c r="C445" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D445" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E445" t="s">
         <v>1816</v>
       </c>
-      <c r="D445" t="s">
-        <v>873</v>
-      </c>
-      <c r="E445" t="s">
+      <c r="F445" t="s">
         <v>1817</v>
-      </c>
-      <c r="F445" t="s">
-        <v>1818</v>
       </c>
     </row>
     <row r="446" spans="1:6">
@@ -15262,16 +15316,16 @@
         <v>487</v>
       </c>
       <c r="C446" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D446" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E446" t="s">
         <v>1819</v>
       </c>
-      <c r="D446" t="s">
-        <v>873</v>
-      </c>
-      <c r="E446" t="s">
+      <c r="F446" t="s">
         <v>1820</v>
-      </c>
-      <c r="F446" t="s">
-        <v>1821</v>
       </c>
     </row>
     <row r="447" spans="1:6">
@@ -15282,16 +15336,16 @@
         <v>488</v>
       </c>
       <c r="C447" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D447" t="s">
         <v>1034</v>
       </c>
       <c r="E447" t="s">
+        <v>1822</v>
+      </c>
+      <c r="F447" t="s">
         <v>1823</v>
-      </c>
-      <c r="F447" t="s">
-        <v>1824</v>
       </c>
     </row>
     <row r="448" spans="1:6">
@@ -15302,16 +15356,16 @@
         <v>489</v>
       </c>
       <c r="C448" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="D448" t="s">
         <v>1034</v>
       </c>
       <c r="E448" t="s">
+        <v>1825</v>
+      </c>
+      <c r="F448" t="s">
         <v>1826</v>
-      </c>
-      <c r="F448" t="s">
-        <v>1827</v>
       </c>
     </row>
     <row r="449" spans="1:6">
@@ -15322,16 +15376,16 @@
         <v>490</v>
       </c>
       <c r="C449" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="D449" t="s">
         <v>1034</v>
       </c>
       <c r="E449" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F449" t="s">
         <v>1787</v>
-      </c>
-      <c r="F449" t="s">
-        <v>1788</v>
       </c>
     </row>
     <row r="450" spans="1:6">
@@ -15342,16 +15396,16 @@
         <v>491</v>
       </c>
       <c r="C450" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="D450" t="s">
         <v>1034</v>
       </c>
       <c r="E450" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F450" t="s">
         <v>1562</v>
-      </c>
-      <c r="F450" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="451" spans="1:6">
@@ -15362,16 +15416,16 @@
         <v>492</v>
       </c>
       <c r="C451" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D451" t="s">
+        <v>1993</v>
+      </c>
+      <c r="E451" t="s">
         <v>1830</v>
       </c>
-      <c r="D451" t="s">
-        <v>873</v>
-      </c>
-      <c r="E451" t="s">
+      <c r="F451" t="s">
         <v>1831</v>
-      </c>
-      <c r="F451" t="s">
-        <v>1832</v>
       </c>
     </row>
     <row r="452" spans="1:6">
@@ -15382,16 +15436,16 @@
         <v>493</v>
       </c>
       <c r="C452" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D452" t="s">
+        <v>1993</v>
+      </c>
+      <c r="E452" t="s">
         <v>1833</v>
       </c>
-      <c r="D452" t="s">
-        <v>873</v>
-      </c>
-      <c r="E452" t="s">
+      <c r="F452" t="s">
         <v>1834</v>
-      </c>
-      <c r="F452" t="s">
-        <v>1835</v>
       </c>
     </row>
     <row r="453" spans="1:6">
@@ -15402,13 +15456,13 @@
         <v>494</v>
       </c>
       <c r="C453" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D453" t="s">
+        <v>873</v>
+      </c>
+      <c r="E453" t="s">
         <v>1836</v>
-      </c>
-      <c r="D453" t="s">
-        <v>873</v>
-      </c>
-      <c r="E453" t="s">
-        <v>1837</v>
       </c>
       <c r="F453" t="s">
         <v>644</v>
@@ -15422,16 +15476,16 @@
         <v>495</v>
       </c>
       <c r="C454" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D454" t="s">
+        <v>1994</v>
+      </c>
+      <c r="E454" t="s">
         <v>1838</v>
       </c>
-      <c r="D454" t="s">
-        <v>873</v>
-      </c>
-      <c r="E454" t="s">
+      <c r="F454" t="s">
         <v>1839</v>
-      </c>
-      <c r="F454" t="s">
-        <v>1840</v>
       </c>
     </row>
     <row r="455" spans="1:6">
@@ -15442,16 +15496,16 @@
         <v>496</v>
       </c>
       <c r="C455" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D455" t="s">
+        <v>1994</v>
+      </c>
+      <c r="E455" t="s">
         <v>1841</v>
       </c>
-      <c r="D455" t="s">
-        <v>873</v>
-      </c>
-      <c r="E455" t="s">
+      <c r="F455" t="s">
         <v>1842</v>
-      </c>
-      <c r="F455" t="s">
-        <v>1843</v>
       </c>
     </row>
     <row r="456" spans="1:6">
@@ -15462,16 +15516,16 @@
         <v>497</v>
       </c>
       <c r="C456" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D456" t="s">
+        <v>1994</v>
+      </c>
+      <c r="E456" t="s">
+        <v>1843</v>
+      </c>
+      <c r="F456" t="s">
         <v>1844</v>
-      </c>
-      <c r="D456" t="s">
-        <v>873</v>
-      </c>
-      <c r="E456" t="s">
-        <v>1845</v>
-      </c>
-      <c r="F456" t="s">
-        <v>1846</v>
       </c>
     </row>
     <row r="457" spans="1:6">
@@ -15482,16 +15536,16 @@
         <v>498</v>
       </c>
       <c r="C457" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D457" t="s">
+        <v>1994</v>
+      </c>
+      <c r="E457" t="s">
+        <v>1846</v>
+      </c>
+      <c r="F457" t="s">
         <v>1847</v>
-      </c>
-      <c r="D457" t="s">
-        <v>873</v>
-      </c>
-      <c r="E457" t="s">
-        <v>1848</v>
-      </c>
-      <c r="F457" t="s">
-        <v>1849</v>
       </c>
     </row>
     <row r="458" spans="1:6">
@@ -15502,16 +15556,16 @@
         <v>499</v>
       </c>
       <c r="C458" t="s">
-        <v>1850</v>
+        <v>1996</v>
       </c>
       <c r="D458" t="s">
-        <v>873</v>
+        <v>1994</v>
       </c>
       <c r="E458" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
       <c r="F458" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="459" spans="1:6">
@@ -15522,16 +15576,16 @@
         <v>500</v>
       </c>
       <c r="C459" t="s">
-        <v>1853</v>
+        <v>1997</v>
       </c>
       <c r="D459" t="s">
-        <v>873</v>
+        <v>1994</v>
       </c>
       <c r="E459" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="F459" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="460" spans="1:6">
@@ -15542,16 +15596,16 @@
         <v>501</v>
       </c>
       <c r="C460" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
       <c r="D460" t="s">
-        <v>873</v>
+        <v>1994</v>
       </c>
       <c r="E460" t="s">
-        <v>1857</v>
+        <v>1853</v>
       </c>
       <c r="F460" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="461" spans="1:6">
@@ -15562,16 +15616,16 @@
         <v>502</v>
       </c>
       <c r="C461" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
       <c r="D461" t="s">
-        <v>873</v>
+        <v>1994</v>
       </c>
       <c r="E461" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="F461" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="462" spans="1:6">
@@ -15582,16 +15636,16 @@
         <v>503</v>
       </c>
       <c r="C462" t="s">
-        <v>1862</v>
+        <v>1858</v>
       </c>
       <c r="D462" t="s">
-        <v>873</v>
+        <v>1994</v>
       </c>
       <c r="E462" t="s">
-        <v>1863</v>
+        <v>1859</v>
       </c>
       <c r="F462" t="s">
-        <v>1864</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="463" spans="1:6">
@@ -15602,16 +15656,16 @@
         <v>504</v>
       </c>
       <c r="C463" t="s">
-        <v>1865</v>
+        <v>1861</v>
       </c>
       <c r="D463" t="s">
-        <v>873</v>
+        <v>1994</v>
       </c>
       <c r="E463" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="F463" t="s">
-        <v>1867</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="464" spans="1:6">
@@ -15622,16 +15676,16 @@
         <v>505</v>
       </c>
       <c r="C464" t="s">
-        <v>1868</v>
+        <v>1864</v>
       </c>
       <c r="D464" t="s">
-        <v>873</v>
+        <v>1994</v>
       </c>
       <c r="E464" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
       <c r="F464" t="s">
-        <v>1870</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="465" spans="1:6">
@@ -15642,16 +15696,16 @@
         <v>506</v>
       </c>
       <c r="C465" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
       <c r="D465" t="s">
-        <v>873</v>
+        <v>1994</v>
       </c>
       <c r="E465" t="s">
-        <v>1872</v>
+        <v>1868</v>
       </c>
       <c r="F465" t="s">
-        <v>1873</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="466" spans="1:6">
@@ -15662,16 +15716,16 @@
         <v>507</v>
       </c>
       <c r="C466" t="s">
-        <v>1874</v>
+        <v>1870</v>
       </c>
       <c r="D466" t="s">
-        <v>873</v>
+        <v>1994</v>
       </c>
       <c r="E466" t="s">
-        <v>1875</v>
+        <v>1871</v>
       </c>
       <c r="F466" t="s">
-        <v>1876</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="467" spans="1:6">
@@ -15682,16 +15736,16 @@
         <v>508</v>
       </c>
       <c r="C467" t="s">
-        <v>1877</v>
+        <v>1873</v>
       </c>
       <c r="D467" t="s">
-        <v>873</v>
+        <v>1994</v>
       </c>
       <c r="E467" t="s">
-        <v>1878</v>
+        <v>1874</v>
       </c>
       <c r="F467" t="s">
-        <v>1879</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="468" spans="1:6">
@@ -15702,16 +15756,16 @@
         <v>509</v>
       </c>
       <c r="C468" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
       <c r="D468" t="s">
-        <v>873</v>
+        <v>1994</v>
       </c>
       <c r="E468" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="F468" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="469" spans="1:6">
@@ -15722,16 +15776,16 @@
         <v>510</v>
       </c>
       <c r="C469" t="s">
-        <v>1883</v>
+        <v>1879</v>
       </c>
       <c r="D469" t="s">
-        <v>873</v>
+        <v>1030</v>
       </c>
       <c r="E469" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="F469" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="470" spans="1:6">
@@ -15742,16 +15796,16 @@
         <v>511</v>
       </c>
       <c r="C470" t="s">
-        <v>1886</v>
+        <v>1882</v>
       </c>
       <c r="D470" t="s">
-        <v>873</v>
+        <v>1030</v>
       </c>
       <c r="E470" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
       <c r="F470" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="471" spans="1:6">
@@ -15762,16 +15816,16 @@
         <v>512</v>
       </c>
       <c r="C471" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
       <c r="D471" t="s">
-        <v>873</v>
+        <v>1030</v>
       </c>
       <c r="E471" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
       <c r="F471" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="472" spans="1:6">
@@ -15782,16 +15836,16 @@
         <v>513</v>
       </c>
       <c r="C472" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="D472" t="s">
-        <v>873</v>
+        <v>1030</v>
       </c>
       <c r="E472" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
       <c r="F472" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="473" spans="1:6">
@@ -15802,16 +15856,16 @@
         <v>514</v>
       </c>
       <c r="C473" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D473" t="s">
-        <v>873</v>
+        <v>1030</v>
       </c>
       <c r="E473" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="F473" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="474" spans="1:6">
@@ -15822,16 +15876,16 @@
         <v>515</v>
       </c>
       <c r="C474" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="D474" t="s">
-        <v>873</v>
+        <v>1030</v>
       </c>
       <c r="E474" t="s">
-        <v>1898</v>
+        <v>1894</v>
       </c>
       <c r="F474" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="475" spans="1:6">
@@ -15842,16 +15896,16 @@
         <v>516</v>
       </c>
       <c r="C475" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="D475" t="s">
-        <v>873</v>
+        <v>1030</v>
       </c>
       <c r="E475" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="F475" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="476" spans="1:6">
@@ -15862,16 +15916,16 @@
         <v>517</v>
       </c>
       <c r="C476" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="D476" t="s">
-        <v>873</v>
+        <v>1030</v>
       </c>
       <c r="E476" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F476" t="s">
         <v>1259</v>
-      </c>
-      <c r="F476" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="477" spans="1:6">
@@ -15882,16 +15936,16 @@
         <v>518</v>
       </c>
       <c r="C477" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D477" t="s">
-        <v>873</v>
+        <v>1987</v>
       </c>
       <c r="E477" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
       <c r="F477" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="478" spans="1:6">
@@ -15902,16 +15956,16 @@
         <v>519</v>
       </c>
       <c r="C478" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="D478" t="s">
-        <v>873</v>
+        <v>1987</v>
       </c>
       <c r="E478" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="F478" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="479" spans="1:6">
@@ -15922,16 +15976,16 @@
         <v>520</v>
       </c>
       <c r="C479" t="s">
-        <v>1909</v>
+        <v>1988</v>
       </c>
       <c r="D479" t="s">
-        <v>873</v>
+        <v>1987</v>
       </c>
       <c r="E479" t="s">
-        <v>1910</v>
+        <v>1905</v>
       </c>
       <c r="F479" t="s">
-        <v>1911</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="480" spans="1:6">
@@ -15942,16 +15996,16 @@
         <v>521</v>
       </c>
       <c r="C480" t="s">
-        <v>1912</v>
+        <v>1907</v>
       </c>
       <c r="D480" t="s">
-        <v>873</v>
+        <v>1987</v>
       </c>
       <c r="E480" t="s">
-        <v>1913</v>
+        <v>1908</v>
       </c>
       <c r="F480" t="s">
-        <v>1914</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="481" spans="1:6">
@@ -15962,16 +16016,16 @@
         <v>522</v>
       </c>
       <c r="C481" t="s">
-        <v>1915</v>
+        <v>1910</v>
       </c>
       <c r="D481" t="s">
-        <v>873</v>
+        <v>1987</v>
       </c>
       <c r="E481" t="s">
-        <v>1916</v>
+        <v>1911</v>
       </c>
       <c r="F481" t="s">
-        <v>1917</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="482" spans="1:6">
@@ -15982,16 +16036,16 @@
         <v>523</v>
       </c>
       <c r="C482" t="s">
-        <v>1918</v>
+        <v>1913</v>
       </c>
       <c r="D482" t="s">
-        <v>873</v>
+        <v>1987</v>
       </c>
       <c r="E482" t="s">
-        <v>1919</v>
+        <v>1914</v>
       </c>
       <c r="F482" t="s">
-        <v>1920</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="483" spans="1:6">
@@ -16002,16 +16056,16 @@
         <v>401</v>
       </c>
       <c r="C483" t="s">
-        <v>1921</v>
+        <v>1916</v>
       </c>
       <c r="D483" t="s">
-        <v>873</v>
+        <v>1987</v>
       </c>
       <c r="E483" t="s">
-        <v>1922</v>
+        <v>1917</v>
       </c>
       <c r="F483" t="s">
-        <v>1923</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="484" spans="1:6">
@@ -16022,16 +16076,16 @@
         <v>524</v>
       </c>
       <c r="C484" t="s">
-        <v>1924</v>
+        <v>1919</v>
       </c>
       <c r="D484" t="s">
-        <v>873</v>
+        <v>1987</v>
       </c>
       <c r="E484" t="s">
-        <v>1925</v>
+        <v>1920</v>
       </c>
       <c r="F484" t="s">
-        <v>1926</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="485" spans="1:6">
@@ -16042,16 +16096,16 @@
         <v>525</v>
       </c>
       <c r="C485" t="s">
-        <v>1927</v>
+        <v>1922</v>
       </c>
       <c r="D485" t="s">
-        <v>873</v>
+        <v>1987</v>
       </c>
       <c r="E485" t="s">
-        <v>1928</v>
+        <v>1923</v>
       </c>
       <c r="F485" t="s">
-        <v>1929</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="486" spans="1:6">
@@ -16062,16 +16116,16 @@
         <v>526</v>
       </c>
       <c r="C486" t="s">
-        <v>1930</v>
+        <v>1925</v>
       </c>
       <c r="D486" t="s">
-        <v>873</v>
+        <v>1987</v>
       </c>
       <c r="E486" t="s">
-        <v>1931</v>
+        <v>1926</v>
       </c>
       <c r="F486" t="s">
-        <v>1932</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="487" spans="1:6">
@@ -16082,16 +16136,16 @@
         <v>527</v>
       </c>
       <c r="C487" t="s">
-        <v>1933</v>
+        <v>1928</v>
       </c>
       <c r="D487" t="s">
-        <v>873</v>
+        <v>1987</v>
       </c>
       <c r="E487" t="s">
-        <v>1934</v>
+        <v>1929</v>
       </c>
       <c r="F487" t="s">
-        <v>1935</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="488" spans="1:6">
@@ -16102,16 +16156,16 @@
         <v>528</v>
       </c>
       <c r="C488" t="s">
-        <v>1936</v>
+        <v>1931</v>
       </c>
       <c r="D488" t="s">
-        <v>873</v>
+        <v>1987</v>
       </c>
       <c r="E488" t="s">
-        <v>1937</v>
+        <v>1932</v>
       </c>
       <c r="F488" t="s">
-        <v>1938</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="489" spans="1:6">
@@ -16122,16 +16176,16 @@
         <v>529</v>
       </c>
       <c r="C489" t="s">
-        <v>1939</v>
+        <v>1934</v>
       </c>
       <c r="D489" t="s">
-        <v>873</v>
+        <v>1987</v>
       </c>
       <c r="E489" t="s">
-        <v>1940</v>
+        <v>1935</v>
       </c>
       <c r="F489" t="s">
-        <v>1941</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="490" spans="1:6">
@@ -16142,16 +16196,16 @@
         <v>530</v>
       </c>
       <c r="C490" t="s">
-        <v>1942</v>
+        <v>1937</v>
       </c>
       <c r="D490" t="s">
-        <v>873</v>
+        <v>1990</v>
       </c>
       <c r="E490" t="s">
-        <v>1943</v>
+        <v>1938</v>
       </c>
       <c r="F490" t="s">
-        <v>1944</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="491" spans="1:6">
@@ -16162,16 +16216,16 @@
         <v>531</v>
       </c>
       <c r="C491" t="s">
-        <v>1945</v>
+        <v>1940</v>
       </c>
       <c r="D491" t="s">
-        <v>873</v>
+        <v>1990</v>
       </c>
       <c r="E491" t="s">
-        <v>1946</v>
+        <v>1941</v>
       </c>
       <c r="F491" t="s">
-        <v>1947</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -16182,16 +16236,16 @@
         <v>532</v>
       </c>
       <c r="C492" t="s">
-        <v>1948</v>
+        <v>1943</v>
       </c>
       <c r="D492" t="s">
-        <v>873</v>
+        <v>1990</v>
       </c>
       <c r="E492" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="F492" t="s">
-        <v>1950</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="493" spans="1:6">
@@ -16202,16 +16256,16 @@
         <v>533</v>
       </c>
       <c r="C493" t="s">
-        <v>1951</v>
+        <v>1946</v>
       </c>
       <c r="D493" t="s">
-        <v>873</v>
+        <v>1990</v>
       </c>
       <c r="E493" t="s">
-        <v>1952</v>
+        <v>1947</v>
       </c>
       <c r="F493" t="s">
-        <v>1953</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="494" spans="1:6">
@@ -16222,16 +16276,16 @@
         <v>534</v>
       </c>
       <c r="C494" t="s">
-        <v>1954</v>
+        <v>1949</v>
       </c>
       <c r="D494" t="s">
-        <v>873</v>
+        <v>1990</v>
       </c>
       <c r="E494" t="s">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="F494" t="s">
-        <v>1956</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="495" spans="1:6">
@@ -16242,16 +16296,16 @@
         <v>535</v>
       </c>
       <c r="C495" t="s">
-        <v>1957</v>
+        <v>1952</v>
       </c>
       <c r="D495" t="s">
-        <v>873</v>
+        <v>1990</v>
       </c>
       <c r="E495" t="s">
-        <v>1958</v>
+        <v>1953</v>
       </c>
       <c r="F495" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="496" spans="1:6">
@@ -16262,16 +16316,16 @@
         <v>520</v>
       </c>
       <c r="C496" t="s">
-        <v>1909</v>
+        <v>1989</v>
       </c>
       <c r="D496" t="s">
-        <v>873</v>
+        <v>1990</v>
       </c>
       <c r="E496" t="s">
-        <v>1910</v>
+        <v>1991</v>
       </c>
       <c r="F496" t="s">
-        <v>1911</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="497" spans="1:6">
@@ -16282,16 +16336,16 @@
         <v>536</v>
       </c>
       <c r="C497" t="s">
-        <v>1960</v>
+        <v>1955</v>
       </c>
       <c r="D497" t="s">
-        <v>873</v>
+        <v>1990</v>
       </c>
       <c r="E497" t="s">
-        <v>1961</v>
+        <v>1956</v>
       </c>
       <c r="F497" t="s">
-        <v>1962</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="498" spans="1:6">
@@ -16302,16 +16356,16 @@
         <v>537</v>
       </c>
       <c r="C498" t="s">
-        <v>1963</v>
+        <v>1958</v>
       </c>
       <c r="D498" t="s">
-        <v>873</v>
+        <v>1990</v>
       </c>
       <c r="E498" t="s">
-        <v>1964</v>
+        <v>1959</v>
       </c>
       <c r="F498" t="s">
-        <v>1965</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="499" spans="1:6">
@@ -16322,16 +16376,16 @@
         <v>538</v>
       </c>
       <c r="C499" t="s">
-        <v>1966</v>
+        <v>1961</v>
       </c>
       <c r="D499" t="s">
-        <v>873</v>
+        <v>1990</v>
       </c>
       <c r="E499" t="s">
-        <v>1967</v>
+        <v>1962</v>
       </c>
       <c r="F499" t="s">
-        <v>1968</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="500" spans="1:6">
@@ -16342,16 +16396,16 @@
         <v>526</v>
       </c>
       <c r="C500" t="s">
-        <v>1930</v>
+        <v>1925</v>
       </c>
       <c r="D500" t="s">
-        <v>873</v>
+        <v>1990</v>
       </c>
       <c r="E500" t="s">
-        <v>1931</v>
+        <v>1926</v>
       </c>
       <c r="F500" t="s">
-        <v>1932</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="501" spans="1:6">
@@ -16362,16 +16416,16 @@
         <v>539</v>
       </c>
       <c r="C501" t="s">
-        <v>1969</v>
+        <v>1964</v>
       </c>
       <c r="D501" t="s">
-        <v>873</v>
+        <v>1990</v>
       </c>
       <c r="E501" t="s">
-        <v>1970</v>
+        <v>1965</v>
       </c>
       <c r="F501" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="502" spans="1:6">
@@ -16382,16 +16436,16 @@
         <v>540</v>
       </c>
       <c r="C502" t="s">
-        <v>1972</v>
+        <v>1967</v>
       </c>
       <c r="D502" t="s">
-        <v>873</v>
+        <v>1990</v>
       </c>
       <c r="E502" t="s">
-        <v>1973</v>
+        <v>1968</v>
       </c>
       <c r="F502" t="s">
-        <v>1974</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="503" spans="1:6">
@@ -16402,16 +16456,16 @@
         <v>541</v>
       </c>
       <c r="C503" t="s">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="D503" t="s">
-        <v>873</v>
+        <v>1990</v>
       </c>
       <c r="E503" t="s">
-        <v>1976</v>
+        <v>1971</v>
       </c>
       <c r="F503" t="s">
-        <v>1977</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="504" spans="1:6">
@@ -16422,16 +16476,16 @@
         <v>542</v>
       </c>
       <c r="C504" t="s">
-        <v>1978</v>
+        <v>1973</v>
       </c>
       <c r="D504" t="s">
-        <v>873</v>
+        <v>1990</v>
       </c>
       <c r="E504" t="s">
-        <v>1979</v>
+        <v>1974</v>
       </c>
       <c r="F504" t="s">
-        <v>1980</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="505" spans="1:6">
@@ -16442,16 +16496,16 @@
         <v>543</v>
       </c>
       <c r="C505" t="s">
-        <v>1981</v>
+        <v>1976</v>
       </c>
       <c r="D505" t="s">
-        <v>873</v>
+        <v>1990</v>
       </c>
       <c r="E505" t="s">
-        <v>1982</v>
+        <v>1977</v>
       </c>
       <c r="F505" t="s">
-        <v>1983</v>
+        <v>1978</v>
       </c>
     </row>
   </sheetData>

--- a/doc/voca.xlsx
+++ b/doc/voca.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2526" uniqueCount="1999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2526" uniqueCount="2000">
   <si>
     <t>#</t>
   </si>
@@ -6028,6 +6028,10 @@
   </si>
   <si>
     <t>[助動詞]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一個(母音開頭)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6395,8 +6399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6456,7 +6460,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>1999</v>
       </c>
       <c r="D3" t="s">
         <v>1026</v>

--- a/doc/voca.xlsx
+++ b/doc/voca.xlsx
@@ -6400,7 +6400,7 @@
   <dimension ref="A1:F505"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/doc/voca.xlsx
+++ b/doc/voca.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="2590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="2591">
   <si>
     <t>#</t>
   </si>
@@ -6129,25 +6129,13 @@
     <t>[haʊ]</t>
   </si>
   <si>
-    <t>[wʌt]</t>
-  </si>
-  <si>
-    <t>[wɛn]</t>
-  </si>
-  <si>
     <t>[wɛr]</t>
   </si>
   <si>
-    <t>[wɪtʃ]</t>
-  </si>
-  <si>
     <t>[hu]</t>
   </si>
   <si>
     <t>[huz]</t>
-  </si>
-  <si>
-    <t>[waɪ]</t>
   </si>
   <si>
     <t>[ænd]</t>
@@ -7812,6 +7800,26 @@
   </si>
   <si>
     <t>這朵花很美麗。</t>
+  </si>
+  <si>
+    <t>[hwʌt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[hwɛn]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[hwɛr]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[hwɪtʃ]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[hwaɪ]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8181,8 +8189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A479" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D530" sqref="D530"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8215,7 +8223,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2578</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8939,7 +8947,7 @@
         <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>2031</v>
+        <v>2586</v>
       </c>
       <c r="D33" t="s">
         <v>582</v>
@@ -8962,7 +8970,7 @@
         <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>2032</v>
+        <v>2587</v>
       </c>
       <c r="D34" t="s">
         <v>585</v>
@@ -8985,7 +8993,7 @@
         <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>2033</v>
+        <v>2588</v>
       </c>
       <c r="D35" t="s">
         <v>588</v>
@@ -9008,7 +9016,7 @@
         <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>2034</v>
+        <v>2589</v>
       </c>
       <c r="D36" t="s">
         <v>591</v>
@@ -9031,7 +9039,7 @@
         <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
       <c r="D37" t="s">
         <v>594</v>
@@ -9054,7 +9062,7 @@
         <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="D38" t="s">
         <v>597</v>
@@ -9077,7 +9085,7 @@
         <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>2037</v>
+        <v>2590</v>
       </c>
       <c r="D39" t="s">
         <v>600</v>
@@ -9100,7 +9108,7 @@
         <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>2038</v>
+        <v>2034</v>
       </c>
       <c r="D40" t="s">
         <v>603</v>
@@ -9123,7 +9131,7 @@
         <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>2039</v>
+        <v>2035</v>
       </c>
       <c r="D41" t="s">
         <v>606</v>
@@ -9146,7 +9154,7 @@
         <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>2040</v>
+        <v>2036</v>
       </c>
       <c r="D42" t="s">
         <v>609</v>
@@ -9169,7 +9177,7 @@
         <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>2041</v>
+        <v>2037</v>
       </c>
       <c r="D43" t="s">
         <v>1032</v>
@@ -9192,7 +9200,7 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>2042</v>
+        <v>2038</v>
       </c>
       <c r="D44" t="s">
         <v>614</v>
@@ -9215,7 +9223,7 @@
         <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>2043</v>
+        <v>2039</v>
       </c>
       <c r="D45" t="s">
         <v>617</v>
@@ -9238,7 +9246,7 @@
         <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>2044</v>
+        <v>2040</v>
       </c>
       <c r="D46" t="s">
         <v>620</v>
@@ -9261,7 +9269,7 @@
         <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>2045</v>
+        <v>2041</v>
       </c>
       <c r="D47" t="s">
         <v>623</v>
@@ -9284,7 +9292,7 @@
         <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>2046</v>
+        <v>2042</v>
       </c>
       <c r="D48" t="s">
         <v>626</v>
@@ -9307,7 +9315,7 @@
         <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>2047</v>
+        <v>2043</v>
       </c>
       <c r="D49" t="s">
         <v>629</v>
@@ -9330,7 +9338,7 @@
         <v>99</v>
       </c>
       <c r="C50" t="s">
-        <v>2048</v>
+        <v>2044</v>
       </c>
       <c r="D50" t="s">
         <v>632</v>
@@ -9353,7 +9361,7 @@
         <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="D51" t="s">
         <v>635</v>
@@ -9376,7 +9384,7 @@
         <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>2050</v>
+        <v>2046</v>
       </c>
       <c r="D52" t="s">
         <v>638</v>
@@ -9399,7 +9407,7 @@
         <v>102</v>
       </c>
       <c r="C53" t="s">
-        <v>2051</v>
+        <v>2047</v>
       </c>
       <c r="D53" t="s">
         <v>641</v>
@@ -9422,7 +9430,7 @@
         <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>2052</v>
+        <v>2048</v>
       </c>
       <c r="D54" t="s">
         <v>644</v>
@@ -9445,7 +9453,7 @@
         <v>104</v>
       </c>
       <c r="C55" t="s">
-        <v>2053</v>
+        <v>2049</v>
       </c>
       <c r="D55" t="s">
         <v>647</v>
@@ -9468,7 +9476,7 @@
         <v>105</v>
       </c>
       <c r="C56" t="s">
-        <v>2054</v>
+        <v>2050</v>
       </c>
       <c r="D56" t="s">
         <v>650</v>
@@ -9491,7 +9499,7 @@
         <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>2055</v>
+        <v>2051</v>
       </c>
       <c r="D57" t="s">
         <v>651</v>
@@ -9514,7 +9522,7 @@
         <v>107</v>
       </c>
       <c r="C58" t="s">
-        <v>2056</v>
+        <v>2052</v>
       </c>
       <c r="D58" t="s">
         <v>652</v>
@@ -9537,7 +9545,7 @@
         <v>108</v>
       </c>
       <c r="C59" t="s">
-        <v>2057</v>
+        <v>2053</v>
       </c>
       <c r="D59" t="s">
         <v>653</v>
@@ -9560,7 +9568,7 @@
         <v>109</v>
       </c>
       <c r="C60" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="D60" t="s">
         <v>654</v>
@@ -9583,7 +9591,7 @@
         <v>110</v>
       </c>
       <c r="C61" t="s">
-        <v>2059</v>
+        <v>2055</v>
       </c>
       <c r="D61" t="s">
         <v>655</v>
@@ -9606,7 +9614,7 @@
         <v>111</v>
       </c>
       <c r="C62" t="s">
-        <v>2060</v>
+        <v>2056</v>
       </c>
       <c r="D62" t="s">
         <v>656</v>
@@ -9629,7 +9637,7 @@
         <v>112</v>
       </c>
       <c r="C63" t="s">
-        <v>2061</v>
+        <v>2057</v>
       </c>
       <c r="D63" t="s">
         <v>657</v>
@@ -9652,7 +9660,7 @@
         <v>113</v>
       </c>
       <c r="C64" t="s">
-        <v>2062</v>
+        <v>2058</v>
       </c>
       <c r="D64" t="s">
         <v>658</v>
@@ -9675,7 +9683,7 @@
         <v>114</v>
       </c>
       <c r="C65" t="s">
-        <v>2063</v>
+        <v>2059</v>
       </c>
       <c r="D65" t="s">
         <v>659</v>
@@ -9698,7 +9706,7 @@
         <v>115</v>
       </c>
       <c r="C66" t="s">
-        <v>2064</v>
+        <v>2060</v>
       </c>
       <c r="D66" t="s">
         <v>660</v>
@@ -9721,7 +9729,7 @@
         <v>116</v>
       </c>
       <c r="C67" t="s">
-        <v>2065</v>
+        <v>2061</v>
       </c>
       <c r="D67" t="s">
         <v>661</v>
@@ -9744,7 +9752,7 @@
         <v>117</v>
       </c>
       <c r="C68" t="s">
-        <v>2066</v>
+        <v>2062</v>
       </c>
       <c r="D68" t="s">
         <v>662</v>
@@ -9767,7 +9775,7 @@
         <v>118</v>
       </c>
       <c r="C69" t="s">
-        <v>2067</v>
+        <v>2063</v>
       </c>
       <c r="D69" t="s">
         <v>663</v>
@@ -9790,7 +9798,7 @@
         <v>119</v>
       </c>
       <c r="C70" t="s">
-        <v>2068</v>
+        <v>2064</v>
       </c>
       <c r="D70" t="s">
         <v>664</v>
@@ -9813,7 +9821,7 @@
         <v>120</v>
       </c>
       <c r="C71" t="s">
-        <v>2069</v>
+        <v>2065</v>
       </c>
       <c r="D71" t="s">
         <v>665</v>
@@ -9836,7 +9844,7 @@
         <v>121</v>
       </c>
       <c r="C72" t="s">
-        <v>2070</v>
+        <v>2066</v>
       </c>
       <c r="D72" t="s">
         <v>666</v>
@@ -9859,7 +9867,7 @@
         <v>122</v>
       </c>
       <c r="C73" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="D73" t="s">
         <v>667</v>
@@ -9882,7 +9890,7 @@
         <v>123</v>
       </c>
       <c r="C74" t="s">
-        <v>2072</v>
+        <v>2068</v>
       </c>
       <c r="D74" t="s">
         <v>668</v>
@@ -9905,7 +9913,7 @@
         <v>124</v>
       </c>
       <c r="C75" t="s">
-        <v>2073</v>
+        <v>2069</v>
       </c>
       <c r="D75" t="s">
         <v>669</v>
@@ -9928,7 +9936,7 @@
         <v>125</v>
       </c>
       <c r="C76" t="s">
-        <v>2074</v>
+        <v>2070</v>
       </c>
       <c r="D76" t="s">
         <v>670</v>
@@ -9951,7 +9959,7 @@
         <v>126</v>
       </c>
       <c r="C77" t="s">
-        <v>2075</v>
+        <v>2071</v>
       </c>
       <c r="D77" t="s">
         <v>671</v>
@@ -9974,7 +9982,7 @@
         <v>127</v>
       </c>
       <c r="C78" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="D78" t="s">
         <v>672</v>
@@ -9997,7 +10005,7 @@
         <v>128</v>
       </c>
       <c r="C79" t="s">
-        <v>2077</v>
+        <v>2073</v>
       </c>
       <c r="D79" t="s">
         <v>673</v>
@@ -10020,7 +10028,7 @@
         <v>129</v>
       </c>
       <c r="C80" t="s">
-        <v>2078</v>
+        <v>2074</v>
       </c>
       <c r="D80" t="s">
         <v>674</v>
@@ -10043,7 +10051,7 @@
         <v>130</v>
       </c>
       <c r="C81" t="s">
-        <v>2079</v>
+        <v>2075</v>
       </c>
       <c r="D81" t="s">
         <v>675</v>
@@ -10066,7 +10074,7 @@
         <v>131</v>
       </c>
       <c r="C82" t="s">
-        <v>2080</v>
+        <v>2076</v>
       </c>
       <c r="D82" t="s">
         <v>676</v>
@@ -10089,7 +10097,7 @@
         <v>132</v>
       </c>
       <c r="C83" t="s">
-        <v>2081</v>
+        <v>2077</v>
       </c>
       <c r="D83" t="s">
         <v>677</v>
@@ -10112,7 +10120,7 @@
         <v>133</v>
       </c>
       <c r="C84" t="s">
-        <v>2082</v>
+        <v>2078</v>
       </c>
       <c r="D84" t="s">
         <v>678</v>
@@ -10135,7 +10143,7 @@
         <v>134</v>
       </c>
       <c r="C85" t="s">
-        <v>2083</v>
+        <v>2079</v>
       </c>
       <c r="D85" t="s">
         <v>679</v>
@@ -10158,7 +10166,7 @@
         <v>135</v>
       </c>
       <c r="C86" t="s">
-        <v>2084</v>
+        <v>2080</v>
       </c>
       <c r="D86" t="s">
         <v>682</v>
@@ -10181,7 +10189,7 @@
         <v>136</v>
       </c>
       <c r="C87" t="s">
-        <v>2085</v>
+        <v>2081</v>
       </c>
       <c r="D87" t="s">
         <v>685</v>
@@ -10204,7 +10212,7 @@
         <v>137</v>
       </c>
       <c r="C88" t="s">
-        <v>2086</v>
+        <v>2082</v>
       </c>
       <c r="D88" t="s">
         <v>688</v>
@@ -10227,7 +10235,7 @@
         <v>138</v>
       </c>
       <c r="C89" t="s">
-        <v>2087</v>
+        <v>2083</v>
       </c>
       <c r="D89" t="s">
         <v>691</v>
@@ -10273,7 +10281,7 @@
         <v>140</v>
       </c>
       <c r="C91" t="s">
-        <v>2088</v>
+        <v>2084</v>
       </c>
       <c r="D91" t="s">
         <v>697</v>
@@ -10296,7 +10304,7 @@
         <v>141</v>
       </c>
       <c r="C92" t="s">
-        <v>2089</v>
+        <v>2085</v>
       </c>
       <c r="D92" t="s">
         <v>700</v>
@@ -10319,7 +10327,7 @@
         <v>142</v>
       </c>
       <c r="C93" t="s">
-        <v>2090</v>
+        <v>2086</v>
       </c>
       <c r="D93" t="s">
         <v>703</v>
@@ -10342,7 +10350,7 @@
         <v>143</v>
       </c>
       <c r="C94" t="s">
-        <v>2091</v>
+        <v>2087</v>
       </c>
       <c r="D94" t="s">
         <v>706</v>
@@ -10365,7 +10373,7 @@
         <v>144</v>
       </c>
       <c r="C95" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
       <c r="D95" t="s">
         <v>709</v>
@@ -10388,7 +10396,7 @@
         <v>145</v>
       </c>
       <c r="C96" t="s">
-        <v>2093</v>
+        <v>2089</v>
       </c>
       <c r="D96" t="s">
         <v>712</v>
@@ -10411,7 +10419,7 @@
         <v>146</v>
       </c>
       <c r="C97" t="s">
-        <v>2094</v>
+        <v>2090</v>
       </c>
       <c r="D97" t="s">
         <v>715</v>
@@ -10434,7 +10442,7 @@
         <v>147</v>
       </c>
       <c r="C98" t="s">
-        <v>2095</v>
+        <v>2091</v>
       </c>
       <c r="D98" t="s">
         <v>718</v>
@@ -10457,7 +10465,7 @@
         <v>148</v>
       </c>
       <c r="C99" t="s">
-        <v>2096</v>
+        <v>2092</v>
       </c>
       <c r="D99" t="s">
         <v>721</v>
@@ -10480,7 +10488,7 @@
         <v>149</v>
       </c>
       <c r="C100" t="s">
-        <v>2097</v>
+        <v>2093</v>
       </c>
       <c r="D100" t="s">
         <v>724</v>
@@ -10503,7 +10511,7 @@
         <v>150</v>
       </c>
       <c r="C101" t="s">
-        <v>2098</v>
+        <v>2094</v>
       </c>
       <c r="D101" t="s">
         <v>727</v>
@@ -10526,7 +10534,7 @@
         <v>151</v>
       </c>
       <c r="C102" t="s">
-        <v>2099</v>
+        <v>2095</v>
       </c>
       <c r="D102" t="s">
         <v>730</v>
@@ -10549,7 +10557,7 @@
         <v>152</v>
       </c>
       <c r="C103" t="s">
-        <v>2100</v>
+        <v>2096</v>
       </c>
       <c r="D103" t="s">
         <v>733</v>
@@ -10572,7 +10580,7 @@
         <v>153</v>
       </c>
       <c r="C104" t="s">
-        <v>2101</v>
+        <v>2097</v>
       </c>
       <c r="D104" t="s">
         <v>736</v>
@@ -10595,7 +10603,7 @@
         <v>154</v>
       </c>
       <c r="C105" t="s">
-        <v>2102</v>
+        <v>2098</v>
       </c>
       <c r="D105" t="s">
         <v>739</v>
@@ -10618,7 +10626,7 @@
         <v>155</v>
       </c>
       <c r="C106" t="s">
-        <v>2103</v>
+        <v>2099</v>
       </c>
       <c r="D106" t="s">
         <v>742</v>
@@ -10641,7 +10649,7 @@
         <v>156</v>
       </c>
       <c r="C107" t="s">
-        <v>2104</v>
+        <v>2100</v>
       </c>
       <c r="D107" t="s">
         <v>745</v>
@@ -10664,7 +10672,7 @@
         <v>157</v>
       </c>
       <c r="C108" t="s">
-        <v>2105</v>
+        <v>2101</v>
       </c>
       <c r="D108" t="s">
         <v>748</v>
@@ -10687,7 +10695,7 @@
         <v>158</v>
       </c>
       <c r="C109" t="s">
-        <v>2106</v>
+        <v>2102</v>
       </c>
       <c r="D109" t="s">
         <v>751</v>
@@ -10710,7 +10718,7 @@
         <v>159</v>
       </c>
       <c r="C110" t="s">
-        <v>2107</v>
+        <v>2103</v>
       </c>
       <c r="D110" t="s">
         <v>752</v>
@@ -10733,7 +10741,7 @@
         <v>160</v>
       </c>
       <c r="C111" t="s">
-        <v>2108</v>
+        <v>2104</v>
       </c>
       <c r="D111" t="s">
         <v>755</v>
@@ -10756,7 +10764,7 @@
         <v>161</v>
       </c>
       <c r="C112" t="s">
-        <v>2109</v>
+        <v>2105</v>
       </c>
       <c r="D112" t="s">
         <v>756</v>
@@ -10779,7 +10787,7 @@
         <v>162</v>
       </c>
       <c r="C113" t="s">
-        <v>2110</v>
+        <v>2106</v>
       </c>
       <c r="D113" t="s">
         <v>759</v>
@@ -10802,7 +10810,7 @@
         <v>163</v>
       </c>
       <c r="C114" t="s">
-        <v>2111</v>
+        <v>2107</v>
       </c>
       <c r="D114" t="s">
         <v>762</v>
@@ -10825,7 +10833,7 @@
         <v>164</v>
       </c>
       <c r="C115" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
       <c r="D115" t="s">
         <v>763</v>
@@ -10848,7 +10856,7 @@
         <v>165</v>
       </c>
       <c r="C116" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
       <c r="D116" t="s">
         <v>766</v>
@@ -10871,7 +10879,7 @@
         <v>166</v>
       </c>
       <c r="C117" t="s">
-        <v>2114</v>
+        <v>2110</v>
       </c>
       <c r="D117" t="s">
         <v>769</v>
@@ -10894,7 +10902,7 @@
         <v>167</v>
       </c>
       <c r="C118" t="s">
-        <v>2115</v>
+        <v>2111</v>
       </c>
       <c r="D118" t="s">
         <v>772</v>
@@ -10917,7 +10925,7 @@
         <v>168</v>
       </c>
       <c r="C119" t="s">
-        <v>2116</v>
+        <v>2112</v>
       </c>
       <c r="D119" t="s">
         <v>775</v>
@@ -10940,7 +10948,7 @@
         <v>169</v>
       </c>
       <c r="C120" t="s">
-        <v>2117</v>
+        <v>2113</v>
       </c>
       <c r="D120" t="s">
         <v>778</v>
@@ -10963,7 +10971,7 @@
         <v>170</v>
       </c>
       <c r="C121" t="s">
-        <v>2118</v>
+        <v>2114</v>
       </c>
       <c r="D121" t="s">
         <v>781</v>
@@ -10986,7 +10994,7 @@
         <v>171</v>
       </c>
       <c r="C122" t="s">
-        <v>2119</v>
+        <v>2115</v>
       </c>
       <c r="D122" t="s">
         <v>784</v>
@@ -11009,7 +11017,7 @@
         <v>172</v>
       </c>
       <c r="C123" t="s">
-        <v>2120</v>
+        <v>2116</v>
       </c>
       <c r="D123" t="s">
         <v>787</v>
@@ -11032,7 +11040,7 @@
         <v>173</v>
       </c>
       <c r="C124" t="s">
-        <v>2121</v>
+        <v>2117</v>
       </c>
       <c r="D124" t="s">
         <v>790</v>
@@ -11055,7 +11063,7 @@
         <v>174</v>
       </c>
       <c r="C125" t="s">
-        <v>2122</v>
+        <v>2118</v>
       </c>
       <c r="D125" t="s">
         <v>793</v>
@@ -11078,7 +11086,7 @@
         <v>175</v>
       </c>
       <c r="C126" t="s">
-        <v>2123</v>
+        <v>2119</v>
       </c>
       <c r="D126" t="s">
         <v>796</v>
@@ -11101,7 +11109,7 @@
         <v>176</v>
       </c>
       <c r="C127" t="s">
-        <v>2124</v>
+        <v>2120</v>
       </c>
       <c r="D127" t="s">
         <v>799</v>
@@ -11124,7 +11132,7 @@
         <v>177</v>
       </c>
       <c r="C128" t="s">
-        <v>2125</v>
+        <v>2121</v>
       </c>
       <c r="D128" t="s">
         <v>802</v>
@@ -11147,7 +11155,7 @@
         <v>178</v>
       </c>
       <c r="C129" t="s">
-        <v>2126</v>
+        <v>2122</v>
       </c>
       <c r="D129" t="s">
         <v>805</v>
@@ -11170,7 +11178,7 @@
         <v>179</v>
       </c>
       <c r="C130" t="s">
-        <v>2127</v>
+        <v>2123</v>
       </c>
       <c r="D130" t="s">
         <v>808</v>
@@ -11193,7 +11201,7 @@
         <v>180</v>
       </c>
       <c r="C131" t="s">
-        <v>2128</v>
+        <v>2124</v>
       </c>
       <c r="D131" t="s">
         <v>811</v>
@@ -11216,7 +11224,7 @@
         <v>181</v>
       </c>
       <c r="C132" t="s">
-        <v>2129</v>
+        <v>2125</v>
       </c>
       <c r="D132" t="s">
         <v>814</v>
@@ -11239,7 +11247,7 @@
         <v>182</v>
       </c>
       <c r="C133" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
       <c r="D133" t="s">
         <v>817</v>
@@ -11262,7 +11270,7 @@
         <v>183</v>
       </c>
       <c r="C134" t="s">
-        <v>2131</v>
+        <v>2127</v>
       </c>
       <c r="D134" t="s">
         <v>820</v>
@@ -11285,7 +11293,7 @@
         <v>184</v>
       </c>
       <c r="C135" t="s">
-        <v>2132</v>
+        <v>2128</v>
       </c>
       <c r="D135" t="s">
         <v>823</v>
@@ -11308,7 +11316,7 @@
         <v>185</v>
       </c>
       <c r="C136" t="s">
-        <v>2133</v>
+        <v>2129</v>
       </c>
       <c r="D136" t="s">
         <v>826</v>
@@ -11331,7 +11339,7 @@
         <v>186</v>
       </c>
       <c r="C137" t="s">
-        <v>2134</v>
+        <v>2130</v>
       </c>
       <c r="D137" t="s">
         <v>829</v>
@@ -11354,7 +11362,7 @@
         <v>187</v>
       </c>
       <c r="C138" t="s">
-        <v>2135</v>
+        <v>2131</v>
       </c>
       <c r="D138" t="s">
         <v>832</v>
@@ -11377,7 +11385,7 @@
         <v>188</v>
       </c>
       <c r="C139" t="s">
-        <v>2136</v>
+        <v>2132</v>
       </c>
       <c r="D139" t="s">
         <v>835</v>
@@ -11400,7 +11408,7 @@
         <v>189</v>
       </c>
       <c r="C140" t="s">
-        <v>2137</v>
+        <v>2133</v>
       </c>
       <c r="D140" t="s">
         <v>838</v>
@@ -11423,7 +11431,7 @@
         <v>190</v>
       </c>
       <c r="C141" t="s">
-        <v>2138</v>
+        <v>2134</v>
       </c>
       <c r="D141" t="s">
         <v>841</v>
@@ -11446,7 +11454,7 @@
         <v>191</v>
       </c>
       <c r="C142" t="s">
-        <v>2139</v>
+        <v>2135</v>
       </c>
       <c r="D142" t="s">
         <v>844</v>
@@ -11469,7 +11477,7 @@
         <v>192</v>
       </c>
       <c r="C143" t="s">
-        <v>2140</v>
+        <v>2136</v>
       </c>
       <c r="D143" t="s">
         <v>847</v>
@@ -11492,7 +11500,7 @@
         <v>193</v>
       </c>
       <c r="C144" t="s">
-        <v>2141</v>
+        <v>2137</v>
       </c>
       <c r="D144" t="s">
         <v>850</v>
@@ -11515,7 +11523,7 @@
         <v>194</v>
       </c>
       <c r="C145" t="s">
-        <v>2142</v>
+        <v>2138</v>
       </c>
       <c r="D145" t="s">
         <v>853</v>
@@ -11538,7 +11546,7 @@
         <v>195</v>
       </c>
       <c r="C146" t="s">
-        <v>2143</v>
+        <v>2139</v>
       </c>
       <c r="D146" t="s">
         <v>856</v>
@@ -11561,7 +11569,7 @@
         <v>196</v>
       </c>
       <c r="C147" t="s">
-        <v>2144</v>
+        <v>2140</v>
       </c>
       <c r="D147" t="s">
         <v>859</v>
@@ -11584,7 +11592,7 @@
         <v>197</v>
       </c>
       <c r="C148" t="s">
-        <v>2145</v>
+        <v>2141</v>
       </c>
       <c r="D148" t="s">
         <v>862</v>
@@ -11607,7 +11615,7 @@
         <v>198</v>
       </c>
       <c r="C149" t="s">
-        <v>2146</v>
+        <v>2142</v>
       </c>
       <c r="D149" t="s">
         <v>865</v>
@@ -11630,7 +11638,7 @@
         <v>199</v>
       </c>
       <c r="C150" t="s">
-        <v>2147</v>
+        <v>2143</v>
       </c>
       <c r="D150" t="s">
         <v>868</v>
@@ -11653,7 +11661,7 @@
         <v>200</v>
       </c>
       <c r="C151" t="s">
-        <v>2148</v>
+        <v>2144</v>
       </c>
       <c r="D151" t="s">
         <v>871</v>
@@ -11676,7 +11684,7 @@
         <v>201</v>
       </c>
       <c r="C152" t="s">
-        <v>2149</v>
+        <v>2145</v>
       </c>
       <c r="D152" t="s">
         <v>875</v>
@@ -11699,7 +11707,7 @@
         <v>202</v>
       </c>
       <c r="C153" t="s">
-        <v>2150</v>
+        <v>2146</v>
       </c>
       <c r="D153" t="s">
         <v>878</v>
@@ -11722,7 +11730,7 @@
         <v>203</v>
       </c>
       <c r="C154" t="s">
-        <v>2151</v>
+        <v>2147</v>
       </c>
       <c r="D154" t="s">
         <v>881</v>
@@ -11745,7 +11753,7 @@
         <v>204</v>
       </c>
       <c r="C155" t="s">
-        <v>2152</v>
+        <v>2148</v>
       </c>
       <c r="D155" t="s">
         <v>884</v>
@@ -11768,7 +11776,7 @@
         <v>205</v>
       </c>
       <c r="C156" t="s">
-        <v>2153</v>
+        <v>2149</v>
       </c>
       <c r="D156" t="s">
         <v>887</v>
@@ -11791,7 +11799,7 @@
         <v>206</v>
       </c>
       <c r="C157" t="s">
-        <v>2154</v>
+        <v>2150</v>
       </c>
       <c r="D157" t="s">
         <v>890</v>
@@ -11814,7 +11822,7 @@
         <v>207</v>
       </c>
       <c r="C158" t="s">
-        <v>2155</v>
+        <v>2151</v>
       </c>
       <c r="D158" t="s">
         <v>893</v>
@@ -11837,7 +11845,7 @@
         <v>208</v>
       </c>
       <c r="C159" t="s">
-        <v>2156</v>
+        <v>2152</v>
       </c>
       <c r="D159" t="s">
         <v>896</v>
@@ -11860,7 +11868,7 @@
         <v>209</v>
       </c>
       <c r="C160" t="s">
-        <v>2157</v>
+        <v>2153</v>
       </c>
       <c r="D160" t="s">
         <v>899</v>
@@ -11883,7 +11891,7 @@
         <v>210</v>
       </c>
       <c r="C161" t="s">
-        <v>2158</v>
+        <v>2154</v>
       </c>
       <c r="D161" t="s">
         <v>902</v>
@@ -11906,7 +11914,7 @@
         <v>211</v>
       </c>
       <c r="C162" t="s">
-        <v>2159</v>
+        <v>2155</v>
       </c>
       <c r="D162" t="s">
         <v>905</v>
@@ -11929,7 +11937,7 @@
         <v>212</v>
       </c>
       <c r="C163" t="s">
-        <v>2160</v>
+        <v>2156</v>
       </c>
       <c r="D163" t="s">
         <v>908</v>
@@ -11952,7 +11960,7 @@
         <v>213</v>
       </c>
       <c r="C164" t="s">
-        <v>2161</v>
+        <v>2157</v>
       </c>
       <c r="D164" t="s">
         <v>911</v>
@@ -11975,7 +11983,7 @@
         <v>214</v>
       </c>
       <c r="C165" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="D165" t="s">
         <v>914</v>
@@ -11998,7 +12006,7 @@
         <v>215</v>
       </c>
       <c r="C166" t="s">
-        <v>2163</v>
+        <v>2159</v>
       </c>
       <c r="D166" t="s">
         <v>917</v>
@@ -12021,7 +12029,7 @@
         <v>216</v>
       </c>
       <c r="C167" t="s">
-        <v>2164</v>
+        <v>2160</v>
       </c>
       <c r="D167" t="s">
         <v>920</v>
@@ -12044,7 +12052,7 @@
         <v>217</v>
       </c>
       <c r="C168" t="s">
-        <v>2165</v>
+        <v>2161</v>
       </c>
       <c r="D168" t="s">
         <v>923</v>
@@ -12067,7 +12075,7 @@
         <v>218</v>
       </c>
       <c r="C169" t="s">
-        <v>2166</v>
+        <v>2162</v>
       </c>
       <c r="D169" t="s">
         <v>926</v>
@@ -12090,7 +12098,7 @@
         <v>219</v>
       </c>
       <c r="C170" t="s">
-        <v>2167</v>
+        <v>2163</v>
       </c>
       <c r="D170" t="s">
         <v>929</v>
@@ -12113,7 +12121,7 @@
         <v>220</v>
       </c>
       <c r="C171" t="s">
-        <v>2168</v>
+        <v>2164</v>
       </c>
       <c r="D171" t="s">
         <v>932</v>
@@ -12136,7 +12144,7 @@
         <v>221</v>
       </c>
       <c r="C172" t="s">
-        <v>2169</v>
+        <v>2165</v>
       </c>
       <c r="D172" t="s">
         <v>935</v>
@@ -12159,7 +12167,7 @@
         <v>222</v>
       </c>
       <c r="C173" t="s">
-        <v>2170</v>
+        <v>2166</v>
       </c>
       <c r="D173" t="s">
         <v>938</v>
@@ -12182,7 +12190,7 @@
         <v>223</v>
       </c>
       <c r="C174" t="s">
-        <v>2171</v>
+        <v>2167</v>
       </c>
       <c r="D174" t="s">
         <v>941</v>
@@ -12205,7 +12213,7 @@
         <v>224</v>
       </c>
       <c r="C175" t="s">
-        <v>2172</v>
+        <v>2168</v>
       </c>
       <c r="D175" t="s">
         <v>945</v>
@@ -12228,7 +12236,7 @@
         <v>225</v>
       </c>
       <c r="C176" t="s">
-        <v>2173</v>
+        <v>2169</v>
       </c>
       <c r="D176" t="s">
         <v>948</v>
@@ -12251,7 +12259,7 @@
         <v>226</v>
       </c>
       <c r="C177" t="s">
-        <v>2174</v>
+        <v>2170</v>
       </c>
       <c r="D177" t="s">
         <v>952</v>
@@ -12274,7 +12282,7 @@
         <v>227</v>
       </c>
       <c r="C178" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
       <c r="D178" t="s">
         <v>955</v>
@@ -12297,7 +12305,7 @@
         <v>228</v>
       </c>
       <c r="C179" t="s">
-        <v>2176</v>
+        <v>2172</v>
       </c>
       <c r="D179" t="s">
         <v>958</v>
@@ -12320,7 +12328,7 @@
         <v>229</v>
       </c>
       <c r="C180" t="s">
-        <v>2177</v>
+        <v>2173</v>
       </c>
       <c r="D180" t="s">
         <v>961</v>
@@ -12343,7 +12351,7 @@
         <v>230</v>
       </c>
       <c r="C181" t="s">
-        <v>2178</v>
+        <v>2174</v>
       </c>
       <c r="D181" t="s">
         <v>964</v>
@@ -12366,7 +12374,7 @@
         <v>231</v>
       </c>
       <c r="C182" t="s">
-        <v>2179</v>
+        <v>2175</v>
       </c>
       <c r="D182" t="s">
         <v>967</v>
@@ -12389,7 +12397,7 @@
         <v>232</v>
       </c>
       <c r="C183" t="s">
-        <v>2180</v>
+        <v>2176</v>
       </c>
       <c r="D183" t="s">
         <v>970</v>
@@ -12412,7 +12420,7 @@
         <v>233</v>
       </c>
       <c r="C184" t="s">
-        <v>2181</v>
+        <v>2177</v>
       </c>
       <c r="D184" t="s">
         <v>973</v>
@@ -12435,7 +12443,7 @@
         <v>234</v>
       </c>
       <c r="C185" t="s">
-        <v>2182</v>
+        <v>2178</v>
       </c>
       <c r="D185" t="s">
         <v>976</v>
@@ -12458,7 +12466,7 @@
         <v>235</v>
       </c>
       <c r="C186" t="s">
-        <v>2183</v>
+        <v>2179</v>
       </c>
       <c r="D186" t="s">
         <v>979</v>
@@ -12481,7 +12489,7 @@
         <v>236</v>
       </c>
       <c r="C187" t="s">
-        <v>2184</v>
+        <v>2180</v>
       </c>
       <c r="D187" t="s">
         <v>982</v>
@@ -12504,7 +12512,7 @@
         <v>237</v>
       </c>
       <c r="C188" t="s">
-        <v>2185</v>
+        <v>2181</v>
       </c>
       <c r="D188" t="s">
         <v>985</v>
@@ -12527,7 +12535,7 @@
         <v>238</v>
       </c>
       <c r="C189" t="s">
-        <v>2186</v>
+        <v>2182</v>
       </c>
       <c r="D189" t="s">
         <v>988</v>
@@ -12550,7 +12558,7 @@
         <v>239</v>
       </c>
       <c r="C190" t="s">
-        <v>2187</v>
+        <v>2183</v>
       </c>
       <c r="D190" t="s">
         <v>991</v>
@@ -12573,7 +12581,7 @@
         <v>240</v>
       </c>
       <c r="C191" t="s">
-        <v>2188</v>
+        <v>2184</v>
       </c>
       <c r="D191" t="s">
         <v>994</v>
@@ -12596,7 +12604,7 @@
         <v>241</v>
       </c>
       <c r="C192" t="s">
-        <v>2189</v>
+        <v>2185</v>
       </c>
       <c r="D192" t="s">
         <v>997</v>
@@ -12619,7 +12627,7 @@
         <v>242</v>
       </c>
       <c r="C193" t="s">
-        <v>2190</v>
+        <v>2186</v>
       </c>
       <c r="D193" t="s">
         <v>1000</v>
@@ -12642,7 +12650,7 @@
         <v>243</v>
       </c>
       <c r="C194" t="s">
-        <v>2191</v>
+        <v>2187</v>
       </c>
       <c r="D194" t="s">
         <v>1003</v>
@@ -12665,7 +12673,7 @@
         <v>244</v>
       </c>
       <c r="C195" t="s">
-        <v>2192</v>
+        <v>2188</v>
       </c>
       <c r="D195" t="s">
         <v>1006</v>
@@ -12688,7 +12696,7 @@
         <v>245</v>
       </c>
       <c r="C196" t="s">
-        <v>2193</v>
+        <v>2189</v>
       </c>
       <c r="D196" t="s">
         <v>1009</v>
@@ -12711,7 +12719,7 @@
         <v>246</v>
       </c>
       <c r="C197" t="s">
-        <v>2194</v>
+        <v>2190</v>
       </c>
       <c r="D197" t="s">
         <v>1012</v>
@@ -12734,7 +12742,7 @@
         <v>247</v>
       </c>
       <c r="C198" t="s">
-        <v>2195</v>
+        <v>2191</v>
       </c>
       <c r="D198" t="s">
         <v>1015</v>
@@ -12757,7 +12765,7 @@
         <v>248</v>
       </c>
       <c r="C199" t="s">
-        <v>2196</v>
+        <v>2192</v>
       </c>
       <c r="D199" t="s">
         <v>1018</v>
@@ -12780,7 +12788,7 @@
         <v>249</v>
       </c>
       <c r="C200" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="D200" t="s">
         <v>1021</v>
@@ -12803,7 +12811,7 @@
         <v>250</v>
       </c>
       <c r="C201" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="D201" t="s">
         <v>1978</v>
@@ -12826,7 +12834,7 @@
         <v>251</v>
       </c>
       <c r="C202" t="s">
-        <v>2199</v>
+        <v>2195</v>
       </c>
       <c r="D202" t="s">
         <v>1096</v>
@@ -12849,7 +12857,7 @@
         <v>252</v>
       </c>
       <c r="C203" t="s">
-        <v>2200</v>
+        <v>2196</v>
       </c>
       <c r="D203" t="s">
         <v>1099</v>
@@ -12872,7 +12880,7 @@
         <v>253</v>
       </c>
       <c r="C204" t="s">
-        <v>2201</v>
+        <v>2197</v>
       </c>
       <c r="D204" t="s">
         <v>1102</v>
@@ -12895,7 +12903,7 @@
         <v>254</v>
       </c>
       <c r="C205" t="s">
-        <v>2202</v>
+        <v>2198</v>
       </c>
       <c r="D205" t="s">
         <v>1105</v>
@@ -12918,7 +12926,7 @@
         <v>255</v>
       </c>
       <c r="C206" t="s">
-        <v>2203</v>
+        <v>2199</v>
       </c>
       <c r="D206" t="s">
         <v>1108</v>
@@ -12941,7 +12949,7 @@
         <v>256</v>
       </c>
       <c r="C207" t="s">
-        <v>2204</v>
+        <v>2200</v>
       </c>
       <c r="D207" t="s">
         <v>1111</v>
@@ -12964,7 +12972,7 @@
         <v>257</v>
       </c>
       <c r="C208" t="s">
-        <v>2205</v>
+        <v>2201</v>
       </c>
       <c r="D208" t="s">
         <v>1114</v>
@@ -12987,7 +12995,7 @@
         <v>258</v>
       </c>
       <c r="C209" t="s">
-        <v>2206</v>
+        <v>2202</v>
       </c>
       <c r="D209" t="s">
         <v>1117</v>
@@ -13010,7 +13018,7 @@
         <v>259</v>
       </c>
       <c r="C210" t="s">
-        <v>2207</v>
+        <v>2203</v>
       </c>
       <c r="D210" t="s">
         <v>1120</v>
@@ -13033,7 +13041,7 @@
         <v>260</v>
       </c>
       <c r="C211" t="s">
-        <v>2208</v>
+        <v>2204</v>
       </c>
       <c r="D211" t="s">
         <v>1123</v>
@@ -13056,7 +13064,7 @@
         <v>261</v>
       </c>
       <c r="C212" t="s">
-        <v>2209</v>
+        <v>2205</v>
       </c>
       <c r="D212" t="s">
         <v>1126</v>
@@ -13079,7 +13087,7 @@
         <v>262</v>
       </c>
       <c r="C213" t="s">
-        <v>2210</v>
+        <v>2206</v>
       </c>
       <c r="D213" t="s">
         <v>1129</v>
@@ -13102,7 +13110,7 @@
         <v>263</v>
       </c>
       <c r="C214" t="s">
-        <v>2211</v>
+        <v>2207</v>
       </c>
       <c r="D214" t="s">
         <v>1132</v>
@@ -13125,7 +13133,7 @@
         <v>1135</v>
       </c>
       <c r="C215" t="s">
-        <v>2212</v>
+        <v>2208</v>
       </c>
       <c r="D215" t="s">
         <v>1136</v>
@@ -13148,7 +13156,7 @@
         <v>264</v>
       </c>
       <c r="C216" t="s">
-        <v>2213</v>
+        <v>2209</v>
       </c>
       <c r="D216" t="s">
         <v>1139</v>
@@ -13171,7 +13179,7 @@
         <v>265</v>
       </c>
       <c r="C217" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="D217" t="s">
         <v>1142</v>
@@ -13194,7 +13202,7 @@
         <v>266</v>
       </c>
       <c r="C218" t="s">
-        <v>2215</v>
+        <v>2211</v>
       </c>
       <c r="D218" t="s">
         <v>1145</v>
@@ -13217,7 +13225,7 @@
         <v>267</v>
       </c>
       <c r="C219" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
       <c r="D219" t="s">
         <v>1148</v>
@@ -13240,7 +13248,7 @@
         <v>268</v>
       </c>
       <c r="C220" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="D220" t="s">
         <v>1151</v>
@@ -13263,7 +13271,7 @@
         <v>269</v>
       </c>
       <c r="C221" t="s">
-        <v>2218</v>
+        <v>2214</v>
       </c>
       <c r="D221" t="s">
         <v>1154</v>
@@ -13286,7 +13294,7 @@
         <v>270</v>
       </c>
       <c r="C222" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="D222" t="s">
         <v>1157</v>
@@ -13309,7 +13317,7 @@
         <v>271</v>
       </c>
       <c r="C223" t="s">
-        <v>2219</v>
+        <v>2215</v>
       </c>
       <c r="D223" t="s">
         <v>1160</v>
@@ -13332,7 +13340,7 @@
         <v>272</v>
       </c>
       <c r="C224" t="s">
-        <v>2220</v>
+        <v>2216</v>
       </c>
       <c r="D224" t="s">
         <v>1163</v>
@@ -13355,7 +13363,7 @@
         <v>273</v>
       </c>
       <c r="C225" t="s">
-        <v>2221</v>
+        <v>2217</v>
       </c>
       <c r="D225" t="s">
         <v>1166</v>
@@ -13378,7 +13386,7 @@
         <v>274</v>
       </c>
       <c r="C226" t="s">
-        <v>2222</v>
+        <v>2218</v>
       </c>
       <c r="D226" t="s">
         <v>1169</v>
@@ -13401,7 +13409,7 @@
         <v>275</v>
       </c>
       <c r="C227" t="s">
-        <v>2223</v>
+        <v>2219</v>
       </c>
       <c r="D227" t="s">
         <v>1172</v>
@@ -13424,7 +13432,7 @@
         <v>276</v>
       </c>
       <c r="C228" t="s">
-        <v>2224</v>
+        <v>2220</v>
       </c>
       <c r="D228" t="s">
         <v>1175</v>
@@ -13447,7 +13455,7 @@
         <v>277</v>
       </c>
       <c r="C229" t="s">
-        <v>2106</v>
+        <v>2102</v>
       </c>
       <c r="D229" t="s">
         <v>1178</v>
@@ -13470,7 +13478,7 @@
         <v>278</v>
       </c>
       <c r="C230" t="s">
-        <v>2225</v>
+        <v>2221</v>
       </c>
       <c r="D230" t="s">
         <v>1181</v>
@@ -13493,7 +13501,7 @@
         <v>279</v>
       </c>
       <c r="C231" t="s">
-        <v>2226</v>
+        <v>2222</v>
       </c>
       <c r="D231" t="s">
         <v>1184</v>
@@ -13516,7 +13524,7 @@
         <v>280</v>
       </c>
       <c r="C232" t="s">
-        <v>2227</v>
+        <v>2223</v>
       </c>
       <c r="D232" t="s">
         <v>1187</v>
@@ -13539,7 +13547,7 @@
         <v>281</v>
       </c>
       <c r="C233" t="s">
-        <v>2228</v>
+        <v>2224</v>
       </c>
       <c r="D233" t="s">
         <v>1190</v>
@@ -13562,7 +13570,7 @@
         <v>282</v>
       </c>
       <c r="C234" t="s">
-        <v>2229</v>
+        <v>2225</v>
       </c>
       <c r="D234" t="s">
         <v>1193</v>
@@ -13585,7 +13593,7 @@
         <v>283</v>
       </c>
       <c r="C235" t="s">
-        <v>2230</v>
+        <v>2226</v>
       </c>
       <c r="D235" t="s">
         <v>1196</v>
@@ -13608,7 +13616,7 @@
         <v>284</v>
       </c>
       <c r="C236" t="s">
-        <v>2231</v>
+        <v>2227</v>
       </c>
       <c r="D236" t="s">
         <v>1199</v>
@@ -13631,7 +13639,7 @@
         <v>285</v>
       </c>
       <c r="C237" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
       <c r="D237" t="s">
         <v>1202</v>
@@ -13654,7 +13662,7 @@
         <v>286</v>
       </c>
       <c r="C238" t="s">
-        <v>2233</v>
+        <v>2229</v>
       </c>
       <c r="D238" t="s">
         <v>1205</v>
@@ -13677,7 +13685,7 @@
         <v>287</v>
       </c>
       <c r="C239" t="s">
-        <v>2234</v>
+        <v>2230</v>
       </c>
       <c r="D239" t="s">
         <v>1208</v>
@@ -13700,7 +13708,7 @@
         <v>288</v>
       </c>
       <c r="C240" t="s">
-        <v>2235</v>
+        <v>2231</v>
       </c>
       <c r="D240" t="s">
         <v>1211</v>
@@ -13723,7 +13731,7 @@
         <v>289</v>
       </c>
       <c r="C241" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="D241" t="s">
         <v>1214</v>
@@ -13746,7 +13754,7 @@
         <v>290</v>
       </c>
       <c r="C242" t="s">
-        <v>2237</v>
+        <v>2233</v>
       </c>
       <c r="D242" t="s">
         <v>1217</v>
@@ -13769,7 +13777,7 @@
         <v>176</v>
       </c>
       <c r="C243" t="s">
-        <v>2124</v>
+        <v>2120</v>
       </c>
       <c r="D243" t="s">
         <v>1220</v>
@@ -13792,7 +13800,7 @@
         <v>291</v>
       </c>
       <c r="C244" t="s">
-        <v>2238</v>
+        <v>2234</v>
       </c>
       <c r="D244" t="s">
         <v>1223</v>
@@ -13815,7 +13823,7 @@
         <v>292</v>
       </c>
       <c r="C245" t="s">
-        <v>2239</v>
+        <v>2235</v>
       </c>
       <c r="D245" t="s">
         <v>1226</v>
@@ -13838,7 +13846,7 @@
         <v>293</v>
       </c>
       <c r="C246" t="s">
-        <v>2240</v>
+        <v>2236</v>
       </c>
       <c r="D246" t="s">
         <v>1229</v>
@@ -13861,7 +13869,7 @@
         <v>230</v>
       </c>
       <c r="C247" t="s">
-        <v>2178</v>
+        <v>2174</v>
       </c>
       <c r="D247" t="s">
         <v>1232</v>
@@ -13884,7 +13892,7 @@
         <v>252</v>
       </c>
       <c r="C248" t="s">
-        <v>2200</v>
+        <v>2196</v>
       </c>
       <c r="D248" t="s">
         <v>1235</v>
@@ -13907,7 +13915,7 @@
         <v>247</v>
       </c>
       <c r="C249" t="s">
-        <v>2195</v>
+        <v>2191</v>
       </c>
       <c r="D249" t="s">
         <v>1238</v>
@@ -13930,7 +13938,7 @@
         <v>294</v>
       </c>
       <c r="C250" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
       <c r="D250" t="s">
         <v>1241</v>
@@ -13953,7 +13961,7 @@
         <v>295</v>
       </c>
       <c r="C251" t="s">
-        <v>2242</v>
+        <v>2238</v>
       </c>
       <c r="D251" t="s">
         <v>1244</v>
@@ -13976,7 +13984,7 @@
         <v>296</v>
       </c>
       <c r="C252" t="s">
-        <v>2243</v>
+        <v>2239</v>
       </c>
       <c r="D252" t="s">
         <v>1247</v>
@@ -13999,7 +14007,7 @@
         <v>297</v>
       </c>
       <c r="C253" t="s">
-        <v>2244</v>
+        <v>2240</v>
       </c>
       <c r="D253" t="s">
         <v>1250</v>
@@ -14022,7 +14030,7 @@
         <v>298</v>
       </c>
       <c r="C254" t="s">
-        <v>2245</v>
+        <v>2241</v>
       </c>
       <c r="D254" t="s">
         <v>1253</v>
@@ -14045,7 +14053,7 @@
         <v>299</v>
       </c>
       <c r="C255" t="s">
-        <v>2246</v>
+        <v>2242</v>
       </c>
       <c r="D255" t="s">
         <v>1256</v>
@@ -14068,7 +14076,7 @@
         <v>300</v>
       </c>
       <c r="C256" t="s">
-        <v>2247</v>
+        <v>2243</v>
       </c>
       <c r="D256" t="s">
         <v>1259</v>
@@ -14091,7 +14099,7 @@
         <v>301</v>
       </c>
       <c r="C257" t="s">
-        <v>2248</v>
+        <v>2244</v>
       </c>
       <c r="D257" t="s">
         <v>1262</v>
@@ -14114,7 +14122,7 @@
         <v>302</v>
       </c>
       <c r="C258" t="s">
-        <v>2249</v>
+        <v>2245</v>
       </c>
       <c r="D258" t="s">
         <v>1265</v>
@@ -14137,7 +14145,7 @@
         <v>303</v>
       </c>
       <c r="C259" t="s">
-        <v>2250</v>
+        <v>2246</v>
       </c>
       <c r="D259" t="s">
         <v>1268</v>
@@ -14160,7 +14168,7 @@
         <v>304</v>
       </c>
       <c r="C260" t="s">
-        <v>2251</v>
+        <v>2247</v>
       </c>
       <c r="D260" t="s">
         <v>1271</v>
@@ -14183,7 +14191,7 @@
         <v>305</v>
       </c>
       <c r="C261" t="s">
-        <v>2252</v>
+        <v>2248</v>
       </c>
       <c r="D261" t="s">
         <v>1274</v>
@@ -14206,7 +14214,7 @@
         <v>306</v>
       </c>
       <c r="C262" t="s">
-        <v>2253</v>
+        <v>2249</v>
       </c>
       <c r="D262" t="s">
         <v>1277</v>
@@ -14229,7 +14237,7 @@
         <v>307</v>
       </c>
       <c r="C263" t="s">
-        <v>2254</v>
+        <v>2250</v>
       </c>
       <c r="D263" t="s">
         <v>1280</v>
@@ -14252,7 +14260,7 @@
         <v>308</v>
       </c>
       <c r="C264" t="s">
-        <v>2255</v>
+        <v>2251</v>
       </c>
       <c r="D264" t="s">
         <v>1283</v>
@@ -14275,7 +14283,7 @@
         <v>309</v>
       </c>
       <c r="C265" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
       <c r="D265" t="s">
         <v>1286</v>
@@ -14298,7 +14306,7 @@
         <v>310</v>
       </c>
       <c r="C266" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="D266" t="s">
         <v>1289</v>
@@ -14321,7 +14329,7 @@
         <v>311</v>
       </c>
       <c r="C267" t="s">
-        <v>2258</v>
+        <v>2254</v>
       </c>
       <c r="D267" t="s">
         <v>1292</v>
@@ -14344,7 +14352,7 @@
         <v>312</v>
       </c>
       <c r="C268" t="s">
-        <v>2259</v>
+        <v>2255</v>
       </c>
       <c r="D268" t="s">
         <v>1295</v>
@@ -14367,7 +14375,7 @@
         <v>313</v>
       </c>
       <c r="C269" t="s">
-        <v>2260</v>
+        <v>2256</v>
       </c>
       <c r="D269" t="s">
         <v>1298</v>
@@ -14390,7 +14398,7 @@
         <v>314</v>
       </c>
       <c r="C270" t="s">
-        <v>2261</v>
+        <v>2257</v>
       </c>
       <c r="D270" t="s">
         <v>1301</v>
@@ -14413,7 +14421,7 @@
         <v>315</v>
       </c>
       <c r="C271" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="D271" t="s">
         <v>1304</v>
@@ -14436,7 +14444,7 @@
         <v>316</v>
       </c>
       <c r="C272" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
       <c r="D272" t="s">
         <v>1307</v>
@@ -14459,7 +14467,7 @@
         <v>317</v>
       </c>
       <c r="C273" t="s">
-        <v>2264</v>
+        <v>2260</v>
       </c>
       <c r="D273" t="s">
         <v>1310</v>
@@ -14482,7 +14490,7 @@
         <v>318</v>
       </c>
       <c r="C274" t="s">
-        <v>2265</v>
+        <v>2261</v>
       </c>
       <c r="D274" t="s">
         <v>1313</v>
@@ -14505,7 +14513,7 @@
         <v>319</v>
       </c>
       <c r="C275" t="s">
-        <v>2266</v>
+        <v>2262</v>
       </c>
       <c r="D275" t="s">
         <v>1316</v>
@@ -14528,7 +14536,7 @@
         <v>320</v>
       </c>
       <c r="C276" t="s">
-        <v>2267</v>
+        <v>2263</v>
       </c>
       <c r="D276" t="s">
         <v>1319</v>
@@ -14551,7 +14559,7 @@
         <v>321</v>
       </c>
       <c r="C277" t="s">
-        <v>2268</v>
+        <v>2264</v>
       </c>
       <c r="D277" t="s">
         <v>1322</v>
@@ -14574,7 +14582,7 @@
         <v>322</v>
       </c>
       <c r="C278" t="s">
-        <v>2269</v>
+        <v>2265</v>
       </c>
       <c r="D278" t="s">
         <v>1325</v>
@@ -14597,7 +14605,7 @@
         <v>323</v>
       </c>
       <c r="C279" t="s">
-        <v>2270</v>
+        <v>2266</v>
       </c>
       <c r="D279" t="s">
         <v>1328</v>
@@ -14620,7 +14628,7 @@
         <v>324</v>
       </c>
       <c r="C280" t="s">
-        <v>2271</v>
+        <v>2267</v>
       </c>
       <c r="D280" t="s">
         <v>1331</v>
@@ -14643,7 +14651,7 @@
         <v>325</v>
       </c>
       <c r="C281" t="s">
-        <v>2272</v>
+        <v>2268</v>
       </c>
       <c r="D281" t="s">
         <v>1334</v>
@@ -14666,7 +14674,7 @@
         <v>326</v>
       </c>
       <c r="C282" t="s">
-        <v>2273</v>
+        <v>2269</v>
       </c>
       <c r="D282" t="s">
         <v>1337</v>
@@ -14689,7 +14697,7 @@
         <v>327</v>
       </c>
       <c r="C283" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
       <c r="D283" t="s">
         <v>1340</v>
@@ -14712,7 +14720,7 @@
         <v>328</v>
       </c>
       <c r="C284" t="s">
-        <v>2275</v>
+        <v>2271</v>
       </c>
       <c r="D284" t="s">
         <v>1343</v>
@@ -14735,7 +14743,7 @@
         <v>329</v>
       </c>
       <c r="C285" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="D285" t="s">
         <v>1346</v>
@@ -14758,7 +14766,7 @@
         <v>330</v>
       </c>
       <c r="C286" t="s">
-        <v>2050</v>
+        <v>2046</v>
       </c>
       <c r="D286" t="s">
         <v>1349</v>
@@ -14781,7 +14789,7 @@
         <v>331</v>
       </c>
       <c r="C287" t="s">
-        <v>2277</v>
+        <v>2273</v>
       </c>
       <c r="D287" t="s">
         <v>1352</v>
@@ -14804,7 +14812,7 @@
         <v>332</v>
       </c>
       <c r="C288" t="s">
-        <v>2278</v>
+        <v>2274</v>
       </c>
       <c r="D288" t="s">
         <v>1355</v>
@@ -14827,7 +14835,7 @@
         <v>333</v>
       </c>
       <c r="C289" t="s">
-        <v>2279</v>
+        <v>2275</v>
       </c>
       <c r="D289" t="s">
         <v>1358</v>
@@ -14850,7 +14858,7 @@
         <v>334</v>
       </c>
       <c r="C290" t="s">
-        <v>2280</v>
+        <v>2276</v>
       </c>
       <c r="D290" t="s">
         <v>1361</v>
@@ -14873,7 +14881,7 @@
         <v>335</v>
       </c>
       <c r="C291" t="s">
-        <v>2281</v>
+        <v>2277</v>
       </c>
       <c r="D291" t="s">
         <v>1364</v>
@@ -14896,7 +14904,7 @@
         <v>336</v>
       </c>
       <c r="C292" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="D292" t="s">
         <v>1367</v>
@@ -14919,7 +14927,7 @@
         <v>337</v>
       </c>
       <c r="C293" t="s">
-        <v>2283</v>
+        <v>2279</v>
       </c>
       <c r="D293" t="s">
         <v>1370</v>
@@ -14942,7 +14950,7 @@
         <v>338</v>
       </c>
       <c r="C294" t="s">
-        <v>2284</v>
+        <v>2280</v>
       </c>
       <c r="D294" t="s">
         <v>1373</v>
@@ -14965,7 +14973,7 @@
         <v>339</v>
       </c>
       <c r="C295" t="s">
-        <v>2285</v>
+        <v>2281</v>
       </c>
       <c r="D295" t="s">
         <v>1376</v>
@@ -14988,7 +14996,7 @@
         <v>340</v>
       </c>
       <c r="C296" t="s">
-        <v>2286</v>
+        <v>2282</v>
       </c>
       <c r="D296" t="s">
         <v>1379</v>
@@ -15011,7 +15019,7 @@
         <v>341</v>
       </c>
       <c r="C297" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
       <c r="D297" t="s">
         <v>1382</v>
@@ -15034,7 +15042,7 @@
         <v>342</v>
       </c>
       <c r="C298" t="s">
-        <v>2288</v>
+        <v>2284</v>
       </c>
       <c r="D298" t="s">
         <v>1385</v>
@@ -15057,7 +15065,7 @@
         <v>343</v>
       </c>
       <c r="C299" t="s">
-        <v>2289</v>
+        <v>2285</v>
       </c>
       <c r="D299" t="s">
         <v>1388</v>
@@ -15080,7 +15088,7 @@
         <v>344</v>
       </c>
       <c r="C300" t="s">
-        <v>2290</v>
+        <v>2286</v>
       </c>
       <c r="D300" t="s">
         <v>1391</v>
@@ -15103,7 +15111,7 @@
         <v>345</v>
       </c>
       <c r="C301" t="s">
-        <v>2291</v>
+        <v>2287</v>
       </c>
       <c r="D301" t="s">
         <v>1394</v>
@@ -15126,7 +15134,7 @@
         <v>346</v>
       </c>
       <c r="C302" t="s">
-        <v>2292</v>
+        <v>2288</v>
       </c>
       <c r="D302" t="s">
         <v>1397</v>
@@ -15149,7 +15157,7 @@
         <v>347</v>
       </c>
       <c r="C303" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="D303" t="s">
         <v>1400</v>
@@ -15172,7 +15180,7 @@
         <v>348</v>
       </c>
       <c r="C304" t="s">
-        <v>2294</v>
+        <v>2290</v>
       </c>
       <c r="D304" t="s">
         <v>1403</v>
@@ -15195,7 +15203,7 @@
         <v>349</v>
       </c>
       <c r="C305" t="s">
-        <v>2295</v>
+        <v>2291</v>
       </c>
       <c r="D305" t="s">
         <v>1406</v>
@@ -15218,7 +15226,7 @@
         <v>350</v>
       </c>
       <c r="C306" t="s">
-        <v>2296</v>
+        <v>2292</v>
       </c>
       <c r="D306" t="s">
         <v>1409</v>
@@ -15241,7 +15249,7 @@
         <v>351</v>
       </c>
       <c r="C307" t="s">
-        <v>2297</v>
+        <v>2293</v>
       </c>
       <c r="D307" t="s">
         <v>1412</v>
@@ -15264,7 +15272,7 @@
         <v>352</v>
       </c>
       <c r="C308" t="s">
-        <v>2298</v>
+        <v>2294</v>
       </c>
       <c r="D308" t="s">
         <v>1415</v>
@@ -15287,7 +15295,7 @@
         <v>353</v>
       </c>
       <c r="C309" t="s">
-        <v>2299</v>
+        <v>2295</v>
       </c>
       <c r="D309" t="s">
         <v>1418</v>
@@ -15310,7 +15318,7 @@
         <v>354</v>
       </c>
       <c r="C310" t="s">
-        <v>2300</v>
+        <v>2296</v>
       </c>
       <c r="D310" t="s">
         <v>1421</v>
@@ -15333,7 +15341,7 @@
         <v>355</v>
       </c>
       <c r="C311" t="s">
-        <v>2301</v>
+        <v>2297</v>
       </c>
       <c r="D311" t="s">
         <v>1424</v>
@@ -15356,7 +15364,7 @@
         <v>356</v>
       </c>
       <c r="C312" t="s">
-        <v>2302</v>
+        <v>2298</v>
       </c>
       <c r="D312" t="s">
         <v>1427</v>
@@ -15379,7 +15387,7 @@
         <v>357</v>
       </c>
       <c r="C313" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="D313" t="s">
         <v>1430</v>
@@ -15402,7 +15410,7 @@
         <v>358</v>
       </c>
       <c r="C314" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
       <c r="D314" t="s">
         <v>1433</v>
@@ -15425,7 +15433,7 @@
         <v>359</v>
       </c>
       <c r="C315" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="D315" t="s">
         <v>1436</v>
@@ -15448,7 +15456,7 @@
         <v>360</v>
       </c>
       <c r="C316" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="D316" t="s">
         <v>1439</v>
@@ -15471,7 +15479,7 @@
         <v>361</v>
       </c>
       <c r="C317" t="s">
-        <v>2307</v>
+        <v>2303</v>
       </c>
       <c r="D317" t="s">
         <v>1440</v>
@@ -15494,7 +15502,7 @@
         <v>362</v>
       </c>
       <c r="C318" t="s">
-        <v>2308</v>
+        <v>2304</v>
       </c>
       <c r="D318" t="s">
         <v>1440</v>
@@ -15517,7 +15525,7 @@
         <v>318</v>
       </c>
       <c r="C319" t="s">
-        <v>2265</v>
+        <v>2261</v>
       </c>
       <c r="D319" t="s">
         <v>1445</v>
@@ -15540,7 +15548,7 @@
         <v>363</v>
       </c>
       <c r="C320" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="D320" t="s">
         <v>1448</v>
@@ -15563,7 +15571,7 @@
         <v>364</v>
       </c>
       <c r="C321" t="s">
-        <v>2310</v>
+        <v>2306</v>
       </c>
       <c r="D321" t="s">
         <v>1451</v>
@@ -15586,7 +15594,7 @@
         <v>365</v>
       </c>
       <c r="C322" t="s">
-        <v>2311</v>
+        <v>2307</v>
       </c>
       <c r="D322" t="s">
         <v>1454</v>
@@ -15609,7 +15617,7 @@
         <v>366</v>
       </c>
       <c r="C323" t="s">
-        <v>2312</v>
+        <v>2308</v>
       </c>
       <c r="D323" t="s">
         <v>1457</v>
@@ -15632,7 +15640,7 @@
         <v>367</v>
       </c>
       <c r="C324" t="s">
-        <v>2313</v>
+        <v>2309</v>
       </c>
       <c r="D324" t="s">
         <v>1460</v>
@@ -15655,7 +15663,7 @@
         <v>368</v>
       </c>
       <c r="C325" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D325" t="s">
         <v>1463</v>
@@ -15678,7 +15686,7 @@
         <v>369</v>
       </c>
       <c r="C326" t="s">
-        <v>2315</v>
+        <v>2311</v>
       </c>
       <c r="D326" t="s">
         <v>1466</v>
@@ -15701,7 +15709,7 @@
         <v>370</v>
       </c>
       <c r="C327" t="s">
-        <v>2316</v>
+        <v>2312</v>
       </c>
       <c r="D327" t="s">
         <v>1469</v>
@@ -15724,7 +15732,7 @@
         <v>371</v>
       </c>
       <c r="C328" t="s">
-        <v>2317</v>
+        <v>2313</v>
       </c>
       <c r="D328" t="s">
         <v>1472</v>
@@ -15747,7 +15755,7 @@
         <v>372</v>
       </c>
       <c r="C329" t="s">
-        <v>2318</v>
+        <v>2314</v>
       </c>
       <c r="D329" t="s">
         <v>1475</v>
@@ -15770,7 +15778,7 @@
         <v>373</v>
       </c>
       <c r="C330" t="s">
-        <v>2319</v>
+        <v>2315</v>
       </c>
       <c r="D330" t="s">
         <v>1478</v>
@@ -15793,7 +15801,7 @@
         <v>374</v>
       </c>
       <c r="C331" t="s">
-        <v>2320</v>
+        <v>2316</v>
       </c>
       <c r="D331" t="s">
         <v>1481</v>
@@ -15816,7 +15824,7 @@
         <v>375</v>
       </c>
       <c r="C332" t="s">
-        <v>2321</v>
+        <v>2317</v>
       </c>
       <c r="D332" t="s">
         <v>1484</v>
@@ -15839,7 +15847,7 @@
         <v>376</v>
       </c>
       <c r="C333" t="s">
-        <v>2322</v>
+        <v>2318</v>
       </c>
       <c r="D333" t="s">
         <v>1487</v>
@@ -15862,7 +15870,7 @@
         <v>377</v>
       </c>
       <c r="C334" t="s">
-        <v>2323</v>
+        <v>2319</v>
       </c>
       <c r="D334" t="s">
         <v>1490</v>
@@ -15885,7 +15893,7 @@
         <v>378</v>
       </c>
       <c r="C335" t="s">
-        <v>2324</v>
+        <v>2320</v>
       </c>
       <c r="D335" t="s">
         <v>1493</v>
@@ -15908,7 +15916,7 @@
         <v>379</v>
       </c>
       <c r="C336" t="s">
-        <v>2325</v>
+        <v>2321</v>
       </c>
       <c r="D336" t="s">
         <v>1496</v>
@@ -15931,7 +15939,7 @@
         <v>380</v>
       </c>
       <c r="C337" t="s">
-        <v>2326</v>
+        <v>2322</v>
       </c>
       <c r="D337" t="s">
         <v>1499</v>
@@ -15954,7 +15962,7 @@
         <v>381</v>
       </c>
       <c r="C338" t="s">
-        <v>2327</v>
+        <v>2323</v>
       </c>
       <c r="D338" t="s">
         <v>1502</v>
@@ -15977,7 +15985,7 @@
         <v>382</v>
       </c>
       <c r="C339" t="s">
-        <v>2328</v>
+        <v>2324</v>
       </c>
       <c r="D339" t="s">
         <v>1505</v>
@@ -16000,7 +16008,7 @@
         <v>383</v>
       </c>
       <c r="C340" t="s">
-        <v>2329</v>
+        <v>2325</v>
       </c>
       <c r="D340" t="s">
         <v>1508</v>
@@ -16023,7 +16031,7 @@
         <v>384</v>
       </c>
       <c r="C341" t="s">
-        <v>2330</v>
+        <v>2326</v>
       </c>
       <c r="D341" t="s">
         <v>1511</v>
@@ -16046,7 +16054,7 @@
         <v>385</v>
       </c>
       <c r="C342" t="s">
-        <v>2331</v>
+        <v>2327</v>
       </c>
       <c r="D342" t="s">
         <v>1514</v>
@@ -16069,7 +16077,7 @@
         <v>386</v>
       </c>
       <c r="C343" t="s">
-        <v>2332</v>
+        <v>2328</v>
       </c>
       <c r="D343" t="s">
         <v>1517</v>
@@ -16092,7 +16100,7 @@
         <v>387</v>
       </c>
       <c r="C344" t="s">
-        <v>2333</v>
+        <v>2329</v>
       </c>
       <c r="D344" t="s">
         <v>1520</v>
@@ -16115,7 +16123,7 @@
         <v>388</v>
       </c>
       <c r="C345" t="s">
-        <v>2334</v>
+        <v>2330</v>
       </c>
       <c r="D345" t="s">
         <v>1523</v>
@@ -16138,7 +16146,7 @@
         <v>389</v>
       </c>
       <c r="C346" t="s">
-        <v>2335</v>
+        <v>2331</v>
       </c>
       <c r="D346" t="s">
         <v>1526</v>
@@ -16161,7 +16169,7 @@
         <v>390</v>
       </c>
       <c r="C347" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
       <c r="D347" t="s">
         <v>1529</v>
@@ -16184,7 +16192,7 @@
         <v>391</v>
       </c>
       <c r="C348" t="s">
-        <v>2337</v>
+        <v>2333</v>
       </c>
       <c r="D348" t="s">
         <v>1391</v>
@@ -16207,7 +16215,7 @@
         <v>392</v>
       </c>
       <c r="C349" t="s">
-        <v>2338</v>
+        <v>2334</v>
       </c>
       <c r="D349" t="s">
         <v>1532</v>
@@ -16230,7 +16238,7 @@
         <v>393</v>
       </c>
       <c r="C350" t="s">
-        <v>2339</v>
+        <v>2335</v>
       </c>
       <c r="D350" t="s">
         <v>1535</v>
@@ -16253,7 +16261,7 @@
         <v>394</v>
       </c>
       <c r="C351" t="s">
-        <v>2340</v>
+        <v>2336</v>
       </c>
       <c r="D351" t="s">
         <v>1538</v>
@@ -16276,7 +16284,7 @@
         <v>395</v>
       </c>
       <c r="C352" t="s">
-        <v>2341</v>
+        <v>2337</v>
       </c>
       <c r="D352" t="s">
         <v>1541</v>
@@ -16299,7 +16307,7 @@
         <v>396</v>
       </c>
       <c r="C353" t="s">
-        <v>2342</v>
+        <v>2338</v>
       </c>
       <c r="D353" t="s">
         <v>1544</v>
@@ -16322,7 +16330,7 @@
         <v>397</v>
       </c>
       <c r="C354" t="s">
-        <v>2343</v>
+        <v>2339</v>
       </c>
       <c r="D354" t="s">
         <v>1547</v>
@@ -16345,7 +16353,7 @@
         <v>398</v>
       </c>
       <c r="C355" t="s">
-        <v>2344</v>
+        <v>2340</v>
       </c>
       <c r="D355" t="s">
         <v>1550</v>
@@ -16368,7 +16376,7 @@
         <v>399</v>
       </c>
       <c r="C356" t="s">
-        <v>2345</v>
+        <v>2341</v>
       </c>
       <c r="D356" t="s">
         <v>1553</v>
@@ -16391,7 +16399,7 @@
         <v>400</v>
       </c>
       <c r="C357" t="s">
-        <v>2346</v>
+        <v>2342</v>
       </c>
       <c r="D357" t="s">
         <v>1556</v>
@@ -16414,7 +16422,7 @@
         <v>401</v>
       </c>
       <c r="C358" t="s">
-        <v>2347</v>
+        <v>2343</v>
       </c>
       <c r="D358" t="s">
         <v>1559</v>
@@ -16437,7 +16445,7 @@
         <v>149</v>
       </c>
       <c r="C359" t="s">
-        <v>2097</v>
+        <v>2093</v>
       </c>
       <c r="D359" t="s">
         <v>1562</v>
@@ -16460,7 +16468,7 @@
         <v>402</v>
       </c>
       <c r="C360" t="s">
-        <v>2348</v>
+        <v>2344</v>
       </c>
       <c r="D360" t="s">
         <v>1565</v>
@@ -16506,7 +16514,7 @@
         <v>404</v>
       </c>
       <c r="C362" t="s">
-        <v>2349</v>
+        <v>2345</v>
       </c>
       <c r="D362" t="s">
         <v>1571</v>
@@ -16529,7 +16537,7 @@
         <v>405</v>
       </c>
       <c r="C363" t="s">
-        <v>2350</v>
+        <v>2346</v>
       </c>
       <c r="D363" t="s">
         <v>1574</v>
@@ -16552,7 +16560,7 @@
         <v>406</v>
       </c>
       <c r="C364" t="s">
-        <v>2351</v>
+        <v>2347</v>
       </c>
       <c r="D364" t="s">
         <v>1577</v>
@@ -16575,7 +16583,7 @@
         <v>407</v>
       </c>
       <c r="C365" t="s">
-        <v>2352</v>
+        <v>2348</v>
       </c>
       <c r="D365" t="s">
         <v>1580</v>
@@ -16598,7 +16606,7 @@
         <v>408</v>
       </c>
       <c r="C366" t="s">
-        <v>2353</v>
+        <v>2349</v>
       </c>
       <c r="D366" t="s">
         <v>1583</v>
@@ -16621,7 +16629,7 @@
         <v>409</v>
       </c>
       <c r="C367" t="s">
-        <v>2354</v>
+        <v>2350</v>
       </c>
       <c r="D367" t="s">
         <v>1586</v>
@@ -16644,7 +16652,7 @@
         <v>410</v>
       </c>
       <c r="C368" t="s">
-        <v>2355</v>
+        <v>2351</v>
       </c>
       <c r="D368" t="s">
         <v>1589</v>
@@ -16667,7 +16675,7 @@
         <v>411</v>
       </c>
       <c r="C369" t="s">
-        <v>2356</v>
+        <v>2352</v>
       </c>
       <c r="D369" t="s">
         <v>1592</v>
@@ -16690,7 +16698,7 @@
         <v>412</v>
       </c>
       <c r="C370" t="s">
-        <v>2357</v>
+        <v>2353</v>
       </c>
       <c r="D370" t="s">
         <v>2</v>
@@ -16713,7 +16721,7 @@
         <v>413</v>
       </c>
       <c r="C371" t="s">
-        <v>2358</v>
+        <v>2354</v>
       </c>
       <c r="D371" t="s">
         <v>1597</v>
@@ -16736,7 +16744,7 @@
         <v>414</v>
       </c>
       <c r="C372" t="s">
-        <v>2359</v>
+        <v>2355</v>
       </c>
       <c r="D372" t="s">
         <v>1600</v>
@@ -16759,7 +16767,7 @@
         <v>415</v>
       </c>
       <c r="C373" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="D373" t="s">
         <v>1603</v>
@@ -16782,7 +16790,7 @@
         <v>417</v>
       </c>
       <c r="C374" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="D374" t="s">
         <v>1606</v>
@@ -16805,7 +16813,7 @@
         <v>416</v>
       </c>
       <c r="C375" t="s">
-        <v>2362</v>
+        <v>2358</v>
       </c>
       <c r="D375" t="s">
         <v>1609</v>
@@ -16828,7 +16836,7 @@
         <v>418</v>
       </c>
       <c r="C376" t="s">
-        <v>2363</v>
+        <v>2359</v>
       </c>
       <c r="D376" t="s">
         <v>1612</v>
@@ -16851,7 +16859,7 @@
         <v>419</v>
       </c>
       <c r="C377" t="s">
-        <v>2364</v>
+        <v>2360</v>
       </c>
       <c r="D377" t="s">
         <v>1615</v>
@@ -16874,7 +16882,7 @@
         <v>420</v>
       </c>
       <c r="C378" t="s">
-        <v>2365</v>
+        <v>2361</v>
       </c>
       <c r="D378" t="s">
         <v>1618</v>
@@ -16897,7 +16905,7 @@
         <v>421</v>
       </c>
       <c r="C379" t="s">
-        <v>2366</v>
+        <v>2362</v>
       </c>
       <c r="D379" t="s">
         <v>1621</v>
@@ -16920,7 +16928,7 @@
         <v>422</v>
       </c>
       <c r="C380" t="s">
-        <v>2367</v>
+        <v>2363</v>
       </c>
       <c r="D380" t="s">
         <v>1624</v>
@@ -16943,7 +16951,7 @@
         <v>423</v>
       </c>
       <c r="C381" t="s">
-        <v>2368</v>
+        <v>2364</v>
       </c>
       <c r="D381" t="s">
         <v>1626</v>
@@ -16966,7 +16974,7 @@
         <v>424</v>
       </c>
       <c r="C382" t="s">
-        <v>2369</v>
+        <v>2365</v>
       </c>
       <c r="D382" t="s">
         <v>1629</v>
@@ -16989,7 +16997,7 @@
         <v>425</v>
       </c>
       <c r="C383" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="D383" t="s">
         <v>1632</v>
@@ -17012,7 +17020,7 @@
         <v>426</v>
       </c>
       <c r="C384" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="D384" t="s">
         <v>1635</v>
@@ -17035,7 +17043,7 @@
         <v>427</v>
       </c>
       <c r="C385" t="s">
-        <v>2372</v>
+        <v>2368</v>
       </c>
       <c r="D385" t="s">
         <v>1638</v>
@@ -17058,7 +17066,7 @@
         <v>428</v>
       </c>
       <c r="C386" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
       <c r="D386" t="s">
         <v>1641</v>
@@ -17081,7 +17089,7 @@
         <v>429</v>
       </c>
       <c r="C387" t="s">
-        <v>2374</v>
+        <v>2370</v>
       </c>
       <c r="D387" t="s">
         <v>1644</v>
@@ -17104,7 +17112,7 @@
         <v>430</v>
       </c>
       <c r="C388" t="s">
-        <v>2375</v>
+        <v>2371</v>
       </c>
       <c r="D388" t="s">
         <v>1647</v>
@@ -17127,7 +17135,7 @@
         <v>431</v>
       </c>
       <c r="C389" t="s">
-        <v>2376</v>
+        <v>2372</v>
       </c>
       <c r="D389" t="s">
         <v>1650</v>
@@ -17150,7 +17158,7 @@
         <v>432</v>
       </c>
       <c r="C390" t="s">
-        <v>2377</v>
+        <v>2373</v>
       </c>
       <c r="D390" t="s">
         <v>1653</v>
@@ -17173,7 +17181,7 @@
         <v>433</v>
       </c>
       <c r="C391" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="D391" t="s">
         <v>1656</v>
@@ -17196,7 +17204,7 @@
         <v>434</v>
       </c>
       <c r="C392" t="s">
-        <v>2379</v>
+        <v>2375</v>
       </c>
       <c r="D392" t="s">
         <v>1659</v>
@@ -17219,7 +17227,7 @@
         <v>435</v>
       </c>
       <c r="C393" t="s">
-        <v>2380</v>
+        <v>2376</v>
       </c>
       <c r="D393" t="s">
         <v>1662</v>
@@ -17242,7 +17250,7 @@
         <v>436</v>
       </c>
       <c r="C394" t="s">
-        <v>2381</v>
+        <v>2377</v>
       </c>
       <c r="D394" t="s">
         <v>1665</v>
@@ -17265,7 +17273,7 @@
         <v>437</v>
       </c>
       <c r="C395" t="s">
-        <v>2346</v>
+        <v>2342</v>
       </c>
       <c r="D395" t="s">
         <v>1668</v>
@@ -17288,7 +17296,7 @@
         <v>438</v>
       </c>
       <c r="C396" t="s">
-        <v>2382</v>
+        <v>2378</v>
       </c>
       <c r="D396" t="s">
         <v>1671</v>
@@ -17311,7 +17319,7 @@
         <v>439</v>
       </c>
       <c r="C397" t="s">
-        <v>2383</v>
+        <v>2379</v>
       </c>
       <c r="D397" t="s">
         <v>1674</v>
@@ -17334,7 +17342,7 @@
         <v>440</v>
       </c>
       <c r="C398" t="s">
-        <v>2384</v>
+        <v>2380</v>
       </c>
       <c r="D398" t="s">
         <v>1677</v>
@@ -17357,7 +17365,7 @@
         <v>375</v>
       </c>
       <c r="C399" t="s">
-        <v>2321</v>
+        <v>2317</v>
       </c>
       <c r="D399" t="s">
         <v>1484</v>
@@ -17380,7 +17388,7 @@
         <v>441</v>
       </c>
       <c r="C400" t="s">
-        <v>2385</v>
+        <v>2381</v>
       </c>
       <c r="D400" t="s">
         <v>1680</v>
@@ -17403,7 +17411,7 @@
         <v>442</v>
       </c>
       <c r="C401" t="s">
-        <v>2386</v>
+        <v>2382</v>
       </c>
       <c r="D401" t="s">
         <v>1683</v>
@@ -17426,7 +17434,7 @@
         <v>443</v>
       </c>
       <c r="C402" t="s">
-        <v>2387</v>
+        <v>2383</v>
       </c>
       <c r="D402" t="s">
         <v>1481</v>
@@ -17449,7 +17457,7 @@
         <v>444</v>
       </c>
       <c r="C403" t="s">
-        <v>2388</v>
+        <v>2384</v>
       </c>
       <c r="D403" t="s">
         <v>1688</v>
@@ -17472,7 +17480,7 @@
         <v>445</v>
       </c>
       <c r="C404" t="s">
-        <v>2389</v>
+        <v>2385</v>
       </c>
       <c r="D404" t="s">
         <v>1691</v>
@@ -17495,7 +17503,7 @@
         <v>446</v>
       </c>
       <c r="C405" t="s">
-        <v>2390</v>
+        <v>2386</v>
       </c>
       <c r="D405" t="s">
         <v>1694</v>
@@ -17518,7 +17526,7 @@
         <v>447</v>
       </c>
       <c r="C406" t="s">
-        <v>2391</v>
+        <v>2387</v>
       </c>
       <c r="D406" t="s">
         <v>1697</v>
@@ -17541,7 +17549,7 @@
         <v>448</v>
       </c>
       <c r="C407" t="s">
-        <v>2392</v>
+        <v>2388</v>
       </c>
       <c r="D407" t="s">
         <v>1700</v>
@@ -17564,7 +17572,7 @@
         <v>449</v>
       </c>
       <c r="C408" t="s">
-        <v>2393</v>
+        <v>2389</v>
       </c>
       <c r="D408" t="s">
         <v>1703</v>
@@ -17587,7 +17595,7 @@
         <v>450</v>
       </c>
       <c r="C409" t="s">
-        <v>2394</v>
+        <v>2390</v>
       </c>
       <c r="D409" t="s">
         <v>1706</v>
@@ -17610,7 +17618,7 @@
         <v>451</v>
       </c>
       <c r="C410" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
       <c r="D410" t="s">
         <v>1709</v>
@@ -17633,7 +17641,7 @@
         <v>452</v>
       </c>
       <c r="C411" t="s">
-        <v>2396</v>
+        <v>2392</v>
       </c>
       <c r="D411" t="s">
         <v>1712</v>
@@ -17656,7 +17664,7 @@
         <v>453</v>
       </c>
       <c r="C412" t="s">
-        <v>2397</v>
+        <v>2393</v>
       </c>
       <c r="D412" t="s">
         <v>1715</v>
@@ -17679,7 +17687,7 @@
         <v>454</v>
       </c>
       <c r="C413" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
       <c r="D413" t="s">
         <v>1718</v>
@@ -17702,7 +17710,7 @@
         <v>455</v>
       </c>
       <c r="C414" t="s">
-        <v>2399</v>
+        <v>2395</v>
       </c>
       <c r="D414" t="s">
         <v>1721</v>
@@ -17725,7 +17733,7 @@
         <v>456</v>
       </c>
       <c r="C415" t="s">
-        <v>2400</v>
+        <v>2396</v>
       </c>
       <c r="D415" t="s">
         <v>1724</v>
@@ -17748,7 +17756,7 @@
         <v>457</v>
       </c>
       <c r="C416" t="s">
-        <v>2401</v>
+        <v>2397</v>
       </c>
       <c r="D416" t="s">
         <v>1727</v>
@@ -17771,7 +17779,7 @@
         <v>458</v>
       </c>
       <c r="C417" t="s">
-        <v>2402</v>
+        <v>2398</v>
       </c>
       <c r="D417" t="s">
         <v>1730</v>
@@ -17794,7 +17802,7 @@
         <v>459</v>
       </c>
       <c r="C418" t="s">
-        <v>2403</v>
+        <v>2399</v>
       </c>
       <c r="D418" t="s">
         <v>1733</v>
@@ -17817,7 +17825,7 @@
         <v>460</v>
       </c>
       <c r="C419" t="s">
-        <v>2404</v>
+        <v>2400</v>
       </c>
       <c r="D419" t="s">
         <v>1736</v>
@@ -17840,7 +17848,7 @@
         <v>247</v>
       </c>
       <c r="C420" t="s">
-        <v>2195</v>
+        <v>2191</v>
       </c>
       <c r="D420" t="s">
         <v>1739</v>
@@ -17863,7 +17871,7 @@
         <v>461</v>
       </c>
       <c r="C421" t="s">
-        <v>2405</v>
+        <v>2401</v>
       </c>
       <c r="D421" t="s">
         <v>1742</v>
@@ -17886,7 +17894,7 @@
         <v>462</v>
       </c>
       <c r="C422" t="s">
-        <v>2406</v>
+        <v>2402</v>
       </c>
       <c r="D422" t="s">
         <v>1745</v>
@@ -17909,7 +17917,7 @@
         <v>463</v>
       </c>
       <c r="C423" t="s">
-        <v>2407</v>
+        <v>2403</v>
       </c>
       <c r="D423" t="s">
         <v>1748</v>
@@ -17932,7 +17940,7 @@
         <v>464</v>
       </c>
       <c r="C424" t="s">
-        <v>2408</v>
+        <v>2404</v>
       </c>
       <c r="D424" t="s">
         <v>1751</v>
@@ -17955,7 +17963,7 @@
         <v>465</v>
       </c>
       <c r="C425" t="s">
-        <v>2409</v>
+        <v>2405</v>
       </c>
       <c r="D425" t="s">
         <v>1754</v>
@@ -17978,7 +17986,7 @@
         <v>466</v>
       </c>
       <c r="C426" t="s">
-        <v>2410</v>
+        <v>2406</v>
       </c>
       <c r="D426" t="s">
         <v>1757</v>
@@ -18001,7 +18009,7 @@
         <v>467</v>
       </c>
       <c r="C427" t="s">
-        <v>2411</v>
+        <v>2407</v>
       </c>
       <c r="D427" t="s">
         <v>1760</v>
@@ -18024,7 +18032,7 @@
         <v>468</v>
       </c>
       <c r="C428" t="s">
-        <v>2412</v>
+        <v>2408</v>
       </c>
       <c r="D428" t="s">
         <v>1763</v>
@@ -18047,7 +18055,7 @@
         <v>469</v>
       </c>
       <c r="C429" t="s">
-        <v>2413</v>
+        <v>2409</v>
       </c>
       <c r="D429" t="s">
         <v>1766</v>
@@ -18070,7 +18078,7 @@
         <v>470</v>
       </c>
       <c r="C430" t="s">
-        <v>2414</v>
+        <v>2410</v>
       </c>
       <c r="D430" t="s">
         <v>1769</v>
@@ -18093,7 +18101,7 @@
         <v>471</v>
       </c>
       <c r="C431" t="s">
-        <v>2415</v>
+        <v>2411</v>
       </c>
       <c r="D431" t="s">
         <v>1772</v>
@@ -18116,7 +18124,7 @@
         <v>472</v>
       </c>
       <c r="C432" t="s">
-        <v>2416</v>
+        <v>2412</v>
       </c>
       <c r="D432" t="s">
         <v>1775</v>
@@ -18139,7 +18147,7 @@
         <v>473</v>
       </c>
       <c r="C433" t="s">
-        <v>2417</v>
+        <v>2413</v>
       </c>
       <c r="D433" t="s">
         <v>1778</v>
@@ -18162,7 +18170,7 @@
         <v>474</v>
       </c>
       <c r="C434" t="s">
-        <v>2418</v>
+        <v>2414</v>
       </c>
       <c r="D434" t="s">
         <v>1781</v>
@@ -18185,7 +18193,7 @@
         <v>475</v>
       </c>
       <c r="C435" t="s">
-        <v>2419</v>
+        <v>2415</v>
       </c>
       <c r="D435" t="s">
         <v>1784</v>
@@ -18208,7 +18216,7 @@
         <v>476</v>
       </c>
       <c r="C436" t="s">
-        <v>2420</v>
+        <v>2416</v>
       </c>
       <c r="D436" t="s">
         <v>1787</v>
@@ -18231,7 +18239,7 @@
         <v>477</v>
       </c>
       <c r="C437" t="s">
-        <v>2421</v>
+        <v>2417</v>
       </c>
       <c r="D437" t="s">
         <v>1790</v>
@@ -18254,7 +18262,7 @@
         <v>478</v>
       </c>
       <c r="C438" t="s">
-        <v>2422</v>
+        <v>2418</v>
       </c>
       <c r="D438" t="s">
         <v>1793</v>
@@ -18277,7 +18285,7 @@
         <v>479</v>
       </c>
       <c r="C439" t="s">
-        <v>2423</v>
+        <v>2419</v>
       </c>
       <c r="D439" t="s">
         <v>1796</v>
@@ -18300,7 +18308,7 @@
         <v>480</v>
       </c>
       <c r="C440" t="s">
-        <v>2424</v>
+        <v>2420</v>
       </c>
       <c r="D440" t="s">
         <v>1799</v>
@@ -18323,7 +18331,7 @@
         <v>481</v>
       </c>
       <c r="C441" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
       <c r="D441" t="s">
         <v>1802</v>
@@ -18346,7 +18354,7 @@
         <v>482</v>
       </c>
       <c r="C442" t="s">
-        <v>2426</v>
+        <v>2422</v>
       </c>
       <c r="D442" t="s">
         <v>1805</v>
@@ -18369,7 +18377,7 @@
         <v>483</v>
       </c>
       <c r="C443" t="s">
-        <v>2427</v>
+        <v>2423</v>
       </c>
       <c r="D443" t="s">
         <v>1808</v>
@@ -18392,7 +18400,7 @@
         <v>484</v>
       </c>
       <c r="C444" t="s">
-        <v>2428</v>
+        <v>2424</v>
       </c>
       <c r="D444" t="s">
         <v>1811</v>
@@ -18415,7 +18423,7 @@
         <v>485</v>
       </c>
       <c r="C445" t="s">
-        <v>2429</v>
+        <v>2425</v>
       </c>
       <c r="D445" t="s">
         <v>1814</v>
@@ -18438,7 +18446,7 @@
         <v>486</v>
       </c>
       <c r="C446" t="s">
-        <v>2430</v>
+        <v>2426</v>
       </c>
       <c r="D446" t="s">
         <v>1817</v>
@@ -18461,7 +18469,7 @@
         <v>487</v>
       </c>
       <c r="C447" t="s">
-        <v>2431</v>
+        <v>2427</v>
       </c>
       <c r="D447" t="s">
         <v>1820</v>
@@ -18484,7 +18492,7 @@
         <v>488</v>
       </c>
       <c r="C448" t="s">
-        <v>2432</v>
+        <v>2428</v>
       </c>
       <c r="D448" t="s">
         <v>1823</v>
@@ -18507,7 +18515,7 @@
         <v>489</v>
       </c>
       <c r="C449" t="s">
-        <v>2433</v>
+        <v>2429</v>
       </c>
       <c r="D449" t="s">
         <v>1826</v>
@@ -18530,7 +18538,7 @@
         <v>490</v>
       </c>
       <c r="C450" t="s">
-        <v>2434</v>
+        <v>2430</v>
       </c>
       <c r="D450" t="s">
         <v>1827</v>
@@ -18553,7 +18561,7 @@
         <v>491</v>
       </c>
       <c r="C451" t="s">
-        <v>2435</v>
+        <v>2431</v>
       </c>
       <c r="D451" t="s">
         <v>1828</v>
@@ -18576,7 +18584,7 @@
         <v>492</v>
       </c>
       <c r="C452" t="s">
-        <v>2436</v>
+        <v>2432</v>
       </c>
       <c r="D452" t="s">
         <v>1831</v>
@@ -18599,7 +18607,7 @@
         <v>493</v>
       </c>
       <c r="C453" t="s">
-        <v>2437</v>
+        <v>2433</v>
       </c>
       <c r="D453" t="s">
         <v>1834</v>
@@ -18622,7 +18630,7 @@
         <v>494</v>
       </c>
       <c r="C454" t="s">
-        <v>2438</v>
+        <v>2434</v>
       </c>
       <c r="D454" t="s">
         <v>1836</v>
@@ -18645,7 +18653,7 @@
         <v>495</v>
       </c>
       <c r="C455" t="s">
-        <v>2439</v>
+        <v>2435</v>
       </c>
       <c r="D455" t="s">
         <v>1839</v>
@@ -18668,7 +18676,7 @@
         <v>496</v>
       </c>
       <c r="C456" t="s">
-        <v>2440</v>
+        <v>2436</v>
       </c>
       <c r="D456" t="s">
         <v>1994</v>
@@ -18691,7 +18699,7 @@
         <v>497</v>
       </c>
       <c r="C457" t="s">
-        <v>2117</v>
+        <v>2113</v>
       </c>
       <c r="D457" t="s">
         <v>1844</v>
@@ -18714,7 +18722,7 @@
         <v>498</v>
       </c>
       <c r="C458" t="s">
-        <v>2441</v>
+        <v>2437</v>
       </c>
       <c r="D458" t="s">
         <v>1995</v>
@@ -18737,7 +18745,7 @@
         <v>499</v>
       </c>
       <c r="C459" t="s">
-        <v>2442</v>
+        <v>2438</v>
       </c>
       <c r="D459" t="s">
         <v>1996</v>
@@ -18760,7 +18768,7 @@
         <v>500</v>
       </c>
       <c r="C460" t="s">
-        <v>2443</v>
+        <v>2439</v>
       </c>
       <c r="D460" t="s">
         <v>1851</v>
@@ -18783,7 +18791,7 @@
         <v>501</v>
       </c>
       <c r="C461" t="s">
-        <v>2444</v>
+        <v>2440</v>
       </c>
       <c r="D461" t="s">
         <v>1854</v>
@@ -18806,7 +18814,7 @@
         <v>502</v>
       </c>
       <c r="C462" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="D462" t="s">
         <v>1857</v>
@@ -18829,7 +18837,7 @@
         <v>503</v>
       </c>
       <c r="C463" t="s">
-        <v>2446</v>
+        <v>2442</v>
       </c>
       <c r="D463" t="s">
         <v>1860</v>
@@ -18852,7 +18860,7 @@
         <v>504</v>
       </c>
       <c r="C464" t="s">
-        <v>2447</v>
+        <v>2443</v>
       </c>
       <c r="D464" t="s">
         <v>1863</v>
@@ -18875,7 +18883,7 @@
         <v>505</v>
       </c>
       <c r="C465" t="s">
-        <v>2448</v>
+        <v>2444</v>
       </c>
       <c r="D465" t="s">
         <v>1866</v>
@@ -18898,7 +18906,7 @@
         <v>506</v>
       </c>
       <c r="C466" t="s">
-        <v>2449</v>
+        <v>2445</v>
       </c>
       <c r="D466" t="s">
         <v>1869</v>
@@ -18921,7 +18929,7 @@
         <v>507</v>
       </c>
       <c r="C467" t="s">
-        <v>2450</v>
+        <v>2446</v>
       </c>
       <c r="D467" t="s">
         <v>1872</v>
@@ -18944,7 +18952,7 @@
         <v>508</v>
       </c>
       <c r="C468" t="s">
-        <v>2451</v>
+        <v>2447</v>
       </c>
       <c r="D468" t="s">
         <v>1875</v>
@@ -18967,7 +18975,7 @@
         <v>509</v>
       </c>
       <c r="C469" t="s">
-        <v>2452</v>
+        <v>2448</v>
       </c>
       <c r="D469" t="s">
         <v>1878</v>
@@ -18990,7 +18998,7 @@
         <v>510</v>
       </c>
       <c r="C470" t="s">
-        <v>2453</v>
+        <v>2449</v>
       </c>
       <c r="D470" t="s">
         <v>1881</v>
@@ -19013,7 +19021,7 @@
         <v>511</v>
       </c>
       <c r="C471" t="s">
-        <v>2454</v>
+        <v>2450</v>
       </c>
       <c r="D471" t="s">
         <v>1884</v>
@@ -19036,7 +19044,7 @@
         <v>512</v>
       </c>
       <c r="C472" t="s">
-        <v>2455</v>
+        <v>2451</v>
       </c>
       <c r="D472" t="s">
         <v>1887</v>
@@ -19059,7 +19067,7 @@
         <v>513</v>
       </c>
       <c r="C473" t="s">
-        <v>2456</v>
+        <v>2452</v>
       </c>
       <c r="D473" t="s">
         <v>1475</v>
@@ -19082,7 +19090,7 @@
         <v>514</v>
       </c>
       <c r="C474" t="s">
-        <v>2457</v>
+        <v>2453</v>
       </c>
       <c r="D474" t="s">
         <v>1892</v>
@@ -19105,7 +19113,7 @@
         <v>515</v>
       </c>
       <c r="C475" t="s">
-        <v>2458</v>
+        <v>2454</v>
       </c>
       <c r="D475" t="s">
         <v>1894</v>
@@ -19128,7 +19136,7 @@
         <v>516</v>
       </c>
       <c r="C476" t="s">
-        <v>2459</v>
+        <v>2455</v>
       </c>
       <c r="D476" t="s">
         <v>1897</v>
@@ -19151,7 +19159,7 @@
         <v>517</v>
       </c>
       <c r="C477" t="s">
-        <v>2460</v>
+        <v>2456</v>
       </c>
       <c r="D477" t="s">
         <v>1898</v>
@@ -19174,7 +19182,7 @@
         <v>518</v>
       </c>
       <c r="C478" t="s">
-        <v>2461</v>
+        <v>2457</v>
       </c>
       <c r="D478" t="s">
         <v>1901</v>
@@ -19197,7 +19205,7 @@
         <v>519</v>
       </c>
       <c r="C479" t="s">
-        <v>2462</v>
+        <v>2458</v>
       </c>
       <c r="D479" t="s">
         <v>1987</v>
@@ -19220,7 +19228,7 @@
         <v>520</v>
       </c>
       <c r="C480" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="D480" t="s">
         <v>1906</v>
@@ -19243,7 +19251,7 @@
         <v>521</v>
       </c>
       <c r="C481" t="s">
-        <v>2464</v>
+        <v>2460</v>
       </c>
       <c r="D481" t="s">
         <v>1909</v>
@@ -19266,7 +19274,7 @@
         <v>522</v>
       </c>
       <c r="C482" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
       <c r="D482" t="s">
         <v>1912</v>
@@ -19289,7 +19297,7 @@
         <v>400</v>
       </c>
       <c r="C483" t="s">
-        <v>2346</v>
+        <v>2342</v>
       </c>
       <c r="D483" t="s">
         <v>1915</v>
@@ -19312,7 +19320,7 @@
         <v>523</v>
       </c>
       <c r="C484" t="s">
-        <v>2466</v>
+        <v>2462</v>
       </c>
       <c r="D484" t="s">
         <v>1918</v>
@@ -19335,7 +19343,7 @@
         <v>524</v>
       </c>
       <c r="C485" t="s">
-        <v>2467</v>
+        <v>2463</v>
       </c>
       <c r="D485" t="s">
         <v>1921</v>
@@ -19358,7 +19366,7 @@
         <v>525</v>
       </c>
       <c r="C486" t="s">
-        <v>2468</v>
+        <v>2464</v>
       </c>
       <c r="D486" t="s">
         <v>1924</v>
@@ -19381,7 +19389,7 @@
         <v>526</v>
       </c>
       <c r="C487" t="s">
-        <v>2469</v>
+        <v>2465</v>
       </c>
       <c r="D487" t="s">
         <v>1927</v>
@@ -19404,7 +19412,7 @@
         <v>527</v>
       </c>
       <c r="C488" t="s">
-        <v>2470</v>
+        <v>2466</v>
       </c>
       <c r="D488" t="s">
         <v>1930</v>
@@ -19427,7 +19435,7 @@
         <v>528</v>
       </c>
       <c r="C489" t="s">
-        <v>2471</v>
+        <v>2467</v>
       </c>
       <c r="D489" t="s">
         <v>1933</v>
@@ -19450,7 +19458,7 @@
         <v>529</v>
       </c>
       <c r="C490" t="s">
-        <v>2472</v>
+        <v>2468</v>
       </c>
       <c r="D490" t="s">
         <v>1936</v>
@@ -19473,7 +19481,7 @@
         <v>530</v>
       </c>
       <c r="C491" t="s">
-        <v>2473</v>
+        <v>2469</v>
       </c>
       <c r="D491" t="s">
         <v>1939</v>
@@ -19496,7 +19504,7 @@
         <v>531</v>
       </c>
       <c r="C492" t="s">
-        <v>2474</v>
+        <v>2470</v>
       </c>
       <c r="D492" t="s">
         <v>1942</v>
@@ -19519,7 +19527,7 @@
         <v>532</v>
       </c>
       <c r="C493" t="s">
-        <v>2475</v>
+        <v>2471</v>
       </c>
       <c r="D493" t="s">
         <v>1945</v>
@@ -19542,7 +19550,7 @@
         <v>533</v>
       </c>
       <c r="C494" t="s">
-        <v>2476</v>
+        <v>2472</v>
       </c>
       <c r="D494" t="s">
         <v>1948</v>
@@ -19565,7 +19573,7 @@
         <v>534</v>
       </c>
       <c r="C495" t="s">
-        <v>2477</v>
+        <v>2473</v>
       </c>
       <c r="D495" t="s">
         <v>1951</v>
@@ -19588,7 +19596,7 @@
         <v>519</v>
       </c>
       <c r="C496" t="s">
-        <v>2462</v>
+        <v>2458</v>
       </c>
       <c r="D496" t="s">
         <v>1988</v>
@@ -19611,7 +19619,7 @@
         <v>535</v>
       </c>
       <c r="C497" t="s">
-        <v>2478</v>
+        <v>2474</v>
       </c>
       <c r="D497" t="s">
         <v>1954</v>
@@ -19634,7 +19642,7 @@
         <v>536</v>
       </c>
       <c r="C498" t="s">
-        <v>2479</v>
+        <v>2475</v>
       </c>
       <c r="D498" t="s">
         <v>1957</v>
@@ -19657,7 +19665,7 @@
         <v>537</v>
       </c>
       <c r="C499" t="s">
-        <v>2480</v>
+        <v>2476</v>
       </c>
       <c r="D499" t="s">
         <v>1960</v>
@@ -19680,7 +19688,7 @@
         <v>525</v>
       </c>
       <c r="C500" t="s">
-        <v>2468</v>
+        <v>2464</v>
       </c>
       <c r="D500" t="s">
         <v>1924</v>
@@ -19703,7 +19711,7 @@
         <v>538</v>
       </c>
       <c r="C501" t="s">
-        <v>2481</v>
+        <v>2477</v>
       </c>
       <c r="D501" t="s">
         <v>1963</v>
@@ -19726,7 +19734,7 @@
         <v>539</v>
       </c>
       <c r="C502" t="s">
-        <v>2482</v>
+        <v>2478</v>
       </c>
       <c r="D502" t="s">
         <v>1966</v>
@@ -19749,7 +19757,7 @@
         <v>540</v>
       </c>
       <c r="C503" t="s">
-        <v>2056</v>
+        <v>2052</v>
       </c>
       <c r="D503" t="s">
         <v>1969</v>
@@ -19772,7 +19780,7 @@
         <v>541</v>
       </c>
       <c r="C504" t="s">
-        <v>2483</v>
+        <v>2479</v>
       </c>
       <c r="D504" t="s">
         <v>1972</v>
@@ -19795,7 +19803,7 @@
         <v>542</v>
       </c>
       <c r="C505" t="s">
-        <v>2484</v>
+        <v>2480</v>
       </c>
       <c r="D505" t="s">
         <v>1975</v>
@@ -19815,22 +19823,22 @@
         <v>505</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>2485</v>
+        <v>2481</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>2504</v>
+        <v>2500</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>2505</v>
+        <v>2501</v>
       </c>
       <c r="E507" s="2" t="s">
-        <v>2579</v>
+        <v>2575</v>
       </c>
       <c r="F507" s="2" t="s">
-        <v>2506</v>
+        <v>2502</v>
       </c>
       <c r="G507" s="2" t="s">
-        <v>2507</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="508" spans="1:7">
@@ -19838,22 +19846,22 @@
         <v>506</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>2486</v>
+        <v>2482</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>2508</v>
+        <v>2504</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>2509</v>
+        <v>2505</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>2580</v>
+        <v>2576</v>
       </c>
       <c r="F508" s="2" t="s">
-        <v>2510</v>
+        <v>2506</v>
       </c>
       <c r="G508" s="2" t="s">
-        <v>2511</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="509" spans="1:7">
@@ -19861,22 +19869,22 @@
         <v>507</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>2487</v>
+        <v>2483</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>2512</v>
+        <v>2508</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>2513</v>
+        <v>2509</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>2580</v>
+        <v>2576</v>
       </c>
       <c r="F509" s="2" t="s">
-        <v>2514</v>
+        <v>2510</v>
       </c>
       <c r="G509" s="2" t="s">
-        <v>2515</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="510" spans="1:7">
@@ -19884,22 +19892,22 @@
         <v>508</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>2488</v>
+        <v>2484</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>2516</v>
+        <v>2512</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>2517</v>
+        <v>2513</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>2579</v>
+        <v>2575</v>
       </c>
       <c r="F510" s="2" t="s">
-        <v>2518</v>
+        <v>2514</v>
       </c>
       <c r="G510" s="2" t="s">
-        <v>2519</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="511" spans="1:7">
@@ -19907,22 +19915,22 @@
         <v>509</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>2489</v>
+        <v>2485</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>2520</v>
+        <v>2516</v>
       </c>
       <c r="D511" s="2" t="s">
         <v>576</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>2581</v>
+        <v>2577</v>
       </c>
       <c r="F511" s="2" t="s">
-        <v>2521</v>
+        <v>2517</v>
       </c>
       <c r="G511" s="2" t="s">
-        <v>2522</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="512" spans="1:7">
@@ -19930,22 +19938,22 @@
         <v>510</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>2490</v>
+        <v>2486</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>2523</v>
+        <v>2519</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>2524</v>
+        <v>2520</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>2582</v>
+        <v>2578</v>
       </c>
       <c r="F512" s="2" t="s">
-        <v>2525</v>
+        <v>2521</v>
       </c>
       <c r="G512" s="2" t="s">
-        <v>2526</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="513" spans="1:7">
@@ -19953,22 +19961,22 @@
         <v>511</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>2491</v>
+        <v>2487</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>2527</v>
+        <v>2523</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>2528</v>
+        <v>2524</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>2582</v>
+        <v>2578</v>
       </c>
       <c r="F513" s="2" t="s">
-        <v>2529</v>
+        <v>2525</v>
       </c>
       <c r="G513" s="2" t="s">
-        <v>2530</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="514" spans="1:7">
@@ -19976,22 +19984,22 @@
         <v>512</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>2492</v>
+        <v>2488</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>2531</v>
+        <v>2527</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>2532</v>
+        <v>2528</v>
       </c>
       <c r="E514" s="2" t="s">
-        <v>2582</v>
+        <v>2578</v>
       </c>
       <c r="F514" s="2" t="s">
-        <v>2533</v>
+        <v>2529</v>
       </c>
       <c r="G514" s="2" t="s">
-        <v>2534</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="515" spans="1:7">
@@ -19999,22 +20007,22 @@
         <v>513</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>2493</v>
+        <v>2489</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>2137</v>
+        <v>2133</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>2535</v>
+        <v>2531</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>2582</v>
+        <v>2578</v>
       </c>
       <c r="F515" s="2" t="s">
-        <v>2536</v>
+        <v>2532</v>
       </c>
       <c r="G515" s="2" t="s">
-        <v>2577</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="516" spans="1:7">
@@ -20022,22 +20030,22 @@
         <v>514</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>2494</v>
+        <v>2490</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>2537</v>
+        <v>2533</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>2538</v>
+        <v>2534</v>
       </c>
       <c r="E516" s="2" t="s">
-        <v>2579</v>
+        <v>2575</v>
       </c>
       <c r="F516" s="2" t="s">
-        <v>2539</v>
+        <v>2535</v>
       </c>
       <c r="G516" s="2" t="s">
-        <v>2540</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="517" spans="1:7">
@@ -20045,22 +20053,22 @@
         <v>515</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>2495</v>
+        <v>2491</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>2541</v>
+        <v>2537</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>2542</v>
+        <v>2538</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>2582</v>
+        <v>2578</v>
       </c>
       <c r="F517" s="2" t="s">
-        <v>2543</v>
+        <v>2539</v>
       </c>
       <c r="G517" s="2" t="s">
-        <v>2544</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="518" spans="1:7">
@@ -20068,22 +20076,22 @@
         <v>516</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>2496</v>
+        <v>2492</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>2545</v>
+        <v>2541</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>2546</v>
+        <v>2542</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>2580</v>
+        <v>2576</v>
       </c>
       <c r="F518" s="2" t="s">
-        <v>2547</v>
+        <v>2543</v>
       </c>
       <c r="G518" s="2" t="s">
-        <v>2548</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="519" spans="1:7">
@@ -20091,22 +20099,22 @@
         <v>517</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>2497</v>
+        <v>2493</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>2550</v>
+        <v>2546</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>2583</v>
+        <v>2579</v>
       </c>
       <c r="F519" s="2" t="s">
-        <v>2551</v>
+        <v>2547</v>
       </c>
       <c r="G519" s="2" t="s">
-        <v>2552</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="520" spans="1:7">
@@ -20114,22 +20122,22 @@
         <v>518</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>2498</v>
+        <v>2494</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>2553</v>
+        <v>2549</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>2554</v>
+        <v>2550</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>2584</v>
+        <v>2580</v>
       </c>
       <c r="F520" s="2" t="s">
-        <v>2555</v>
+        <v>2551</v>
       </c>
       <c r="G520" s="2" t="s">
-        <v>2556</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="521" spans="1:7">
@@ -20137,22 +20145,22 @@
         <v>519</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>2499</v>
+        <v>2495</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>2557</v>
+        <v>2553</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>2558</v>
+        <v>2554</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>2580</v>
+        <v>2576</v>
       </c>
       <c r="F521" s="2" t="s">
-        <v>2559</v>
+        <v>2555</v>
       </c>
       <c r="G521" s="2" t="s">
-        <v>2560</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="522" spans="1:7">
@@ -20160,22 +20168,22 @@
         <v>520</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>2500</v>
+        <v>2496</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>2561</v>
+        <v>2557</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>2562</v>
+        <v>2558</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>2579</v>
+        <v>2575</v>
       </c>
       <c r="F522" s="2" t="s">
-        <v>2563</v>
+        <v>2559</v>
       </c>
       <c r="G522" s="2" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="523" spans="1:7">
@@ -20183,22 +20191,22 @@
         <v>521</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>2501</v>
+        <v>2497</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>2566</v>
+        <v>2562</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>2584</v>
+        <v>2580</v>
       </c>
       <c r="F523" s="2" t="s">
-        <v>2567</v>
+        <v>2563</v>
       </c>
       <c r="G523" s="2" t="s">
-        <v>2568</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="524" spans="1:7">
@@ -20206,22 +20214,22 @@
         <v>522</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>2569</v>
+        <v>2565</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>2581</v>
+        <v>2577</v>
       </c>
       <c r="F524" s="2" t="s">
-        <v>2571</v>
+        <v>2567</v>
       </c>
       <c r="G524" s="2" t="s">
-        <v>2572</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="525" spans="1:7">
@@ -20229,22 +20237,22 @@
         <v>523</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>2503</v>
+        <v>2499</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>2573</v>
+        <v>2569</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>2574</v>
+        <v>2570</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>2581</v>
+        <v>2577</v>
       </c>
       <c r="F525" s="2" t="s">
-        <v>2575</v>
+        <v>2571</v>
       </c>
       <c r="G525" s="2" t="s">
-        <v>2576</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="526" spans="1:7">
@@ -20252,22 +20260,22 @@
         <v>524</v>
       </c>
       <c r="B526" s="2" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>2582</v>
+      </c>
+      <c r="D526" s="2" t="s">
+        <v>2583</v>
+      </c>
+      <c r="E526" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F526" s="2" t="s">
+        <v>2584</v>
+      </c>
+      <c r="G526" s="2" t="s">
         <v>2585</v>
-      </c>
-      <c r="C526" s="2" t="s">
-        <v>2586</v>
-      </c>
-      <c r="D526" s="2" t="s">
-        <v>2587</v>
-      </c>
-      <c r="E526" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F526" s="2" t="s">
-        <v>2588</v>
-      </c>
-      <c r="G526" s="2" t="s">
-        <v>2589</v>
       </c>
     </row>
     <row r="527" spans="1:7">

--- a/doc/voca.xlsx
+++ b/doc/voca.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="2591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="2663">
   <si>
     <t>#</t>
   </si>
@@ -7819,6 +7819,224 @@
   </si>
   <si>
     <t>[hwaɪ]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>[pent]</t>
+  </si>
+  <si>
+    <t>油漆；繪畫</t>
+  </si>
+  <si>
+    <t>[動詞/名詞]</t>
+  </si>
+  <si>
+    <t>I want to paint the wall blue.</t>
+  </si>
+  <si>
+    <t>我想把牆漆成藍色。</t>
+  </si>
+  <si>
+    <t>[ˋblæŋkɪt]</t>
+  </si>
+  <si>
+    <t>毯子</t>
+  </si>
+  <si>
+    <t>She covered herself with a warm blanket.</t>
+  </si>
+  <si>
+    <t>她蓋上一條暖和的毯子。</t>
+  </si>
+  <si>
+    <t>carpet</t>
+  </si>
+  <si>
+    <t>[ˋkɑrpɪt]</t>
+  </si>
+  <si>
+    <t>地毯</t>
+  </si>
+  <si>
+    <t>The carpet in the living room is red.</t>
+  </si>
+  <si>
+    <t>客廳的地毯是紅色的。</t>
+  </si>
+  <si>
+    <t>closet</t>
+  </si>
+  <si>
+    <t>[ˋklɑzɪt]</t>
+  </si>
+  <si>
+    <t>衣櫥；壁櫥</t>
+  </si>
+  <si>
+    <t>He keeps his clothes in the closet.</t>
+  </si>
+  <si>
+    <t>他把衣服放在衣櫥裡。</t>
+  </si>
+  <si>
+    <t>pillow</t>
+  </si>
+  <si>
+    <t>[ˋpɪlo]</t>
+  </si>
+  <si>
+    <t>枕頭</t>
+  </si>
+  <si>
+    <t>I need a soft pillow to sleep well.</t>
+  </si>
+  <si>
+    <t>我需要一個軟枕頭才能睡得好。</t>
+  </si>
+  <si>
+    <t>wallpaper</t>
+  </si>
+  <si>
+    <t>[ˋwɔl͵pepɚ]</t>
+  </si>
+  <si>
+    <t>壁紙</t>
+  </si>
+  <si>
+    <t>The wallpaper has a flower design.</t>
+  </si>
+  <si>
+    <t>這張壁紙有花朵的圖案。</t>
+  </si>
+  <si>
+    <t>furniture</t>
+  </si>
+  <si>
+    <t>[ˋfɝnɪtʃɚ]</t>
+  </si>
+  <si>
+    <t>家具</t>
+  </si>
+  <si>
+    <t>We bought new furniture for the house.</t>
+  </si>
+  <si>
+    <t>我們為家裡買了新家具。</t>
+  </si>
+  <si>
+    <t>rug</t>
+  </si>
+  <si>
+    <t>[rʌg]</t>
+  </si>
+  <si>
+    <t>小地毯</t>
+  </si>
+  <si>
+    <t>There is a rug near the door.</t>
+  </si>
+  <si>
+    <t>門口有一張小地毯。</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>[wɑnt]</t>
+  </si>
+  <si>
+    <t>想要</t>
+  </si>
+  <si>
+    <t>I want a glass of water.</t>
+  </si>
+  <si>
+    <t>我想要一杯水。</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>[nid]</t>
+  </si>
+  <si>
+    <t>需要</t>
+  </si>
+  <si>
+    <t>You need to finish your homework.</t>
+  </si>
+  <si>
+    <t>你需要完成作業。</t>
+  </si>
+  <si>
+    <t>something</t>
+  </si>
+  <si>
+    <t>[ˋsʌmθɪŋ]</t>
+  </si>
+  <si>
+    <t>某物</t>
+  </si>
+  <si>
+    <t>I have something to tell you.</t>
+  </si>
+  <si>
+    <t>我有件事要告訴你。</t>
+  </si>
+  <si>
+    <t>hardwood</t>
+  </si>
+  <si>
+    <t>[ˋhɑrd͵wʊd]</t>
+  </si>
+  <si>
+    <t>硬木；實木</t>
+  </si>
+  <si>
+    <t>The floor is made of hardwood.</t>
+  </si>
+  <si>
+    <t>地板是硬木做的。</t>
+  </si>
+  <si>
+    <t>dresser</t>
+  </si>
+  <si>
+    <t>[ˋdrɛsɚ]</t>
+  </si>
+  <si>
+    <t>梳妝台；衣櫃</t>
+  </si>
+  <si>
+    <t>She keeps her mirror on the dresser.</t>
+  </si>
+  <si>
+    <t>她把鏡子放在梳妝台上。</t>
+  </si>
+  <si>
+    <t>expensive</t>
+  </si>
+  <si>
+    <t>[ɪkˋspɛnsɪv]</t>
+  </si>
+  <si>
+    <t>昂貴的</t>
+  </si>
+  <si>
+    <t>This bag is too expensive for me.</t>
+  </si>
+  <si>
+    <t>這個包對我來說太貴了。</t>
+  </si>
+  <si>
+    <t>[名詞]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>blanket</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8187,10 +8405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G527"/>
+  <dimension ref="A1:G541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A524" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J538" sqref="J538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8199,7 +8417,7 @@
     <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="20.75" customWidth="1"/>
     <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="35.125" customWidth="1"/>
+    <col min="6" max="6" width="49.25" customWidth="1"/>
     <col min="7" max="7" width="34.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20281,6 +20499,328 @@
     <row r="527" spans="1:7">
       <c r="B527" s="2"/>
     </row>
+    <row r="528" spans="1:7">
+      <c r="A528">
+        <v>525</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C528" s="2" t="s">
+        <v>2592</v>
+      </c>
+      <c r="D528" s="2" t="s">
+        <v>2593</v>
+      </c>
+      <c r="E528" s="2" t="s">
+        <v>2594</v>
+      </c>
+      <c r="F528" s="2" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G528" s="2" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7">
+      <c r="A529">
+        <v>526</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>2597</v>
+      </c>
+      <c r="D529" s="2" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E529" s="2" t="s">
+        <v>2661</v>
+      </c>
+      <c r="F529" s="2" t="s">
+        <v>2599</v>
+      </c>
+      <c r="G529" s="2" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7">
+      <c r="A530">
+        <v>527</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C530" s="2" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D530" s="2" t="s">
+        <v>2603</v>
+      </c>
+      <c r="E530" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F530" s="2" t="s">
+        <v>2604</v>
+      </c>
+      <c r="G530" s="2" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7">
+      <c r="A531">
+        <v>528</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C531" s="2" t="s">
+        <v>2607</v>
+      </c>
+      <c r="D531" s="2" t="s">
+        <v>2608</v>
+      </c>
+      <c r="E531" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F531" s="2" t="s">
+        <v>2609</v>
+      </c>
+      <c r="G531" s="2" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7">
+      <c r="A532">
+        <v>529</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>2611</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>2612</v>
+      </c>
+      <c r="D532" s="2" t="s">
+        <v>2613</v>
+      </c>
+      <c r="E532" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F532" s="2" t="s">
+        <v>2614</v>
+      </c>
+      <c r="G532" s="2" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7">
+      <c r="A533">
+        <v>530</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>2616</v>
+      </c>
+      <c r="C533" s="2" t="s">
+        <v>2617</v>
+      </c>
+      <c r="D533" s="2" t="s">
+        <v>2618</v>
+      </c>
+      <c r="E533" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F533" s="2" t="s">
+        <v>2619</v>
+      </c>
+      <c r="G533" s="2" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7">
+      <c r="A534">
+        <v>531</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C534" s="2" t="s">
+        <v>2622</v>
+      </c>
+      <c r="D534" s="2" t="s">
+        <v>2623</v>
+      </c>
+      <c r="E534" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F534" s="2" t="s">
+        <v>2624</v>
+      </c>
+      <c r="G534" s="2" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7">
+      <c r="A535">
+        <v>532</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>2626</v>
+      </c>
+      <c r="C535" s="2" t="s">
+        <v>2627</v>
+      </c>
+      <c r="D535" s="2" t="s">
+        <v>2628</v>
+      </c>
+      <c r="E535" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F535" s="2" t="s">
+        <v>2629</v>
+      </c>
+      <c r="G535" s="2" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7">
+      <c r="A536">
+        <v>533</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C536" s="2" t="s">
+        <v>2632</v>
+      </c>
+      <c r="D536" s="2" t="s">
+        <v>2633</v>
+      </c>
+      <c r="E536" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F536" s="2" t="s">
+        <v>2634</v>
+      </c>
+      <c r="G536" s="2" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7">
+      <c r="A537">
+        <v>534</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C537" s="2" t="s">
+        <v>2637</v>
+      </c>
+      <c r="D537" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E537" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F537" s="2" t="s">
+        <v>2639</v>
+      </c>
+      <c r="G537" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7">
+      <c r="A538">
+        <v>535</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C538" s="2" t="s">
+        <v>2642</v>
+      </c>
+      <c r="D538" s="2" t="s">
+        <v>2643</v>
+      </c>
+      <c r="E538" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F538" s="2" t="s">
+        <v>2644</v>
+      </c>
+      <c r="G538" s="2" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7">
+      <c r="A539">
+        <v>536</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>2646</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>2647</v>
+      </c>
+      <c r="D539" s="2" t="s">
+        <v>2648</v>
+      </c>
+      <c r="E539" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F539" s="2" t="s">
+        <v>2649</v>
+      </c>
+      <c r="G539" s="2" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7">
+      <c r="A540">
+        <v>537</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>2652</v>
+      </c>
+      <c r="D540" s="2" t="s">
+        <v>2653</v>
+      </c>
+      <c r="E540" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F540" s="2" t="s">
+        <v>2654</v>
+      </c>
+      <c r="G540" s="2" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7">
+      <c r="A541">
+        <v>538</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C541" s="2" t="s">
+        <v>2657</v>
+      </c>
+      <c r="D541" s="2" t="s">
+        <v>2658</v>
+      </c>
+      <c r="E541" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F541" s="2" t="s">
+        <v>2659</v>
+      </c>
+      <c r="G541" s="2" t="s">
+        <v>2660</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/voca.xlsx
+++ b/doc/voca.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="2663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3277" uniqueCount="2696">
   <si>
     <t>#</t>
   </si>
@@ -8038,6 +8038,105 @@
   <si>
     <t>blanket</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cola</t>
+  </si>
+  <si>
+    <t>[ˋkolə]</t>
+  </si>
+  <si>
+    <t>lemonade</t>
+  </si>
+  <si>
+    <t>[͵lɛməˋned]</t>
+  </si>
+  <si>
+    <t>檸檬水</t>
+  </si>
+  <si>
+    <t>bubble tea</t>
+  </si>
+  <si>
+    <t>[ˋbʌbḷ ti]</t>
+  </si>
+  <si>
+    <t>珍珠奶茶</t>
+  </si>
+  <si>
+    <t>hot chocolate</t>
+  </si>
+  <si>
+    <t>[hɑt ˋtʃɔkḷɪt]</t>
+  </si>
+  <si>
+    <t>熱可可</t>
+  </si>
+  <si>
+    <t>soy milk</t>
+  </si>
+  <si>
+    <t>[ˋsɔɪ mɪlk]</t>
+  </si>
+  <si>
+    <t>豆漿</t>
+  </si>
+  <si>
+    <t>soy</t>
+  </si>
+  <si>
+    <t>[sɔɪ]</t>
+  </si>
+  <si>
+    <t>I drink cola.</t>
+  </si>
+  <si>
+    <t>The lemonade is sweet.</t>
+  </si>
+  <si>
+    <t>檸檬水很甜。</t>
+  </si>
+  <si>
+    <t>I like bubble tea.</t>
+  </si>
+  <si>
+    <t>我喜歡珍珠奶茶。</t>
+  </si>
+  <si>
+    <t>Hot chocolate is sweet.</t>
+  </si>
+  <si>
+    <t>熱可可很甜。</t>
+  </si>
+  <si>
+    <t>He drinks soy milk.</t>
+  </si>
+  <si>
+    <t>他喝豆漿。</t>
+  </si>
+  <si>
+    <t>bubble</t>
+  </si>
+  <si>
+    <t>[ˋbʌbḷ]</t>
+  </si>
+  <si>
+    <t>氣泡；泡泡</t>
+  </si>
+  <si>
+    <t>The bubble pops.</t>
+  </si>
+  <si>
+    <t>泡泡破了。</t>
+  </si>
+  <si>
+    <t>大豆；黃豆</t>
+  </si>
+  <si>
+    <t>Soy is a bean.</t>
+  </si>
+  <si>
+    <t>大豆是一種豆子。</t>
   </si>
 </sst>
 </file>
@@ -8405,17 +8504,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G541"/>
+  <dimension ref="A1:G549"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A524" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J538" sqref="J538"/>
+    <sheetView tabSelected="1" topLeftCell="A532" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D552" sqref="D552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="52.125" customWidth="1"/>
+    <col min="4" max="4" width="24.375" customWidth="1"/>
     <col min="5" max="5" width="15.25" customWidth="1"/>
     <col min="6" max="6" width="49.25" customWidth="1"/>
     <col min="7" max="7" width="34.375" customWidth="1"/>
@@ -20821,6 +20920,167 @@
         <v>2660</v>
       </c>
     </row>
+    <row r="543" spans="1:7">
+      <c r="A543">
+        <v>539</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C543" s="2" t="s">
+        <v>2664</v>
+      </c>
+      <c r="D543" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E543" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F543" s="2" t="s">
+        <v>2679</v>
+      </c>
+      <c r="G543" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7">
+      <c r="A544">
+        <v>540</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>2665</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>2666</v>
+      </c>
+      <c r="D544" s="2" t="s">
+        <v>2667</v>
+      </c>
+      <c r="E544" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F544" s="2" t="s">
+        <v>2680</v>
+      </c>
+      <c r="G544" s="2" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7">
+      <c r="A545">
+        <v>541</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>2668</v>
+      </c>
+      <c r="C545" s="2" t="s">
+        <v>2669</v>
+      </c>
+      <c r="D545" s="2" t="s">
+        <v>2670</v>
+      </c>
+      <c r="E545" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F545" s="2" t="s">
+        <v>2682</v>
+      </c>
+      <c r="G545" s="2" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7">
+      <c r="A546">
+        <v>542</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C546" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="D546" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E546" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F546" s="2" t="s">
+        <v>2684</v>
+      </c>
+      <c r="G546" s="2" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7">
+      <c r="A547">
+        <v>543</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>2674</v>
+      </c>
+      <c r="C547" s="2" t="s">
+        <v>2675</v>
+      </c>
+      <c r="D547" s="2" t="s">
+        <v>2676</v>
+      </c>
+      <c r="E547" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F547" s="2" t="s">
+        <v>2686</v>
+      </c>
+      <c r="G547" s="2" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7">
+      <c r="A548">
+        <v>544</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>2688</v>
+      </c>
+      <c r="C548" s="2" t="s">
+        <v>2689</v>
+      </c>
+      <c r="D548" s="2" t="s">
+        <v>2690</v>
+      </c>
+      <c r="E548" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F548" s="2" t="s">
+        <v>2691</v>
+      </c>
+      <c r="G548" s="2" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7">
+      <c r="A549">
+        <v>545</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>2677</v>
+      </c>
+      <c r="C549" s="2" t="s">
+        <v>2678</v>
+      </c>
+      <c r="D549" s="2" t="s">
+        <v>2693</v>
+      </c>
+      <c r="E549" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F549" s="2" t="s">
+        <v>2694</v>
+      </c>
+      <c r="G549" s="2" t="s">
+        <v>2695</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/voca.xlsx
+++ b/doc/voca.xlsx
@@ -7635,9 +7635,6 @@
     <t>The baby is too weak to walk.</t>
   </si>
   <si>
-    <t>[ˈpleɪˌɡraʊnd]</t>
-  </si>
-  <si>
     <t>遊樂場</t>
   </si>
   <si>
@@ -8137,6 +8134,10 @@
   </si>
   <si>
     <t>大豆是一種豆子。</t>
+  </si>
+  <si>
+    <t>[ˈpleˌɡraʊnd]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8506,8 +8507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G549"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A532" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D552" sqref="D552"/>
+    <sheetView tabSelected="1" topLeftCell="A508" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C516" sqref="C516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8540,7 +8541,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -9264,7 +9265,7 @@
         <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="D33" t="s">
         <v>582</v>
@@ -9287,7 +9288,7 @@
         <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="D34" t="s">
         <v>585</v>
@@ -9310,7 +9311,7 @@
         <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="D35" t="s">
         <v>588</v>
@@ -9333,7 +9334,7 @@
         <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="D36" t="s">
         <v>591</v>
@@ -9402,7 +9403,7 @@
         <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="D39" t="s">
         <v>600</v>
@@ -20149,7 +20150,7 @@
         <v>2501</v>
       </c>
       <c r="E507" s="2" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="F507" s="2" t="s">
         <v>2502</v>
@@ -20172,7 +20173,7 @@
         <v>2505</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="F508" s="2" t="s">
         <v>2506</v>
@@ -20195,7 +20196,7 @@
         <v>2509</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="F509" s="2" t="s">
         <v>2510</v>
@@ -20218,7 +20219,7 @@
         <v>2513</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="F510" s="2" t="s">
         <v>2514</v>
@@ -20241,7 +20242,7 @@
         <v>576</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="F511" s="2" t="s">
         <v>2517</v>
@@ -20264,7 +20265,7 @@
         <v>2520</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="F512" s="2" t="s">
         <v>2521</v>
@@ -20287,7 +20288,7 @@
         <v>2524</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="F513" s="2" t="s">
         <v>2525</v>
@@ -20310,7 +20311,7 @@
         <v>2528</v>
       </c>
       <c r="E514" s="2" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="F514" s="2" t="s">
         <v>2529</v>
@@ -20333,13 +20334,13 @@
         <v>2531</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="F515" s="2" t="s">
         <v>2532</v>
       </c>
       <c r="G515" s="2" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="516" spans="1:7">
@@ -20350,19 +20351,19 @@
         <v>2490</v>
       </c>
       <c r="C516" s="2" t="s">
+        <v>2695</v>
+      </c>
+      <c r="D516" s="2" t="s">
         <v>2533</v>
       </c>
-      <c r="D516" s="2" t="s">
+      <c r="E516" s="2" t="s">
+        <v>2574</v>
+      </c>
+      <c r="F516" s="2" t="s">
         <v>2534</v>
       </c>
-      <c r="E516" s="2" t="s">
-        <v>2575</v>
-      </c>
-      <c r="F516" s="2" t="s">
+      <c r="G516" s="2" t="s">
         <v>2535</v>
-      </c>
-      <c r="G516" s="2" t="s">
-        <v>2536</v>
       </c>
     </row>
     <row r="517" spans="1:7">
@@ -20373,19 +20374,19 @@
         <v>2491</v>
       </c>
       <c r="C517" s="2" t="s">
+        <v>2536</v>
+      </c>
+      <c r="D517" s="2" t="s">
         <v>2537</v>
       </c>
-      <c r="D517" s="2" t="s">
+      <c r="E517" s="2" t="s">
+        <v>2577</v>
+      </c>
+      <c r="F517" s="2" t="s">
         <v>2538</v>
       </c>
-      <c r="E517" s="2" t="s">
-        <v>2578</v>
-      </c>
-      <c r="F517" s="2" t="s">
+      <c r="G517" s="2" t="s">
         <v>2539</v>
-      </c>
-      <c r="G517" s="2" t="s">
-        <v>2540</v>
       </c>
     </row>
     <row r="518" spans="1:7">
@@ -20396,19 +20397,19 @@
         <v>2492</v>
       </c>
       <c r="C518" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D518" s="2" t="s">
         <v>2541</v>
       </c>
-      <c r="D518" s="2" t="s">
+      <c r="E518" s="2" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F518" s="2" t="s">
         <v>2542</v>
       </c>
-      <c r="E518" s="2" t="s">
-        <v>2576</v>
-      </c>
-      <c r="F518" s="2" t="s">
+      <c r="G518" s="2" t="s">
         <v>2543</v>
-      </c>
-      <c r="G518" s="2" t="s">
-        <v>2544</v>
       </c>
     </row>
     <row r="519" spans="1:7">
@@ -20419,19 +20420,19 @@
         <v>2493</v>
       </c>
       <c r="C519" s="2" t="s">
+        <v>2544</v>
+      </c>
+      <c r="D519" s="2" t="s">
         <v>2545</v>
       </c>
-      <c r="D519" s="2" t="s">
+      <c r="E519" s="2" t="s">
+        <v>2578</v>
+      </c>
+      <c r="F519" s="2" t="s">
         <v>2546</v>
       </c>
-      <c r="E519" s="2" t="s">
-        <v>2579</v>
-      </c>
-      <c r="F519" s="2" t="s">
+      <c r="G519" s="2" t="s">
         <v>2547</v>
-      </c>
-      <c r="G519" s="2" t="s">
-        <v>2548</v>
       </c>
     </row>
     <row r="520" spans="1:7">
@@ -20442,19 +20443,19 @@
         <v>2494</v>
       </c>
       <c r="C520" s="2" t="s">
+        <v>2548</v>
+      </c>
+      <c r="D520" s="2" t="s">
         <v>2549</v>
       </c>
-      <c r="D520" s="2" t="s">
+      <c r="E520" s="2" t="s">
+        <v>2579</v>
+      </c>
+      <c r="F520" s="2" t="s">
         <v>2550</v>
       </c>
-      <c r="E520" s="2" t="s">
-        <v>2580</v>
-      </c>
-      <c r="F520" s="2" t="s">
+      <c r="G520" s="2" t="s">
         <v>2551</v>
-      </c>
-      <c r="G520" s="2" t="s">
-        <v>2552</v>
       </c>
     </row>
     <row r="521" spans="1:7">
@@ -20465,19 +20466,19 @@
         <v>2495</v>
       </c>
       <c r="C521" s="2" t="s">
+        <v>2552</v>
+      </c>
+      <c r="D521" s="2" t="s">
         <v>2553</v>
       </c>
-      <c r="D521" s="2" t="s">
+      <c r="E521" s="2" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F521" s="2" t="s">
         <v>2554</v>
       </c>
-      <c r="E521" s="2" t="s">
-        <v>2576</v>
-      </c>
-      <c r="F521" s="2" t="s">
+      <c r="G521" s="2" t="s">
         <v>2555</v>
-      </c>
-      <c r="G521" s="2" t="s">
-        <v>2556</v>
       </c>
     </row>
     <row r="522" spans="1:7">
@@ -20488,19 +20489,19 @@
         <v>2496</v>
       </c>
       <c r="C522" s="2" t="s">
+        <v>2556</v>
+      </c>
+      <c r="D522" s="2" t="s">
         <v>2557</v>
       </c>
-      <c r="D522" s="2" t="s">
+      <c r="E522" s="2" t="s">
+        <v>2574</v>
+      </c>
+      <c r="F522" s="2" t="s">
         <v>2558</v>
       </c>
-      <c r="E522" s="2" t="s">
-        <v>2575</v>
-      </c>
-      <c r="F522" s="2" t="s">
+      <c r="G522" s="2" t="s">
         <v>2559</v>
-      </c>
-      <c r="G522" s="2" t="s">
-        <v>2560</v>
       </c>
     </row>
     <row r="523" spans="1:7">
@@ -20511,19 +20512,19 @@
         <v>2497</v>
       </c>
       <c r="C523" s="2" t="s">
+        <v>2560</v>
+      </c>
+      <c r="D523" s="2" t="s">
         <v>2561</v>
       </c>
-      <c r="D523" s="2" t="s">
+      <c r="E523" s="2" t="s">
+        <v>2579</v>
+      </c>
+      <c r="F523" s="2" t="s">
         <v>2562</v>
       </c>
-      <c r="E523" s="2" t="s">
-        <v>2580</v>
-      </c>
-      <c r="F523" s="2" t="s">
+      <c r="G523" s="2" t="s">
         <v>2563</v>
-      </c>
-      <c r="G523" s="2" t="s">
-        <v>2564</v>
       </c>
     </row>
     <row r="524" spans="1:7">
@@ -20534,19 +20535,19 @@
         <v>2498</v>
       </c>
       <c r="C524" s="2" t="s">
+        <v>2564</v>
+      </c>
+      <c r="D524" s="2" t="s">
         <v>2565</v>
       </c>
-      <c r="D524" s="2" t="s">
+      <c r="E524" s="2" t="s">
+        <v>2576</v>
+      </c>
+      <c r="F524" s="2" t="s">
         <v>2566</v>
       </c>
-      <c r="E524" s="2" t="s">
-        <v>2577</v>
-      </c>
-      <c r="F524" s="2" t="s">
+      <c r="G524" s="2" t="s">
         <v>2567</v>
-      </c>
-      <c r="G524" s="2" t="s">
-        <v>2568</v>
       </c>
     </row>
     <row r="525" spans="1:7">
@@ -20557,19 +20558,19 @@
         <v>2499</v>
       </c>
       <c r="C525" s="2" t="s">
+        <v>2568</v>
+      </c>
+      <c r="D525" s="2" t="s">
         <v>2569</v>
       </c>
-      <c r="D525" s="2" t="s">
+      <c r="E525" s="2" t="s">
+        <v>2576</v>
+      </c>
+      <c r="F525" s="2" t="s">
         <v>2570</v>
       </c>
-      <c r="E525" s="2" t="s">
-        <v>2577</v>
-      </c>
-      <c r="F525" s="2" t="s">
+      <c r="G525" s="2" t="s">
         <v>2571</v>
-      </c>
-      <c r="G525" s="2" t="s">
-        <v>2572</v>
       </c>
     </row>
     <row r="526" spans="1:7">
@@ -20577,22 +20578,22 @@
         <v>524</v>
       </c>
       <c r="B526" s="2" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C526" s="2" t="s">
         <v>2581</v>
       </c>
-      <c r="C526" s="2" t="s">
+      <c r="D526" s="2" t="s">
         <v>2582</v>
       </c>
-      <c r="D526" s="2" t="s">
+      <c r="E526" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F526" s="2" t="s">
         <v>2583</v>
       </c>
-      <c r="E526" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F526" s="2" t="s">
+      <c r="G526" s="2" t="s">
         <v>2584</v>
-      </c>
-      <c r="G526" s="2" t="s">
-        <v>2585</v>
       </c>
     </row>
     <row r="527" spans="1:7">
@@ -20603,22 +20604,22 @@
         <v>525</v>
       </c>
       <c r="B528" s="2" t="s">
+        <v>2590</v>
+      </c>
+      <c r="C528" s="2" t="s">
         <v>2591</v>
       </c>
-      <c r="C528" s="2" t="s">
+      <c r="D528" s="2" t="s">
         <v>2592</v>
       </c>
-      <c r="D528" s="2" t="s">
+      <c r="E528" s="2" t="s">
         <v>2593</v>
       </c>
-      <c r="E528" s="2" t="s">
+      <c r="F528" s="2" t="s">
         <v>2594</v>
       </c>
-      <c r="F528" s="2" t="s">
+      <c r="G528" s="2" t="s">
         <v>2595</v>
-      </c>
-      <c r="G528" s="2" t="s">
-        <v>2596</v>
       </c>
     </row>
     <row r="529" spans="1:7">
@@ -20626,22 +20627,22 @@
         <v>526</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="C529" s="2" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D529" s="2" t="s">
         <v>2597</v>
       </c>
-      <c r="D529" s="2" t="s">
+      <c r="E529" s="2" t="s">
+        <v>2660</v>
+      </c>
+      <c r="F529" s="2" t="s">
         <v>2598</v>
       </c>
-      <c r="E529" s="2" t="s">
-        <v>2661</v>
-      </c>
-      <c r="F529" s="2" t="s">
+      <c r="G529" s="2" t="s">
         <v>2599</v>
-      </c>
-      <c r="G529" s="2" t="s">
-        <v>2600</v>
       </c>
     </row>
     <row r="530" spans="1:7">
@@ -20649,22 +20650,22 @@
         <v>527</v>
       </c>
       <c r="B530" s="2" t="s">
+        <v>2600</v>
+      </c>
+      <c r="C530" s="2" t="s">
         <v>2601</v>
       </c>
-      <c r="C530" s="2" t="s">
+      <c r="D530" s="2" t="s">
         <v>2602</v>
       </c>
-      <c r="D530" s="2" t="s">
+      <c r="E530" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F530" s="2" t="s">
         <v>2603</v>
       </c>
-      <c r="E530" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F530" s="2" t="s">
+      <c r="G530" s="2" t="s">
         <v>2604</v>
-      </c>
-      <c r="G530" s="2" t="s">
-        <v>2605</v>
       </c>
     </row>
     <row r="531" spans="1:7">
@@ -20672,22 +20673,22 @@
         <v>528</v>
       </c>
       <c r="B531" s="2" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C531" s="2" t="s">
         <v>2606</v>
       </c>
-      <c r="C531" s="2" t="s">
+      <c r="D531" s="2" t="s">
         <v>2607</v>
       </c>
-      <c r="D531" s="2" t="s">
+      <c r="E531" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F531" s="2" t="s">
         <v>2608</v>
       </c>
-      <c r="E531" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F531" s="2" t="s">
+      <c r="G531" s="2" t="s">
         <v>2609</v>
-      </c>
-      <c r="G531" s="2" t="s">
-        <v>2610</v>
       </c>
     </row>
     <row r="532" spans="1:7">
@@ -20695,22 +20696,22 @@
         <v>529</v>
       </c>
       <c r="B532" s="2" t="s">
+        <v>2610</v>
+      </c>
+      <c r="C532" s="2" t="s">
         <v>2611</v>
       </c>
-      <c r="C532" s="2" t="s">
+      <c r="D532" s="2" t="s">
         <v>2612</v>
       </c>
-      <c r="D532" s="2" t="s">
+      <c r="E532" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F532" s="2" t="s">
         <v>2613</v>
       </c>
-      <c r="E532" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F532" s="2" t="s">
+      <c r="G532" s="2" t="s">
         <v>2614</v>
-      </c>
-      <c r="G532" s="2" t="s">
-        <v>2615</v>
       </c>
     </row>
     <row r="533" spans="1:7">
@@ -20718,22 +20719,22 @@
         <v>530</v>
       </c>
       <c r="B533" s="2" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C533" s="2" t="s">
         <v>2616</v>
       </c>
-      <c r="C533" s="2" t="s">
+      <c r="D533" s="2" t="s">
         <v>2617</v>
       </c>
-      <c r="D533" s="2" t="s">
+      <c r="E533" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F533" s="2" t="s">
         <v>2618</v>
       </c>
-      <c r="E533" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F533" s="2" t="s">
+      <c r="G533" s="2" t="s">
         <v>2619</v>
-      </c>
-      <c r="G533" s="2" t="s">
-        <v>2620</v>
       </c>
     </row>
     <row r="534" spans="1:7">
@@ -20741,22 +20742,22 @@
         <v>531</v>
       </c>
       <c r="B534" s="2" t="s">
+        <v>2620</v>
+      </c>
+      <c r="C534" s="2" t="s">
         <v>2621</v>
       </c>
-      <c r="C534" s="2" t="s">
+      <c r="D534" s="2" t="s">
         <v>2622</v>
       </c>
-      <c r="D534" s="2" t="s">
+      <c r="E534" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F534" s="2" t="s">
         <v>2623</v>
       </c>
-      <c r="E534" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F534" s="2" t="s">
+      <c r="G534" s="2" t="s">
         <v>2624</v>
-      </c>
-      <c r="G534" s="2" t="s">
-        <v>2625</v>
       </c>
     </row>
     <row r="535" spans="1:7">
@@ -20764,22 +20765,22 @@
         <v>532</v>
       </c>
       <c r="B535" s="2" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C535" s="2" t="s">
         <v>2626</v>
       </c>
-      <c r="C535" s="2" t="s">
+      <c r="D535" s="2" t="s">
         <v>2627</v>
       </c>
-      <c r="D535" s="2" t="s">
+      <c r="E535" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F535" s="2" t="s">
         <v>2628</v>
       </c>
-      <c r="E535" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F535" s="2" t="s">
+      <c r="G535" s="2" t="s">
         <v>2629</v>
-      </c>
-      <c r="G535" s="2" t="s">
-        <v>2630</v>
       </c>
     </row>
     <row r="536" spans="1:7">
@@ -20787,22 +20788,22 @@
         <v>533</v>
       </c>
       <c r="B536" s="2" t="s">
+        <v>2630</v>
+      </c>
+      <c r="C536" s="2" t="s">
         <v>2631</v>
       </c>
-      <c r="C536" s="2" t="s">
+      <c r="D536" s="2" t="s">
         <v>2632</v>
-      </c>
-      <c r="D536" s="2" t="s">
-        <v>2633</v>
       </c>
       <c r="E536" s="2" t="s">
         <v>1033</v>
       </c>
       <c r="F536" s="2" t="s">
+        <v>2633</v>
+      </c>
+      <c r="G536" s="2" t="s">
         <v>2634</v>
-      </c>
-      <c r="G536" s="2" t="s">
-        <v>2635</v>
       </c>
     </row>
     <row r="537" spans="1:7">
@@ -20810,22 +20811,22 @@
         <v>534</v>
       </c>
       <c r="B537" s="2" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C537" s="2" t="s">
         <v>2636</v>
       </c>
-      <c r="C537" s="2" t="s">
+      <c r="D537" s="2" t="s">
         <v>2637</v>
-      </c>
-      <c r="D537" s="2" t="s">
-        <v>2638</v>
       </c>
       <c r="E537" s="2" t="s">
         <v>1033</v>
       </c>
       <c r="F537" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="G537" s="2" t="s">
         <v>2639</v>
-      </c>
-      <c r="G537" s="2" t="s">
-        <v>2640</v>
       </c>
     </row>
     <row r="538" spans="1:7">
@@ -20833,22 +20834,22 @@
         <v>535</v>
       </c>
       <c r="B538" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C538" s="2" t="s">
         <v>2641</v>
       </c>
-      <c r="C538" s="2" t="s">
+      <c r="D538" s="2" t="s">
         <v>2642</v>
-      </c>
-      <c r="D538" s="2" t="s">
-        <v>2643</v>
       </c>
       <c r="E538" s="2" t="s">
         <v>1027</v>
       </c>
       <c r="F538" s="2" t="s">
+        <v>2643</v>
+      </c>
+      <c r="G538" s="2" t="s">
         <v>2644</v>
-      </c>
-      <c r="G538" s="2" t="s">
-        <v>2645</v>
       </c>
     </row>
     <row r="539" spans="1:7">
@@ -20856,22 +20857,22 @@
         <v>536</v>
       </c>
       <c r="B539" s="2" t="s">
+        <v>2645</v>
+      </c>
+      <c r="C539" s="2" t="s">
         <v>2646</v>
       </c>
-      <c r="C539" s="2" t="s">
+      <c r="D539" s="2" t="s">
         <v>2647</v>
       </c>
-      <c r="D539" s="2" t="s">
+      <c r="E539" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F539" s="2" t="s">
         <v>2648</v>
       </c>
-      <c r="E539" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F539" s="2" t="s">
+      <c r="G539" s="2" t="s">
         <v>2649</v>
-      </c>
-      <c r="G539" s="2" t="s">
-        <v>2650</v>
       </c>
     </row>
     <row r="540" spans="1:7">
@@ -20879,22 +20880,22 @@
         <v>537</v>
       </c>
       <c r="B540" s="2" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C540" s="2" t="s">
         <v>2651</v>
       </c>
-      <c r="C540" s="2" t="s">
+      <c r="D540" s="2" t="s">
         <v>2652</v>
       </c>
-      <c r="D540" s="2" t="s">
+      <c r="E540" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F540" s="2" t="s">
         <v>2653</v>
       </c>
-      <c r="E540" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F540" s="2" t="s">
+      <c r="G540" s="2" t="s">
         <v>2654</v>
-      </c>
-      <c r="G540" s="2" t="s">
-        <v>2655</v>
       </c>
     </row>
     <row r="541" spans="1:7">
@@ -20902,22 +20903,22 @@
         <v>538</v>
       </c>
       <c r="B541" s="2" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C541" s="2" t="s">
         <v>2656</v>
       </c>
-      <c r="C541" s="2" t="s">
+      <c r="D541" s="2" t="s">
         <v>2657</v>
-      </c>
-      <c r="D541" s="2" t="s">
-        <v>2658</v>
       </c>
       <c r="E541" s="2" t="s">
         <v>1029</v>
       </c>
       <c r="F541" s="2" t="s">
+        <v>2658</v>
+      </c>
+      <c r="G541" s="2" t="s">
         <v>2659</v>
-      </c>
-      <c r="G541" s="2" t="s">
-        <v>2660</v>
       </c>
     </row>
     <row r="543" spans="1:7">
@@ -20925,10 +20926,10 @@
         <v>539</v>
       </c>
       <c r="B543" s="2" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C543" s="2" t="s">
         <v>2663</v>
-      </c>
-      <c r="C543" s="2" t="s">
-        <v>2664</v>
       </c>
       <c r="D543" s="2" t="s">
         <v>1289</v>
@@ -20937,7 +20938,7 @@
         <v>872</v>
       </c>
       <c r="F543" s="2" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="G543" s="2" t="s">
         <v>1291</v>
@@ -20948,22 +20949,22 @@
         <v>540</v>
       </c>
       <c r="B544" s="2" t="s">
+        <v>2664</v>
+      </c>
+      <c r="C544" s="2" t="s">
         <v>2665</v>
       </c>
-      <c r="C544" s="2" t="s">
+      <c r="D544" s="2" t="s">
         <v>2666</v>
       </c>
-      <c r="D544" s="2" t="s">
-        <v>2667</v>
-      </c>
       <c r="E544" s="2" t="s">
         <v>872</v>
       </c>
       <c r="F544" s="2" t="s">
+        <v>2679</v>
+      </c>
+      <c r="G544" s="2" t="s">
         <v>2680</v>
-      </c>
-      <c r="G544" s="2" t="s">
-        <v>2681</v>
       </c>
     </row>
     <row r="545" spans="1:7">
@@ -20971,22 +20972,22 @@
         <v>541</v>
       </c>
       <c r="B545" s="2" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C545" s="2" t="s">
         <v>2668</v>
       </c>
-      <c r="C545" s="2" t="s">
+      <c r="D545" s="2" t="s">
         <v>2669</v>
       </c>
-      <c r="D545" s="2" t="s">
-        <v>2670</v>
-      </c>
       <c r="E545" s="2" t="s">
         <v>872</v>
       </c>
       <c r="F545" s="2" t="s">
+        <v>2681</v>
+      </c>
+      <c r="G545" s="2" t="s">
         <v>2682</v>
-      </c>
-      <c r="G545" s="2" t="s">
-        <v>2683</v>
       </c>
     </row>
     <row r="546" spans="1:7">
@@ -20994,22 +20995,22 @@
         <v>542</v>
       </c>
       <c r="B546" s="2" t="s">
+        <v>2670</v>
+      </c>
+      <c r="C546" s="2" t="s">
         <v>2671</v>
       </c>
-      <c r="C546" s="2" t="s">
+      <c r="D546" s="2" t="s">
         <v>2672</v>
       </c>
-      <c r="D546" s="2" t="s">
-        <v>2673</v>
-      </c>
       <c r="E546" s="2" t="s">
         <v>872</v>
       </c>
       <c r="F546" s="2" t="s">
+        <v>2683</v>
+      </c>
+      <c r="G546" s="2" t="s">
         <v>2684</v>
-      </c>
-      <c r="G546" s="2" t="s">
-        <v>2685</v>
       </c>
     </row>
     <row r="547" spans="1:7">
@@ -21017,22 +21018,22 @@
         <v>543</v>
       </c>
       <c r="B547" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C547" s="2" t="s">
         <v>2674</v>
       </c>
-      <c r="C547" s="2" t="s">
+      <c r="D547" s="2" t="s">
         <v>2675</v>
       </c>
-      <c r="D547" s="2" t="s">
-        <v>2676</v>
-      </c>
       <c r="E547" s="2" t="s">
         <v>872</v>
       </c>
       <c r="F547" s="2" t="s">
+        <v>2685</v>
+      </c>
+      <c r="G547" s="2" t="s">
         <v>2686</v>
-      </c>
-      <c r="G547" s="2" t="s">
-        <v>2687</v>
       </c>
     </row>
     <row r="548" spans="1:7">
@@ -21040,22 +21041,22 @@
         <v>544</v>
       </c>
       <c r="B548" s="2" t="s">
+        <v>2687</v>
+      </c>
+      <c r="C548" s="2" t="s">
         <v>2688</v>
       </c>
-      <c r="C548" s="2" t="s">
+      <c r="D548" s="2" t="s">
         <v>2689</v>
       </c>
-      <c r="D548" s="2" t="s">
+      <c r="E548" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F548" s="2" t="s">
         <v>2690</v>
       </c>
-      <c r="E548" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F548" s="2" t="s">
+      <c r="G548" s="2" t="s">
         <v>2691</v>
-      </c>
-      <c r="G548" s="2" t="s">
-        <v>2692</v>
       </c>
     </row>
     <row r="549" spans="1:7">
@@ -21063,22 +21064,22 @@
         <v>545</v>
       </c>
       <c r="B549" s="2" t="s">
+        <v>2676</v>
+      </c>
+      <c r="C549" s="2" t="s">
         <v>2677</v>
       </c>
-      <c r="C549" s="2" t="s">
-        <v>2678</v>
-      </c>
       <c r="D549" s="2" t="s">
+        <v>2692</v>
+      </c>
+      <c r="E549" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F549" s="2" t="s">
         <v>2693</v>
       </c>
-      <c r="E549" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F549" s="2" t="s">
+      <c r="G549" s="2" t="s">
         <v>2694</v>
-      </c>
-      <c r="G549" s="2" t="s">
-        <v>2695</v>
       </c>
     </row>
   </sheetData>

--- a/doc/voca.xlsx
+++ b/doc/voca.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3277" uniqueCount="2696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3277" uniqueCount="2697">
   <si>
     <t>#</t>
   </si>
@@ -6546,9 +6546,6 @@
     <t>[naʊ]</t>
   </si>
   <si>
-    <t>[ˈænəməl]</t>
-  </si>
-  <si>
     <t>[pɛt]</t>
   </si>
   <si>
@@ -8137,6 +8134,14 @@
   </si>
   <si>
     <t>[ˈpleˌɡraʊnd]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈænəməl]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈtʃɪkən]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8507,8 +8512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G549"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A508" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C516" sqref="C516"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C181" sqref="C181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8541,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -9265,7 +9270,7 @@
         <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="D33" t="s">
         <v>582</v>
@@ -9288,7 +9293,7 @@
         <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="D34" t="s">
         <v>585</v>
@@ -9311,7 +9316,7 @@
         <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="D35" t="s">
         <v>588</v>
@@ -9334,7 +9339,7 @@
         <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="D36" t="s">
         <v>591</v>
@@ -9403,7 +9408,7 @@
         <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="D39" t="s">
         <v>600</v>
@@ -12577,7 +12582,7 @@
         <v>226</v>
       </c>
       <c r="C177" t="s">
-        <v>2170</v>
+        <v>2695</v>
       </c>
       <c r="D177" t="s">
         <v>952</v>
@@ -12600,7 +12605,7 @@
         <v>227</v>
       </c>
       <c r="C178" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="D178" t="s">
         <v>955</v>
@@ -12623,7 +12628,7 @@
         <v>228</v>
       </c>
       <c r="C179" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="D179" t="s">
         <v>958</v>
@@ -12646,7 +12651,7 @@
         <v>229</v>
       </c>
       <c r="C180" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="D180" t="s">
         <v>961</v>
@@ -12669,7 +12674,7 @@
         <v>230</v>
       </c>
       <c r="C181" t="s">
-        <v>2174</v>
+        <v>2696</v>
       </c>
       <c r="D181" t="s">
         <v>964</v>
@@ -12692,7 +12697,7 @@
         <v>231</v>
       </c>
       <c r="C182" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="D182" t="s">
         <v>967</v>
@@ -12715,7 +12720,7 @@
         <v>232</v>
       </c>
       <c r="C183" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="D183" t="s">
         <v>970</v>
@@ -12738,7 +12743,7 @@
         <v>233</v>
       </c>
       <c r="C184" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="D184" t="s">
         <v>973</v>
@@ -12761,7 +12766,7 @@
         <v>234</v>
       </c>
       <c r="C185" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="D185" t="s">
         <v>976</v>
@@ -12784,7 +12789,7 @@
         <v>235</v>
       </c>
       <c r="C186" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="D186" t="s">
         <v>979</v>
@@ -12807,7 +12812,7 @@
         <v>236</v>
       </c>
       <c r="C187" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="D187" t="s">
         <v>982</v>
@@ -12830,7 +12835,7 @@
         <v>237</v>
       </c>
       <c r="C188" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="D188" t="s">
         <v>985</v>
@@ -12853,7 +12858,7 @@
         <v>238</v>
       </c>
       <c r="C189" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="D189" t="s">
         <v>988</v>
@@ -12876,7 +12881,7 @@
         <v>239</v>
       </c>
       <c r="C190" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="D190" t="s">
         <v>991</v>
@@ -12899,7 +12904,7 @@
         <v>240</v>
       </c>
       <c r="C191" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="D191" t="s">
         <v>994</v>
@@ -12922,7 +12927,7 @@
         <v>241</v>
       </c>
       <c r="C192" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="D192" t="s">
         <v>997</v>
@@ -12945,7 +12950,7 @@
         <v>242</v>
       </c>
       <c r="C193" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="D193" t="s">
         <v>1000</v>
@@ -12968,7 +12973,7 @@
         <v>243</v>
       </c>
       <c r="C194" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="D194" t="s">
         <v>1003</v>
@@ -12991,7 +12996,7 @@
         <v>244</v>
       </c>
       <c r="C195" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="D195" t="s">
         <v>1006</v>
@@ -13014,7 +13019,7 @@
         <v>245</v>
       </c>
       <c r="C196" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="D196" t="s">
         <v>1009</v>
@@ -13037,7 +13042,7 @@
         <v>246</v>
       </c>
       <c r="C197" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="D197" t="s">
         <v>1012</v>
@@ -13060,7 +13065,7 @@
         <v>247</v>
       </c>
       <c r="C198" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="D198" t="s">
         <v>1015</v>
@@ -13083,7 +13088,7 @@
         <v>248</v>
       </c>
       <c r="C199" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="D199" t="s">
         <v>1018</v>
@@ -13106,7 +13111,7 @@
         <v>249</v>
       </c>
       <c r="C200" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="D200" t="s">
         <v>1021</v>
@@ -13129,7 +13134,7 @@
         <v>250</v>
       </c>
       <c r="C201" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="D201" t="s">
         <v>1978</v>
@@ -13152,7 +13157,7 @@
         <v>251</v>
       </c>
       <c r="C202" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="D202" t="s">
         <v>1096</v>
@@ -13175,7 +13180,7 @@
         <v>252</v>
       </c>
       <c r="C203" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="D203" t="s">
         <v>1099</v>
@@ -13198,7 +13203,7 @@
         <v>253</v>
       </c>
       <c r="C204" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="D204" t="s">
         <v>1102</v>
@@ -13221,7 +13226,7 @@
         <v>254</v>
       </c>
       <c r="C205" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="D205" t="s">
         <v>1105</v>
@@ -13244,7 +13249,7 @@
         <v>255</v>
       </c>
       <c r="C206" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="D206" t="s">
         <v>1108</v>
@@ -13267,7 +13272,7 @@
         <v>256</v>
       </c>
       <c r="C207" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="D207" t="s">
         <v>1111</v>
@@ -13290,7 +13295,7 @@
         <v>257</v>
       </c>
       <c r="C208" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="D208" t="s">
         <v>1114</v>
@@ -13313,7 +13318,7 @@
         <v>258</v>
       </c>
       <c r="C209" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="D209" t="s">
         <v>1117</v>
@@ -13336,7 +13341,7 @@
         <v>259</v>
       </c>
       <c r="C210" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="D210" t="s">
         <v>1120</v>
@@ -13359,7 +13364,7 @@
         <v>260</v>
       </c>
       <c r="C211" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="D211" t="s">
         <v>1123</v>
@@ -13382,7 +13387,7 @@
         <v>261</v>
       </c>
       <c r="C212" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="D212" t="s">
         <v>1126</v>
@@ -13405,7 +13410,7 @@
         <v>262</v>
       </c>
       <c r="C213" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="D213" t="s">
         <v>1129</v>
@@ -13428,7 +13433,7 @@
         <v>263</v>
       </c>
       <c r="C214" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="D214" t="s">
         <v>1132</v>
@@ -13451,7 +13456,7 @@
         <v>1135</v>
       </c>
       <c r="C215" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="D215" t="s">
         <v>1136</v>
@@ -13474,7 +13479,7 @@
         <v>264</v>
       </c>
       <c r="C216" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="D216" t="s">
         <v>1139</v>
@@ -13497,7 +13502,7 @@
         <v>265</v>
       </c>
       <c r="C217" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="D217" t="s">
         <v>1142</v>
@@ -13520,7 +13525,7 @@
         <v>266</v>
       </c>
       <c r="C218" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="D218" t="s">
         <v>1145</v>
@@ -13543,7 +13548,7 @@
         <v>267</v>
       </c>
       <c r="C219" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="D219" t="s">
         <v>1148</v>
@@ -13566,7 +13571,7 @@
         <v>268</v>
       </c>
       <c r="C220" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="D220" t="s">
         <v>1151</v>
@@ -13589,7 +13594,7 @@
         <v>269</v>
       </c>
       <c r="C221" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="D221" t="s">
         <v>1154</v>
@@ -13635,7 +13640,7 @@
         <v>271</v>
       </c>
       <c r="C223" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="D223" t="s">
         <v>1160</v>
@@ -13658,7 +13663,7 @@
         <v>272</v>
       </c>
       <c r="C224" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="D224" t="s">
         <v>1163</v>
@@ -13681,7 +13686,7 @@
         <v>273</v>
       </c>
       <c r="C225" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="D225" t="s">
         <v>1166</v>
@@ -13704,7 +13709,7 @@
         <v>274</v>
       </c>
       <c r="C226" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="D226" t="s">
         <v>1169</v>
@@ -13727,7 +13732,7 @@
         <v>275</v>
       </c>
       <c r="C227" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="D227" t="s">
         <v>1172</v>
@@ -13750,7 +13755,7 @@
         <v>276</v>
       </c>
       <c r="C228" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="D228" t="s">
         <v>1175</v>
@@ -13796,7 +13801,7 @@
         <v>278</v>
       </c>
       <c r="C230" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="D230" t="s">
         <v>1181</v>
@@ -13819,7 +13824,7 @@
         <v>279</v>
       </c>
       <c r="C231" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="D231" t="s">
         <v>1184</v>
@@ -13842,7 +13847,7 @@
         <v>280</v>
       </c>
       <c r="C232" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="D232" t="s">
         <v>1187</v>
@@ -13865,7 +13870,7 @@
         <v>281</v>
       </c>
       <c r="C233" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="D233" t="s">
         <v>1190</v>
@@ -13888,7 +13893,7 @@
         <v>282</v>
       </c>
       <c r="C234" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="D234" t="s">
         <v>1193</v>
@@ -13911,7 +13916,7 @@
         <v>283</v>
       </c>
       <c r="C235" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="D235" t="s">
         <v>1196</v>
@@ -13934,7 +13939,7 @@
         <v>284</v>
       </c>
       <c r="C236" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="D236" t="s">
         <v>1199</v>
@@ -13957,7 +13962,7 @@
         <v>285</v>
       </c>
       <c r="C237" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D237" t="s">
         <v>1202</v>
@@ -13980,7 +13985,7 @@
         <v>286</v>
       </c>
       <c r="C238" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D238" t="s">
         <v>1205</v>
@@ -14003,7 +14008,7 @@
         <v>287</v>
       </c>
       <c r="C239" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="D239" t="s">
         <v>1208</v>
@@ -14026,7 +14031,7 @@
         <v>288</v>
       </c>
       <c r="C240" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="D240" t="s">
         <v>1211</v>
@@ -14049,7 +14054,7 @@
         <v>289</v>
       </c>
       <c r="C241" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="D241" t="s">
         <v>1214</v>
@@ -14072,7 +14077,7 @@
         <v>290</v>
       </c>
       <c r="C242" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="D242" t="s">
         <v>1217</v>
@@ -14118,7 +14123,7 @@
         <v>291</v>
       </c>
       <c r="C244" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="D244" t="s">
         <v>1223</v>
@@ -14141,7 +14146,7 @@
         <v>292</v>
       </c>
       <c r="C245" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="D245" t="s">
         <v>1226</v>
@@ -14164,7 +14169,7 @@
         <v>293</v>
       </c>
       <c r="C246" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="D246" t="s">
         <v>1229</v>
@@ -14187,7 +14192,7 @@
         <v>230</v>
       </c>
       <c r="C247" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="D247" t="s">
         <v>1232</v>
@@ -14210,7 +14215,7 @@
         <v>252</v>
       </c>
       <c r="C248" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="D248" t="s">
         <v>1235</v>
@@ -14233,7 +14238,7 @@
         <v>247</v>
       </c>
       <c r="C249" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="D249" t="s">
         <v>1238</v>
@@ -14256,7 +14261,7 @@
         <v>294</v>
       </c>
       <c r="C250" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="D250" t="s">
         <v>1241</v>
@@ -14279,7 +14284,7 @@
         <v>295</v>
       </c>
       <c r="C251" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="D251" t="s">
         <v>1244</v>
@@ -14302,7 +14307,7 @@
         <v>296</v>
       </c>
       <c r="C252" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="D252" t="s">
         <v>1247</v>
@@ -14325,7 +14330,7 @@
         <v>297</v>
       </c>
       <c r="C253" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="D253" t="s">
         <v>1250</v>
@@ -14348,7 +14353,7 @@
         <v>298</v>
       </c>
       <c r="C254" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="D254" t="s">
         <v>1253</v>
@@ -14371,7 +14376,7 @@
         <v>299</v>
       </c>
       <c r="C255" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="D255" t="s">
         <v>1256</v>
@@ -14394,7 +14399,7 @@
         <v>300</v>
       </c>
       <c r="C256" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="D256" t="s">
         <v>1259</v>
@@ -14417,7 +14422,7 @@
         <v>301</v>
       </c>
       <c r="C257" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="D257" t="s">
         <v>1262</v>
@@ -14440,7 +14445,7 @@
         <v>302</v>
       </c>
       <c r="C258" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="D258" t="s">
         <v>1265</v>
@@ -14463,7 +14468,7 @@
         <v>303</v>
       </c>
       <c r="C259" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="D259" t="s">
         <v>1268</v>
@@ -14486,7 +14491,7 @@
         <v>304</v>
       </c>
       <c r="C260" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="D260" t="s">
         <v>1271</v>
@@ -14509,7 +14514,7 @@
         <v>305</v>
       </c>
       <c r="C261" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="D261" t="s">
         <v>1274</v>
@@ -14532,7 +14537,7 @@
         <v>306</v>
       </c>
       <c r="C262" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="D262" t="s">
         <v>1277</v>
@@ -14555,7 +14560,7 @@
         <v>307</v>
       </c>
       <c r="C263" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="D263" t="s">
         <v>1280</v>
@@ -14578,7 +14583,7 @@
         <v>308</v>
       </c>
       <c r="C264" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="D264" t="s">
         <v>1283</v>
@@ -14601,7 +14606,7 @@
         <v>309</v>
       </c>
       <c r="C265" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="D265" t="s">
         <v>1286</v>
@@ -14624,7 +14629,7 @@
         <v>310</v>
       </c>
       <c r="C266" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="D266" t="s">
         <v>1289</v>
@@ -14647,7 +14652,7 @@
         <v>311</v>
       </c>
       <c r="C267" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="D267" t="s">
         <v>1292</v>
@@ -14670,7 +14675,7 @@
         <v>312</v>
       </c>
       <c r="C268" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="D268" t="s">
         <v>1295</v>
@@ -14693,7 +14698,7 @@
         <v>313</v>
       </c>
       <c r="C269" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="D269" t="s">
         <v>1298</v>
@@ -14716,7 +14721,7 @@
         <v>314</v>
       </c>
       <c r="C270" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="D270" t="s">
         <v>1301</v>
@@ -14739,7 +14744,7 @@
         <v>315</v>
       </c>
       <c r="C271" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="D271" t="s">
         <v>1304</v>
@@ -14762,7 +14767,7 @@
         <v>316</v>
       </c>
       <c r="C272" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="D272" t="s">
         <v>1307</v>
@@ -14785,7 +14790,7 @@
         <v>317</v>
       </c>
       <c r="C273" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="D273" t="s">
         <v>1310</v>
@@ -14808,7 +14813,7 @@
         <v>318</v>
       </c>
       <c r="C274" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="D274" t="s">
         <v>1313</v>
@@ -14831,7 +14836,7 @@
         <v>319</v>
       </c>
       <c r="C275" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="D275" t="s">
         <v>1316</v>
@@ -14854,7 +14859,7 @@
         <v>320</v>
       </c>
       <c r="C276" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="D276" t="s">
         <v>1319</v>
@@ -14877,7 +14882,7 @@
         <v>321</v>
       </c>
       <c r="C277" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="D277" t="s">
         <v>1322</v>
@@ -14900,7 +14905,7 @@
         <v>322</v>
       </c>
       <c r="C278" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D278" t="s">
         <v>1325</v>
@@ -14923,7 +14928,7 @@
         <v>323</v>
       </c>
       <c r="C279" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="D279" t="s">
         <v>1328</v>
@@ -14946,7 +14951,7 @@
         <v>324</v>
       </c>
       <c r="C280" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D280" t="s">
         <v>1331</v>
@@ -14969,7 +14974,7 @@
         <v>325</v>
       </c>
       <c r="C281" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="D281" t="s">
         <v>1334</v>
@@ -14992,7 +14997,7 @@
         <v>326</v>
       </c>
       <c r="C282" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="D282" t="s">
         <v>1337</v>
@@ -15015,7 +15020,7 @@
         <v>327</v>
       </c>
       <c r="C283" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D283" t="s">
         <v>1340</v>
@@ -15038,7 +15043,7 @@
         <v>328</v>
       </c>
       <c r="C284" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D284" t="s">
         <v>1343</v>
@@ -15061,7 +15066,7 @@
         <v>329</v>
       </c>
       <c r="C285" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="D285" t="s">
         <v>1346</v>
@@ -15107,7 +15112,7 @@
         <v>331</v>
       </c>
       <c r="C287" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="D287" t="s">
         <v>1352</v>
@@ -15130,7 +15135,7 @@
         <v>332</v>
       </c>
       <c r="C288" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="D288" t="s">
         <v>1355</v>
@@ -15153,7 +15158,7 @@
         <v>333</v>
       </c>
       <c r="C289" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="D289" t="s">
         <v>1358</v>
@@ -15176,7 +15181,7 @@
         <v>334</v>
       </c>
       <c r="C290" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="D290" t="s">
         <v>1361</v>
@@ -15199,7 +15204,7 @@
         <v>335</v>
       </c>
       <c r="C291" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="D291" t="s">
         <v>1364</v>
@@ -15222,7 +15227,7 @@
         <v>336</v>
       </c>
       <c r="C292" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D292" t="s">
         <v>1367</v>
@@ -15245,7 +15250,7 @@
         <v>337</v>
       </c>
       <c r="C293" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="D293" t="s">
         <v>1370</v>
@@ -15268,7 +15273,7 @@
         <v>338</v>
       </c>
       <c r="C294" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="D294" t="s">
         <v>1373</v>
@@ -15291,7 +15296,7 @@
         <v>339</v>
       </c>
       <c r="C295" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="D295" t="s">
         <v>1376</v>
@@ -15314,7 +15319,7 @@
         <v>340</v>
       </c>
       <c r="C296" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="D296" t="s">
         <v>1379</v>
@@ -15337,7 +15342,7 @@
         <v>341</v>
       </c>
       <c r="C297" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="D297" t="s">
         <v>1382</v>
@@ -15360,7 +15365,7 @@
         <v>342</v>
       </c>
       <c r="C298" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="D298" t="s">
         <v>1385</v>
@@ -15383,7 +15388,7 @@
         <v>343</v>
       </c>
       <c r="C299" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="D299" t="s">
         <v>1388</v>
@@ -15406,7 +15411,7 @@
         <v>344</v>
       </c>
       <c r="C300" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="D300" t="s">
         <v>1391</v>
@@ -15429,7 +15434,7 @@
         <v>345</v>
       </c>
       <c r="C301" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="D301" t="s">
         <v>1394</v>
@@ -15452,7 +15457,7 @@
         <v>346</v>
       </c>
       <c r="C302" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="D302" t="s">
         <v>1397</v>
@@ -15475,7 +15480,7 @@
         <v>347</v>
       </c>
       <c r="C303" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="D303" t="s">
         <v>1400</v>
@@ -15498,7 +15503,7 @@
         <v>348</v>
       </c>
       <c r="C304" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="D304" t="s">
         <v>1403</v>
@@ -15521,7 +15526,7 @@
         <v>349</v>
       </c>
       <c r="C305" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="D305" t="s">
         <v>1406</v>
@@ -15544,7 +15549,7 @@
         <v>350</v>
       </c>
       <c r="C306" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="D306" t="s">
         <v>1409</v>
@@ -15567,7 +15572,7 @@
         <v>351</v>
       </c>
       <c r="C307" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="D307" t="s">
         <v>1412</v>
@@ -15590,7 +15595,7 @@
         <v>352</v>
       </c>
       <c r="C308" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="D308" t="s">
         <v>1415</v>
@@ -15613,7 +15618,7 @@
         <v>353</v>
       </c>
       <c r="C309" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="D309" t="s">
         <v>1418</v>
@@ -15636,7 +15641,7 @@
         <v>354</v>
       </c>
       <c r="C310" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="D310" t="s">
         <v>1421</v>
@@ -15659,7 +15664,7 @@
         <v>355</v>
       </c>
       <c r="C311" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="D311" t="s">
         <v>1424</v>
@@ -15682,7 +15687,7 @@
         <v>356</v>
       </c>
       <c r="C312" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="D312" t="s">
         <v>1427</v>
@@ -15705,7 +15710,7 @@
         <v>357</v>
       </c>
       <c r="C313" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="D313" t="s">
         <v>1430</v>
@@ -15728,7 +15733,7 @@
         <v>358</v>
       </c>
       <c r="C314" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="D314" t="s">
         <v>1433</v>
@@ -15751,7 +15756,7 @@
         <v>359</v>
       </c>
       <c r="C315" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="D315" t="s">
         <v>1436</v>
@@ -15774,7 +15779,7 @@
         <v>360</v>
       </c>
       <c r="C316" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="D316" t="s">
         <v>1439</v>
@@ -15797,7 +15802,7 @@
         <v>361</v>
       </c>
       <c r="C317" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="D317" t="s">
         <v>1440</v>
@@ -15820,7 +15825,7 @@
         <v>362</v>
       </c>
       <c r="C318" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="D318" t="s">
         <v>1440</v>
@@ -15843,7 +15848,7 @@
         <v>318</v>
       </c>
       <c r="C319" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="D319" t="s">
         <v>1445</v>
@@ -15866,7 +15871,7 @@
         <v>363</v>
       </c>
       <c r="C320" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="D320" t="s">
         <v>1448</v>
@@ -15889,7 +15894,7 @@
         <v>364</v>
       </c>
       <c r="C321" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="D321" t="s">
         <v>1451</v>
@@ -15912,7 +15917,7 @@
         <v>365</v>
       </c>
       <c r="C322" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="D322" t="s">
         <v>1454</v>
@@ -15935,7 +15940,7 @@
         <v>366</v>
       </c>
       <c r="C323" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="D323" t="s">
         <v>1457</v>
@@ -15958,7 +15963,7 @@
         <v>367</v>
       </c>
       <c r="C324" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="D324" t="s">
         <v>1460</v>
@@ -15981,7 +15986,7 @@
         <v>368</v>
       </c>
       <c r="C325" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="D325" t="s">
         <v>1463</v>
@@ -16004,7 +16009,7 @@
         <v>369</v>
       </c>
       <c r="C326" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="D326" t="s">
         <v>1466</v>
@@ -16027,7 +16032,7 @@
         <v>370</v>
       </c>
       <c r="C327" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D327" t="s">
         <v>1469</v>
@@ -16050,7 +16055,7 @@
         <v>371</v>
       </c>
       <c r="C328" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="D328" t="s">
         <v>1472</v>
@@ -16073,7 +16078,7 @@
         <v>372</v>
       </c>
       <c r="C329" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="D329" t="s">
         <v>1475</v>
@@ -16096,7 +16101,7 @@
         <v>373</v>
       </c>
       <c r="C330" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="D330" t="s">
         <v>1478</v>
@@ -16119,7 +16124,7 @@
         <v>374</v>
       </c>
       <c r="C331" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="D331" t="s">
         <v>1481</v>
@@ -16142,7 +16147,7 @@
         <v>375</v>
       </c>
       <c r="C332" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="D332" t="s">
         <v>1484</v>
@@ -16165,7 +16170,7 @@
         <v>376</v>
       </c>
       <c r="C333" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="D333" t="s">
         <v>1487</v>
@@ -16188,7 +16193,7 @@
         <v>377</v>
       </c>
       <c r="C334" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="D334" t="s">
         <v>1490</v>
@@ -16211,7 +16216,7 @@
         <v>378</v>
       </c>
       <c r="C335" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="D335" t="s">
         <v>1493</v>
@@ -16234,7 +16239,7 @@
         <v>379</v>
       </c>
       <c r="C336" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="D336" t="s">
         <v>1496</v>
@@ -16257,7 +16262,7 @@
         <v>380</v>
       </c>
       <c r="C337" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="D337" t="s">
         <v>1499</v>
@@ -16280,7 +16285,7 @@
         <v>381</v>
       </c>
       <c r="C338" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="D338" t="s">
         <v>1502</v>
@@ -16303,7 +16308,7 @@
         <v>382</v>
       </c>
       <c r="C339" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="D339" t="s">
         <v>1505</v>
@@ -16326,7 +16331,7 @@
         <v>383</v>
       </c>
       <c r="C340" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="D340" t="s">
         <v>1508</v>
@@ -16349,7 +16354,7 @@
         <v>384</v>
       </c>
       <c r="C341" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="D341" t="s">
         <v>1511</v>
@@ -16372,7 +16377,7 @@
         <v>385</v>
       </c>
       <c r="C342" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="D342" t="s">
         <v>1514</v>
@@ -16395,7 +16400,7 @@
         <v>386</v>
       </c>
       <c r="C343" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="D343" t="s">
         <v>1517</v>
@@ -16418,7 +16423,7 @@
         <v>387</v>
       </c>
       <c r="C344" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="D344" t="s">
         <v>1520</v>
@@ -16441,7 +16446,7 @@
         <v>388</v>
       </c>
       <c r="C345" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="D345" t="s">
         <v>1523</v>
@@ -16464,7 +16469,7 @@
         <v>389</v>
       </c>
       <c r="C346" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="D346" t="s">
         <v>1526</v>
@@ -16487,7 +16492,7 @@
         <v>390</v>
       </c>
       <c r="C347" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="D347" t="s">
         <v>1529</v>
@@ -16510,7 +16515,7 @@
         <v>391</v>
       </c>
       <c r="C348" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="D348" t="s">
         <v>1391</v>
@@ -16533,7 +16538,7 @@
         <v>392</v>
       </c>
       <c r="C349" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="D349" t="s">
         <v>1532</v>
@@ -16556,7 +16561,7 @@
         <v>393</v>
       </c>
       <c r="C350" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="D350" t="s">
         <v>1535</v>
@@ -16579,7 +16584,7 @@
         <v>394</v>
       </c>
       <c r="C351" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="D351" t="s">
         <v>1538</v>
@@ -16602,7 +16607,7 @@
         <v>395</v>
       </c>
       <c r="C352" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="D352" t="s">
         <v>1541</v>
@@ -16625,7 +16630,7 @@
         <v>396</v>
       </c>
       <c r="C353" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="D353" t="s">
         <v>1544</v>
@@ -16648,7 +16653,7 @@
         <v>397</v>
       </c>
       <c r="C354" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="D354" t="s">
         <v>1547</v>
@@ -16671,7 +16676,7 @@
         <v>398</v>
       </c>
       <c r="C355" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="D355" t="s">
         <v>1550</v>
@@ -16694,7 +16699,7 @@
         <v>399</v>
       </c>
       <c r="C356" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="D356" t="s">
         <v>1553</v>
@@ -16717,7 +16722,7 @@
         <v>400</v>
       </c>
       <c r="C357" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="D357" t="s">
         <v>1556</v>
@@ -16740,7 +16745,7 @@
         <v>401</v>
       </c>
       <c r="C358" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="D358" t="s">
         <v>1559</v>
@@ -16786,7 +16791,7 @@
         <v>402</v>
       </c>
       <c r="C360" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="D360" t="s">
         <v>1565</v>
@@ -16832,7 +16837,7 @@
         <v>404</v>
       </c>
       <c r="C362" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="D362" t="s">
         <v>1571</v>
@@ -16855,7 +16860,7 @@
         <v>405</v>
       </c>
       <c r="C363" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="D363" t="s">
         <v>1574</v>
@@ -16878,7 +16883,7 @@
         <v>406</v>
       </c>
       <c r="C364" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="D364" t="s">
         <v>1577</v>
@@ -16901,7 +16906,7 @@
         <v>407</v>
       </c>
       <c r="C365" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="D365" t="s">
         <v>1580</v>
@@ -16924,7 +16929,7 @@
         <v>408</v>
       </c>
       <c r="C366" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="D366" t="s">
         <v>1583</v>
@@ -16947,7 +16952,7 @@
         <v>409</v>
       </c>
       <c r="C367" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="D367" t="s">
         <v>1586</v>
@@ -16970,7 +16975,7 @@
         <v>410</v>
       </c>
       <c r="C368" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="D368" t="s">
         <v>1589</v>
@@ -16993,7 +16998,7 @@
         <v>411</v>
       </c>
       <c r="C369" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="D369" t="s">
         <v>1592</v>
@@ -17016,7 +17021,7 @@
         <v>412</v>
       </c>
       <c r="C370" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="D370" t="s">
         <v>2</v>
@@ -17039,7 +17044,7 @@
         <v>413</v>
       </c>
       <c r="C371" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="D371" t="s">
         <v>1597</v>
@@ -17062,7 +17067,7 @@
         <v>414</v>
       </c>
       <c r="C372" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="D372" t="s">
         <v>1600</v>
@@ -17085,7 +17090,7 @@
         <v>415</v>
       </c>
       <c r="C373" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="D373" t="s">
         <v>1603</v>
@@ -17108,7 +17113,7 @@
         <v>417</v>
       </c>
       <c r="C374" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="D374" t="s">
         <v>1606</v>
@@ -17131,7 +17136,7 @@
         <v>416</v>
       </c>
       <c r="C375" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="D375" t="s">
         <v>1609</v>
@@ -17154,7 +17159,7 @@
         <v>418</v>
       </c>
       <c r="C376" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="D376" t="s">
         <v>1612</v>
@@ -17177,7 +17182,7 @@
         <v>419</v>
       </c>
       <c r="C377" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="D377" t="s">
         <v>1615</v>
@@ -17200,7 +17205,7 @@
         <v>420</v>
       </c>
       <c r="C378" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="D378" t="s">
         <v>1618</v>
@@ -17223,7 +17228,7 @@
         <v>421</v>
       </c>
       <c r="C379" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="D379" t="s">
         <v>1621</v>
@@ -17246,7 +17251,7 @@
         <v>422</v>
       </c>
       <c r="C380" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="D380" t="s">
         <v>1624</v>
@@ -17269,7 +17274,7 @@
         <v>423</v>
       </c>
       <c r="C381" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="D381" t="s">
         <v>1626</v>
@@ -17292,7 +17297,7 @@
         <v>424</v>
       </c>
       <c r="C382" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="D382" t="s">
         <v>1629</v>
@@ -17315,7 +17320,7 @@
         <v>425</v>
       </c>
       <c r="C383" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="D383" t="s">
         <v>1632</v>
@@ -17338,7 +17343,7 @@
         <v>426</v>
       </c>
       <c r="C384" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="D384" t="s">
         <v>1635</v>
@@ -17361,7 +17366,7 @@
         <v>427</v>
       </c>
       <c r="C385" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D385" t="s">
         <v>1638</v>
@@ -17384,7 +17389,7 @@
         <v>428</v>
       </c>
       <c r="C386" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D386" t="s">
         <v>1641</v>
@@ -17407,7 +17412,7 @@
         <v>429</v>
       </c>
       <c r="C387" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="D387" t="s">
         <v>1644</v>
@@ -17430,7 +17435,7 @@
         <v>430</v>
       </c>
       <c r="C388" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="D388" t="s">
         <v>1647</v>
@@ -17453,7 +17458,7 @@
         <v>431</v>
       </c>
       <c r="C389" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D389" t="s">
         <v>1650</v>
@@ -17476,7 +17481,7 @@
         <v>432</v>
       </c>
       <c r="C390" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="D390" t="s">
         <v>1653</v>
@@ -17499,7 +17504,7 @@
         <v>433</v>
       </c>
       <c r="C391" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="D391" t="s">
         <v>1656</v>
@@ -17522,7 +17527,7 @@
         <v>434</v>
       </c>
       <c r="C392" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="D392" t="s">
         <v>1659</v>
@@ -17545,7 +17550,7 @@
         <v>435</v>
       </c>
       <c r="C393" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D393" t="s">
         <v>1662</v>
@@ -17568,7 +17573,7 @@
         <v>436</v>
       </c>
       <c r="C394" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="D394" t="s">
         <v>1665</v>
@@ -17591,7 +17596,7 @@
         <v>437</v>
       </c>
       <c r="C395" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="D395" t="s">
         <v>1668</v>
@@ -17614,7 +17619,7 @@
         <v>438</v>
       </c>
       <c r="C396" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="D396" t="s">
         <v>1671</v>
@@ -17637,7 +17642,7 @@
         <v>439</v>
       </c>
       <c r="C397" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="D397" t="s">
         <v>1674</v>
@@ -17660,7 +17665,7 @@
         <v>440</v>
       </c>
       <c r="C398" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="D398" t="s">
         <v>1677</v>
@@ -17683,7 +17688,7 @@
         <v>375</v>
       </c>
       <c r="C399" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="D399" t="s">
         <v>1484</v>
@@ -17706,7 +17711,7 @@
         <v>441</v>
       </c>
       <c r="C400" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="D400" t="s">
         <v>1680</v>
@@ -17729,7 +17734,7 @@
         <v>442</v>
       </c>
       <c r="C401" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="D401" t="s">
         <v>1683</v>
@@ -17752,7 +17757,7 @@
         <v>443</v>
       </c>
       <c r="C402" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="D402" t="s">
         <v>1481</v>
@@ -17775,7 +17780,7 @@
         <v>444</v>
       </c>
       <c r="C403" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="D403" t="s">
         <v>1688</v>
@@ -17798,7 +17803,7 @@
         <v>445</v>
       </c>
       <c r="C404" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="D404" t="s">
         <v>1691</v>
@@ -17821,7 +17826,7 @@
         <v>446</v>
       </c>
       <c r="C405" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="D405" t="s">
         <v>1694</v>
@@ -17844,7 +17849,7 @@
         <v>447</v>
       </c>
       <c r="C406" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="D406" t="s">
         <v>1697</v>
@@ -17867,7 +17872,7 @@
         <v>448</v>
       </c>
       <c r="C407" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="D407" t="s">
         <v>1700</v>
@@ -17890,7 +17895,7 @@
         <v>449</v>
       </c>
       <c r="C408" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="D408" t="s">
         <v>1703</v>
@@ -17913,7 +17918,7 @@
         <v>450</v>
       </c>
       <c r="C409" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="D409" t="s">
         <v>1706</v>
@@ -17936,7 +17941,7 @@
         <v>451</v>
       </c>
       <c r="C410" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="D410" t="s">
         <v>1709</v>
@@ -17959,7 +17964,7 @@
         <v>452</v>
       </c>
       <c r="C411" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D411" t="s">
         <v>1712</v>
@@ -17982,7 +17987,7 @@
         <v>453</v>
       </c>
       <c r="C412" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="D412" t="s">
         <v>1715</v>
@@ -18005,7 +18010,7 @@
         <v>454</v>
       </c>
       <c r="C413" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="D413" t="s">
         <v>1718</v>
@@ -18028,7 +18033,7 @@
         <v>455</v>
       </c>
       <c r="C414" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="D414" t="s">
         <v>1721</v>
@@ -18051,7 +18056,7 @@
         <v>456</v>
       </c>
       <c r="C415" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="D415" t="s">
         <v>1724</v>
@@ -18074,7 +18079,7 @@
         <v>457</v>
       </c>
       <c r="C416" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="D416" t="s">
         <v>1727</v>
@@ -18097,7 +18102,7 @@
         <v>458</v>
       </c>
       <c r="C417" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D417" t="s">
         <v>1730</v>
@@ -18120,7 +18125,7 @@
         <v>459</v>
       </c>
       <c r="C418" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="D418" t="s">
         <v>1733</v>
@@ -18143,7 +18148,7 @@
         <v>460</v>
       </c>
       <c r="C419" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="D419" t="s">
         <v>1736</v>
@@ -18166,7 +18171,7 @@
         <v>247</v>
       </c>
       <c r="C420" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="D420" t="s">
         <v>1739</v>
@@ -18189,7 +18194,7 @@
         <v>461</v>
       </c>
       <c r="C421" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="D421" t="s">
         <v>1742</v>
@@ -18212,7 +18217,7 @@
         <v>462</v>
       </c>
       <c r="C422" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="D422" t="s">
         <v>1745</v>
@@ -18235,7 +18240,7 @@
         <v>463</v>
       </c>
       <c r="C423" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="D423" t="s">
         <v>1748</v>
@@ -18258,7 +18263,7 @@
         <v>464</v>
       </c>
       <c r="C424" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="D424" t="s">
         <v>1751</v>
@@ -18281,7 +18286,7 @@
         <v>465</v>
       </c>
       <c r="C425" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="D425" t="s">
         <v>1754</v>
@@ -18304,7 +18309,7 @@
         <v>466</v>
       </c>
       <c r="C426" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="D426" t="s">
         <v>1757</v>
@@ -18327,7 +18332,7 @@
         <v>467</v>
       </c>
       <c r="C427" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="D427" t="s">
         <v>1760</v>
@@ -18350,7 +18355,7 @@
         <v>468</v>
       </c>
       <c r="C428" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="D428" t="s">
         <v>1763</v>
@@ -18373,7 +18378,7 @@
         <v>469</v>
       </c>
       <c r="C429" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="D429" t="s">
         <v>1766</v>
@@ -18396,7 +18401,7 @@
         <v>470</v>
       </c>
       <c r="C430" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="D430" t="s">
         <v>1769</v>
@@ -18419,7 +18424,7 @@
         <v>471</v>
       </c>
       <c r="C431" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="D431" t="s">
         <v>1772</v>
@@ -18442,7 +18447,7 @@
         <v>472</v>
       </c>
       <c r="C432" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D432" t="s">
         <v>1775</v>
@@ -18465,7 +18470,7 @@
         <v>473</v>
       </c>
       <c r="C433" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="D433" t="s">
         <v>1778</v>
@@ -18488,7 +18493,7 @@
         <v>474</v>
       </c>
       <c r="C434" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="D434" t="s">
         <v>1781</v>
@@ -18511,7 +18516,7 @@
         <v>475</v>
       </c>
       <c r="C435" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="D435" t="s">
         <v>1784</v>
@@ -18534,7 +18539,7 @@
         <v>476</v>
       </c>
       <c r="C436" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="D436" t="s">
         <v>1787</v>
@@ -18557,7 +18562,7 @@
         <v>477</v>
       </c>
       <c r="C437" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="D437" t="s">
         <v>1790</v>
@@ -18580,7 +18585,7 @@
         <v>478</v>
       </c>
       <c r="C438" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="D438" t="s">
         <v>1793</v>
@@ -18603,7 +18608,7 @@
         <v>479</v>
       </c>
       <c r="C439" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D439" t="s">
         <v>1796</v>
@@ -18626,7 +18631,7 @@
         <v>480</v>
       </c>
       <c r="C440" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="D440" t="s">
         <v>1799</v>
@@ -18649,7 +18654,7 @@
         <v>481</v>
       </c>
       <c r="C441" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="D441" t="s">
         <v>1802</v>
@@ -18672,7 +18677,7 @@
         <v>482</v>
       </c>
       <c r="C442" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="D442" t="s">
         <v>1805</v>
@@ -18695,7 +18700,7 @@
         <v>483</v>
       </c>
       <c r="C443" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="D443" t="s">
         <v>1808</v>
@@ -18718,7 +18723,7 @@
         <v>484</v>
       </c>
       <c r="C444" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="D444" t="s">
         <v>1811</v>
@@ -18741,7 +18746,7 @@
         <v>485</v>
       </c>
       <c r="C445" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="D445" t="s">
         <v>1814</v>
@@ -18764,7 +18769,7 @@
         <v>486</v>
       </c>
       <c r="C446" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="D446" t="s">
         <v>1817</v>
@@ -18787,7 +18792,7 @@
         <v>487</v>
       </c>
       <c r="C447" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="D447" t="s">
         <v>1820</v>
@@ -18810,7 +18815,7 @@
         <v>488</v>
       </c>
       <c r="C448" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="D448" t="s">
         <v>1823</v>
@@ -18833,7 +18838,7 @@
         <v>489</v>
       </c>
       <c r="C449" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="D449" t="s">
         <v>1826</v>
@@ -18856,7 +18861,7 @@
         <v>490</v>
       </c>
       <c r="C450" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="D450" t="s">
         <v>1827</v>
@@ -18879,7 +18884,7 @@
         <v>491</v>
       </c>
       <c r="C451" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="D451" t="s">
         <v>1828</v>
@@ -18902,7 +18907,7 @@
         <v>492</v>
       </c>
       <c r="C452" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="D452" t="s">
         <v>1831</v>
@@ -18925,7 +18930,7 @@
         <v>493</v>
       </c>
       <c r="C453" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="D453" t="s">
         <v>1834</v>
@@ -18948,7 +18953,7 @@
         <v>494</v>
       </c>
       <c r="C454" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="D454" t="s">
         <v>1836</v>
@@ -18971,7 +18976,7 @@
         <v>495</v>
       </c>
       <c r="C455" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="D455" t="s">
         <v>1839</v>
@@ -18994,7 +18999,7 @@
         <v>496</v>
       </c>
       <c r="C456" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="D456" t="s">
         <v>1994</v>
@@ -19040,7 +19045,7 @@
         <v>498</v>
       </c>
       <c r="C458" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="D458" t="s">
         <v>1995</v>
@@ -19063,7 +19068,7 @@
         <v>499</v>
       </c>
       <c r="C459" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="D459" t="s">
         <v>1996</v>
@@ -19086,7 +19091,7 @@
         <v>500</v>
       </c>
       <c r="C460" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="D460" t="s">
         <v>1851</v>
@@ -19109,7 +19114,7 @@
         <v>501</v>
       </c>
       <c r="C461" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="D461" t="s">
         <v>1854</v>
@@ -19132,7 +19137,7 @@
         <v>502</v>
       </c>
       <c r="C462" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="D462" t="s">
         <v>1857</v>
@@ -19155,7 +19160,7 @@
         <v>503</v>
       </c>
       <c r="C463" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="D463" t="s">
         <v>1860</v>
@@ -19178,7 +19183,7 @@
         <v>504</v>
       </c>
       <c r="C464" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="D464" t="s">
         <v>1863</v>
@@ -19201,7 +19206,7 @@
         <v>505</v>
       </c>
       <c r="C465" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="D465" t="s">
         <v>1866</v>
@@ -19224,7 +19229,7 @@
         <v>506</v>
       </c>
       <c r="C466" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="D466" t="s">
         <v>1869</v>
@@ -19247,7 +19252,7 @@
         <v>507</v>
       </c>
       <c r="C467" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="D467" t="s">
         <v>1872</v>
@@ -19270,7 +19275,7 @@
         <v>508</v>
       </c>
       <c r="C468" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="D468" t="s">
         <v>1875</v>
@@ -19293,7 +19298,7 @@
         <v>509</v>
       </c>
       <c r="C469" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="D469" t="s">
         <v>1878</v>
@@ -19316,7 +19321,7 @@
         <v>510</v>
       </c>
       <c r="C470" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D470" t="s">
         <v>1881</v>
@@ -19339,7 +19344,7 @@
         <v>511</v>
       </c>
       <c r="C471" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="D471" t="s">
         <v>1884</v>
@@ -19362,7 +19367,7 @@
         <v>512</v>
       </c>
       <c r="C472" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="D472" t="s">
         <v>1887</v>
@@ -19385,7 +19390,7 @@
         <v>513</v>
       </c>
       <c r="C473" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="D473" t="s">
         <v>1475</v>
@@ -19408,7 +19413,7 @@
         <v>514</v>
       </c>
       <c r="C474" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="D474" t="s">
         <v>1892</v>
@@ -19431,7 +19436,7 @@
         <v>515</v>
       </c>
       <c r="C475" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D475" t="s">
         <v>1894</v>
@@ -19454,7 +19459,7 @@
         <v>516</v>
       </c>
       <c r="C476" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="D476" t="s">
         <v>1897</v>
@@ -19477,7 +19482,7 @@
         <v>517</v>
       </c>
       <c r="C477" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D477" t="s">
         <v>1898</v>
@@ -19500,7 +19505,7 @@
         <v>518</v>
       </c>
       <c r="C478" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="D478" t="s">
         <v>1901</v>
@@ -19523,7 +19528,7 @@
         <v>519</v>
       </c>
       <c r="C479" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="D479" t="s">
         <v>1987</v>
@@ -19546,7 +19551,7 @@
         <v>520</v>
       </c>
       <c r="C480" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="D480" t="s">
         <v>1906</v>
@@ -19569,7 +19574,7 @@
         <v>521</v>
       </c>
       <c r="C481" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="D481" t="s">
         <v>1909</v>
@@ -19592,7 +19597,7 @@
         <v>522</v>
       </c>
       <c r="C482" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="D482" t="s">
         <v>1912</v>
@@ -19615,7 +19620,7 @@
         <v>400</v>
       </c>
       <c r="C483" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="D483" t="s">
         <v>1915</v>
@@ -19638,7 +19643,7 @@
         <v>523</v>
       </c>
       <c r="C484" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D484" t="s">
         <v>1918</v>
@@ -19661,7 +19666,7 @@
         <v>524</v>
       </c>
       <c r="C485" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D485" t="s">
         <v>1921</v>
@@ -19684,7 +19689,7 @@
         <v>525</v>
       </c>
       <c r="C486" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D486" t="s">
         <v>1924</v>
@@ -19707,7 +19712,7 @@
         <v>526</v>
       </c>
       <c r="C487" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D487" t="s">
         <v>1927</v>
@@ -19730,7 +19735,7 @@
         <v>527</v>
       </c>
       <c r="C488" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="D488" t="s">
         <v>1930</v>
@@ -19753,7 +19758,7 @@
         <v>528</v>
       </c>
       <c r="C489" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="D489" t="s">
         <v>1933</v>
@@ -19776,7 +19781,7 @@
         <v>529</v>
       </c>
       <c r="C490" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="D490" t="s">
         <v>1936</v>
@@ -19799,7 +19804,7 @@
         <v>530</v>
       </c>
       <c r="C491" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="D491" t="s">
         <v>1939</v>
@@ -19822,7 +19827,7 @@
         <v>531</v>
       </c>
       <c r="C492" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="D492" t="s">
         <v>1942</v>
@@ -19845,7 +19850,7 @@
         <v>532</v>
       </c>
       <c r="C493" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="D493" t="s">
         <v>1945</v>
@@ -19868,7 +19873,7 @@
         <v>533</v>
       </c>
       <c r="C494" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="D494" t="s">
         <v>1948</v>
@@ -19891,7 +19896,7 @@
         <v>534</v>
       </c>
       <c r="C495" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="D495" t="s">
         <v>1951</v>
@@ -19914,7 +19919,7 @@
         <v>519</v>
       </c>
       <c r="C496" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="D496" t="s">
         <v>1988</v>
@@ -19937,7 +19942,7 @@
         <v>535</v>
       </c>
       <c r="C497" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="D497" t="s">
         <v>1954</v>
@@ -19960,7 +19965,7 @@
         <v>536</v>
       </c>
       <c r="C498" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="D498" t="s">
         <v>1957</v>
@@ -19983,7 +19988,7 @@
         <v>537</v>
       </c>
       <c r="C499" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="D499" t="s">
         <v>1960</v>
@@ -20006,7 +20011,7 @@
         <v>525</v>
       </c>
       <c r="C500" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D500" t="s">
         <v>1924</v>
@@ -20029,7 +20034,7 @@
         <v>538</v>
       </c>
       <c r="C501" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="D501" t="s">
         <v>1963</v>
@@ -20052,7 +20057,7 @@
         <v>539</v>
       </c>
       <c r="C502" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="D502" t="s">
         <v>1966</v>
@@ -20098,7 +20103,7 @@
         <v>541</v>
       </c>
       <c r="C504" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="D504" t="s">
         <v>1972</v>
@@ -20121,7 +20126,7 @@
         <v>542</v>
       </c>
       <c r="C505" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="D505" t="s">
         <v>1975</v>
@@ -20141,22 +20146,22 @@
         <v>505</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="C507" s="2" t="s">
+        <v>2499</v>
+      </c>
+      <c r="D507" s="2" t="s">
         <v>2500</v>
       </c>
-      <c r="D507" s="2" t="s">
+      <c r="E507" s="2" t="s">
+        <v>2573</v>
+      </c>
+      <c r="F507" s="2" t="s">
         <v>2501</v>
       </c>
-      <c r="E507" s="2" t="s">
-        <v>2574</v>
-      </c>
-      <c r="F507" s="2" t="s">
+      <c r="G507" s="2" t="s">
         <v>2502</v>
-      </c>
-      <c r="G507" s="2" t="s">
-        <v>2503</v>
       </c>
     </row>
     <row r="508" spans="1:7">
@@ -20164,22 +20169,22 @@
         <v>506</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="C508" s="2" t="s">
+        <v>2503</v>
+      </c>
+      <c r="D508" s="2" t="s">
         <v>2504</v>
       </c>
-      <c r="D508" s="2" t="s">
+      <c r="E508" s="2" t="s">
+        <v>2574</v>
+      </c>
+      <c r="F508" s="2" t="s">
         <v>2505</v>
       </c>
-      <c r="E508" s="2" t="s">
-        <v>2575</v>
-      </c>
-      <c r="F508" s="2" t="s">
+      <c r="G508" s="2" t="s">
         <v>2506</v>
-      </c>
-      <c r="G508" s="2" t="s">
-        <v>2507</v>
       </c>
     </row>
     <row r="509" spans="1:7">
@@ -20187,22 +20192,22 @@
         <v>507</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="C509" s="2" t="s">
+        <v>2507</v>
+      </c>
+      <c r="D509" s="2" t="s">
         <v>2508</v>
       </c>
-      <c r="D509" s="2" t="s">
+      <c r="E509" s="2" t="s">
+        <v>2574</v>
+      </c>
+      <c r="F509" s="2" t="s">
         <v>2509</v>
       </c>
-      <c r="E509" s="2" t="s">
-        <v>2575</v>
-      </c>
-      <c r="F509" s="2" t="s">
+      <c r="G509" s="2" t="s">
         <v>2510</v>
-      </c>
-      <c r="G509" s="2" t="s">
-        <v>2511</v>
       </c>
     </row>
     <row r="510" spans="1:7">
@@ -20210,22 +20215,22 @@
         <v>508</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="C510" s="2" t="s">
+        <v>2511</v>
+      </c>
+      <c r="D510" s="2" t="s">
         <v>2512</v>
       </c>
-      <c r="D510" s="2" t="s">
+      <c r="E510" s="2" t="s">
+        <v>2573</v>
+      </c>
+      <c r="F510" s="2" t="s">
         <v>2513</v>
       </c>
-      <c r="E510" s="2" t="s">
-        <v>2574</v>
-      </c>
-      <c r="F510" s="2" t="s">
+      <c r="G510" s="2" t="s">
         <v>2514</v>
-      </c>
-      <c r="G510" s="2" t="s">
-        <v>2515</v>
       </c>
     </row>
     <row r="511" spans="1:7">
@@ -20233,22 +20238,22 @@
         <v>509</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="D511" s="2" t="s">
         <v>576</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="F511" s="2" t="s">
+        <v>2516</v>
+      </c>
+      <c r="G511" s="2" t="s">
         <v>2517</v>
-      </c>
-      <c r="G511" s="2" t="s">
-        <v>2518</v>
       </c>
     </row>
     <row r="512" spans="1:7">
@@ -20256,22 +20261,22 @@
         <v>510</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="C512" s="2" t="s">
+        <v>2518</v>
+      </c>
+      <c r="D512" s="2" t="s">
         <v>2519</v>
       </c>
-      <c r="D512" s="2" t="s">
+      <c r="E512" s="2" t="s">
+        <v>2576</v>
+      </c>
+      <c r="F512" s="2" t="s">
         <v>2520</v>
       </c>
-      <c r="E512" s="2" t="s">
-        <v>2577</v>
-      </c>
-      <c r="F512" s="2" t="s">
+      <c r="G512" s="2" t="s">
         <v>2521</v>
-      </c>
-      <c r="G512" s="2" t="s">
-        <v>2522</v>
       </c>
     </row>
     <row r="513" spans="1:7">
@@ -20279,22 +20284,22 @@
         <v>511</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="C513" s="2" t="s">
+        <v>2522</v>
+      </c>
+      <c r="D513" s="2" t="s">
         <v>2523</v>
       </c>
-      <c r="D513" s="2" t="s">
+      <c r="E513" s="2" t="s">
+        <v>2576</v>
+      </c>
+      <c r="F513" s="2" t="s">
         <v>2524</v>
       </c>
-      <c r="E513" s="2" t="s">
-        <v>2577</v>
-      </c>
-      <c r="F513" s="2" t="s">
+      <c r="G513" s="2" t="s">
         <v>2525</v>
-      </c>
-      <c r="G513" s="2" t="s">
-        <v>2526</v>
       </c>
     </row>
     <row r="514" spans="1:7">
@@ -20302,22 +20307,22 @@
         <v>512</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="C514" s="2" t="s">
+        <v>2526</v>
+      </c>
+      <c r="D514" s="2" t="s">
         <v>2527</v>
       </c>
-      <c r="D514" s="2" t="s">
+      <c r="E514" s="2" t="s">
+        <v>2576</v>
+      </c>
+      <c r="F514" s="2" t="s">
         <v>2528</v>
       </c>
-      <c r="E514" s="2" t="s">
-        <v>2577</v>
-      </c>
-      <c r="F514" s="2" t="s">
+      <c r="G514" s="2" t="s">
         <v>2529</v>
-      </c>
-      <c r="G514" s="2" t="s">
-        <v>2530</v>
       </c>
     </row>
     <row r="515" spans="1:7">
@@ -20325,22 +20330,22 @@
         <v>513</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>2133</v>
       </c>
       <c r="D515" s="2" t="s">
+        <v>2530</v>
+      </c>
+      <c r="E515" s="2" t="s">
+        <v>2576</v>
+      </c>
+      <c r="F515" s="2" t="s">
         <v>2531</v>
       </c>
-      <c r="E515" s="2" t="s">
-        <v>2577</v>
-      </c>
-      <c r="F515" s="2" t="s">
-        <v>2532</v>
-      </c>
       <c r="G515" s="2" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="516" spans="1:7">
@@ -20348,22 +20353,22 @@
         <v>514</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="D516" s="2" t="s">
+        <v>2532</v>
+      </c>
+      <c r="E516" s="2" t="s">
+        <v>2573</v>
+      </c>
+      <c r="F516" s="2" t="s">
         <v>2533</v>
       </c>
-      <c r="E516" s="2" t="s">
-        <v>2574</v>
-      </c>
-      <c r="F516" s="2" t="s">
+      <c r="G516" s="2" t="s">
         <v>2534</v>
-      </c>
-      <c r="G516" s="2" t="s">
-        <v>2535</v>
       </c>
     </row>
     <row r="517" spans="1:7">
@@ -20371,22 +20376,22 @@
         <v>515</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="C517" s="2" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D517" s="2" t="s">
         <v>2536</v>
       </c>
-      <c r="D517" s="2" t="s">
+      <c r="E517" s="2" t="s">
+        <v>2576</v>
+      </c>
+      <c r="F517" s="2" t="s">
         <v>2537</v>
       </c>
-      <c r="E517" s="2" t="s">
-        <v>2577</v>
-      </c>
-      <c r="F517" s="2" t="s">
+      <c r="G517" s="2" t="s">
         <v>2538</v>
-      </c>
-      <c r="G517" s="2" t="s">
-        <v>2539</v>
       </c>
     </row>
     <row r="518" spans="1:7">
@@ -20394,22 +20399,22 @@
         <v>516</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="C518" s="2" t="s">
+        <v>2539</v>
+      </c>
+      <c r="D518" s="2" t="s">
         <v>2540</v>
       </c>
-      <c r="D518" s="2" t="s">
+      <c r="E518" s="2" t="s">
+        <v>2574</v>
+      </c>
+      <c r="F518" s="2" t="s">
         <v>2541</v>
       </c>
-      <c r="E518" s="2" t="s">
-        <v>2575</v>
-      </c>
-      <c r="F518" s="2" t="s">
+      <c r="G518" s="2" t="s">
         <v>2542</v>
-      </c>
-      <c r="G518" s="2" t="s">
-        <v>2543</v>
       </c>
     </row>
     <row r="519" spans="1:7">
@@ -20417,22 +20422,22 @@
         <v>517</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="C519" s="2" t="s">
+        <v>2543</v>
+      </c>
+      <c r="D519" s="2" t="s">
         <v>2544</v>
       </c>
-      <c r="D519" s="2" t="s">
+      <c r="E519" s="2" t="s">
+        <v>2577</v>
+      </c>
+      <c r="F519" s="2" t="s">
         <v>2545</v>
       </c>
-      <c r="E519" s="2" t="s">
-        <v>2578</v>
-      </c>
-      <c r="F519" s="2" t="s">
+      <c r="G519" s="2" t="s">
         <v>2546</v>
-      </c>
-      <c r="G519" s="2" t="s">
-        <v>2547</v>
       </c>
     </row>
     <row r="520" spans="1:7">
@@ -20440,22 +20445,22 @@
         <v>518</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="C520" s="2" t="s">
+        <v>2547</v>
+      </c>
+      <c r="D520" s="2" t="s">
         <v>2548</v>
       </c>
-      <c r="D520" s="2" t="s">
+      <c r="E520" s="2" t="s">
+        <v>2578</v>
+      </c>
+      <c r="F520" s="2" t="s">
         <v>2549</v>
       </c>
-      <c r="E520" s="2" t="s">
-        <v>2579</v>
-      </c>
-      <c r="F520" s="2" t="s">
+      <c r="G520" s="2" t="s">
         <v>2550</v>
-      </c>
-      <c r="G520" s="2" t="s">
-        <v>2551</v>
       </c>
     </row>
     <row r="521" spans="1:7">
@@ -20463,22 +20468,22 @@
         <v>519</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="C521" s="2" t="s">
+        <v>2551</v>
+      </c>
+      <c r="D521" s="2" t="s">
         <v>2552</v>
       </c>
-      <c r="D521" s="2" t="s">
+      <c r="E521" s="2" t="s">
+        <v>2574</v>
+      </c>
+      <c r="F521" s="2" t="s">
         <v>2553</v>
       </c>
-      <c r="E521" s="2" t="s">
-        <v>2575</v>
-      </c>
-      <c r="F521" s="2" t="s">
+      <c r="G521" s="2" t="s">
         <v>2554</v>
-      </c>
-      <c r="G521" s="2" t="s">
-        <v>2555</v>
       </c>
     </row>
     <row r="522" spans="1:7">
@@ -20486,22 +20491,22 @@
         <v>520</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="C522" s="2" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D522" s="2" t="s">
         <v>2556</v>
       </c>
-      <c r="D522" s="2" t="s">
+      <c r="E522" s="2" t="s">
+        <v>2573</v>
+      </c>
+      <c r="F522" s="2" t="s">
         <v>2557</v>
       </c>
-      <c r="E522" s="2" t="s">
-        <v>2574</v>
-      </c>
-      <c r="F522" s="2" t="s">
+      <c r="G522" s="2" t="s">
         <v>2558</v>
-      </c>
-      <c r="G522" s="2" t="s">
-        <v>2559</v>
       </c>
     </row>
     <row r="523" spans="1:7">
@@ -20509,22 +20514,22 @@
         <v>521</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="C523" s="2" t="s">
+        <v>2559</v>
+      </c>
+      <c r="D523" s="2" t="s">
         <v>2560</v>
       </c>
-      <c r="D523" s="2" t="s">
+      <c r="E523" s="2" t="s">
+        <v>2578</v>
+      </c>
+      <c r="F523" s="2" t="s">
         <v>2561</v>
       </c>
-      <c r="E523" s="2" t="s">
-        <v>2579</v>
-      </c>
-      <c r="F523" s="2" t="s">
+      <c r="G523" s="2" t="s">
         <v>2562</v>
-      </c>
-      <c r="G523" s="2" t="s">
-        <v>2563</v>
       </c>
     </row>
     <row r="524" spans="1:7">
@@ -20532,22 +20537,22 @@
         <v>522</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="C524" s="2" t="s">
+        <v>2563</v>
+      </c>
+      <c r="D524" s="2" t="s">
         <v>2564</v>
       </c>
-      <c r="D524" s="2" t="s">
+      <c r="E524" s="2" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F524" s="2" t="s">
         <v>2565</v>
       </c>
-      <c r="E524" s="2" t="s">
-        <v>2576</v>
-      </c>
-      <c r="F524" s="2" t="s">
+      <c r="G524" s="2" t="s">
         <v>2566</v>
-      </c>
-      <c r="G524" s="2" t="s">
-        <v>2567</v>
       </c>
     </row>
     <row r="525" spans="1:7">
@@ -20555,22 +20560,22 @@
         <v>523</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="C525" s="2" t="s">
+        <v>2567</v>
+      </c>
+      <c r="D525" s="2" t="s">
         <v>2568</v>
       </c>
-      <c r="D525" s="2" t="s">
+      <c r="E525" s="2" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F525" s="2" t="s">
         <v>2569</v>
       </c>
-      <c r="E525" s="2" t="s">
-        <v>2576</v>
-      </c>
-      <c r="F525" s="2" t="s">
+      <c r="G525" s="2" t="s">
         <v>2570</v>
-      </c>
-      <c r="G525" s="2" t="s">
-        <v>2571</v>
       </c>
     </row>
     <row r="526" spans="1:7">
@@ -20578,22 +20583,22 @@
         <v>524</v>
       </c>
       <c r="B526" s="2" t="s">
+        <v>2579</v>
+      </c>
+      <c r="C526" s="2" t="s">
         <v>2580</v>
       </c>
-      <c r="C526" s="2" t="s">
+      <c r="D526" s="2" t="s">
         <v>2581</v>
       </c>
-      <c r="D526" s="2" t="s">
+      <c r="E526" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F526" s="2" t="s">
         <v>2582</v>
       </c>
-      <c r="E526" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F526" s="2" t="s">
+      <c r="G526" s="2" t="s">
         <v>2583</v>
-      </c>
-      <c r="G526" s="2" t="s">
-        <v>2584</v>
       </c>
     </row>
     <row r="527" spans="1:7">
@@ -20604,22 +20609,22 @@
         <v>525</v>
       </c>
       <c r="B528" s="2" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C528" s="2" t="s">
         <v>2590</v>
       </c>
-      <c r="C528" s="2" t="s">
+      <c r="D528" s="2" t="s">
         <v>2591</v>
       </c>
-      <c r="D528" s="2" t="s">
+      <c r="E528" s="2" t="s">
         <v>2592</v>
       </c>
-      <c r="E528" s="2" t="s">
+      <c r="F528" s="2" t="s">
         <v>2593</v>
       </c>
-      <c r="F528" s="2" t="s">
+      <c r="G528" s="2" t="s">
         <v>2594</v>
-      </c>
-      <c r="G528" s="2" t="s">
-        <v>2595</v>
       </c>
     </row>
     <row r="529" spans="1:7">
@@ -20627,22 +20632,22 @@
         <v>526</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="C529" s="2" t="s">
+        <v>2595</v>
+      </c>
+      <c r="D529" s="2" t="s">
         <v>2596</v>
       </c>
-      <c r="D529" s="2" t="s">
+      <c r="E529" s="2" t="s">
+        <v>2659</v>
+      </c>
+      <c r="F529" s="2" t="s">
         <v>2597</v>
       </c>
-      <c r="E529" s="2" t="s">
-        <v>2660</v>
-      </c>
-      <c r="F529" s="2" t="s">
+      <c r="G529" s="2" t="s">
         <v>2598</v>
-      </c>
-      <c r="G529" s="2" t="s">
-        <v>2599</v>
       </c>
     </row>
     <row r="530" spans="1:7">
@@ -20650,22 +20655,22 @@
         <v>527</v>
       </c>
       <c r="B530" s="2" t="s">
+        <v>2599</v>
+      </c>
+      <c r="C530" s="2" t="s">
         <v>2600</v>
       </c>
-      <c r="C530" s="2" t="s">
+      <c r="D530" s="2" t="s">
         <v>2601</v>
       </c>
-      <c r="D530" s="2" t="s">
+      <c r="E530" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F530" s="2" t="s">
         <v>2602</v>
       </c>
-      <c r="E530" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F530" s="2" t="s">
+      <c r="G530" s="2" t="s">
         <v>2603</v>
-      </c>
-      <c r="G530" s="2" t="s">
-        <v>2604</v>
       </c>
     </row>
     <row r="531" spans="1:7">
@@ -20673,22 +20678,22 @@
         <v>528</v>
       </c>
       <c r="B531" s="2" t="s">
+        <v>2604</v>
+      </c>
+      <c r="C531" s="2" t="s">
         <v>2605</v>
       </c>
-      <c r="C531" s="2" t="s">
+      <c r="D531" s="2" t="s">
         <v>2606</v>
       </c>
-      <c r="D531" s="2" t="s">
+      <c r="E531" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F531" s="2" t="s">
         <v>2607</v>
       </c>
-      <c r="E531" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F531" s="2" t="s">
+      <c r="G531" s="2" t="s">
         <v>2608</v>
-      </c>
-      <c r="G531" s="2" t="s">
-        <v>2609</v>
       </c>
     </row>
     <row r="532" spans="1:7">
@@ -20696,22 +20701,22 @@
         <v>529</v>
       </c>
       <c r="B532" s="2" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C532" s="2" t="s">
         <v>2610</v>
       </c>
-      <c r="C532" s="2" t="s">
+      <c r="D532" s="2" t="s">
         <v>2611</v>
       </c>
-      <c r="D532" s="2" t="s">
+      <c r="E532" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F532" s="2" t="s">
         <v>2612</v>
       </c>
-      <c r="E532" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F532" s="2" t="s">
+      <c r="G532" s="2" t="s">
         <v>2613</v>
-      </c>
-      <c r="G532" s="2" t="s">
-        <v>2614</v>
       </c>
     </row>
     <row r="533" spans="1:7">
@@ -20719,22 +20724,22 @@
         <v>530</v>
       </c>
       <c r="B533" s="2" t="s">
+        <v>2614</v>
+      </c>
+      <c r="C533" s="2" t="s">
         <v>2615</v>
       </c>
-      <c r="C533" s="2" t="s">
+      <c r="D533" s="2" t="s">
         <v>2616</v>
       </c>
-      <c r="D533" s="2" t="s">
+      <c r="E533" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F533" s="2" t="s">
         <v>2617</v>
       </c>
-      <c r="E533" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F533" s="2" t="s">
+      <c r="G533" s="2" t="s">
         <v>2618</v>
-      </c>
-      <c r="G533" s="2" t="s">
-        <v>2619</v>
       </c>
     </row>
     <row r="534" spans="1:7">
@@ -20742,22 +20747,22 @@
         <v>531</v>
       </c>
       <c r="B534" s="2" t="s">
+        <v>2619</v>
+      </c>
+      <c r="C534" s="2" t="s">
         <v>2620</v>
       </c>
-      <c r="C534" s="2" t="s">
+      <c r="D534" s="2" t="s">
         <v>2621</v>
       </c>
-      <c r="D534" s="2" t="s">
+      <c r="E534" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F534" s="2" t="s">
         <v>2622</v>
       </c>
-      <c r="E534" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F534" s="2" t="s">
+      <c r="G534" s="2" t="s">
         <v>2623</v>
-      </c>
-      <c r="G534" s="2" t="s">
-        <v>2624</v>
       </c>
     </row>
     <row r="535" spans="1:7">
@@ -20765,22 +20770,22 @@
         <v>532</v>
       </c>
       <c r="B535" s="2" t="s">
+        <v>2624</v>
+      </c>
+      <c r="C535" s="2" t="s">
         <v>2625</v>
       </c>
-      <c r="C535" s="2" t="s">
+      <c r="D535" s="2" t="s">
         <v>2626</v>
       </c>
-      <c r="D535" s="2" t="s">
+      <c r="E535" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F535" s="2" t="s">
         <v>2627</v>
       </c>
-      <c r="E535" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F535" s="2" t="s">
+      <c r="G535" s="2" t="s">
         <v>2628</v>
-      </c>
-      <c r="G535" s="2" t="s">
-        <v>2629</v>
       </c>
     </row>
     <row r="536" spans="1:7">
@@ -20788,22 +20793,22 @@
         <v>533</v>
       </c>
       <c r="B536" s="2" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C536" s="2" t="s">
         <v>2630</v>
       </c>
-      <c r="C536" s="2" t="s">
+      <c r="D536" s="2" t="s">
         <v>2631</v>
-      </c>
-      <c r="D536" s="2" t="s">
-        <v>2632</v>
       </c>
       <c r="E536" s="2" t="s">
         <v>1033</v>
       </c>
       <c r="F536" s="2" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G536" s="2" t="s">
         <v>2633</v>
-      </c>
-      <c r="G536" s="2" t="s">
-        <v>2634</v>
       </c>
     </row>
     <row r="537" spans="1:7">
@@ -20811,22 +20816,22 @@
         <v>534</v>
       </c>
       <c r="B537" s="2" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C537" s="2" t="s">
         <v>2635</v>
       </c>
-      <c r="C537" s="2" t="s">
+      <c r="D537" s="2" t="s">
         <v>2636</v>
-      </c>
-      <c r="D537" s="2" t="s">
-        <v>2637</v>
       </c>
       <c r="E537" s="2" t="s">
         <v>1033</v>
       </c>
       <c r="F537" s="2" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G537" s="2" t="s">
         <v>2638</v>
-      </c>
-      <c r="G537" s="2" t="s">
-        <v>2639</v>
       </c>
     </row>
     <row r="538" spans="1:7">
@@ -20834,22 +20839,22 @@
         <v>535</v>
       </c>
       <c r="B538" s="2" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C538" s="2" t="s">
         <v>2640</v>
       </c>
-      <c r="C538" s="2" t="s">
+      <c r="D538" s="2" t="s">
         <v>2641</v>
-      </c>
-      <c r="D538" s="2" t="s">
-        <v>2642</v>
       </c>
       <c r="E538" s="2" t="s">
         <v>1027</v>
       </c>
       <c r="F538" s="2" t="s">
+        <v>2642</v>
+      </c>
+      <c r="G538" s="2" t="s">
         <v>2643</v>
-      </c>
-      <c r="G538" s="2" t="s">
-        <v>2644</v>
       </c>
     </row>
     <row r="539" spans="1:7">
@@ -20857,22 +20862,22 @@
         <v>536</v>
       </c>
       <c r="B539" s="2" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C539" s="2" t="s">
         <v>2645</v>
       </c>
-      <c r="C539" s="2" t="s">
+      <c r="D539" s="2" t="s">
         <v>2646</v>
       </c>
-      <c r="D539" s="2" t="s">
+      <c r="E539" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F539" s="2" t="s">
         <v>2647</v>
       </c>
-      <c r="E539" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F539" s="2" t="s">
+      <c r="G539" s="2" t="s">
         <v>2648</v>
-      </c>
-      <c r="G539" s="2" t="s">
-        <v>2649</v>
       </c>
     </row>
     <row r="540" spans="1:7">
@@ -20880,22 +20885,22 @@
         <v>537</v>
       </c>
       <c r="B540" s="2" t="s">
+        <v>2649</v>
+      </c>
+      <c r="C540" s="2" t="s">
         <v>2650</v>
       </c>
-      <c r="C540" s="2" t="s">
+      <c r="D540" s="2" t="s">
         <v>2651</v>
       </c>
-      <c r="D540" s="2" t="s">
+      <c r="E540" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F540" s="2" t="s">
         <v>2652</v>
       </c>
-      <c r="E540" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F540" s="2" t="s">
+      <c r="G540" s="2" t="s">
         <v>2653</v>
-      </c>
-      <c r="G540" s="2" t="s">
-        <v>2654</v>
       </c>
     </row>
     <row r="541" spans="1:7">
@@ -20903,22 +20908,22 @@
         <v>538</v>
       </c>
       <c r="B541" s="2" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C541" s="2" t="s">
         <v>2655</v>
       </c>
-      <c r="C541" s="2" t="s">
+      <c r="D541" s="2" t="s">
         <v>2656</v>
-      </c>
-      <c r="D541" s="2" t="s">
-        <v>2657</v>
       </c>
       <c r="E541" s="2" t="s">
         <v>1029</v>
       </c>
       <c r="F541" s="2" t="s">
+        <v>2657</v>
+      </c>
+      <c r="G541" s="2" t="s">
         <v>2658</v>
-      </c>
-      <c r="G541" s="2" t="s">
-        <v>2659</v>
       </c>
     </row>
     <row r="543" spans="1:7">
@@ -20926,10 +20931,10 @@
         <v>539</v>
       </c>
       <c r="B543" s="2" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C543" s="2" t="s">
         <v>2662</v>
-      </c>
-      <c r="C543" s="2" t="s">
-        <v>2663</v>
       </c>
       <c r="D543" s="2" t="s">
         <v>1289</v>
@@ -20938,7 +20943,7 @@
         <v>872</v>
       </c>
       <c r="F543" s="2" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="G543" s="2" t="s">
         <v>1291</v>
@@ -20949,22 +20954,22 @@
         <v>540</v>
       </c>
       <c r="B544" s="2" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C544" s="2" t="s">
         <v>2664</v>
       </c>
-      <c r="C544" s="2" t="s">
+      <c r="D544" s="2" t="s">
         <v>2665</v>
       </c>
-      <c r="D544" s="2" t="s">
-        <v>2666</v>
-      </c>
       <c r="E544" s="2" t="s">
         <v>872</v>
       </c>
       <c r="F544" s="2" t="s">
+        <v>2678</v>
+      </c>
+      <c r="G544" s="2" t="s">
         <v>2679</v>
-      </c>
-      <c r="G544" s="2" t="s">
-        <v>2680</v>
       </c>
     </row>
     <row r="545" spans="1:7">
@@ -20972,22 +20977,22 @@
         <v>541</v>
       </c>
       <c r="B545" s="2" t="s">
+        <v>2666</v>
+      </c>
+      <c r="C545" s="2" t="s">
         <v>2667</v>
       </c>
-      <c r="C545" s="2" t="s">
+      <c r="D545" s="2" t="s">
         <v>2668</v>
       </c>
-      <c r="D545" s="2" t="s">
-        <v>2669</v>
-      </c>
       <c r="E545" s="2" t="s">
         <v>872</v>
       </c>
       <c r="F545" s="2" t="s">
+        <v>2680</v>
+      </c>
+      <c r="G545" s="2" t="s">
         <v>2681</v>
-      </c>
-      <c r="G545" s="2" t="s">
-        <v>2682</v>
       </c>
     </row>
     <row r="546" spans="1:7">
@@ -20995,22 +21000,22 @@
         <v>542</v>
       </c>
       <c r="B546" s="2" t="s">
+        <v>2669</v>
+      </c>
+      <c r="C546" s="2" t="s">
         <v>2670</v>
       </c>
-      <c r="C546" s="2" t="s">
+      <c r="D546" s="2" t="s">
         <v>2671</v>
       </c>
-      <c r="D546" s="2" t="s">
-        <v>2672</v>
-      </c>
       <c r="E546" s="2" t="s">
         <v>872</v>
       </c>
       <c r="F546" s="2" t="s">
+        <v>2682</v>
+      </c>
+      <c r="G546" s="2" t="s">
         <v>2683</v>
-      </c>
-      <c r="G546" s="2" t="s">
-        <v>2684</v>
       </c>
     </row>
     <row r="547" spans="1:7">
@@ -21018,22 +21023,22 @@
         <v>543</v>
       </c>
       <c r="B547" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C547" s="2" t="s">
         <v>2673</v>
       </c>
-      <c r="C547" s="2" t="s">
+      <c r="D547" s="2" t="s">
         <v>2674</v>
       </c>
-      <c r="D547" s="2" t="s">
-        <v>2675</v>
-      </c>
       <c r="E547" s="2" t="s">
         <v>872</v>
       </c>
       <c r="F547" s="2" t="s">
+        <v>2684</v>
+      </c>
+      <c r="G547" s="2" t="s">
         <v>2685</v>
-      </c>
-      <c r="G547" s="2" t="s">
-        <v>2686</v>
       </c>
     </row>
     <row r="548" spans="1:7">
@@ -21041,22 +21046,22 @@
         <v>544</v>
       </c>
       <c r="B548" s="2" t="s">
+        <v>2686</v>
+      </c>
+      <c r="C548" s="2" t="s">
         <v>2687</v>
       </c>
-      <c r="C548" s="2" t="s">
+      <c r="D548" s="2" t="s">
         <v>2688</v>
       </c>
-      <c r="D548" s="2" t="s">
+      <c r="E548" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F548" s="2" t="s">
         <v>2689</v>
       </c>
-      <c r="E548" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F548" s="2" t="s">
+      <c r="G548" s="2" t="s">
         <v>2690</v>
-      </c>
-      <c r="G548" s="2" t="s">
-        <v>2691</v>
       </c>
     </row>
     <row r="549" spans="1:7">
@@ -21064,22 +21069,22 @@
         <v>545</v>
       </c>
       <c r="B549" s="2" t="s">
+        <v>2675</v>
+      </c>
+      <c r="C549" s="2" t="s">
         <v>2676</v>
       </c>
-      <c r="C549" s="2" t="s">
-        <v>2677</v>
-      </c>
       <c r="D549" s="2" t="s">
+        <v>2691</v>
+      </c>
+      <c r="E549" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F549" s="2" t="s">
         <v>2692</v>
       </c>
-      <c r="E549" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F549" s="2" t="s">
+      <c r="G549" s="2" t="s">
         <v>2693</v>
-      </c>
-      <c r="G549" s="2" t="s">
-        <v>2694</v>
       </c>
     </row>
   </sheetData>

--- a/doc/voca.xlsx
+++ b/doc/voca.xlsx
@@ -6390,9 +6390,6 @@
     <t>[blæk]</t>
   </si>
   <si>
-    <t>[waɪt]</t>
-  </si>
-  <si>
     <t>[rɛd]</t>
   </si>
   <si>
@@ -8142,6 +8139,10 @@
   </si>
   <si>
     <t>[ˈtʃɪkən]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[hwaɪt]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8512,8 +8513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G549"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C181" sqref="C181"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8546,7 +8547,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -9270,7 +9271,7 @@
         <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="D33" t="s">
         <v>582</v>
@@ -9293,7 +9294,7 @@
         <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="D34" t="s">
         <v>585</v>
@@ -9316,7 +9317,7 @@
         <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="D35" t="s">
         <v>588</v>
@@ -9339,7 +9340,7 @@
         <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="D36" t="s">
         <v>591</v>
@@ -9408,7 +9409,7 @@
         <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="D39" t="s">
         <v>600</v>
@@ -11386,7 +11387,7 @@
         <v>174</v>
       </c>
       <c r="C125" t="s">
-        <v>2118</v>
+        <v>2696</v>
       </c>
       <c r="D125" t="s">
         <v>793</v>
@@ -11409,7 +11410,7 @@
         <v>175</v>
       </c>
       <c r="C126" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="D126" t="s">
         <v>796</v>
@@ -11432,7 +11433,7 @@
         <v>176</v>
       </c>
       <c r="C127" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="D127" t="s">
         <v>799</v>
@@ -11455,7 +11456,7 @@
         <v>177</v>
       </c>
       <c r="C128" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="D128" t="s">
         <v>802</v>
@@ -11478,7 +11479,7 @@
         <v>178</v>
       </c>
       <c r="C129" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="D129" t="s">
         <v>805</v>
@@ -11501,7 +11502,7 @@
         <v>179</v>
       </c>
       <c r="C130" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="D130" t="s">
         <v>808</v>
@@ -11524,7 +11525,7 @@
         <v>180</v>
       </c>
       <c r="C131" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D131" t="s">
         <v>811</v>
@@ -11547,7 +11548,7 @@
         <v>181</v>
       </c>
       <c r="C132" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D132" t="s">
         <v>814</v>
@@ -11570,7 +11571,7 @@
         <v>182</v>
       </c>
       <c r="C133" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="D133" t="s">
         <v>817</v>
@@ -11593,7 +11594,7 @@
         <v>183</v>
       </c>
       <c r="C134" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="D134" t="s">
         <v>820</v>
@@ -11616,7 +11617,7 @@
         <v>184</v>
       </c>
       <c r="C135" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="D135" t="s">
         <v>823</v>
@@ -11639,7 +11640,7 @@
         <v>185</v>
       </c>
       <c r="C136" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D136" t="s">
         <v>826</v>
@@ -11662,7 +11663,7 @@
         <v>186</v>
       </c>
       <c r="C137" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D137" t="s">
         <v>829</v>
@@ -11685,7 +11686,7 @@
         <v>187</v>
       </c>
       <c r="C138" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="D138" t="s">
         <v>832</v>
@@ -11708,7 +11709,7 @@
         <v>188</v>
       </c>
       <c r="C139" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="D139" t="s">
         <v>835</v>
@@ -11731,7 +11732,7 @@
         <v>189</v>
       </c>
       <c r="C140" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="D140" t="s">
         <v>838</v>
@@ -11754,7 +11755,7 @@
         <v>190</v>
       </c>
       <c r="C141" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="D141" t="s">
         <v>841</v>
@@ -11777,7 +11778,7 @@
         <v>191</v>
       </c>
       <c r="C142" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="D142" t="s">
         <v>844</v>
@@ -11800,7 +11801,7 @@
         <v>192</v>
       </c>
       <c r="C143" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="D143" t="s">
         <v>847</v>
@@ -11823,7 +11824,7 @@
         <v>193</v>
       </c>
       <c r="C144" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="D144" t="s">
         <v>850</v>
@@ -11846,7 +11847,7 @@
         <v>194</v>
       </c>
       <c r="C145" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="D145" t="s">
         <v>853</v>
@@ -11869,7 +11870,7 @@
         <v>195</v>
       </c>
       <c r="C146" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="D146" t="s">
         <v>856</v>
@@ -11892,7 +11893,7 @@
         <v>196</v>
       </c>
       <c r="C147" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="D147" t="s">
         <v>859</v>
@@ -11915,7 +11916,7 @@
         <v>197</v>
       </c>
       <c r="C148" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="D148" t="s">
         <v>862</v>
@@ -11938,7 +11939,7 @@
         <v>198</v>
       </c>
       <c r="C149" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="D149" t="s">
         <v>865</v>
@@ -11961,7 +11962,7 @@
         <v>199</v>
       </c>
       <c r="C150" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="D150" t="s">
         <v>868</v>
@@ -11984,7 +11985,7 @@
         <v>200</v>
       </c>
       <c r="C151" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="D151" t="s">
         <v>871</v>
@@ -12007,7 +12008,7 @@
         <v>201</v>
       </c>
       <c r="C152" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="D152" t="s">
         <v>875</v>
@@ -12030,7 +12031,7 @@
         <v>202</v>
       </c>
       <c r="C153" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="D153" t="s">
         <v>878</v>
@@ -12053,7 +12054,7 @@
         <v>203</v>
       </c>
       <c r="C154" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="D154" t="s">
         <v>881</v>
@@ -12076,7 +12077,7 @@
         <v>204</v>
       </c>
       <c r="C155" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="D155" t="s">
         <v>884</v>
@@ -12099,7 +12100,7 @@
         <v>205</v>
       </c>
       <c r="C156" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D156" t="s">
         <v>887</v>
@@ -12122,7 +12123,7 @@
         <v>206</v>
       </c>
       <c r="C157" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="D157" t="s">
         <v>890</v>
@@ -12145,7 +12146,7 @@
         <v>207</v>
       </c>
       <c r="C158" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="D158" t="s">
         <v>893</v>
@@ -12168,7 +12169,7 @@
         <v>208</v>
       </c>
       <c r="C159" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="D159" t="s">
         <v>896</v>
@@ -12191,7 +12192,7 @@
         <v>209</v>
       </c>
       <c r="C160" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="D160" t="s">
         <v>899</v>
@@ -12214,7 +12215,7 @@
         <v>210</v>
       </c>
       <c r="C161" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="D161" t="s">
         <v>902</v>
@@ -12237,7 +12238,7 @@
         <v>211</v>
       </c>
       <c r="C162" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="D162" t="s">
         <v>905</v>
@@ -12260,7 +12261,7 @@
         <v>212</v>
       </c>
       <c r="C163" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="D163" t="s">
         <v>908</v>
@@ -12283,7 +12284,7 @@
         <v>213</v>
       </c>
       <c r="C164" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="D164" t="s">
         <v>911</v>
@@ -12306,7 +12307,7 @@
         <v>214</v>
       </c>
       <c r="C165" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="D165" t="s">
         <v>914</v>
@@ -12329,7 +12330,7 @@
         <v>215</v>
       </c>
       <c r="C166" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="D166" t="s">
         <v>917</v>
@@ -12352,7 +12353,7 @@
         <v>216</v>
       </c>
       <c r="C167" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="D167" t="s">
         <v>920</v>
@@ -12375,7 +12376,7 @@
         <v>217</v>
       </c>
       <c r="C168" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="D168" t="s">
         <v>923</v>
@@ -12398,7 +12399,7 @@
         <v>218</v>
       </c>
       <c r="C169" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="D169" t="s">
         <v>926</v>
@@ -12421,7 +12422,7 @@
         <v>219</v>
       </c>
       <c r="C170" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="D170" t="s">
         <v>929</v>
@@ -12444,7 +12445,7 @@
         <v>220</v>
       </c>
       <c r="C171" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="D171" t="s">
         <v>932</v>
@@ -12467,7 +12468,7 @@
         <v>221</v>
       </c>
       <c r="C172" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="D172" t="s">
         <v>935</v>
@@ -12490,7 +12491,7 @@
         <v>222</v>
       </c>
       <c r="C173" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="D173" t="s">
         <v>938</v>
@@ -12513,7 +12514,7 @@
         <v>223</v>
       </c>
       <c r="C174" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="D174" t="s">
         <v>941</v>
@@ -12536,7 +12537,7 @@
         <v>224</v>
       </c>
       <c r="C175" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="D175" t="s">
         <v>945</v>
@@ -12559,7 +12560,7 @@
         <v>225</v>
       </c>
       <c r="C176" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="D176" t="s">
         <v>948</v>
@@ -12582,7 +12583,7 @@
         <v>226</v>
       </c>
       <c r="C177" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="D177" t="s">
         <v>952</v>
@@ -12605,7 +12606,7 @@
         <v>227</v>
       </c>
       <c r="C178" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="D178" t="s">
         <v>955</v>
@@ -12628,7 +12629,7 @@
         <v>228</v>
       </c>
       <c r="C179" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="D179" t="s">
         <v>958</v>
@@ -12651,7 +12652,7 @@
         <v>229</v>
       </c>
       <c r="C180" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="D180" t="s">
         <v>961</v>
@@ -12674,7 +12675,7 @@
         <v>230</v>
       </c>
       <c r="C181" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="D181" t="s">
         <v>964</v>
@@ -12697,7 +12698,7 @@
         <v>231</v>
       </c>
       <c r="C182" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="D182" t="s">
         <v>967</v>
@@ -12720,7 +12721,7 @@
         <v>232</v>
       </c>
       <c r="C183" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="D183" t="s">
         <v>970</v>
@@ -12743,7 +12744,7 @@
         <v>233</v>
       </c>
       <c r="C184" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="D184" t="s">
         <v>973</v>
@@ -12766,7 +12767,7 @@
         <v>234</v>
       </c>
       <c r="C185" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="D185" t="s">
         <v>976</v>
@@ -12789,7 +12790,7 @@
         <v>235</v>
       </c>
       <c r="C186" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="D186" t="s">
         <v>979</v>
@@ -12812,7 +12813,7 @@
         <v>236</v>
       </c>
       <c r="C187" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="D187" t="s">
         <v>982</v>
@@ -12835,7 +12836,7 @@
         <v>237</v>
       </c>
       <c r="C188" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="D188" t="s">
         <v>985</v>
@@ -12858,7 +12859,7 @@
         <v>238</v>
       </c>
       <c r="C189" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="D189" t="s">
         <v>988</v>
@@ -12881,7 +12882,7 @@
         <v>239</v>
       </c>
       <c r="C190" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="D190" t="s">
         <v>991</v>
@@ -12904,7 +12905,7 @@
         <v>240</v>
       </c>
       <c r="C191" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="D191" t="s">
         <v>994</v>
@@ -12927,7 +12928,7 @@
         <v>241</v>
       </c>
       <c r="C192" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="D192" t="s">
         <v>997</v>
@@ -12950,7 +12951,7 @@
         <v>242</v>
       </c>
       <c r="C193" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="D193" t="s">
         <v>1000</v>
@@ -12973,7 +12974,7 @@
         <v>243</v>
       </c>
       <c r="C194" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="D194" t="s">
         <v>1003</v>
@@ -12996,7 +12997,7 @@
         <v>244</v>
       </c>
       <c r="C195" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="D195" t="s">
         <v>1006</v>
@@ -13019,7 +13020,7 @@
         <v>245</v>
       </c>
       <c r="C196" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="D196" t="s">
         <v>1009</v>
@@ -13042,7 +13043,7 @@
         <v>246</v>
       </c>
       <c r="C197" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="D197" t="s">
         <v>1012</v>
@@ -13065,7 +13066,7 @@
         <v>247</v>
       </c>
       <c r="C198" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="D198" t="s">
         <v>1015</v>
@@ -13088,7 +13089,7 @@
         <v>248</v>
       </c>
       <c r="C199" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="D199" t="s">
         <v>1018</v>
@@ -13111,7 +13112,7 @@
         <v>249</v>
       </c>
       <c r="C200" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="D200" t="s">
         <v>1021</v>
@@ -13134,7 +13135,7 @@
         <v>250</v>
       </c>
       <c r="C201" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="D201" t="s">
         <v>1978</v>
@@ -13157,7 +13158,7 @@
         <v>251</v>
       </c>
       <c r="C202" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="D202" t="s">
         <v>1096</v>
@@ -13180,7 +13181,7 @@
         <v>252</v>
       </c>
       <c r="C203" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="D203" t="s">
         <v>1099</v>
@@ -13203,7 +13204,7 @@
         <v>253</v>
       </c>
       <c r="C204" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="D204" t="s">
         <v>1102</v>
@@ -13226,7 +13227,7 @@
         <v>254</v>
       </c>
       <c r="C205" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="D205" t="s">
         <v>1105</v>
@@ -13249,7 +13250,7 @@
         <v>255</v>
       </c>
       <c r="C206" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="D206" t="s">
         <v>1108</v>
@@ -13272,7 +13273,7 @@
         <v>256</v>
       </c>
       <c r="C207" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="D207" t="s">
         <v>1111</v>
@@ -13295,7 +13296,7 @@
         <v>257</v>
       </c>
       <c r="C208" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="D208" t="s">
         <v>1114</v>
@@ -13318,7 +13319,7 @@
         <v>258</v>
       </c>
       <c r="C209" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="D209" t="s">
         <v>1117</v>
@@ -13341,7 +13342,7 @@
         <v>259</v>
       </c>
       <c r="C210" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="D210" t="s">
         <v>1120</v>
@@ -13364,7 +13365,7 @@
         <v>260</v>
       </c>
       <c r="C211" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="D211" t="s">
         <v>1123</v>
@@ -13387,7 +13388,7 @@
         <v>261</v>
       </c>
       <c r="C212" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="D212" t="s">
         <v>1126</v>
@@ -13410,7 +13411,7 @@
         <v>262</v>
       </c>
       <c r="C213" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="D213" t="s">
         <v>1129</v>
@@ -13433,7 +13434,7 @@
         <v>263</v>
       </c>
       <c r="C214" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="D214" t="s">
         <v>1132</v>
@@ -13456,7 +13457,7 @@
         <v>1135</v>
       </c>
       <c r="C215" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="D215" t="s">
         <v>1136</v>
@@ -13479,7 +13480,7 @@
         <v>264</v>
       </c>
       <c r="C216" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="D216" t="s">
         <v>1139</v>
@@ -13502,7 +13503,7 @@
         <v>265</v>
       </c>
       <c r="C217" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="D217" t="s">
         <v>1142</v>
@@ -13525,7 +13526,7 @@
         <v>266</v>
       </c>
       <c r="C218" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="D218" t="s">
         <v>1145</v>
@@ -13548,7 +13549,7 @@
         <v>267</v>
       </c>
       <c r="C219" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="D219" t="s">
         <v>1148</v>
@@ -13571,7 +13572,7 @@
         <v>268</v>
       </c>
       <c r="C220" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="D220" t="s">
         <v>1151</v>
@@ -13594,7 +13595,7 @@
         <v>269</v>
       </c>
       <c r="C221" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="D221" t="s">
         <v>1154</v>
@@ -13640,7 +13641,7 @@
         <v>271</v>
       </c>
       <c r="C223" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="D223" t="s">
         <v>1160</v>
@@ -13663,7 +13664,7 @@
         <v>272</v>
       </c>
       <c r="C224" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="D224" t="s">
         <v>1163</v>
@@ -13686,7 +13687,7 @@
         <v>273</v>
       </c>
       <c r="C225" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="D225" t="s">
         <v>1166</v>
@@ -13709,7 +13710,7 @@
         <v>274</v>
       </c>
       <c r="C226" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="D226" t="s">
         <v>1169</v>
@@ -13732,7 +13733,7 @@
         <v>275</v>
       </c>
       <c r="C227" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="D227" t="s">
         <v>1172</v>
@@ -13755,7 +13756,7 @@
         <v>276</v>
       </c>
       <c r="C228" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="D228" t="s">
         <v>1175</v>
@@ -13801,7 +13802,7 @@
         <v>278</v>
       </c>
       <c r="C230" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="D230" t="s">
         <v>1181</v>
@@ -13824,7 +13825,7 @@
         <v>279</v>
       </c>
       <c r="C231" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="D231" t="s">
         <v>1184</v>
@@ -13847,7 +13848,7 @@
         <v>280</v>
       </c>
       <c r="C232" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="D232" t="s">
         <v>1187</v>
@@ -13870,7 +13871,7 @@
         <v>281</v>
       </c>
       <c r="C233" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="D233" t="s">
         <v>1190</v>
@@ -13893,7 +13894,7 @@
         <v>282</v>
       </c>
       <c r="C234" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="D234" t="s">
         <v>1193</v>
@@ -13916,7 +13917,7 @@
         <v>283</v>
       </c>
       <c r="C235" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="D235" t="s">
         <v>1196</v>
@@ -13939,7 +13940,7 @@
         <v>284</v>
       </c>
       <c r="C236" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="D236" t="s">
         <v>1199</v>
@@ -13962,7 +13963,7 @@
         <v>285</v>
       </c>
       <c r="C237" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="D237" t="s">
         <v>1202</v>
@@ -13985,7 +13986,7 @@
         <v>286</v>
       </c>
       <c r="C238" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D238" t="s">
         <v>1205</v>
@@ -14008,7 +14009,7 @@
         <v>287</v>
       </c>
       <c r="C239" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D239" t="s">
         <v>1208</v>
@@ -14031,7 +14032,7 @@
         <v>288</v>
       </c>
       <c r="C240" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="D240" t="s">
         <v>1211</v>
@@ -14054,7 +14055,7 @@
         <v>289</v>
       </c>
       <c r="C241" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="D241" t="s">
         <v>1214</v>
@@ -14077,7 +14078,7 @@
         <v>290</v>
       </c>
       <c r="C242" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="D242" t="s">
         <v>1217</v>
@@ -14100,7 +14101,7 @@
         <v>176</v>
       </c>
       <c r="C243" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="D243" t="s">
         <v>1220</v>
@@ -14123,7 +14124,7 @@
         <v>291</v>
       </c>
       <c r="C244" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="D244" t="s">
         <v>1223</v>
@@ -14146,7 +14147,7 @@
         <v>292</v>
       </c>
       <c r="C245" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="D245" t="s">
         <v>1226</v>
@@ -14169,7 +14170,7 @@
         <v>293</v>
       </c>
       <c r="C246" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="D246" t="s">
         <v>1229</v>
@@ -14192,7 +14193,7 @@
         <v>230</v>
       </c>
       <c r="C247" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="D247" t="s">
         <v>1232</v>
@@ -14215,7 +14216,7 @@
         <v>252</v>
       </c>
       <c r="C248" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="D248" t="s">
         <v>1235</v>
@@ -14238,7 +14239,7 @@
         <v>247</v>
       </c>
       <c r="C249" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="D249" t="s">
         <v>1238</v>
@@ -14261,7 +14262,7 @@
         <v>294</v>
       </c>
       <c r="C250" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="D250" t="s">
         <v>1241</v>
@@ -14284,7 +14285,7 @@
         <v>295</v>
       </c>
       <c r="C251" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="D251" t="s">
         <v>1244</v>
@@ -14307,7 +14308,7 @@
         <v>296</v>
       </c>
       <c r="C252" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="D252" t="s">
         <v>1247</v>
@@ -14330,7 +14331,7 @@
         <v>297</v>
       </c>
       <c r="C253" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="D253" t="s">
         <v>1250</v>
@@ -14353,7 +14354,7 @@
         <v>298</v>
       </c>
       <c r="C254" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="D254" t="s">
         <v>1253</v>
@@ -14376,7 +14377,7 @@
         <v>299</v>
       </c>
       <c r="C255" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="D255" t="s">
         <v>1256</v>
@@ -14399,7 +14400,7 @@
         <v>300</v>
       </c>
       <c r="C256" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="D256" t="s">
         <v>1259</v>
@@ -14422,7 +14423,7 @@
         <v>301</v>
       </c>
       <c r="C257" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="D257" t="s">
         <v>1262</v>
@@ -14445,7 +14446,7 @@
         <v>302</v>
       </c>
       <c r="C258" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="D258" t="s">
         <v>1265</v>
@@ -14468,7 +14469,7 @@
         <v>303</v>
       </c>
       <c r="C259" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="D259" t="s">
         <v>1268</v>
@@ -14491,7 +14492,7 @@
         <v>304</v>
       </c>
       <c r="C260" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="D260" t="s">
         <v>1271</v>
@@ -14514,7 +14515,7 @@
         <v>305</v>
       </c>
       <c r="C261" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="D261" t="s">
         <v>1274</v>
@@ -14537,7 +14538,7 @@
         <v>306</v>
       </c>
       <c r="C262" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="D262" t="s">
         <v>1277</v>
@@ -14560,7 +14561,7 @@
         <v>307</v>
       </c>
       <c r="C263" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="D263" t="s">
         <v>1280</v>
@@ -14583,7 +14584,7 @@
         <v>308</v>
       </c>
       <c r="C264" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="D264" t="s">
         <v>1283</v>
@@ -14606,7 +14607,7 @@
         <v>309</v>
       </c>
       <c r="C265" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="D265" t="s">
         <v>1286</v>
@@ -14629,7 +14630,7 @@
         <v>310</v>
       </c>
       <c r="C266" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="D266" t="s">
         <v>1289</v>
@@ -14652,7 +14653,7 @@
         <v>311</v>
       </c>
       <c r="C267" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="D267" t="s">
         <v>1292</v>
@@ -14675,7 +14676,7 @@
         <v>312</v>
       </c>
       <c r="C268" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="D268" t="s">
         <v>1295</v>
@@ -14698,7 +14699,7 @@
         <v>313</v>
       </c>
       <c r="C269" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="D269" t="s">
         <v>1298</v>
@@ -14721,7 +14722,7 @@
         <v>314</v>
       </c>
       <c r="C270" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="D270" t="s">
         <v>1301</v>
@@ -14744,7 +14745,7 @@
         <v>315</v>
       </c>
       <c r="C271" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="D271" t="s">
         <v>1304</v>
@@ -14767,7 +14768,7 @@
         <v>316</v>
       </c>
       <c r="C272" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="D272" t="s">
         <v>1307</v>
@@ -14790,7 +14791,7 @@
         <v>317</v>
       </c>
       <c r="C273" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="D273" t="s">
         <v>1310</v>
@@ -14813,7 +14814,7 @@
         <v>318</v>
       </c>
       <c r="C274" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="D274" t="s">
         <v>1313</v>
@@ -14836,7 +14837,7 @@
         <v>319</v>
       </c>
       <c r="C275" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="D275" t="s">
         <v>1316</v>
@@ -14859,7 +14860,7 @@
         <v>320</v>
       </c>
       <c r="C276" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="D276" t="s">
         <v>1319</v>
@@ -14882,7 +14883,7 @@
         <v>321</v>
       </c>
       <c r="C277" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="D277" t="s">
         <v>1322</v>
@@ -14905,7 +14906,7 @@
         <v>322</v>
       </c>
       <c r="C278" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="D278" t="s">
         <v>1325</v>
@@ -14928,7 +14929,7 @@
         <v>323</v>
       </c>
       <c r="C279" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D279" t="s">
         <v>1328</v>
@@ -14951,7 +14952,7 @@
         <v>324</v>
       </c>
       <c r="C280" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="D280" t="s">
         <v>1331</v>
@@ -14974,7 +14975,7 @@
         <v>325</v>
       </c>
       <c r="C281" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D281" t="s">
         <v>1334</v>
@@ -14997,7 +14998,7 @@
         <v>326</v>
       </c>
       <c r="C282" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="D282" t="s">
         <v>1337</v>
@@ -15020,7 +15021,7 @@
         <v>327</v>
       </c>
       <c r="C283" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="D283" t="s">
         <v>1340</v>
@@ -15043,7 +15044,7 @@
         <v>328</v>
       </c>
       <c r="C284" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D284" t="s">
         <v>1343</v>
@@ -15066,7 +15067,7 @@
         <v>329</v>
       </c>
       <c r="C285" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D285" t="s">
         <v>1346</v>
@@ -15112,7 +15113,7 @@
         <v>331</v>
       </c>
       <c r="C287" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="D287" t="s">
         <v>1352</v>
@@ -15135,7 +15136,7 @@
         <v>332</v>
       </c>
       <c r="C288" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="D288" t="s">
         <v>1355</v>
@@ -15158,7 +15159,7 @@
         <v>333</v>
       </c>
       <c r="C289" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="D289" t="s">
         <v>1358</v>
@@ -15181,7 +15182,7 @@
         <v>334</v>
       </c>
       <c r="C290" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="D290" t="s">
         <v>1361</v>
@@ -15204,7 +15205,7 @@
         <v>335</v>
       </c>
       <c r="C291" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="D291" t="s">
         <v>1364</v>
@@ -15227,7 +15228,7 @@
         <v>336</v>
       </c>
       <c r="C292" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="D292" t="s">
         <v>1367</v>
@@ -15250,7 +15251,7 @@
         <v>337</v>
       </c>
       <c r="C293" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D293" t="s">
         <v>1370</v>
@@ -15273,7 +15274,7 @@
         <v>338</v>
       </c>
       <c r="C294" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="D294" t="s">
         <v>1373</v>
@@ -15296,7 +15297,7 @@
         <v>339</v>
       </c>
       <c r="C295" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="D295" t="s">
         <v>1376</v>
@@ -15319,7 +15320,7 @@
         <v>340</v>
       </c>
       <c r="C296" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="D296" t="s">
         <v>1379</v>
@@ -15342,7 +15343,7 @@
         <v>341</v>
       </c>
       <c r="C297" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="D297" t="s">
         <v>1382</v>
@@ -15365,7 +15366,7 @@
         <v>342</v>
       </c>
       <c r="C298" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="D298" t="s">
         <v>1385</v>
@@ -15388,7 +15389,7 @@
         <v>343</v>
       </c>
       <c r="C299" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="D299" t="s">
         <v>1388</v>
@@ -15411,7 +15412,7 @@
         <v>344</v>
       </c>
       <c r="C300" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="D300" t="s">
         <v>1391</v>
@@ -15434,7 +15435,7 @@
         <v>345</v>
       </c>
       <c r="C301" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="D301" t="s">
         <v>1394</v>
@@ -15457,7 +15458,7 @@
         <v>346</v>
       </c>
       <c r="C302" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="D302" t="s">
         <v>1397</v>
@@ -15480,7 +15481,7 @@
         <v>347</v>
       </c>
       <c r="C303" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="D303" t="s">
         <v>1400</v>
@@ -15503,7 +15504,7 @@
         <v>348</v>
       </c>
       <c r="C304" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="D304" t="s">
         <v>1403</v>
@@ -15526,7 +15527,7 @@
         <v>349</v>
       </c>
       <c r="C305" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="D305" t="s">
         <v>1406</v>
@@ -15549,7 +15550,7 @@
         <v>350</v>
       </c>
       <c r="C306" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="D306" t="s">
         <v>1409</v>
@@ -15572,7 +15573,7 @@
         <v>351</v>
       </c>
       <c r="C307" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="D307" t="s">
         <v>1412</v>
@@ -15595,7 +15596,7 @@
         <v>352</v>
       </c>
       <c r="C308" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="D308" t="s">
         <v>1415</v>
@@ -15618,7 +15619,7 @@
         <v>353</v>
       </c>
       <c r="C309" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="D309" t="s">
         <v>1418</v>
@@ -15641,7 +15642,7 @@
         <v>354</v>
       </c>
       <c r="C310" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="D310" t="s">
         <v>1421</v>
@@ -15664,7 +15665,7 @@
         <v>355</v>
       </c>
       <c r="C311" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="D311" t="s">
         <v>1424</v>
@@ -15687,7 +15688,7 @@
         <v>356</v>
       </c>
       <c r="C312" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="D312" t="s">
         <v>1427</v>
@@ -15710,7 +15711,7 @@
         <v>357</v>
       </c>
       <c r="C313" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="D313" t="s">
         <v>1430</v>
@@ -15733,7 +15734,7 @@
         <v>358</v>
       </c>
       <c r="C314" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="D314" t="s">
         <v>1433</v>
@@ -15756,7 +15757,7 @@
         <v>359</v>
       </c>
       <c r="C315" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="D315" t="s">
         <v>1436</v>
@@ -15779,7 +15780,7 @@
         <v>360</v>
       </c>
       <c r="C316" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="D316" t="s">
         <v>1439</v>
@@ -15802,7 +15803,7 @@
         <v>361</v>
       </c>
       <c r="C317" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="D317" t="s">
         <v>1440</v>
@@ -15825,7 +15826,7 @@
         <v>362</v>
       </c>
       <c r="C318" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="D318" t="s">
         <v>1440</v>
@@ -15848,7 +15849,7 @@
         <v>318</v>
       </c>
       <c r="C319" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="D319" t="s">
         <v>1445</v>
@@ -15871,7 +15872,7 @@
         <v>363</v>
       </c>
       <c r="C320" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="D320" t="s">
         <v>1448</v>
@@ -15894,7 +15895,7 @@
         <v>364</v>
       </c>
       <c r="C321" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="D321" t="s">
         <v>1451</v>
@@ -15917,7 +15918,7 @@
         <v>365</v>
       </c>
       <c r="C322" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="D322" t="s">
         <v>1454</v>
@@ -15940,7 +15941,7 @@
         <v>366</v>
       </c>
       <c r="C323" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="D323" t="s">
         <v>1457</v>
@@ -15963,7 +15964,7 @@
         <v>367</v>
       </c>
       <c r="C324" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="D324" t="s">
         <v>1460</v>
@@ -15986,7 +15987,7 @@
         <v>368</v>
       </c>
       <c r="C325" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="D325" t="s">
         <v>1463</v>
@@ -16009,7 +16010,7 @@
         <v>369</v>
       </c>
       <c r="C326" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="D326" t="s">
         <v>1466</v>
@@ -16032,7 +16033,7 @@
         <v>370</v>
       </c>
       <c r="C327" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="D327" t="s">
         <v>1469</v>
@@ -16055,7 +16056,7 @@
         <v>371</v>
       </c>
       <c r="C328" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D328" t="s">
         <v>1472</v>
@@ -16078,7 +16079,7 @@
         <v>372</v>
       </c>
       <c r="C329" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="D329" t="s">
         <v>1475</v>
@@ -16101,7 +16102,7 @@
         <v>373</v>
       </c>
       <c r="C330" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="D330" t="s">
         <v>1478</v>
@@ -16124,7 +16125,7 @@
         <v>374</v>
       </c>
       <c r="C331" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="D331" t="s">
         <v>1481</v>
@@ -16147,7 +16148,7 @@
         <v>375</v>
       </c>
       <c r="C332" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="D332" t="s">
         <v>1484</v>
@@ -16170,7 +16171,7 @@
         <v>376</v>
       </c>
       <c r="C333" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="D333" t="s">
         <v>1487</v>
@@ -16193,7 +16194,7 @@
         <v>377</v>
       </c>
       <c r="C334" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="D334" t="s">
         <v>1490</v>
@@ -16216,7 +16217,7 @@
         <v>378</v>
       </c>
       <c r="C335" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="D335" t="s">
         <v>1493</v>
@@ -16239,7 +16240,7 @@
         <v>379</v>
       </c>
       <c r="C336" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="D336" t="s">
         <v>1496</v>
@@ -16262,7 +16263,7 @@
         <v>380</v>
       </c>
       <c r="C337" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="D337" t="s">
         <v>1499</v>
@@ -16285,7 +16286,7 @@
         <v>381</v>
       </c>
       <c r="C338" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="D338" t="s">
         <v>1502</v>
@@ -16308,7 +16309,7 @@
         <v>382</v>
       </c>
       <c r="C339" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="D339" t="s">
         <v>1505</v>
@@ -16331,7 +16332,7 @@
         <v>383</v>
       </c>
       <c r="C340" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="D340" t="s">
         <v>1508</v>
@@ -16354,7 +16355,7 @@
         <v>384</v>
       </c>
       <c r="C341" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="D341" t="s">
         <v>1511</v>
@@ -16377,7 +16378,7 @@
         <v>385</v>
       </c>
       <c r="C342" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="D342" t="s">
         <v>1514</v>
@@ -16400,7 +16401,7 @@
         <v>386</v>
       </c>
       <c r="C343" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="D343" t="s">
         <v>1517</v>
@@ -16423,7 +16424,7 @@
         <v>387</v>
       </c>
       <c r="C344" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="D344" t="s">
         <v>1520</v>
@@ -16446,7 +16447,7 @@
         <v>388</v>
       </c>
       <c r="C345" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="D345" t="s">
         <v>1523</v>
@@ -16469,7 +16470,7 @@
         <v>389</v>
       </c>
       <c r="C346" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="D346" t="s">
         <v>1526</v>
@@ -16492,7 +16493,7 @@
         <v>390</v>
       </c>
       <c r="C347" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="D347" t="s">
         <v>1529</v>
@@ -16515,7 +16516,7 @@
         <v>391</v>
       </c>
       <c r="C348" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="D348" t="s">
         <v>1391</v>
@@ -16538,7 +16539,7 @@
         <v>392</v>
       </c>
       <c r="C349" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="D349" t="s">
         <v>1532</v>
@@ -16561,7 +16562,7 @@
         <v>393</v>
       </c>
       <c r="C350" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="D350" t="s">
         <v>1535</v>
@@ -16584,7 +16585,7 @@
         <v>394</v>
       </c>
       <c r="C351" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="D351" t="s">
         <v>1538</v>
@@ -16607,7 +16608,7 @@
         <v>395</v>
       </c>
       <c r="C352" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="D352" t="s">
         <v>1541</v>
@@ -16630,7 +16631,7 @@
         <v>396</v>
       </c>
       <c r="C353" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="D353" t="s">
         <v>1544</v>
@@ -16653,7 +16654,7 @@
         <v>397</v>
       </c>
       <c r="C354" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="D354" t="s">
         <v>1547</v>
@@ -16676,7 +16677,7 @@
         <v>398</v>
       </c>
       <c r="C355" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="D355" t="s">
         <v>1550</v>
@@ -16699,7 +16700,7 @@
         <v>399</v>
       </c>
       <c r="C356" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="D356" t="s">
         <v>1553</v>
@@ -16722,7 +16723,7 @@
         <v>400</v>
       </c>
       <c r="C357" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="D357" t="s">
         <v>1556</v>
@@ -16745,7 +16746,7 @@
         <v>401</v>
       </c>
       <c r="C358" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="D358" t="s">
         <v>1559</v>
@@ -16791,7 +16792,7 @@
         <v>402</v>
       </c>
       <c r="C360" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="D360" t="s">
         <v>1565</v>
@@ -16837,7 +16838,7 @@
         <v>404</v>
       </c>
       <c r="C362" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="D362" t="s">
         <v>1571</v>
@@ -16860,7 +16861,7 @@
         <v>405</v>
       </c>
       <c r="C363" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="D363" t="s">
         <v>1574</v>
@@ -16883,7 +16884,7 @@
         <v>406</v>
       </c>
       <c r="C364" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="D364" t="s">
         <v>1577</v>
@@ -16906,7 +16907,7 @@
         <v>407</v>
       </c>
       <c r="C365" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="D365" t="s">
         <v>1580</v>
@@ -16929,7 +16930,7 @@
         <v>408</v>
       </c>
       <c r="C366" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="D366" t="s">
         <v>1583</v>
@@ -16952,7 +16953,7 @@
         <v>409</v>
       </c>
       <c r="C367" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="D367" t="s">
         <v>1586</v>
@@ -16975,7 +16976,7 @@
         <v>410</v>
       </c>
       <c r="C368" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="D368" t="s">
         <v>1589</v>
@@ -16998,7 +16999,7 @@
         <v>411</v>
       </c>
       <c r="C369" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="D369" t="s">
         <v>1592</v>
@@ -17021,7 +17022,7 @@
         <v>412</v>
       </c>
       <c r="C370" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="D370" t="s">
         <v>2</v>
@@ -17044,7 +17045,7 @@
         <v>413</v>
       </c>
       <c r="C371" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="D371" t="s">
         <v>1597</v>
@@ -17067,7 +17068,7 @@
         <v>414</v>
       </c>
       <c r="C372" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="D372" t="s">
         <v>1600</v>
@@ -17090,7 +17091,7 @@
         <v>415</v>
       </c>
       <c r="C373" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="D373" t="s">
         <v>1603</v>
@@ -17113,7 +17114,7 @@
         <v>417</v>
       </c>
       <c r="C374" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="D374" t="s">
         <v>1606</v>
@@ -17136,7 +17137,7 @@
         <v>416</v>
       </c>
       <c r="C375" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="D375" t="s">
         <v>1609</v>
@@ -17159,7 +17160,7 @@
         <v>418</v>
       </c>
       <c r="C376" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="D376" t="s">
         <v>1612</v>
@@ -17182,7 +17183,7 @@
         <v>419</v>
       </c>
       <c r="C377" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="D377" t="s">
         <v>1615</v>
@@ -17205,7 +17206,7 @@
         <v>420</v>
       </c>
       <c r="C378" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="D378" t="s">
         <v>1618</v>
@@ -17228,7 +17229,7 @@
         <v>421</v>
       </c>
       <c r="C379" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="D379" t="s">
         <v>1621</v>
@@ -17251,7 +17252,7 @@
         <v>422</v>
       </c>
       <c r="C380" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="D380" t="s">
         <v>1624</v>
@@ -17274,7 +17275,7 @@
         <v>423</v>
       </c>
       <c r="C381" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="D381" t="s">
         <v>1626</v>
@@ -17297,7 +17298,7 @@
         <v>424</v>
       </c>
       <c r="C382" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="D382" t="s">
         <v>1629</v>
@@ -17320,7 +17321,7 @@
         <v>425</v>
       </c>
       <c r="C383" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="D383" t="s">
         <v>1632</v>
@@ -17343,7 +17344,7 @@
         <v>426</v>
       </c>
       <c r="C384" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="D384" t="s">
         <v>1635</v>
@@ -17366,7 +17367,7 @@
         <v>427</v>
       </c>
       <c r="C385" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="D385" t="s">
         <v>1638</v>
@@ -17389,7 +17390,7 @@
         <v>428</v>
       </c>
       <c r="C386" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D386" t="s">
         <v>1641</v>
@@ -17412,7 +17413,7 @@
         <v>429</v>
       </c>
       <c r="C387" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D387" t="s">
         <v>1644</v>
@@ -17435,7 +17436,7 @@
         <v>430</v>
       </c>
       <c r="C388" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="D388" t="s">
         <v>1647</v>
@@ -17458,7 +17459,7 @@
         <v>431</v>
       </c>
       <c r="C389" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="D389" t="s">
         <v>1650</v>
@@ -17481,7 +17482,7 @@
         <v>432</v>
       </c>
       <c r="C390" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D390" t="s">
         <v>1653</v>
@@ -17504,7 +17505,7 @@
         <v>433</v>
       </c>
       <c r="C391" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="D391" t="s">
         <v>1656</v>
@@ -17527,7 +17528,7 @@
         <v>434</v>
       </c>
       <c r="C392" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="D392" t="s">
         <v>1659</v>
@@ -17550,7 +17551,7 @@
         <v>435</v>
       </c>
       <c r="C393" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="D393" t="s">
         <v>1662</v>
@@ -17573,7 +17574,7 @@
         <v>436</v>
       </c>
       <c r="C394" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D394" t="s">
         <v>1665</v>
@@ -17596,7 +17597,7 @@
         <v>437</v>
       </c>
       <c r="C395" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="D395" t="s">
         <v>1668</v>
@@ -17619,7 +17620,7 @@
         <v>438</v>
       </c>
       <c r="C396" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="D396" t="s">
         <v>1671</v>
@@ -17642,7 +17643,7 @@
         <v>439</v>
       </c>
       <c r="C397" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="D397" t="s">
         <v>1674</v>
@@ -17665,7 +17666,7 @@
         <v>440</v>
       </c>
       <c r="C398" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="D398" t="s">
         <v>1677</v>
@@ -17688,7 +17689,7 @@
         <v>375</v>
       </c>
       <c r="C399" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="D399" t="s">
         <v>1484</v>
@@ -17711,7 +17712,7 @@
         <v>441</v>
       </c>
       <c r="C400" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="D400" t="s">
         <v>1680</v>
@@ -17734,7 +17735,7 @@
         <v>442</v>
       </c>
       <c r="C401" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="D401" t="s">
         <v>1683</v>
@@ -17757,7 +17758,7 @@
         <v>443</v>
       </c>
       <c r="C402" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="D402" t="s">
         <v>1481</v>
@@ -17780,7 +17781,7 @@
         <v>444</v>
       </c>
       <c r="C403" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="D403" t="s">
         <v>1688</v>
@@ -17803,7 +17804,7 @@
         <v>445</v>
       </c>
       <c r="C404" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="D404" t="s">
         <v>1691</v>
@@ -17826,7 +17827,7 @@
         <v>446</v>
       </c>
       <c r="C405" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="D405" t="s">
         <v>1694</v>
@@ -17849,7 +17850,7 @@
         <v>447</v>
       </c>
       <c r="C406" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="D406" t="s">
         <v>1697</v>
@@ -17872,7 +17873,7 @@
         <v>448</v>
       </c>
       <c r="C407" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="D407" t="s">
         <v>1700</v>
@@ -17895,7 +17896,7 @@
         <v>449</v>
       </c>
       <c r="C408" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="D408" t="s">
         <v>1703</v>
@@ -17918,7 +17919,7 @@
         <v>450</v>
       </c>
       <c r="C409" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="D409" t="s">
         <v>1706</v>
@@ -17941,7 +17942,7 @@
         <v>451</v>
       </c>
       <c r="C410" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="D410" t="s">
         <v>1709</v>
@@ -17964,7 +17965,7 @@
         <v>452</v>
       </c>
       <c r="C411" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="D411" t="s">
         <v>1712</v>
@@ -17987,7 +17988,7 @@
         <v>453</v>
       </c>
       <c r="C412" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D412" t="s">
         <v>1715</v>
@@ -18010,7 +18011,7 @@
         <v>454</v>
       </c>
       <c r="C413" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="D413" t="s">
         <v>1718</v>
@@ -18033,7 +18034,7 @@
         <v>455</v>
       </c>
       <c r="C414" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="D414" t="s">
         <v>1721</v>
@@ -18056,7 +18057,7 @@
         <v>456</v>
       </c>
       <c r="C415" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="D415" t="s">
         <v>1724</v>
@@ -18079,7 +18080,7 @@
         <v>457</v>
       </c>
       <c r="C416" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="D416" t="s">
         <v>1727</v>
@@ -18102,7 +18103,7 @@
         <v>458</v>
       </c>
       <c r="C417" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="D417" t="s">
         <v>1730</v>
@@ -18125,7 +18126,7 @@
         <v>459</v>
       </c>
       <c r="C418" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D418" t="s">
         <v>1733</v>
@@ -18148,7 +18149,7 @@
         <v>460</v>
       </c>
       <c r="C419" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="D419" t="s">
         <v>1736</v>
@@ -18171,7 +18172,7 @@
         <v>247</v>
       </c>
       <c r="C420" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="D420" t="s">
         <v>1739</v>
@@ -18194,7 +18195,7 @@
         <v>461</v>
       </c>
       <c r="C421" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="D421" t="s">
         <v>1742</v>
@@ -18217,7 +18218,7 @@
         <v>462</v>
       </c>
       <c r="C422" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="D422" t="s">
         <v>1745</v>
@@ -18240,7 +18241,7 @@
         <v>463</v>
       </c>
       <c r="C423" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="D423" t="s">
         <v>1748</v>
@@ -18263,7 +18264,7 @@
         <v>464</v>
       </c>
       <c r="C424" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="D424" t="s">
         <v>1751</v>
@@ -18286,7 +18287,7 @@
         <v>465</v>
       </c>
       <c r="C425" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="D425" t="s">
         <v>1754</v>
@@ -18309,7 +18310,7 @@
         <v>466</v>
       </c>
       <c r="C426" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="D426" t="s">
         <v>1757</v>
@@ -18332,7 +18333,7 @@
         <v>467</v>
       </c>
       <c r="C427" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="D427" t="s">
         <v>1760</v>
@@ -18355,7 +18356,7 @@
         <v>468</v>
       </c>
       <c r="C428" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="D428" t="s">
         <v>1763</v>
@@ -18378,7 +18379,7 @@
         <v>469</v>
       </c>
       <c r="C429" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="D429" t="s">
         <v>1766</v>
@@ -18401,7 +18402,7 @@
         <v>470</v>
       </c>
       <c r="C430" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="D430" t="s">
         <v>1769</v>
@@ -18424,7 +18425,7 @@
         <v>471</v>
       </c>
       <c r="C431" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="D431" t="s">
         <v>1772</v>
@@ -18447,7 +18448,7 @@
         <v>472</v>
       </c>
       <c r="C432" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="D432" t="s">
         <v>1775</v>
@@ -18470,7 +18471,7 @@
         <v>473</v>
       </c>
       <c r="C433" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D433" t="s">
         <v>1778</v>
@@ -18493,7 +18494,7 @@
         <v>474</v>
       </c>
       <c r="C434" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="D434" t="s">
         <v>1781</v>
@@ -18516,7 +18517,7 @@
         <v>475</v>
       </c>
       <c r="C435" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="D435" t="s">
         <v>1784</v>
@@ -18539,7 +18540,7 @@
         <v>476</v>
       </c>
       <c r="C436" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="D436" t="s">
         <v>1787</v>
@@ -18562,7 +18563,7 @@
         <v>477</v>
       </c>
       <c r="C437" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="D437" t="s">
         <v>1790</v>
@@ -18585,7 +18586,7 @@
         <v>478</v>
       </c>
       <c r="C438" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="D438" t="s">
         <v>1793</v>
@@ -18608,7 +18609,7 @@
         <v>479</v>
       </c>
       <c r="C439" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="D439" t="s">
         <v>1796</v>
@@ -18631,7 +18632,7 @@
         <v>480</v>
       </c>
       <c r="C440" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D440" t="s">
         <v>1799</v>
@@ -18654,7 +18655,7 @@
         <v>481</v>
       </c>
       <c r="C441" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="D441" t="s">
         <v>1802</v>
@@ -18677,7 +18678,7 @@
         <v>482</v>
       </c>
       <c r="C442" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="D442" t="s">
         <v>1805</v>
@@ -18700,7 +18701,7 @@
         <v>483</v>
       </c>
       <c r="C443" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="D443" t="s">
         <v>1808</v>
@@ -18723,7 +18724,7 @@
         <v>484</v>
       </c>
       <c r="C444" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="D444" t="s">
         <v>1811</v>
@@ -18746,7 +18747,7 @@
         <v>485</v>
       </c>
       <c r="C445" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="D445" t="s">
         <v>1814</v>
@@ -18769,7 +18770,7 @@
         <v>486</v>
       </c>
       <c r="C446" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="D446" t="s">
         <v>1817</v>
@@ -18792,7 +18793,7 @@
         <v>487</v>
       </c>
       <c r="C447" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="D447" t="s">
         <v>1820</v>
@@ -18815,7 +18816,7 @@
         <v>488</v>
       </c>
       <c r="C448" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="D448" t="s">
         <v>1823</v>
@@ -18838,7 +18839,7 @@
         <v>489</v>
       </c>
       <c r="C449" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="D449" t="s">
         <v>1826</v>
@@ -18861,7 +18862,7 @@
         <v>490</v>
       </c>
       <c r="C450" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="D450" t="s">
         <v>1827</v>
@@ -18884,7 +18885,7 @@
         <v>491</v>
       </c>
       <c r="C451" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="D451" t="s">
         <v>1828</v>
@@ -18907,7 +18908,7 @@
         <v>492</v>
       </c>
       <c r="C452" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="D452" t="s">
         <v>1831</v>
@@ -18930,7 +18931,7 @@
         <v>493</v>
       </c>
       <c r="C453" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="D453" t="s">
         <v>1834</v>
@@ -18953,7 +18954,7 @@
         <v>494</v>
       </c>
       <c r="C454" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="D454" t="s">
         <v>1836</v>
@@ -18976,7 +18977,7 @@
         <v>495</v>
       </c>
       <c r="C455" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="D455" t="s">
         <v>1839</v>
@@ -18999,7 +19000,7 @@
         <v>496</v>
       </c>
       <c r="C456" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="D456" t="s">
         <v>1994</v>
@@ -19045,7 +19046,7 @@
         <v>498</v>
       </c>
       <c r="C458" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="D458" t="s">
         <v>1995</v>
@@ -19068,7 +19069,7 @@
         <v>499</v>
       </c>
       <c r="C459" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="D459" t="s">
         <v>1996</v>
@@ -19091,7 +19092,7 @@
         <v>500</v>
       </c>
       <c r="C460" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="D460" t="s">
         <v>1851</v>
@@ -19114,7 +19115,7 @@
         <v>501</v>
       </c>
       <c r="C461" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="D461" t="s">
         <v>1854</v>
@@ -19137,7 +19138,7 @@
         <v>502</v>
       </c>
       <c r="C462" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="D462" t="s">
         <v>1857</v>
@@ -19160,7 +19161,7 @@
         <v>503</v>
       </c>
       <c r="C463" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="D463" t="s">
         <v>1860</v>
@@ -19183,7 +19184,7 @@
         <v>504</v>
       </c>
       <c r="C464" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="D464" t="s">
         <v>1863</v>
@@ -19206,7 +19207,7 @@
         <v>505</v>
       </c>
       <c r="C465" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="D465" t="s">
         <v>1866</v>
@@ -19229,7 +19230,7 @@
         <v>506</v>
       </c>
       <c r="C466" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="D466" t="s">
         <v>1869</v>
@@ -19252,7 +19253,7 @@
         <v>507</v>
       </c>
       <c r="C467" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="D467" t="s">
         <v>1872</v>
@@ -19275,7 +19276,7 @@
         <v>508</v>
       </c>
       <c r="C468" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="D468" t="s">
         <v>1875</v>
@@ -19298,7 +19299,7 @@
         <v>509</v>
       </c>
       <c r="C469" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="D469" t="s">
         <v>1878</v>
@@ -19321,7 +19322,7 @@
         <v>510</v>
       </c>
       <c r="C470" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="D470" t="s">
         <v>1881</v>
@@ -19344,7 +19345,7 @@
         <v>511</v>
       </c>
       <c r="C471" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D471" t="s">
         <v>1884</v>
@@ -19367,7 +19368,7 @@
         <v>512</v>
       </c>
       <c r="C472" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="D472" t="s">
         <v>1887</v>
@@ -19390,7 +19391,7 @@
         <v>513</v>
       </c>
       <c r="C473" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="D473" t="s">
         <v>1475</v>
@@ -19413,7 +19414,7 @@
         <v>514</v>
       </c>
       <c r="C474" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="D474" t="s">
         <v>1892</v>
@@ -19436,7 +19437,7 @@
         <v>515</v>
       </c>
       <c r="C475" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="D475" t="s">
         <v>1894</v>
@@ -19459,7 +19460,7 @@
         <v>516</v>
       </c>
       <c r="C476" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D476" t="s">
         <v>1897</v>
@@ -19482,7 +19483,7 @@
         <v>517</v>
       </c>
       <c r="C477" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="D477" t="s">
         <v>1898</v>
@@ -19505,7 +19506,7 @@
         <v>518</v>
       </c>
       <c r="C478" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D478" t="s">
         <v>1901</v>
@@ -19528,7 +19529,7 @@
         <v>519</v>
       </c>
       <c r="C479" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="D479" t="s">
         <v>1987</v>
@@ -19551,7 +19552,7 @@
         <v>520</v>
       </c>
       <c r="C480" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="D480" t="s">
         <v>1906</v>
@@ -19574,7 +19575,7 @@
         <v>521</v>
       </c>
       <c r="C481" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="D481" t="s">
         <v>1909</v>
@@ -19597,7 +19598,7 @@
         <v>522</v>
       </c>
       <c r="C482" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="D482" t="s">
         <v>1912</v>
@@ -19620,7 +19621,7 @@
         <v>400</v>
       </c>
       <c r="C483" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="D483" t="s">
         <v>1915</v>
@@ -19643,7 +19644,7 @@
         <v>523</v>
       </c>
       <c r="C484" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="D484" t="s">
         <v>1918</v>
@@ -19666,7 +19667,7 @@
         <v>524</v>
       </c>
       <c r="C485" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D485" t="s">
         <v>1921</v>
@@ -19689,7 +19690,7 @@
         <v>525</v>
       </c>
       <c r="C486" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D486" t="s">
         <v>1924</v>
@@ -19712,7 +19713,7 @@
         <v>526</v>
       </c>
       <c r="C487" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D487" t="s">
         <v>1927</v>
@@ -19735,7 +19736,7 @@
         <v>527</v>
       </c>
       <c r="C488" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D488" t="s">
         <v>1930</v>
@@ -19758,7 +19759,7 @@
         <v>528</v>
       </c>
       <c r="C489" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="D489" t="s">
         <v>1933</v>
@@ -19781,7 +19782,7 @@
         <v>529</v>
       </c>
       <c r="C490" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="D490" t="s">
         <v>1936</v>
@@ -19804,7 +19805,7 @@
         <v>530</v>
       </c>
       <c r="C491" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="D491" t="s">
         <v>1939</v>
@@ -19827,7 +19828,7 @@
         <v>531</v>
       </c>
       <c r="C492" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="D492" t="s">
         <v>1942</v>
@@ -19850,7 +19851,7 @@
         <v>532</v>
       </c>
       <c r="C493" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="D493" t="s">
         <v>1945</v>
@@ -19873,7 +19874,7 @@
         <v>533</v>
       </c>
       <c r="C494" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="D494" t="s">
         <v>1948</v>
@@ -19896,7 +19897,7 @@
         <v>534</v>
       </c>
       <c r="C495" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="D495" t="s">
         <v>1951</v>
@@ -19919,7 +19920,7 @@
         <v>519</v>
       </c>
       <c r="C496" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="D496" t="s">
         <v>1988</v>
@@ -19942,7 +19943,7 @@
         <v>535</v>
       </c>
       <c r="C497" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="D497" t="s">
         <v>1954</v>
@@ -19965,7 +19966,7 @@
         <v>536</v>
       </c>
       <c r="C498" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="D498" t="s">
         <v>1957</v>
@@ -19988,7 +19989,7 @@
         <v>537</v>
       </c>
       <c r="C499" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="D499" t="s">
         <v>1960</v>
@@ -20011,7 +20012,7 @@
         <v>525</v>
       </c>
       <c r="C500" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D500" t="s">
         <v>1924</v>
@@ -20034,7 +20035,7 @@
         <v>538</v>
       </c>
       <c r="C501" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="D501" t="s">
         <v>1963</v>
@@ -20057,7 +20058,7 @@
         <v>539</v>
       </c>
       <c r="C502" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="D502" t="s">
         <v>1966</v>
@@ -20103,7 +20104,7 @@
         <v>541</v>
       </c>
       <c r="C504" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="D504" t="s">
         <v>1972</v>
@@ -20126,7 +20127,7 @@
         <v>542</v>
       </c>
       <c r="C505" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="D505" t="s">
         <v>1975</v>
@@ -20146,22 +20147,22 @@
         <v>505</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="C507" s="2" t="s">
+        <v>2498</v>
+      </c>
+      <c r="D507" s="2" t="s">
         <v>2499</v>
       </c>
-      <c r="D507" s="2" t="s">
+      <c r="E507" s="2" t="s">
+        <v>2572</v>
+      </c>
+      <c r="F507" s="2" t="s">
         <v>2500</v>
       </c>
-      <c r="E507" s="2" t="s">
-        <v>2573</v>
-      </c>
-      <c r="F507" s="2" t="s">
+      <c r="G507" s="2" t="s">
         <v>2501</v>
-      </c>
-      <c r="G507" s="2" t="s">
-        <v>2502</v>
       </c>
     </row>
     <row r="508" spans="1:7">
@@ -20169,22 +20170,22 @@
         <v>506</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="C508" s="2" t="s">
+        <v>2502</v>
+      </c>
+      <c r="D508" s="2" t="s">
         <v>2503</v>
       </c>
-      <c r="D508" s="2" t="s">
+      <c r="E508" s="2" t="s">
+        <v>2573</v>
+      </c>
+      <c r="F508" s="2" t="s">
         <v>2504</v>
       </c>
-      <c r="E508" s="2" t="s">
-        <v>2574</v>
-      </c>
-      <c r="F508" s="2" t="s">
+      <c r="G508" s="2" t="s">
         <v>2505</v>
-      </c>
-      <c r="G508" s="2" t="s">
-        <v>2506</v>
       </c>
     </row>
     <row r="509" spans="1:7">
@@ -20192,22 +20193,22 @@
         <v>507</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="C509" s="2" t="s">
+        <v>2506</v>
+      </c>
+      <c r="D509" s="2" t="s">
         <v>2507</v>
       </c>
-      <c r="D509" s="2" t="s">
+      <c r="E509" s="2" t="s">
+        <v>2573</v>
+      </c>
+      <c r="F509" s="2" t="s">
         <v>2508</v>
       </c>
-      <c r="E509" s="2" t="s">
-        <v>2574</v>
-      </c>
-      <c r="F509" s="2" t="s">
+      <c r="G509" s="2" t="s">
         <v>2509</v>
-      </c>
-      <c r="G509" s="2" t="s">
-        <v>2510</v>
       </c>
     </row>
     <row r="510" spans="1:7">
@@ -20215,22 +20216,22 @@
         <v>508</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="C510" s="2" t="s">
+        <v>2510</v>
+      </c>
+      <c r="D510" s="2" t="s">
         <v>2511</v>
       </c>
-      <c r="D510" s="2" t="s">
+      <c r="E510" s="2" t="s">
+        <v>2572</v>
+      </c>
+      <c r="F510" s="2" t="s">
         <v>2512</v>
       </c>
-      <c r="E510" s="2" t="s">
-        <v>2573</v>
-      </c>
-      <c r="F510" s="2" t="s">
+      <c r="G510" s="2" t="s">
         <v>2513</v>
-      </c>
-      <c r="G510" s="2" t="s">
-        <v>2514</v>
       </c>
     </row>
     <row r="511" spans="1:7">
@@ -20238,22 +20239,22 @@
         <v>509</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="D511" s="2" t="s">
         <v>576</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="F511" s="2" t="s">
+        <v>2515</v>
+      </c>
+      <c r="G511" s="2" t="s">
         <v>2516</v>
-      </c>
-      <c r="G511" s="2" t="s">
-        <v>2517</v>
       </c>
     </row>
     <row r="512" spans="1:7">
@@ -20261,22 +20262,22 @@
         <v>510</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="C512" s="2" t="s">
+        <v>2517</v>
+      </c>
+      <c r="D512" s="2" t="s">
         <v>2518</v>
       </c>
-      <c r="D512" s="2" t="s">
+      <c r="E512" s="2" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F512" s="2" t="s">
         <v>2519</v>
       </c>
-      <c r="E512" s="2" t="s">
-        <v>2576</v>
-      </c>
-      <c r="F512" s="2" t="s">
+      <c r="G512" s="2" t="s">
         <v>2520</v>
-      </c>
-      <c r="G512" s="2" t="s">
-        <v>2521</v>
       </c>
     </row>
     <row r="513" spans="1:7">
@@ -20284,22 +20285,22 @@
         <v>511</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="C513" s="2" t="s">
+        <v>2521</v>
+      </c>
+      <c r="D513" s="2" t="s">
         <v>2522</v>
       </c>
-      <c r="D513" s="2" t="s">
+      <c r="E513" s="2" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F513" s="2" t="s">
         <v>2523</v>
       </c>
-      <c r="E513" s="2" t="s">
-        <v>2576</v>
-      </c>
-      <c r="F513" s="2" t="s">
+      <c r="G513" s="2" t="s">
         <v>2524</v>
-      </c>
-      <c r="G513" s="2" t="s">
-        <v>2525</v>
       </c>
     </row>
     <row r="514" spans="1:7">
@@ -20307,22 +20308,22 @@
         <v>512</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="C514" s="2" t="s">
+        <v>2525</v>
+      </c>
+      <c r="D514" s="2" t="s">
         <v>2526</v>
       </c>
-      <c r="D514" s="2" t="s">
+      <c r="E514" s="2" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F514" s="2" t="s">
         <v>2527</v>
       </c>
-      <c r="E514" s="2" t="s">
-        <v>2576</v>
-      </c>
-      <c r="F514" s="2" t="s">
+      <c r="G514" s="2" t="s">
         <v>2528</v>
-      </c>
-      <c r="G514" s="2" t="s">
-        <v>2529</v>
       </c>
     </row>
     <row r="515" spans="1:7">
@@ -20330,22 +20331,22 @@
         <v>513</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="D515" s="2" t="s">
+        <v>2529</v>
+      </c>
+      <c r="E515" s="2" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F515" s="2" t="s">
         <v>2530</v>
       </c>
-      <c r="E515" s="2" t="s">
-        <v>2576</v>
-      </c>
-      <c r="F515" s="2" t="s">
-        <v>2531</v>
-      </c>
       <c r="G515" s="2" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="516" spans="1:7">
@@ -20353,22 +20354,22 @@
         <v>514</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="D516" s="2" t="s">
+        <v>2531</v>
+      </c>
+      <c r="E516" s="2" t="s">
+        <v>2572</v>
+      </c>
+      <c r="F516" s="2" t="s">
         <v>2532</v>
       </c>
-      <c r="E516" s="2" t="s">
-        <v>2573</v>
-      </c>
-      <c r="F516" s="2" t="s">
+      <c r="G516" s="2" t="s">
         <v>2533</v>
-      </c>
-      <c r="G516" s="2" t="s">
-        <v>2534</v>
       </c>
     </row>
     <row r="517" spans="1:7">
@@ -20376,22 +20377,22 @@
         <v>515</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="C517" s="2" t="s">
+        <v>2534</v>
+      </c>
+      <c r="D517" s="2" t="s">
         <v>2535</v>
       </c>
-      <c r="D517" s="2" t="s">
+      <c r="E517" s="2" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F517" s="2" t="s">
         <v>2536</v>
       </c>
-      <c r="E517" s="2" t="s">
-        <v>2576</v>
-      </c>
-      <c r="F517" s="2" t="s">
+      <c r="G517" s="2" t="s">
         <v>2537</v>
-      </c>
-      <c r="G517" s="2" t="s">
-        <v>2538</v>
       </c>
     </row>
     <row r="518" spans="1:7">
@@ -20399,22 +20400,22 @@
         <v>516</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="C518" s="2" t="s">
+        <v>2538</v>
+      </c>
+      <c r="D518" s="2" t="s">
         <v>2539</v>
       </c>
-      <c r="D518" s="2" t="s">
+      <c r="E518" s="2" t="s">
+        <v>2573</v>
+      </c>
+      <c r="F518" s="2" t="s">
         <v>2540</v>
       </c>
-      <c r="E518" s="2" t="s">
-        <v>2574</v>
-      </c>
-      <c r="F518" s="2" t="s">
+      <c r="G518" s="2" t="s">
         <v>2541</v>
-      </c>
-      <c r="G518" s="2" t="s">
-        <v>2542</v>
       </c>
     </row>
     <row r="519" spans="1:7">
@@ -20422,22 +20423,22 @@
         <v>517</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="C519" s="2" t="s">
+        <v>2542</v>
+      </c>
+      <c r="D519" s="2" t="s">
         <v>2543</v>
       </c>
-      <c r="D519" s="2" t="s">
+      <c r="E519" s="2" t="s">
+        <v>2576</v>
+      </c>
+      <c r="F519" s="2" t="s">
         <v>2544</v>
       </c>
-      <c r="E519" s="2" t="s">
-        <v>2577</v>
-      </c>
-      <c r="F519" s="2" t="s">
+      <c r="G519" s="2" t="s">
         <v>2545</v>
-      </c>
-      <c r="G519" s="2" t="s">
-        <v>2546</v>
       </c>
     </row>
     <row r="520" spans="1:7">
@@ -20445,22 +20446,22 @@
         <v>518</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="C520" s="2" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D520" s="2" t="s">
         <v>2547</v>
       </c>
-      <c r="D520" s="2" t="s">
+      <c r="E520" s="2" t="s">
+        <v>2577</v>
+      </c>
+      <c r="F520" s="2" t="s">
         <v>2548</v>
       </c>
-      <c r="E520" s="2" t="s">
-        <v>2578</v>
-      </c>
-      <c r="F520" s="2" t="s">
+      <c r="G520" s="2" t="s">
         <v>2549</v>
-      </c>
-      <c r="G520" s="2" t="s">
-        <v>2550</v>
       </c>
     </row>
     <row r="521" spans="1:7">
@@ -20468,22 +20469,22 @@
         <v>519</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="C521" s="2" t="s">
+        <v>2550</v>
+      </c>
+      <c r="D521" s="2" t="s">
         <v>2551</v>
       </c>
-      <c r="D521" s="2" t="s">
+      <c r="E521" s="2" t="s">
+        <v>2573</v>
+      </c>
+      <c r="F521" s="2" t="s">
         <v>2552</v>
       </c>
-      <c r="E521" s="2" t="s">
-        <v>2574</v>
-      </c>
-      <c r="F521" s="2" t="s">
+      <c r="G521" s="2" t="s">
         <v>2553</v>
-      </c>
-      <c r="G521" s="2" t="s">
-        <v>2554</v>
       </c>
     </row>
     <row r="522" spans="1:7">
@@ -20491,22 +20492,22 @@
         <v>520</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="C522" s="2" t="s">
+        <v>2554</v>
+      </c>
+      <c r="D522" s="2" t="s">
         <v>2555</v>
       </c>
-      <c r="D522" s="2" t="s">
+      <c r="E522" s="2" t="s">
+        <v>2572</v>
+      </c>
+      <c r="F522" s="2" t="s">
         <v>2556</v>
       </c>
-      <c r="E522" s="2" t="s">
-        <v>2573</v>
-      </c>
-      <c r="F522" s="2" t="s">
+      <c r="G522" s="2" t="s">
         <v>2557</v>
-      </c>
-      <c r="G522" s="2" t="s">
-        <v>2558</v>
       </c>
     </row>
     <row r="523" spans="1:7">
@@ -20514,22 +20515,22 @@
         <v>521</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="C523" s="2" t="s">
+        <v>2558</v>
+      </c>
+      <c r="D523" s="2" t="s">
         <v>2559</v>
       </c>
-      <c r="D523" s="2" t="s">
+      <c r="E523" s="2" t="s">
+        <v>2577</v>
+      </c>
+      <c r="F523" s="2" t="s">
         <v>2560</v>
       </c>
-      <c r="E523" s="2" t="s">
-        <v>2578</v>
-      </c>
-      <c r="F523" s="2" t="s">
+      <c r="G523" s="2" t="s">
         <v>2561</v>
-      </c>
-      <c r="G523" s="2" t="s">
-        <v>2562</v>
       </c>
     </row>
     <row r="524" spans="1:7">
@@ -20537,22 +20538,22 @@
         <v>522</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="C524" s="2" t="s">
+        <v>2562</v>
+      </c>
+      <c r="D524" s="2" t="s">
         <v>2563</v>
       </c>
-      <c r="D524" s="2" t="s">
+      <c r="E524" s="2" t="s">
+        <v>2574</v>
+      </c>
+      <c r="F524" s="2" t="s">
         <v>2564</v>
       </c>
-      <c r="E524" s="2" t="s">
-        <v>2575</v>
-      </c>
-      <c r="F524" s="2" t="s">
+      <c r="G524" s="2" t="s">
         <v>2565</v>
-      </c>
-      <c r="G524" s="2" t="s">
-        <v>2566</v>
       </c>
     </row>
     <row r="525" spans="1:7">
@@ -20560,22 +20561,22 @@
         <v>523</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="C525" s="2" t="s">
+        <v>2566</v>
+      </c>
+      <c r="D525" s="2" t="s">
         <v>2567</v>
       </c>
-      <c r="D525" s="2" t="s">
+      <c r="E525" s="2" t="s">
+        <v>2574</v>
+      </c>
+      <c r="F525" s="2" t="s">
         <v>2568</v>
       </c>
-      <c r="E525" s="2" t="s">
-        <v>2575</v>
-      </c>
-      <c r="F525" s="2" t="s">
+      <c r="G525" s="2" t="s">
         <v>2569</v>
-      </c>
-      <c r="G525" s="2" t="s">
-        <v>2570</v>
       </c>
     </row>
     <row r="526" spans="1:7">
@@ -20583,22 +20584,22 @@
         <v>524</v>
       </c>
       <c r="B526" s="2" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C526" s="2" t="s">
         <v>2579</v>
       </c>
-      <c r="C526" s="2" t="s">
+      <c r="D526" s="2" t="s">
         <v>2580</v>
       </c>
-      <c r="D526" s="2" t="s">
+      <c r="E526" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F526" s="2" t="s">
         <v>2581</v>
       </c>
-      <c r="E526" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F526" s="2" t="s">
+      <c r="G526" s="2" t="s">
         <v>2582</v>
-      </c>
-      <c r="G526" s="2" t="s">
-        <v>2583</v>
       </c>
     </row>
     <row r="527" spans="1:7">
@@ -20609,22 +20610,22 @@
         <v>525</v>
       </c>
       <c r="B528" s="2" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C528" s="2" t="s">
         <v>2589</v>
       </c>
-      <c r="C528" s="2" t="s">
+      <c r="D528" s="2" t="s">
         <v>2590</v>
       </c>
-      <c r="D528" s="2" t="s">
+      <c r="E528" s="2" t="s">
         <v>2591</v>
       </c>
-      <c r="E528" s="2" t="s">
+      <c r="F528" s="2" t="s">
         <v>2592</v>
       </c>
-      <c r="F528" s="2" t="s">
+      <c r="G528" s="2" t="s">
         <v>2593</v>
-      </c>
-      <c r="G528" s="2" t="s">
-        <v>2594</v>
       </c>
     </row>
     <row r="529" spans="1:7">
@@ -20632,22 +20633,22 @@
         <v>526</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="C529" s="2" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D529" s="2" t="s">
         <v>2595</v>
       </c>
-      <c r="D529" s="2" t="s">
+      <c r="E529" s="2" t="s">
+        <v>2658</v>
+      </c>
+      <c r="F529" s="2" t="s">
         <v>2596</v>
       </c>
-      <c r="E529" s="2" t="s">
-        <v>2659</v>
-      </c>
-      <c r="F529" s="2" t="s">
+      <c r="G529" s="2" t="s">
         <v>2597</v>
-      </c>
-      <c r="G529" s="2" t="s">
-        <v>2598</v>
       </c>
     </row>
     <row r="530" spans="1:7">
@@ -20655,22 +20656,22 @@
         <v>527</v>
       </c>
       <c r="B530" s="2" t="s">
+        <v>2598</v>
+      </c>
+      <c r="C530" s="2" t="s">
         <v>2599</v>
       </c>
-      <c r="C530" s="2" t="s">
+      <c r="D530" s="2" t="s">
         <v>2600</v>
       </c>
-      <c r="D530" s="2" t="s">
+      <c r="E530" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F530" s="2" t="s">
         <v>2601</v>
       </c>
-      <c r="E530" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F530" s="2" t="s">
+      <c r="G530" s="2" t="s">
         <v>2602</v>
-      </c>
-      <c r="G530" s="2" t="s">
-        <v>2603</v>
       </c>
     </row>
     <row r="531" spans="1:7">
@@ -20678,22 +20679,22 @@
         <v>528</v>
       </c>
       <c r="B531" s="2" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C531" s="2" t="s">
         <v>2604</v>
       </c>
-      <c r="C531" s="2" t="s">
+      <c r="D531" s="2" t="s">
         <v>2605</v>
       </c>
-      <c r="D531" s="2" t="s">
+      <c r="E531" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F531" s="2" t="s">
         <v>2606</v>
       </c>
-      <c r="E531" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F531" s="2" t="s">
+      <c r="G531" s="2" t="s">
         <v>2607</v>
-      </c>
-      <c r="G531" s="2" t="s">
-        <v>2608</v>
       </c>
     </row>
     <row r="532" spans="1:7">
@@ -20701,22 +20702,22 @@
         <v>529</v>
       </c>
       <c r="B532" s="2" t="s">
+        <v>2608</v>
+      </c>
+      <c r="C532" s="2" t="s">
         <v>2609</v>
       </c>
-      <c r="C532" s="2" t="s">
+      <c r="D532" s="2" t="s">
         <v>2610</v>
       </c>
-      <c r="D532" s="2" t="s">
+      <c r="E532" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F532" s="2" t="s">
         <v>2611</v>
       </c>
-      <c r="E532" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F532" s="2" t="s">
+      <c r="G532" s="2" t="s">
         <v>2612</v>
-      </c>
-      <c r="G532" s="2" t="s">
-        <v>2613</v>
       </c>
     </row>
     <row r="533" spans="1:7">
@@ -20724,22 +20725,22 @@
         <v>530</v>
       </c>
       <c r="B533" s="2" t="s">
+        <v>2613</v>
+      </c>
+      <c r="C533" s="2" t="s">
         <v>2614</v>
       </c>
-      <c r="C533" s="2" t="s">
+      <c r="D533" s="2" t="s">
         <v>2615</v>
       </c>
-      <c r="D533" s="2" t="s">
+      <c r="E533" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F533" s="2" t="s">
         <v>2616</v>
       </c>
-      <c r="E533" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F533" s="2" t="s">
+      <c r="G533" s="2" t="s">
         <v>2617</v>
-      </c>
-      <c r="G533" s="2" t="s">
-        <v>2618</v>
       </c>
     </row>
     <row r="534" spans="1:7">
@@ -20747,22 +20748,22 @@
         <v>531</v>
       </c>
       <c r="B534" s="2" t="s">
+        <v>2618</v>
+      </c>
+      <c r="C534" s="2" t="s">
         <v>2619</v>
       </c>
-      <c r="C534" s="2" t="s">
+      <c r="D534" s="2" t="s">
         <v>2620</v>
       </c>
-      <c r="D534" s="2" t="s">
+      <c r="E534" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F534" s="2" t="s">
         <v>2621</v>
       </c>
-      <c r="E534" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F534" s="2" t="s">
+      <c r="G534" s="2" t="s">
         <v>2622</v>
-      </c>
-      <c r="G534" s="2" t="s">
-        <v>2623</v>
       </c>
     </row>
     <row r="535" spans="1:7">
@@ -20770,22 +20771,22 @@
         <v>532</v>
       </c>
       <c r="B535" s="2" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C535" s="2" t="s">
         <v>2624</v>
       </c>
-      <c r="C535" s="2" t="s">
+      <c r="D535" s="2" t="s">
         <v>2625</v>
       </c>
-      <c r="D535" s="2" t="s">
+      <c r="E535" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F535" s="2" t="s">
         <v>2626</v>
       </c>
-      <c r="E535" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F535" s="2" t="s">
+      <c r="G535" s="2" t="s">
         <v>2627</v>
-      </c>
-      <c r="G535" s="2" t="s">
-        <v>2628</v>
       </c>
     </row>
     <row r="536" spans="1:7">
@@ -20793,22 +20794,22 @@
         <v>533</v>
       </c>
       <c r="B536" s="2" t="s">
+        <v>2628</v>
+      </c>
+      <c r="C536" s="2" t="s">
         <v>2629</v>
       </c>
-      <c r="C536" s="2" t="s">
+      <c r="D536" s="2" t="s">
         <v>2630</v>
-      </c>
-      <c r="D536" s="2" t="s">
-        <v>2631</v>
       </c>
       <c r="E536" s="2" t="s">
         <v>1033</v>
       </c>
       <c r="F536" s="2" t="s">
+        <v>2631</v>
+      </c>
+      <c r="G536" s="2" t="s">
         <v>2632</v>
-      </c>
-      <c r="G536" s="2" t="s">
-        <v>2633</v>
       </c>
     </row>
     <row r="537" spans="1:7">
@@ -20816,22 +20817,22 @@
         <v>534</v>
       </c>
       <c r="B537" s="2" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C537" s="2" t="s">
         <v>2634</v>
       </c>
-      <c r="C537" s="2" t="s">
+      <c r="D537" s="2" t="s">
         <v>2635</v>
-      </c>
-      <c r="D537" s="2" t="s">
-        <v>2636</v>
       </c>
       <c r="E537" s="2" t="s">
         <v>1033</v>
       </c>
       <c r="F537" s="2" t="s">
+        <v>2636</v>
+      </c>
+      <c r="G537" s="2" t="s">
         <v>2637</v>
-      </c>
-      <c r="G537" s="2" t="s">
-        <v>2638</v>
       </c>
     </row>
     <row r="538" spans="1:7">
@@ -20839,22 +20840,22 @@
         <v>535</v>
       </c>
       <c r="B538" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C538" s="2" t="s">
         <v>2639</v>
       </c>
-      <c r="C538" s="2" t="s">
+      <c r="D538" s="2" t="s">
         <v>2640</v>
-      </c>
-      <c r="D538" s="2" t="s">
-        <v>2641</v>
       </c>
       <c r="E538" s="2" t="s">
         <v>1027</v>
       </c>
       <c r="F538" s="2" t="s">
+        <v>2641</v>
+      </c>
+      <c r="G538" s="2" t="s">
         <v>2642</v>
-      </c>
-      <c r="G538" s="2" t="s">
-        <v>2643</v>
       </c>
     </row>
     <row r="539" spans="1:7">
@@ -20862,22 +20863,22 @@
         <v>536</v>
       </c>
       <c r="B539" s="2" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C539" s="2" t="s">
         <v>2644</v>
       </c>
-      <c r="C539" s="2" t="s">
+      <c r="D539" s="2" t="s">
         <v>2645</v>
       </c>
-      <c r="D539" s="2" t="s">
+      <c r="E539" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F539" s="2" t="s">
         <v>2646</v>
       </c>
-      <c r="E539" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F539" s="2" t="s">
+      <c r="G539" s="2" t="s">
         <v>2647</v>
-      </c>
-      <c r="G539" s="2" t="s">
-        <v>2648</v>
       </c>
     </row>
     <row r="540" spans="1:7">
@@ -20885,22 +20886,22 @@
         <v>537</v>
       </c>
       <c r="B540" s="2" t="s">
+        <v>2648</v>
+      </c>
+      <c r="C540" s="2" t="s">
         <v>2649</v>
       </c>
-      <c r="C540" s="2" t="s">
+      <c r="D540" s="2" t="s">
         <v>2650</v>
       </c>
-      <c r="D540" s="2" t="s">
+      <c r="E540" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F540" s="2" t="s">
         <v>2651</v>
       </c>
-      <c r="E540" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F540" s="2" t="s">
+      <c r="G540" s="2" t="s">
         <v>2652</v>
-      </c>
-      <c r="G540" s="2" t="s">
-        <v>2653</v>
       </c>
     </row>
     <row r="541" spans="1:7">
@@ -20908,22 +20909,22 @@
         <v>538</v>
       </c>
       <c r="B541" s="2" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C541" s="2" t="s">
         <v>2654</v>
       </c>
-      <c r="C541" s="2" t="s">
+      <c r="D541" s="2" t="s">
         <v>2655</v>
-      </c>
-      <c r="D541" s="2" t="s">
-        <v>2656</v>
       </c>
       <c r="E541" s="2" t="s">
         <v>1029</v>
       </c>
       <c r="F541" s="2" t="s">
+        <v>2656</v>
+      </c>
+      <c r="G541" s="2" t="s">
         <v>2657</v>
-      </c>
-      <c r="G541" s="2" t="s">
-        <v>2658</v>
       </c>
     </row>
     <row r="543" spans="1:7">
@@ -20931,10 +20932,10 @@
         <v>539</v>
       </c>
       <c r="B543" s="2" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C543" s="2" t="s">
         <v>2661</v>
-      </c>
-      <c r="C543" s="2" t="s">
-        <v>2662</v>
       </c>
       <c r="D543" s="2" t="s">
         <v>1289</v>
@@ -20943,7 +20944,7 @@
         <v>872</v>
       </c>
       <c r="F543" s="2" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="G543" s="2" t="s">
         <v>1291</v>
@@ -20954,22 +20955,22 @@
         <v>540</v>
       </c>
       <c r="B544" s="2" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C544" s="2" t="s">
         <v>2663</v>
       </c>
-      <c r="C544" s="2" t="s">
+      <c r="D544" s="2" t="s">
         <v>2664</v>
       </c>
-      <c r="D544" s="2" t="s">
-        <v>2665</v>
-      </c>
       <c r="E544" s="2" t="s">
         <v>872</v>
       </c>
       <c r="F544" s="2" t="s">
+        <v>2677</v>
+      </c>
+      <c r="G544" s="2" t="s">
         <v>2678</v>
-      </c>
-      <c r="G544" s="2" t="s">
-        <v>2679</v>
       </c>
     </row>
     <row r="545" spans="1:7">
@@ -20977,22 +20978,22 @@
         <v>541</v>
       </c>
       <c r="B545" s="2" t="s">
+        <v>2665</v>
+      </c>
+      <c r="C545" s="2" t="s">
         <v>2666</v>
       </c>
-      <c r="C545" s="2" t="s">
+      <c r="D545" s="2" t="s">
         <v>2667</v>
       </c>
-      <c r="D545" s="2" t="s">
-        <v>2668</v>
-      </c>
       <c r="E545" s="2" t="s">
         <v>872</v>
       </c>
       <c r="F545" s="2" t="s">
+        <v>2679</v>
+      </c>
+      <c r="G545" s="2" t="s">
         <v>2680</v>
-      </c>
-      <c r="G545" s="2" t="s">
-        <v>2681</v>
       </c>
     </row>
     <row r="546" spans="1:7">
@@ -21000,22 +21001,22 @@
         <v>542</v>
       </c>
       <c r="B546" s="2" t="s">
+        <v>2668</v>
+      </c>
+      <c r="C546" s="2" t="s">
         <v>2669</v>
       </c>
-      <c r="C546" s="2" t="s">
+      <c r="D546" s="2" t="s">
         <v>2670</v>
       </c>
-      <c r="D546" s="2" t="s">
-        <v>2671</v>
-      </c>
       <c r="E546" s="2" t="s">
         <v>872</v>
       </c>
       <c r="F546" s="2" t="s">
+        <v>2681</v>
+      </c>
+      <c r="G546" s="2" t="s">
         <v>2682</v>
-      </c>
-      <c r="G546" s="2" t="s">
-        <v>2683</v>
       </c>
     </row>
     <row r="547" spans="1:7">
@@ -21023,22 +21024,22 @@
         <v>543</v>
       </c>
       <c r="B547" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C547" s="2" t="s">
         <v>2672</v>
       </c>
-      <c r="C547" s="2" t="s">
+      <c r="D547" s="2" t="s">
         <v>2673</v>
       </c>
-      <c r="D547" s="2" t="s">
-        <v>2674</v>
-      </c>
       <c r="E547" s="2" t="s">
         <v>872</v>
       </c>
       <c r="F547" s="2" t="s">
+        <v>2683</v>
+      </c>
+      <c r="G547" s="2" t="s">
         <v>2684</v>
-      </c>
-      <c r="G547" s="2" t="s">
-        <v>2685</v>
       </c>
     </row>
     <row r="548" spans="1:7">
@@ -21046,22 +21047,22 @@
         <v>544</v>
       </c>
       <c r="B548" s="2" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C548" s="2" t="s">
         <v>2686</v>
       </c>
-      <c r="C548" s="2" t="s">
+      <c r="D548" s="2" t="s">
         <v>2687</v>
       </c>
-      <c r="D548" s="2" t="s">
+      <c r="E548" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F548" s="2" t="s">
         <v>2688</v>
       </c>
-      <c r="E548" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F548" s="2" t="s">
+      <c r="G548" s="2" t="s">
         <v>2689</v>
-      </c>
-      <c r="G548" s="2" t="s">
-        <v>2690</v>
       </c>
     </row>
     <row r="549" spans="1:7">
@@ -21069,22 +21070,22 @@
         <v>545</v>
       </c>
       <c r="B549" s="2" t="s">
+        <v>2674</v>
+      </c>
+      <c r="C549" s="2" t="s">
         <v>2675</v>
       </c>
-      <c r="C549" s="2" t="s">
-        <v>2676</v>
-      </c>
       <c r="D549" s="2" t="s">
+        <v>2690</v>
+      </c>
+      <c r="E549" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F549" s="2" t="s">
         <v>2691</v>
       </c>
-      <c r="E549" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F549" s="2" t="s">
+      <c r="G549" s="2" t="s">
         <v>2692</v>
-      </c>
-      <c r="G549" s="2" t="s">
-        <v>2693</v>
       </c>
     </row>
   </sheetData>

--- a/doc/voca.xlsx
+++ b/doc/voca.xlsx
@@ -6552,9 +6552,6 @@
     <t>[kæt]</t>
   </si>
   <si>
-    <t>[ˈtʃɪkɪn]</t>
-  </si>
-  <si>
     <t>[kaʊ]</t>
   </si>
   <si>
@@ -6729,9 +6726,6 @@
     <t>[grep]</t>
   </si>
   <si>
-    <t>[ˈlɛmən]</t>
-  </si>
-  <si>
     <t>[pitʃ]</t>
   </si>
   <si>
@@ -6742,9 +6736,6 @@
   </si>
   <si>
     <t>[pɔrk]</t>
-  </si>
-  <si>
-    <t>[ˈnudəlz]</t>
   </si>
   <si>
     <t>[ɛg]</t>
@@ -8143,6 +8134,18 @@
   </si>
   <si>
     <t>[hwaɪt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈlɛmən]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈtʃɪkən]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈnudḷz]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8513,8 +8516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G549"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView tabSelected="1" topLeftCell="A236" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C255" sqref="C255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8547,7 +8550,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2571</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -9271,7 +9274,7 @@
         <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>2583</v>
+        <v>2580</v>
       </c>
       <c r="D33" t="s">
         <v>582</v>
@@ -9294,7 +9297,7 @@
         <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>2584</v>
+        <v>2581</v>
       </c>
       <c r="D34" t="s">
         <v>585</v>
@@ -9317,7 +9320,7 @@
         <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>2585</v>
+        <v>2582</v>
       </c>
       <c r="D35" t="s">
         <v>588</v>
@@ -9340,7 +9343,7 @@
         <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>2586</v>
+        <v>2583</v>
       </c>
       <c r="D36" t="s">
         <v>591</v>
@@ -9409,7 +9412,7 @@
         <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>2587</v>
+        <v>2584</v>
       </c>
       <c r="D39" t="s">
         <v>600</v>
@@ -11387,7 +11390,7 @@
         <v>174</v>
       </c>
       <c r="C125" t="s">
-        <v>2696</v>
+        <v>2693</v>
       </c>
       <c r="D125" t="s">
         <v>793</v>
@@ -12583,7 +12586,7 @@
         <v>226</v>
       </c>
       <c r="C177" t="s">
-        <v>2694</v>
+        <v>2691</v>
       </c>
       <c r="D177" t="s">
         <v>952</v>
@@ -12675,7 +12678,7 @@
         <v>230</v>
       </c>
       <c r="C181" t="s">
-        <v>2695</v>
+        <v>2692</v>
       </c>
       <c r="D181" t="s">
         <v>964</v>
@@ -12698,7 +12701,7 @@
         <v>231</v>
       </c>
       <c r="C182" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="D182" t="s">
         <v>967</v>
@@ -12721,7 +12724,7 @@
         <v>232</v>
       </c>
       <c r="C183" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="D183" t="s">
         <v>970</v>
@@ -12744,7 +12747,7 @@
         <v>233</v>
       </c>
       <c r="C184" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="D184" t="s">
         <v>973</v>
@@ -12767,7 +12770,7 @@
         <v>234</v>
       </c>
       <c r="C185" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="D185" t="s">
         <v>976</v>
@@ -12790,7 +12793,7 @@
         <v>235</v>
       </c>
       <c r="C186" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="D186" t="s">
         <v>979</v>
@@ -12813,7 +12816,7 @@
         <v>236</v>
       </c>
       <c r="C187" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="D187" t="s">
         <v>982</v>
@@ -12836,7 +12839,7 @@
         <v>237</v>
       </c>
       <c r="C188" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="D188" t="s">
         <v>985</v>
@@ -12859,7 +12862,7 @@
         <v>238</v>
       </c>
       <c r="C189" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="D189" t="s">
         <v>988</v>
@@ -12882,7 +12885,7 @@
         <v>239</v>
       </c>
       <c r="C190" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="D190" t="s">
         <v>991</v>
@@ -12905,7 +12908,7 @@
         <v>240</v>
       </c>
       <c r="C191" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="D191" t="s">
         <v>994</v>
@@ -12928,7 +12931,7 @@
         <v>241</v>
       </c>
       <c r="C192" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="D192" t="s">
         <v>997</v>
@@ -12951,7 +12954,7 @@
         <v>242</v>
       </c>
       <c r="C193" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="D193" t="s">
         <v>1000</v>
@@ -12974,7 +12977,7 @@
         <v>243</v>
       </c>
       <c r="C194" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="D194" t="s">
         <v>1003</v>
@@ -12997,7 +13000,7 @@
         <v>244</v>
       </c>
       <c r="C195" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="D195" t="s">
         <v>1006</v>
@@ -13020,7 +13023,7 @@
         <v>245</v>
       </c>
       <c r="C196" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="D196" t="s">
         <v>1009</v>
@@ -13043,7 +13046,7 @@
         <v>246</v>
       </c>
       <c r="C197" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="D197" t="s">
         <v>1012</v>
@@ -13066,7 +13069,7 @@
         <v>247</v>
       </c>
       <c r="C198" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="D198" t="s">
         <v>1015</v>
@@ -13089,7 +13092,7 @@
         <v>248</v>
       </c>
       <c r="C199" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="D199" t="s">
         <v>1018</v>
@@ -13112,7 +13115,7 @@
         <v>249</v>
       </c>
       <c r="C200" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="D200" t="s">
         <v>1021</v>
@@ -13135,7 +13138,7 @@
         <v>250</v>
       </c>
       <c r="C201" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="D201" t="s">
         <v>1978</v>
@@ -13158,7 +13161,7 @@
         <v>251</v>
       </c>
       <c r="C202" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="D202" t="s">
         <v>1096</v>
@@ -13181,7 +13184,7 @@
         <v>252</v>
       </c>
       <c r="C203" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="D203" t="s">
         <v>1099</v>
@@ -13204,7 +13207,7 @@
         <v>253</v>
       </c>
       <c r="C204" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="D204" t="s">
         <v>1102</v>
@@ -13227,7 +13230,7 @@
         <v>254</v>
       </c>
       <c r="C205" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="D205" t="s">
         <v>1105</v>
@@ -13250,7 +13253,7 @@
         <v>255</v>
       </c>
       <c r="C206" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="D206" t="s">
         <v>1108</v>
@@ -13273,7 +13276,7 @@
         <v>256</v>
       </c>
       <c r="C207" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="D207" t="s">
         <v>1111</v>
@@ -13296,7 +13299,7 @@
         <v>257</v>
       </c>
       <c r="C208" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="D208" t="s">
         <v>1114</v>
@@ -13319,7 +13322,7 @@
         <v>258</v>
       </c>
       <c r="C209" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="D209" t="s">
         <v>1117</v>
@@ -13342,7 +13345,7 @@
         <v>259</v>
       </c>
       <c r="C210" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="D210" t="s">
         <v>1120</v>
@@ -13365,7 +13368,7 @@
         <v>260</v>
       </c>
       <c r="C211" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="D211" t="s">
         <v>1123</v>
@@ -13388,7 +13391,7 @@
         <v>261</v>
       </c>
       <c r="C212" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="D212" t="s">
         <v>1126</v>
@@ -13411,7 +13414,7 @@
         <v>262</v>
       </c>
       <c r="C213" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="D213" t="s">
         <v>1129</v>
@@ -13434,7 +13437,7 @@
         <v>263</v>
       </c>
       <c r="C214" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="D214" t="s">
         <v>1132</v>
@@ -13457,7 +13460,7 @@
         <v>1135</v>
       </c>
       <c r="C215" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="D215" t="s">
         <v>1136</v>
@@ -13480,7 +13483,7 @@
         <v>264</v>
       </c>
       <c r="C216" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="D216" t="s">
         <v>1139</v>
@@ -13503,7 +13506,7 @@
         <v>265</v>
       </c>
       <c r="C217" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="D217" t="s">
         <v>1142</v>
@@ -13526,7 +13529,7 @@
         <v>266</v>
       </c>
       <c r="C218" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="D218" t="s">
         <v>1145</v>
@@ -13549,7 +13552,7 @@
         <v>267</v>
       </c>
       <c r="C219" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="D219" t="s">
         <v>1148</v>
@@ -13572,7 +13575,7 @@
         <v>268</v>
       </c>
       <c r="C220" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="D220" t="s">
         <v>1151</v>
@@ -13595,7 +13598,7 @@
         <v>269</v>
       </c>
       <c r="C221" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="D221" t="s">
         <v>1154</v>
@@ -13641,7 +13644,7 @@
         <v>271</v>
       </c>
       <c r="C223" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="D223" t="s">
         <v>1160</v>
@@ -13664,7 +13667,7 @@
         <v>272</v>
       </c>
       <c r="C224" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="D224" t="s">
         <v>1163</v>
@@ -13687,7 +13690,7 @@
         <v>273</v>
       </c>
       <c r="C225" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="D225" t="s">
         <v>1166</v>
@@ -13710,7 +13713,7 @@
         <v>274</v>
       </c>
       <c r="C226" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="D226" t="s">
         <v>1169</v>
@@ -13733,7 +13736,7 @@
         <v>275</v>
       </c>
       <c r="C227" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="D227" t="s">
         <v>1172</v>
@@ -13756,7 +13759,7 @@
         <v>276</v>
       </c>
       <c r="C228" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="D228" t="s">
         <v>1175</v>
@@ -13802,7 +13805,7 @@
         <v>278</v>
       </c>
       <c r="C230" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="D230" t="s">
         <v>1181</v>
@@ -13825,7 +13828,7 @@
         <v>279</v>
       </c>
       <c r="C231" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="D231" t="s">
         <v>1184</v>
@@ -13848,7 +13851,7 @@
         <v>280</v>
       </c>
       <c r="C232" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="D232" t="s">
         <v>1187</v>
@@ -13871,7 +13874,7 @@
         <v>281</v>
       </c>
       <c r="C233" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="D233" t="s">
         <v>1190</v>
@@ -13894,7 +13897,7 @@
         <v>282</v>
       </c>
       <c r="C234" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="D234" t="s">
         <v>1193</v>
@@ -13917,7 +13920,7 @@
         <v>283</v>
       </c>
       <c r="C235" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="D235" t="s">
         <v>1196</v>
@@ -13940,7 +13943,7 @@
         <v>284</v>
       </c>
       <c r="C236" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="D236" t="s">
         <v>1199</v>
@@ -13963,7 +13966,7 @@
         <v>285</v>
       </c>
       <c r="C237" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="D237" t="s">
         <v>1202</v>
@@ -13986,7 +13989,7 @@
         <v>286</v>
       </c>
       <c r="C238" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="D238" t="s">
         <v>1205</v>
@@ -14009,7 +14012,7 @@
         <v>287</v>
       </c>
       <c r="C239" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D239" t="s">
         <v>1208</v>
@@ -14032,7 +14035,7 @@
         <v>288</v>
       </c>
       <c r="C240" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D240" t="s">
         <v>1211</v>
@@ -14055,7 +14058,7 @@
         <v>289</v>
       </c>
       <c r="C241" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="D241" t="s">
         <v>1214</v>
@@ -14078,7 +14081,7 @@
         <v>290</v>
       </c>
       <c r="C242" t="s">
-        <v>2231</v>
+        <v>2694</v>
       </c>
       <c r="D242" t="s">
         <v>1217</v>
@@ -14124,7 +14127,7 @@
         <v>291</v>
       </c>
       <c r="C244" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="D244" t="s">
         <v>1223</v>
@@ -14147,7 +14150,7 @@
         <v>292</v>
       </c>
       <c r="C245" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="D245" t="s">
         <v>1226</v>
@@ -14170,7 +14173,7 @@
         <v>293</v>
       </c>
       <c r="C246" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="D246" t="s">
         <v>1229</v>
@@ -14193,7 +14196,7 @@
         <v>230</v>
       </c>
       <c r="C247" t="s">
-        <v>2172</v>
+        <v>2695</v>
       </c>
       <c r="D247" t="s">
         <v>1232</v>
@@ -14216,7 +14219,7 @@
         <v>252</v>
       </c>
       <c r="C248" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="D248" t="s">
         <v>1235</v>
@@ -14239,7 +14242,7 @@
         <v>247</v>
       </c>
       <c r="C249" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="D249" t="s">
         <v>1238</v>
@@ -14262,7 +14265,7 @@
         <v>294</v>
       </c>
       <c r="C250" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="D250" t="s">
         <v>1241</v>
@@ -14285,7 +14288,7 @@
         <v>295</v>
       </c>
       <c r="C251" t="s">
-        <v>2236</v>
+        <v>2696</v>
       </c>
       <c r="D251" t="s">
         <v>1244</v>
@@ -14308,7 +14311,7 @@
         <v>296</v>
       </c>
       <c r="C252" t="s">
-        <v>2237</v>
+        <v>2234</v>
       </c>
       <c r="D252" t="s">
         <v>1247</v>
@@ -14331,7 +14334,7 @@
         <v>297</v>
       </c>
       <c r="C253" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
       <c r="D253" t="s">
         <v>1250</v>
@@ -14354,7 +14357,7 @@
         <v>298</v>
       </c>
       <c r="C254" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
       <c r="D254" t="s">
         <v>1253</v>
@@ -14377,7 +14380,7 @@
         <v>299</v>
       </c>
       <c r="C255" t="s">
-        <v>2240</v>
+        <v>2237</v>
       </c>
       <c r="D255" t="s">
         <v>1256</v>
@@ -14400,7 +14403,7 @@
         <v>300</v>
       </c>
       <c r="C256" t="s">
-        <v>2241</v>
+        <v>2238</v>
       </c>
       <c r="D256" t="s">
         <v>1259</v>
@@ -14423,7 +14426,7 @@
         <v>301</v>
       </c>
       <c r="C257" t="s">
-        <v>2242</v>
+        <v>2239</v>
       </c>
       <c r="D257" t="s">
         <v>1262</v>
@@ -14446,7 +14449,7 @@
         <v>302</v>
       </c>
       <c r="C258" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="D258" t="s">
         <v>1265</v>
@@ -14469,7 +14472,7 @@
         <v>303</v>
       </c>
       <c r="C259" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
       <c r="D259" t="s">
         <v>1268</v>
@@ -14492,7 +14495,7 @@
         <v>304</v>
       </c>
       <c r="C260" t="s">
-        <v>2245</v>
+        <v>2242</v>
       </c>
       <c r="D260" t="s">
         <v>1271</v>
@@ -14515,7 +14518,7 @@
         <v>305</v>
       </c>
       <c r="C261" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
       <c r="D261" t="s">
         <v>1274</v>
@@ -14538,7 +14541,7 @@
         <v>306</v>
       </c>
       <c r="C262" t="s">
-        <v>2247</v>
+        <v>2244</v>
       </c>
       <c r="D262" t="s">
         <v>1277</v>
@@ -14561,7 +14564,7 @@
         <v>307</v>
       </c>
       <c r="C263" t="s">
-        <v>2248</v>
+        <v>2245</v>
       </c>
       <c r="D263" t="s">
         <v>1280</v>
@@ -14584,7 +14587,7 @@
         <v>308</v>
       </c>
       <c r="C264" t="s">
-        <v>2249</v>
+        <v>2246</v>
       </c>
       <c r="D264" t="s">
         <v>1283</v>
@@ -14607,7 +14610,7 @@
         <v>309</v>
       </c>
       <c r="C265" t="s">
-        <v>2250</v>
+        <v>2247</v>
       </c>
       <c r="D265" t="s">
         <v>1286</v>
@@ -14630,7 +14633,7 @@
         <v>310</v>
       </c>
       <c r="C266" t="s">
-        <v>2251</v>
+        <v>2248</v>
       </c>
       <c r="D266" t="s">
         <v>1289</v>
@@ -14653,7 +14656,7 @@
         <v>311</v>
       </c>
       <c r="C267" t="s">
-        <v>2252</v>
+        <v>2249</v>
       </c>
       <c r="D267" t="s">
         <v>1292</v>
@@ -14676,7 +14679,7 @@
         <v>312</v>
       </c>
       <c r="C268" t="s">
-        <v>2253</v>
+        <v>2250</v>
       </c>
       <c r="D268" t="s">
         <v>1295</v>
@@ -14699,7 +14702,7 @@
         <v>313</v>
       </c>
       <c r="C269" t="s">
-        <v>2254</v>
+        <v>2251</v>
       </c>
       <c r="D269" t="s">
         <v>1298</v>
@@ -14722,7 +14725,7 @@
         <v>314</v>
       </c>
       <c r="C270" t="s">
-        <v>2255</v>
+        <v>2252</v>
       </c>
       <c r="D270" t="s">
         <v>1301</v>
@@ -14745,7 +14748,7 @@
         <v>315</v>
       </c>
       <c r="C271" t="s">
-        <v>2256</v>
+        <v>2253</v>
       </c>
       <c r="D271" t="s">
         <v>1304</v>
@@ -14768,7 +14771,7 @@
         <v>316</v>
       </c>
       <c r="C272" t="s">
-        <v>2257</v>
+        <v>2254</v>
       </c>
       <c r="D272" t="s">
         <v>1307</v>
@@ -14791,7 +14794,7 @@
         <v>317</v>
       </c>
       <c r="C273" t="s">
-        <v>2258</v>
+        <v>2255</v>
       </c>
       <c r="D273" t="s">
         <v>1310</v>
@@ -14814,7 +14817,7 @@
         <v>318</v>
       </c>
       <c r="C274" t="s">
-        <v>2259</v>
+        <v>2256</v>
       </c>
       <c r="D274" t="s">
         <v>1313</v>
@@ -14837,7 +14840,7 @@
         <v>319</v>
       </c>
       <c r="C275" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
       <c r="D275" t="s">
         <v>1316</v>
@@ -14860,7 +14863,7 @@
         <v>320</v>
       </c>
       <c r="C276" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
       <c r="D276" t="s">
         <v>1319</v>
@@ -14883,7 +14886,7 @@
         <v>321</v>
       </c>
       <c r="C277" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="D277" t="s">
         <v>1322</v>
@@ -14906,7 +14909,7 @@
         <v>322</v>
       </c>
       <c r="C278" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
       <c r="D278" t="s">
         <v>1325</v>
@@ -14929,7 +14932,7 @@
         <v>323</v>
       </c>
       <c r="C279" t="s">
-        <v>2264</v>
+        <v>2261</v>
       </c>
       <c r="D279" t="s">
         <v>1328</v>
@@ -14952,7 +14955,7 @@
         <v>324</v>
       </c>
       <c r="C280" t="s">
-        <v>2265</v>
+        <v>2262</v>
       </c>
       <c r="D280" t="s">
         <v>1331</v>
@@ -14975,7 +14978,7 @@
         <v>325</v>
       </c>
       <c r="C281" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
       <c r="D281" t="s">
         <v>1334</v>
@@ -14998,7 +15001,7 @@
         <v>326</v>
       </c>
       <c r="C282" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
       <c r="D282" t="s">
         <v>1337</v>
@@ -15021,7 +15024,7 @@
         <v>327</v>
       </c>
       <c r="C283" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="D283" t="s">
         <v>1340</v>
@@ -15044,7 +15047,7 @@
         <v>328</v>
       </c>
       <c r="C284" t="s">
-        <v>2269</v>
+        <v>2266</v>
       </c>
       <c r="D284" t="s">
         <v>1343</v>
@@ -15067,7 +15070,7 @@
         <v>329</v>
       </c>
       <c r="C285" t="s">
-        <v>2270</v>
+        <v>2267</v>
       </c>
       <c r="D285" t="s">
         <v>1346</v>
@@ -15113,7 +15116,7 @@
         <v>331</v>
       </c>
       <c r="C287" t="s">
-        <v>2271</v>
+        <v>2268</v>
       </c>
       <c r="D287" t="s">
         <v>1352</v>
@@ -15136,7 +15139,7 @@
         <v>332</v>
       </c>
       <c r="C288" t="s">
-        <v>2272</v>
+        <v>2269</v>
       </c>
       <c r="D288" t="s">
         <v>1355</v>
@@ -15159,7 +15162,7 @@
         <v>333</v>
       </c>
       <c r="C289" t="s">
-        <v>2273</v>
+        <v>2270</v>
       </c>
       <c r="D289" t="s">
         <v>1358</v>
@@ -15182,7 +15185,7 @@
         <v>334</v>
       </c>
       <c r="C290" t="s">
-        <v>2274</v>
+        <v>2271</v>
       </c>
       <c r="D290" t="s">
         <v>1361</v>
@@ -15205,7 +15208,7 @@
         <v>335</v>
       </c>
       <c r="C291" t="s">
-        <v>2275</v>
+        <v>2272</v>
       </c>
       <c r="D291" t="s">
         <v>1364</v>
@@ -15228,7 +15231,7 @@
         <v>336</v>
       </c>
       <c r="C292" t="s">
-        <v>2276</v>
+        <v>2273</v>
       </c>
       <c r="D292" t="s">
         <v>1367</v>
@@ -15251,7 +15254,7 @@
         <v>337</v>
       </c>
       <c r="C293" t="s">
-        <v>2277</v>
+        <v>2274</v>
       </c>
       <c r="D293" t="s">
         <v>1370</v>
@@ -15274,7 +15277,7 @@
         <v>338</v>
       </c>
       <c r="C294" t="s">
-        <v>2278</v>
+        <v>2275</v>
       </c>
       <c r="D294" t="s">
         <v>1373</v>
@@ -15297,7 +15300,7 @@
         <v>339</v>
       </c>
       <c r="C295" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
       <c r="D295" t="s">
         <v>1376</v>
@@ -15320,7 +15323,7 @@
         <v>340</v>
       </c>
       <c r="C296" t="s">
-        <v>2280</v>
+        <v>2277</v>
       </c>
       <c r="D296" t="s">
         <v>1379</v>
@@ -15343,7 +15346,7 @@
         <v>341</v>
       </c>
       <c r="C297" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="D297" t="s">
         <v>1382</v>
@@ -15366,7 +15369,7 @@
         <v>342</v>
       </c>
       <c r="C298" t="s">
-        <v>2282</v>
+        <v>2279</v>
       </c>
       <c r="D298" t="s">
         <v>1385</v>
@@ -15389,7 +15392,7 @@
         <v>343</v>
       </c>
       <c r="C299" t="s">
-        <v>2283</v>
+        <v>2280</v>
       </c>
       <c r="D299" t="s">
         <v>1388</v>
@@ -15412,7 +15415,7 @@
         <v>344</v>
       </c>
       <c r="C300" t="s">
-        <v>2284</v>
+        <v>2281</v>
       </c>
       <c r="D300" t="s">
         <v>1391</v>
@@ -15435,7 +15438,7 @@
         <v>345</v>
       </c>
       <c r="C301" t="s">
-        <v>2285</v>
+        <v>2282</v>
       </c>
       <c r="D301" t="s">
         <v>1394</v>
@@ -15458,7 +15461,7 @@
         <v>346</v>
       </c>
       <c r="C302" t="s">
-        <v>2286</v>
+        <v>2283</v>
       </c>
       <c r="D302" t="s">
         <v>1397</v>
@@ -15481,7 +15484,7 @@
         <v>347</v>
       </c>
       <c r="C303" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
       <c r="D303" t="s">
         <v>1400</v>
@@ -15504,7 +15507,7 @@
         <v>348</v>
       </c>
       <c r="C304" t="s">
-        <v>2288</v>
+        <v>2285</v>
       </c>
       <c r="D304" t="s">
         <v>1403</v>
@@ -15527,7 +15530,7 @@
         <v>349</v>
       </c>
       <c r="C305" t="s">
-        <v>2289</v>
+        <v>2286</v>
       </c>
       <c r="D305" t="s">
         <v>1406</v>
@@ -15550,7 +15553,7 @@
         <v>350</v>
       </c>
       <c r="C306" t="s">
-        <v>2290</v>
+        <v>2287</v>
       </c>
       <c r="D306" t="s">
         <v>1409</v>
@@ -15573,7 +15576,7 @@
         <v>351</v>
       </c>
       <c r="C307" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
       <c r="D307" t="s">
         <v>1412</v>
@@ -15596,7 +15599,7 @@
         <v>352</v>
       </c>
       <c r="C308" t="s">
-        <v>2292</v>
+        <v>2289</v>
       </c>
       <c r="D308" t="s">
         <v>1415</v>
@@ -15619,7 +15622,7 @@
         <v>353</v>
       </c>
       <c r="C309" t="s">
-        <v>2293</v>
+        <v>2290</v>
       </c>
       <c r="D309" t="s">
         <v>1418</v>
@@ -15642,7 +15645,7 @@
         <v>354</v>
       </c>
       <c r="C310" t="s">
-        <v>2294</v>
+        <v>2291</v>
       </c>
       <c r="D310" t="s">
         <v>1421</v>
@@ -15665,7 +15668,7 @@
         <v>355</v>
       </c>
       <c r="C311" t="s">
-        <v>2295</v>
+        <v>2292</v>
       </c>
       <c r="D311" t="s">
         <v>1424</v>
@@ -15688,7 +15691,7 @@
         <v>356</v>
       </c>
       <c r="C312" t="s">
-        <v>2296</v>
+        <v>2293</v>
       </c>
       <c r="D312" t="s">
         <v>1427</v>
@@ -15711,7 +15714,7 @@
         <v>357</v>
       </c>
       <c r="C313" t="s">
-        <v>2297</v>
+        <v>2294</v>
       </c>
       <c r="D313" t="s">
         <v>1430</v>
@@ -15734,7 +15737,7 @@
         <v>358</v>
       </c>
       <c r="C314" t="s">
-        <v>2298</v>
+        <v>2295</v>
       </c>
       <c r="D314" t="s">
         <v>1433</v>
@@ -15757,7 +15760,7 @@
         <v>359</v>
       </c>
       <c r="C315" t="s">
-        <v>2299</v>
+        <v>2296</v>
       </c>
       <c r="D315" t="s">
         <v>1436</v>
@@ -15780,7 +15783,7 @@
         <v>360</v>
       </c>
       <c r="C316" t="s">
-        <v>2300</v>
+        <v>2297</v>
       </c>
       <c r="D316" t="s">
         <v>1439</v>
@@ -15803,7 +15806,7 @@
         <v>361</v>
       </c>
       <c r="C317" t="s">
-        <v>2301</v>
+        <v>2298</v>
       </c>
       <c r="D317" t="s">
         <v>1440</v>
@@ -15826,7 +15829,7 @@
         <v>362</v>
       </c>
       <c r="C318" t="s">
-        <v>2302</v>
+        <v>2299</v>
       </c>
       <c r="D318" t="s">
         <v>1440</v>
@@ -15849,7 +15852,7 @@
         <v>318</v>
       </c>
       <c r="C319" t="s">
-        <v>2259</v>
+        <v>2256</v>
       </c>
       <c r="D319" t="s">
         <v>1445</v>
@@ -15872,7 +15875,7 @@
         <v>363</v>
       </c>
       <c r="C320" t="s">
-        <v>2303</v>
+        <v>2300</v>
       </c>
       <c r="D320" t="s">
         <v>1448</v>
@@ -15895,7 +15898,7 @@
         <v>364</v>
       </c>
       <c r="C321" t="s">
-        <v>2304</v>
+        <v>2301</v>
       </c>
       <c r="D321" t="s">
         <v>1451</v>
@@ -15918,7 +15921,7 @@
         <v>365</v>
       </c>
       <c r="C322" t="s">
-        <v>2305</v>
+        <v>2302</v>
       </c>
       <c r="D322" t="s">
         <v>1454</v>
@@ -15941,7 +15944,7 @@
         <v>366</v>
       </c>
       <c r="C323" t="s">
-        <v>2306</v>
+        <v>2303</v>
       </c>
       <c r="D323" t="s">
         <v>1457</v>
@@ -15964,7 +15967,7 @@
         <v>367</v>
       </c>
       <c r="C324" t="s">
-        <v>2307</v>
+        <v>2304</v>
       </c>
       <c r="D324" t="s">
         <v>1460</v>
@@ -15987,7 +15990,7 @@
         <v>368</v>
       </c>
       <c r="C325" t="s">
-        <v>2308</v>
+        <v>2305</v>
       </c>
       <c r="D325" t="s">
         <v>1463</v>
@@ -16010,7 +16013,7 @@
         <v>369</v>
       </c>
       <c r="C326" t="s">
-        <v>2309</v>
+        <v>2306</v>
       </c>
       <c r="D326" t="s">
         <v>1466</v>
@@ -16033,7 +16036,7 @@
         <v>370</v>
       </c>
       <c r="C327" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
       <c r="D327" t="s">
         <v>1469</v>
@@ -16056,7 +16059,7 @@
         <v>371</v>
       </c>
       <c r="C328" t="s">
-        <v>2311</v>
+        <v>2308</v>
       </c>
       <c r="D328" t="s">
         <v>1472</v>
@@ -16079,7 +16082,7 @@
         <v>372</v>
       </c>
       <c r="C329" t="s">
-        <v>2312</v>
+        <v>2309</v>
       </c>
       <c r="D329" t="s">
         <v>1475</v>
@@ -16102,7 +16105,7 @@
         <v>373</v>
       </c>
       <c r="C330" t="s">
-        <v>2313</v>
+        <v>2310</v>
       </c>
       <c r="D330" t="s">
         <v>1478</v>
@@ -16125,7 +16128,7 @@
         <v>374</v>
       </c>
       <c r="C331" t="s">
-        <v>2314</v>
+        <v>2311</v>
       </c>
       <c r="D331" t="s">
         <v>1481</v>
@@ -16148,7 +16151,7 @@
         <v>375</v>
       </c>
       <c r="C332" t="s">
-        <v>2315</v>
+        <v>2312</v>
       </c>
       <c r="D332" t="s">
         <v>1484</v>
@@ -16171,7 +16174,7 @@
         <v>376</v>
       </c>
       <c r="C333" t="s">
-        <v>2316</v>
+        <v>2313</v>
       </c>
       <c r="D333" t="s">
         <v>1487</v>
@@ -16194,7 +16197,7 @@
         <v>377</v>
       </c>
       <c r="C334" t="s">
-        <v>2317</v>
+        <v>2314</v>
       </c>
       <c r="D334" t="s">
         <v>1490</v>
@@ -16217,7 +16220,7 @@
         <v>378</v>
       </c>
       <c r="C335" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
       <c r="D335" t="s">
         <v>1493</v>
@@ -16240,7 +16243,7 @@
         <v>379</v>
       </c>
       <c r="C336" t="s">
-        <v>2319</v>
+        <v>2316</v>
       </c>
       <c r="D336" t="s">
         <v>1496</v>
@@ -16263,7 +16266,7 @@
         <v>380</v>
       </c>
       <c r="C337" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="D337" t="s">
         <v>1499</v>
@@ -16286,7 +16289,7 @@
         <v>381</v>
       </c>
       <c r="C338" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
       <c r="D338" t="s">
         <v>1502</v>
@@ -16309,7 +16312,7 @@
         <v>382</v>
       </c>
       <c r="C339" t="s">
-        <v>2322</v>
+        <v>2319</v>
       </c>
       <c r="D339" t="s">
         <v>1505</v>
@@ -16332,7 +16335,7 @@
         <v>383</v>
       </c>
       <c r="C340" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="D340" t="s">
         <v>1508</v>
@@ -16355,7 +16358,7 @@
         <v>384</v>
       </c>
       <c r="C341" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
       <c r="D341" t="s">
         <v>1511</v>
@@ -16378,7 +16381,7 @@
         <v>385</v>
       </c>
       <c r="C342" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
       <c r="D342" t="s">
         <v>1514</v>
@@ -16401,7 +16404,7 @@
         <v>386</v>
       </c>
       <c r="C343" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
       <c r="D343" t="s">
         <v>1517</v>
@@ -16424,7 +16427,7 @@
         <v>387</v>
       </c>
       <c r="C344" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
       <c r="D344" t="s">
         <v>1520</v>
@@ -16447,7 +16450,7 @@
         <v>388</v>
       </c>
       <c r="C345" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
       <c r="D345" t="s">
         <v>1523</v>
@@ -16470,7 +16473,7 @@
         <v>389</v>
       </c>
       <c r="C346" t="s">
-        <v>2329</v>
+        <v>2326</v>
       </c>
       <c r="D346" t="s">
         <v>1526</v>
@@ -16493,7 +16496,7 @@
         <v>390</v>
       </c>
       <c r="C347" t="s">
-        <v>2330</v>
+        <v>2327</v>
       </c>
       <c r="D347" t="s">
         <v>1529</v>
@@ -16516,7 +16519,7 @@
         <v>391</v>
       </c>
       <c r="C348" t="s">
-        <v>2331</v>
+        <v>2328</v>
       </c>
       <c r="D348" t="s">
         <v>1391</v>
@@ -16539,7 +16542,7 @@
         <v>392</v>
       </c>
       <c r="C349" t="s">
-        <v>2332</v>
+        <v>2329</v>
       </c>
       <c r="D349" t="s">
         <v>1532</v>
@@ -16562,7 +16565,7 @@
         <v>393</v>
       </c>
       <c r="C350" t="s">
-        <v>2333</v>
+        <v>2330</v>
       </c>
       <c r="D350" t="s">
         <v>1535</v>
@@ -16585,7 +16588,7 @@
         <v>394</v>
       </c>
       <c r="C351" t="s">
-        <v>2334</v>
+        <v>2331</v>
       </c>
       <c r="D351" t="s">
         <v>1538</v>
@@ -16608,7 +16611,7 @@
         <v>395</v>
       </c>
       <c r="C352" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
       <c r="D352" t="s">
         <v>1541</v>
@@ -16631,7 +16634,7 @@
         <v>396</v>
       </c>
       <c r="C353" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
       <c r="D353" t="s">
         <v>1544</v>
@@ -16654,7 +16657,7 @@
         <v>397</v>
       </c>
       <c r="C354" t="s">
-        <v>2337</v>
+        <v>2334</v>
       </c>
       <c r="D354" t="s">
         <v>1547</v>
@@ -16677,7 +16680,7 @@
         <v>398</v>
       </c>
       <c r="C355" t="s">
-        <v>2338</v>
+        <v>2335</v>
       </c>
       <c r="D355" t="s">
         <v>1550</v>
@@ -16700,7 +16703,7 @@
         <v>399</v>
       </c>
       <c r="C356" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="D356" t="s">
         <v>1553</v>
@@ -16723,7 +16726,7 @@
         <v>400</v>
       </c>
       <c r="C357" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
       <c r="D357" t="s">
         <v>1556</v>
@@ -16746,7 +16749,7 @@
         <v>401</v>
       </c>
       <c r="C358" t="s">
-        <v>2341</v>
+        <v>2338</v>
       </c>
       <c r="D358" t="s">
         <v>1559</v>
@@ -16792,7 +16795,7 @@
         <v>402</v>
       </c>
       <c r="C360" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
       <c r="D360" t="s">
         <v>1565</v>
@@ -16838,7 +16841,7 @@
         <v>404</v>
       </c>
       <c r="C362" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
       <c r="D362" t="s">
         <v>1571</v>
@@ -16861,7 +16864,7 @@
         <v>405</v>
       </c>
       <c r="C363" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
       <c r="D363" t="s">
         <v>1574</v>
@@ -16884,7 +16887,7 @@
         <v>406</v>
       </c>
       <c r="C364" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="D364" t="s">
         <v>1577</v>
@@ -16907,7 +16910,7 @@
         <v>407</v>
       </c>
       <c r="C365" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
       <c r="D365" t="s">
         <v>1580</v>
@@ -16930,7 +16933,7 @@
         <v>408</v>
       </c>
       <c r="C366" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
       <c r="D366" t="s">
         <v>1583</v>
@@ -16953,7 +16956,7 @@
         <v>409</v>
       </c>
       <c r="C367" t="s">
-        <v>2348</v>
+        <v>2345</v>
       </c>
       <c r="D367" t="s">
         <v>1586</v>
@@ -16976,7 +16979,7 @@
         <v>410</v>
       </c>
       <c r="C368" t="s">
-        <v>2349</v>
+        <v>2346</v>
       </c>
       <c r="D368" t="s">
         <v>1589</v>
@@ -16999,7 +17002,7 @@
         <v>411</v>
       </c>
       <c r="C369" t="s">
-        <v>2350</v>
+        <v>2347</v>
       </c>
       <c r="D369" t="s">
         <v>1592</v>
@@ -17022,7 +17025,7 @@
         <v>412</v>
       </c>
       <c r="C370" t="s">
-        <v>2351</v>
+        <v>2348</v>
       </c>
       <c r="D370" t="s">
         <v>2</v>
@@ -17045,7 +17048,7 @@
         <v>413</v>
       </c>
       <c r="C371" t="s">
-        <v>2352</v>
+        <v>2349</v>
       </c>
       <c r="D371" t="s">
         <v>1597</v>
@@ -17068,7 +17071,7 @@
         <v>414</v>
       </c>
       <c r="C372" t="s">
-        <v>2353</v>
+        <v>2350</v>
       </c>
       <c r="D372" t="s">
         <v>1600</v>
@@ -17091,7 +17094,7 @@
         <v>415</v>
       </c>
       <c r="C373" t="s">
-        <v>2354</v>
+        <v>2351</v>
       </c>
       <c r="D373" t="s">
         <v>1603</v>
@@ -17114,7 +17117,7 @@
         <v>417</v>
       </c>
       <c r="C374" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
       <c r="D374" t="s">
         <v>1606</v>
@@ -17137,7 +17140,7 @@
         <v>416</v>
       </c>
       <c r="C375" t="s">
-        <v>2356</v>
+        <v>2353</v>
       </c>
       <c r="D375" t="s">
         <v>1609</v>
@@ -17160,7 +17163,7 @@
         <v>418</v>
       </c>
       <c r="C376" t="s">
-        <v>2357</v>
+        <v>2354</v>
       </c>
       <c r="D376" t="s">
         <v>1612</v>
@@ -17183,7 +17186,7 @@
         <v>419</v>
       </c>
       <c r="C377" t="s">
-        <v>2358</v>
+        <v>2355</v>
       </c>
       <c r="D377" t="s">
         <v>1615</v>
@@ -17206,7 +17209,7 @@
         <v>420</v>
       </c>
       <c r="C378" t="s">
-        <v>2359</v>
+        <v>2356</v>
       </c>
       <c r="D378" t="s">
         <v>1618</v>
@@ -17229,7 +17232,7 @@
         <v>421</v>
       </c>
       <c r="C379" t="s">
-        <v>2360</v>
+        <v>2357</v>
       </c>
       <c r="D379" t="s">
         <v>1621</v>
@@ -17252,7 +17255,7 @@
         <v>422</v>
       </c>
       <c r="C380" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
       <c r="D380" t="s">
         <v>1624</v>
@@ -17275,7 +17278,7 @@
         <v>423</v>
       </c>
       <c r="C381" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
       <c r="D381" t="s">
         <v>1626</v>
@@ -17298,7 +17301,7 @@
         <v>424</v>
       </c>
       <c r="C382" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="D382" t="s">
         <v>1629</v>
@@ -17321,7 +17324,7 @@
         <v>425</v>
       </c>
       <c r="C383" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
       <c r="D383" t="s">
         <v>1632</v>
@@ -17344,7 +17347,7 @@
         <v>426</v>
       </c>
       <c r="C384" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
       <c r="D384" t="s">
         <v>1635</v>
@@ -17367,7 +17370,7 @@
         <v>427</v>
       </c>
       <c r="C385" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
       <c r="D385" t="s">
         <v>1638</v>
@@ -17390,7 +17393,7 @@
         <v>428</v>
       </c>
       <c r="C386" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="D386" t="s">
         <v>1641</v>
@@ -17413,7 +17416,7 @@
         <v>429</v>
       </c>
       <c r="C387" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
       <c r="D387" t="s">
         <v>1644</v>
@@ -17436,7 +17439,7 @@
         <v>430</v>
       </c>
       <c r="C388" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="D388" t="s">
         <v>1647</v>
@@ -17459,7 +17462,7 @@
         <v>431</v>
       </c>
       <c r="C389" t="s">
-        <v>2370</v>
+        <v>2367</v>
       </c>
       <c r="D389" t="s">
         <v>1650</v>
@@ -17482,7 +17485,7 @@
         <v>432</v>
       </c>
       <c r="C390" t="s">
-        <v>2371</v>
+        <v>2368</v>
       </c>
       <c r="D390" t="s">
         <v>1653</v>
@@ -17505,7 +17508,7 @@
         <v>433</v>
       </c>
       <c r="C391" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="D391" t="s">
         <v>1656</v>
@@ -17528,7 +17531,7 @@
         <v>434</v>
       </c>
       <c r="C392" t="s">
-        <v>2373</v>
+        <v>2370</v>
       </c>
       <c r="D392" t="s">
         <v>1659</v>
@@ -17551,7 +17554,7 @@
         <v>435</v>
       </c>
       <c r="C393" t="s">
-        <v>2374</v>
+        <v>2371</v>
       </c>
       <c r="D393" t="s">
         <v>1662</v>
@@ -17574,7 +17577,7 @@
         <v>436</v>
       </c>
       <c r="C394" t="s">
-        <v>2375</v>
+        <v>2372</v>
       </c>
       <c r="D394" t="s">
         <v>1665</v>
@@ -17597,7 +17600,7 @@
         <v>437</v>
       </c>
       <c r="C395" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
       <c r="D395" t="s">
         <v>1668</v>
@@ -17620,7 +17623,7 @@
         <v>438</v>
       </c>
       <c r="C396" t="s">
-        <v>2376</v>
+        <v>2373</v>
       </c>
       <c r="D396" t="s">
         <v>1671</v>
@@ -17643,7 +17646,7 @@
         <v>439</v>
       </c>
       <c r="C397" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="D397" t="s">
         <v>1674</v>
@@ -17666,7 +17669,7 @@
         <v>440</v>
       </c>
       <c r="C398" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
       <c r="D398" t="s">
         <v>1677</v>
@@ -17689,7 +17692,7 @@
         <v>375</v>
       </c>
       <c r="C399" t="s">
-        <v>2315</v>
+        <v>2312</v>
       </c>
       <c r="D399" t="s">
         <v>1484</v>
@@ -17712,7 +17715,7 @@
         <v>441</v>
       </c>
       <c r="C400" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
       <c r="D400" t="s">
         <v>1680</v>
@@ -17735,7 +17738,7 @@
         <v>442</v>
       </c>
       <c r="C401" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
       <c r="D401" t="s">
         <v>1683</v>
@@ -17758,7 +17761,7 @@
         <v>443</v>
       </c>
       <c r="C402" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
       <c r="D402" t="s">
         <v>1481</v>
@@ -17781,7 +17784,7 @@
         <v>444</v>
       </c>
       <c r="C403" t="s">
-        <v>2382</v>
+        <v>2379</v>
       </c>
       <c r="D403" t="s">
         <v>1688</v>
@@ -17804,7 +17807,7 @@
         <v>445</v>
       </c>
       <c r="C404" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
       <c r="D404" t="s">
         <v>1691</v>
@@ -17827,7 +17830,7 @@
         <v>446</v>
       </c>
       <c r="C405" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="D405" t="s">
         <v>1694</v>
@@ -17850,7 +17853,7 @@
         <v>447</v>
       </c>
       <c r="C406" t="s">
-        <v>2385</v>
+        <v>2382</v>
       </c>
       <c r="D406" t="s">
         <v>1697</v>
@@ -17873,7 +17876,7 @@
         <v>448</v>
       </c>
       <c r="C407" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
       <c r="D407" t="s">
         <v>1700</v>
@@ -17896,7 +17899,7 @@
         <v>449</v>
       </c>
       <c r="C408" t="s">
-        <v>2387</v>
+        <v>2384</v>
       </c>
       <c r="D408" t="s">
         <v>1703</v>
@@ -17919,7 +17922,7 @@
         <v>450</v>
       </c>
       <c r="C409" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="D409" t="s">
         <v>1706</v>
@@ -17942,7 +17945,7 @@
         <v>451</v>
       </c>
       <c r="C410" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
       <c r="D410" t="s">
         <v>1709</v>
@@ -17965,7 +17968,7 @@
         <v>452</v>
       </c>
       <c r="C411" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
       <c r="D411" t="s">
         <v>1712</v>
@@ -17988,7 +17991,7 @@
         <v>453</v>
       </c>
       <c r="C412" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="D412" t="s">
         <v>1715</v>
@@ -18011,7 +18014,7 @@
         <v>454</v>
       </c>
       <c r="C413" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
       <c r="D413" t="s">
         <v>1718</v>
@@ -18034,7 +18037,7 @@
         <v>455</v>
       </c>
       <c r="C414" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="D414" t="s">
         <v>1721</v>
@@ -18057,7 +18060,7 @@
         <v>456</v>
       </c>
       <c r="C415" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
       <c r="D415" t="s">
         <v>1724</v>
@@ -18080,7 +18083,7 @@
         <v>457</v>
       </c>
       <c r="C416" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
       <c r="D416" t="s">
         <v>1727</v>
@@ -18103,7 +18106,7 @@
         <v>458</v>
       </c>
       <c r="C417" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="D417" t="s">
         <v>1730</v>
@@ -18126,7 +18129,7 @@
         <v>459</v>
       </c>
       <c r="C418" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
       <c r="D418" t="s">
         <v>1733</v>
@@ -18149,7 +18152,7 @@
         <v>460</v>
       </c>
       <c r="C419" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="D419" t="s">
         <v>1736</v>
@@ -18172,7 +18175,7 @@
         <v>247</v>
       </c>
       <c r="C420" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="D420" t="s">
         <v>1739</v>
@@ -18195,7 +18198,7 @@
         <v>461</v>
       </c>
       <c r="C421" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
       <c r="D421" t="s">
         <v>1742</v>
@@ -18218,7 +18221,7 @@
         <v>462</v>
       </c>
       <c r="C422" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="D422" t="s">
         <v>1745</v>
@@ -18241,7 +18244,7 @@
         <v>463</v>
       </c>
       <c r="C423" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
       <c r="D423" t="s">
         <v>1748</v>
@@ -18264,7 +18267,7 @@
         <v>464</v>
       </c>
       <c r="C424" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
       <c r="D424" t="s">
         <v>1751</v>
@@ -18287,7 +18290,7 @@
         <v>465</v>
       </c>
       <c r="C425" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
       <c r="D425" t="s">
         <v>1754</v>
@@ -18310,7 +18313,7 @@
         <v>466</v>
       </c>
       <c r="C426" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
       <c r="D426" t="s">
         <v>1757</v>
@@ -18333,7 +18336,7 @@
         <v>467</v>
       </c>
       <c r="C427" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="D427" t="s">
         <v>1760</v>
@@ -18356,7 +18359,7 @@
         <v>468</v>
       </c>
       <c r="C428" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="D428" t="s">
         <v>1763</v>
@@ -18379,7 +18382,7 @@
         <v>469</v>
       </c>
       <c r="C429" t="s">
-        <v>2407</v>
+        <v>2404</v>
       </c>
       <c r="D429" t="s">
         <v>1766</v>
@@ -18402,7 +18405,7 @@
         <v>470</v>
       </c>
       <c r="C430" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
       <c r="D430" t="s">
         <v>1769</v>
@@ -18425,7 +18428,7 @@
         <v>471</v>
       </c>
       <c r="C431" t="s">
-        <v>2409</v>
+        <v>2406</v>
       </c>
       <c r="D431" t="s">
         <v>1772</v>
@@ -18448,7 +18451,7 @@
         <v>472</v>
       </c>
       <c r="C432" t="s">
-        <v>2410</v>
+        <v>2407</v>
       </c>
       <c r="D432" t="s">
         <v>1775</v>
@@ -18471,7 +18474,7 @@
         <v>473</v>
       </c>
       <c r="C433" t="s">
-        <v>2411</v>
+        <v>2408</v>
       </c>
       <c r="D433" t="s">
         <v>1778</v>
@@ -18494,7 +18497,7 @@
         <v>474</v>
       </c>
       <c r="C434" t="s">
-        <v>2412</v>
+        <v>2409</v>
       </c>
       <c r="D434" t="s">
         <v>1781</v>
@@ -18517,7 +18520,7 @@
         <v>475</v>
       </c>
       <c r="C435" t="s">
-        <v>2413</v>
+        <v>2410</v>
       </c>
       <c r="D435" t="s">
         <v>1784</v>
@@ -18540,7 +18543,7 @@
         <v>476</v>
       </c>
       <c r="C436" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="D436" t="s">
         <v>1787</v>
@@ -18563,7 +18566,7 @@
         <v>477</v>
       </c>
       <c r="C437" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
       <c r="D437" t="s">
         <v>1790</v>
@@ -18586,7 +18589,7 @@
         <v>478</v>
       </c>
       <c r="C438" t="s">
-        <v>2416</v>
+        <v>2413</v>
       </c>
       <c r="D438" t="s">
         <v>1793</v>
@@ -18609,7 +18612,7 @@
         <v>479</v>
       </c>
       <c r="C439" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
       <c r="D439" t="s">
         <v>1796</v>
@@ -18632,7 +18635,7 @@
         <v>480</v>
       </c>
       <c r="C440" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
       <c r="D440" t="s">
         <v>1799</v>
@@ -18655,7 +18658,7 @@
         <v>481</v>
       </c>
       <c r="C441" t="s">
-        <v>2419</v>
+        <v>2416</v>
       </c>
       <c r="D441" t="s">
         <v>1802</v>
@@ -18678,7 +18681,7 @@
         <v>482</v>
       </c>
       <c r="C442" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
       <c r="D442" t="s">
         <v>1805</v>
@@ -18701,7 +18704,7 @@
         <v>483</v>
       </c>
       <c r="C443" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
       <c r="D443" t="s">
         <v>1808</v>
@@ -18724,7 +18727,7 @@
         <v>484</v>
       </c>
       <c r="C444" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
       <c r="D444" t="s">
         <v>1811</v>
@@ -18747,7 +18750,7 @@
         <v>485</v>
       </c>
       <c r="C445" t="s">
-        <v>2423</v>
+        <v>2420</v>
       </c>
       <c r="D445" t="s">
         <v>1814</v>
@@ -18770,7 +18773,7 @@
         <v>486</v>
       </c>
       <c r="C446" t="s">
-        <v>2424</v>
+        <v>2421</v>
       </c>
       <c r="D446" t="s">
         <v>1817</v>
@@ -18793,7 +18796,7 @@
         <v>487</v>
       </c>
       <c r="C447" t="s">
-        <v>2425</v>
+        <v>2422</v>
       </c>
       <c r="D447" t="s">
         <v>1820</v>
@@ -18816,7 +18819,7 @@
         <v>488</v>
       </c>
       <c r="C448" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="D448" t="s">
         <v>1823</v>
@@ -18839,7 +18842,7 @@
         <v>489</v>
       </c>
       <c r="C449" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
       <c r="D449" t="s">
         <v>1826</v>
@@ -18862,7 +18865,7 @@
         <v>490</v>
       </c>
       <c r="C450" t="s">
-        <v>2428</v>
+        <v>2425</v>
       </c>
       <c r="D450" t="s">
         <v>1827</v>
@@ -18885,7 +18888,7 @@
         <v>491</v>
       </c>
       <c r="C451" t="s">
-        <v>2429</v>
+        <v>2426</v>
       </c>
       <c r="D451" t="s">
         <v>1828</v>
@@ -18908,7 +18911,7 @@
         <v>492</v>
       </c>
       <c r="C452" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
       <c r="D452" t="s">
         <v>1831</v>
@@ -18931,7 +18934,7 @@
         <v>493</v>
       </c>
       <c r="C453" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="D453" t="s">
         <v>1834</v>
@@ -18954,7 +18957,7 @@
         <v>494</v>
       </c>
       <c r="C454" t="s">
-        <v>2432</v>
+        <v>2429</v>
       </c>
       <c r="D454" t="s">
         <v>1836</v>
@@ -18977,7 +18980,7 @@
         <v>495</v>
       </c>
       <c r="C455" t="s">
-        <v>2433</v>
+        <v>2430</v>
       </c>
       <c r="D455" t="s">
         <v>1839</v>
@@ -19000,7 +19003,7 @@
         <v>496</v>
       </c>
       <c r="C456" t="s">
-        <v>2434</v>
+        <v>2431</v>
       </c>
       <c r="D456" t="s">
         <v>1994</v>
@@ -19046,7 +19049,7 @@
         <v>498</v>
       </c>
       <c r="C458" t="s">
-        <v>2435</v>
+        <v>2432</v>
       </c>
       <c r="D458" t="s">
         <v>1995</v>
@@ -19069,7 +19072,7 @@
         <v>499</v>
       </c>
       <c r="C459" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
       <c r="D459" t="s">
         <v>1996</v>
@@ -19092,7 +19095,7 @@
         <v>500</v>
       </c>
       <c r="C460" t="s">
-        <v>2437</v>
+        <v>2434</v>
       </c>
       <c r="D460" t="s">
         <v>1851</v>
@@ -19115,7 +19118,7 @@
         <v>501</v>
       </c>
       <c r="C461" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
       <c r="D461" t="s">
         <v>1854</v>
@@ -19138,7 +19141,7 @@
         <v>502</v>
       </c>
       <c r="C462" t="s">
-        <v>2439</v>
+        <v>2436</v>
       </c>
       <c r="D462" t="s">
         <v>1857</v>
@@ -19161,7 +19164,7 @@
         <v>503</v>
       </c>
       <c r="C463" t="s">
-        <v>2440</v>
+        <v>2437</v>
       </c>
       <c r="D463" t="s">
         <v>1860</v>
@@ -19184,7 +19187,7 @@
         <v>504</v>
       </c>
       <c r="C464" t="s">
-        <v>2441</v>
+        <v>2438</v>
       </c>
       <c r="D464" t="s">
         <v>1863</v>
@@ -19207,7 +19210,7 @@
         <v>505</v>
       </c>
       <c r="C465" t="s">
-        <v>2442</v>
+        <v>2439</v>
       </c>
       <c r="D465" t="s">
         <v>1866</v>
@@ -19230,7 +19233,7 @@
         <v>506</v>
       </c>
       <c r="C466" t="s">
-        <v>2443</v>
+        <v>2440</v>
       </c>
       <c r="D466" t="s">
         <v>1869</v>
@@ -19253,7 +19256,7 @@
         <v>507</v>
       </c>
       <c r="C467" t="s">
-        <v>2444</v>
+        <v>2441</v>
       </c>
       <c r="D467" t="s">
         <v>1872</v>
@@ -19276,7 +19279,7 @@
         <v>508</v>
       </c>
       <c r="C468" t="s">
-        <v>2445</v>
+        <v>2442</v>
       </c>
       <c r="D468" t="s">
         <v>1875</v>
@@ -19299,7 +19302,7 @@
         <v>509</v>
       </c>
       <c r="C469" t="s">
-        <v>2446</v>
+        <v>2443</v>
       </c>
       <c r="D469" t="s">
         <v>1878</v>
@@ -19322,7 +19325,7 @@
         <v>510</v>
       </c>
       <c r="C470" t="s">
-        <v>2447</v>
+        <v>2444</v>
       </c>
       <c r="D470" t="s">
         <v>1881</v>
@@ -19345,7 +19348,7 @@
         <v>511</v>
       </c>
       <c r="C471" t="s">
-        <v>2448</v>
+        <v>2445</v>
       </c>
       <c r="D471" t="s">
         <v>1884</v>
@@ -19368,7 +19371,7 @@
         <v>512</v>
       </c>
       <c r="C472" t="s">
-        <v>2449</v>
+        <v>2446</v>
       </c>
       <c r="D472" t="s">
         <v>1887</v>
@@ -19391,7 +19394,7 @@
         <v>513</v>
       </c>
       <c r="C473" t="s">
-        <v>2450</v>
+        <v>2447</v>
       </c>
       <c r="D473" t="s">
         <v>1475</v>
@@ -19414,7 +19417,7 @@
         <v>514</v>
       </c>
       <c r="C474" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="D474" t="s">
         <v>1892</v>
@@ -19437,7 +19440,7 @@
         <v>515</v>
       </c>
       <c r="C475" t="s">
-        <v>2452</v>
+        <v>2449</v>
       </c>
       <c r="D475" t="s">
         <v>1894</v>
@@ -19460,7 +19463,7 @@
         <v>516</v>
       </c>
       <c r="C476" t="s">
-        <v>2453</v>
+        <v>2450</v>
       </c>
       <c r="D476" t="s">
         <v>1897</v>
@@ -19483,7 +19486,7 @@
         <v>517</v>
       </c>
       <c r="C477" t="s">
-        <v>2454</v>
+        <v>2451</v>
       </c>
       <c r="D477" t="s">
         <v>1898</v>
@@ -19506,7 +19509,7 @@
         <v>518</v>
       </c>
       <c r="C478" t="s">
-        <v>2455</v>
+        <v>2452</v>
       </c>
       <c r="D478" t="s">
         <v>1901</v>
@@ -19529,7 +19532,7 @@
         <v>519</v>
       </c>
       <c r="C479" t="s">
-        <v>2456</v>
+        <v>2453</v>
       </c>
       <c r="D479" t="s">
         <v>1987</v>
@@ -19552,7 +19555,7 @@
         <v>520</v>
       </c>
       <c r="C480" t="s">
-        <v>2457</v>
+        <v>2454</v>
       </c>
       <c r="D480" t="s">
         <v>1906</v>
@@ -19575,7 +19578,7 @@
         <v>521</v>
       </c>
       <c r="C481" t="s">
-        <v>2458</v>
+        <v>2455</v>
       </c>
       <c r="D481" t="s">
         <v>1909</v>
@@ -19598,7 +19601,7 @@
         <v>522</v>
       </c>
       <c r="C482" t="s">
-        <v>2459</v>
+        <v>2456</v>
       </c>
       <c r="D482" t="s">
         <v>1912</v>
@@ -19621,7 +19624,7 @@
         <v>400</v>
       </c>
       <c r="C483" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
       <c r="D483" t="s">
         <v>1915</v>
@@ -19644,7 +19647,7 @@
         <v>523</v>
       </c>
       <c r="C484" t="s">
-        <v>2460</v>
+        <v>2457</v>
       </c>
       <c r="D484" t="s">
         <v>1918</v>
@@ -19667,7 +19670,7 @@
         <v>524</v>
       </c>
       <c r="C485" t="s">
-        <v>2461</v>
+        <v>2458</v>
       </c>
       <c r="D485" t="s">
         <v>1921</v>
@@ -19690,7 +19693,7 @@
         <v>525</v>
       </c>
       <c r="C486" t="s">
-        <v>2462</v>
+        <v>2459</v>
       </c>
       <c r="D486" t="s">
         <v>1924</v>
@@ -19713,7 +19716,7 @@
         <v>526</v>
       </c>
       <c r="C487" t="s">
-        <v>2463</v>
+        <v>2460</v>
       </c>
       <c r="D487" t="s">
         <v>1927</v>
@@ -19736,7 +19739,7 @@
         <v>527</v>
       </c>
       <c r="C488" t="s">
-        <v>2464</v>
+        <v>2461</v>
       </c>
       <c r="D488" t="s">
         <v>1930</v>
@@ -19759,7 +19762,7 @@
         <v>528</v>
       </c>
       <c r="C489" t="s">
-        <v>2465</v>
+        <v>2462</v>
       </c>
       <c r="D489" t="s">
         <v>1933</v>
@@ -19782,7 +19785,7 @@
         <v>529</v>
       </c>
       <c r="C490" t="s">
-        <v>2466</v>
+        <v>2463</v>
       </c>
       <c r="D490" t="s">
         <v>1936</v>
@@ -19805,7 +19808,7 @@
         <v>530</v>
       </c>
       <c r="C491" t="s">
-        <v>2467</v>
+        <v>2464</v>
       </c>
       <c r="D491" t="s">
         <v>1939</v>
@@ -19828,7 +19831,7 @@
         <v>531</v>
       </c>
       <c r="C492" t="s">
-        <v>2468</v>
+        <v>2465</v>
       </c>
       <c r="D492" t="s">
         <v>1942</v>
@@ -19851,7 +19854,7 @@
         <v>532</v>
       </c>
       <c r="C493" t="s">
-        <v>2469</v>
+        <v>2466</v>
       </c>
       <c r="D493" t="s">
         <v>1945</v>
@@ -19874,7 +19877,7 @@
         <v>533</v>
       </c>
       <c r="C494" t="s">
-        <v>2470</v>
+        <v>2467</v>
       </c>
       <c r="D494" t="s">
         <v>1948</v>
@@ -19897,7 +19900,7 @@
         <v>534</v>
       </c>
       <c r="C495" t="s">
-        <v>2471</v>
+        <v>2468</v>
       </c>
       <c r="D495" t="s">
         <v>1951</v>
@@ -19920,7 +19923,7 @@
         <v>519</v>
       </c>
       <c r="C496" t="s">
-        <v>2456</v>
+        <v>2453</v>
       </c>
       <c r="D496" t="s">
         <v>1988</v>
@@ -19943,7 +19946,7 @@
         <v>535</v>
       </c>
       <c r="C497" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="D497" t="s">
         <v>1954</v>
@@ -19966,7 +19969,7 @@
         <v>536</v>
       </c>
       <c r="C498" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="D498" t="s">
         <v>1957</v>
@@ -19989,7 +19992,7 @@
         <v>537</v>
       </c>
       <c r="C499" t="s">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="D499" t="s">
         <v>1960</v>
@@ -20012,7 +20015,7 @@
         <v>525</v>
       </c>
       <c r="C500" t="s">
-        <v>2462</v>
+        <v>2459</v>
       </c>
       <c r="D500" t="s">
         <v>1924</v>
@@ -20035,7 +20038,7 @@
         <v>538</v>
       </c>
       <c r="C501" t="s">
-        <v>2475</v>
+        <v>2472</v>
       </c>
       <c r="D501" t="s">
         <v>1963</v>
@@ -20058,7 +20061,7 @@
         <v>539</v>
       </c>
       <c r="C502" t="s">
-        <v>2476</v>
+        <v>2473</v>
       </c>
       <c r="D502" t="s">
         <v>1966</v>
@@ -20104,7 +20107,7 @@
         <v>541</v>
       </c>
       <c r="C504" t="s">
-        <v>2477</v>
+        <v>2474</v>
       </c>
       <c r="D504" t="s">
         <v>1972</v>
@@ -20127,7 +20130,7 @@
         <v>542</v>
       </c>
       <c r="C505" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="D505" t="s">
         <v>1975</v>
@@ -20147,22 +20150,22 @@
         <v>505</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="C507" s="2" t="s">
+        <v>2495</v>
+      </c>
+      <c r="D507" s="2" t="s">
+        <v>2496</v>
+      </c>
+      <c r="E507" s="2" t="s">
+        <v>2569</v>
+      </c>
+      <c r="F507" s="2" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G507" s="2" t="s">
         <v>2498</v>
-      </c>
-      <c r="D507" s="2" t="s">
-        <v>2499</v>
-      </c>
-      <c r="E507" s="2" t="s">
-        <v>2572</v>
-      </c>
-      <c r="F507" s="2" t="s">
-        <v>2500</v>
-      </c>
-      <c r="G507" s="2" t="s">
-        <v>2501</v>
       </c>
     </row>
     <row r="508" spans="1:7">
@@ -20170,22 +20173,22 @@
         <v>506</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="C508" s="2" t="s">
+        <v>2499</v>
+      </c>
+      <c r="D508" s="2" t="s">
+        <v>2500</v>
+      </c>
+      <c r="E508" s="2" t="s">
+        <v>2570</v>
+      </c>
+      <c r="F508" s="2" t="s">
+        <v>2501</v>
+      </c>
+      <c r="G508" s="2" t="s">
         <v>2502</v>
-      </c>
-      <c r="D508" s="2" t="s">
-        <v>2503</v>
-      </c>
-      <c r="E508" s="2" t="s">
-        <v>2573</v>
-      </c>
-      <c r="F508" s="2" t="s">
-        <v>2504</v>
-      </c>
-      <c r="G508" s="2" t="s">
-        <v>2505</v>
       </c>
     </row>
     <row r="509" spans="1:7">
@@ -20193,22 +20196,22 @@
         <v>507</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="C509" s="2" t="s">
+        <v>2503</v>
+      </c>
+      <c r="D509" s="2" t="s">
+        <v>2504</v>
+      </c>
+      <c r="E509" s="2" t="s">
+        <v>2570</v>
+      </c>
+      <c r="F509" s="2" t="s">
+        <v>2505</v>
+      </c>
+      <c r="G509" s="2" t="s">
         <v>2506</v>
-      </c>
-      <c r="D509" s="2" t="s">
-        <v>2507</v>
-      </c>
-      <c r="E509" s="2" t="s">
-        <v>2573</v>
-      </c>
-      <c r="F509" s="2" t="s">
-        <v>2508</v>
-      </c>
-      <c r="G509" s="2" t="s">
-        <v>2509</v>
       </c>
     </row>
     <row r="510" spans="1:7">
@@ -20216,22 +20219,22 @@
         <v>508</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
       <c r="C510" s="2" t="s">
+        <v>2507</v>
+      </c>
+      <c r="D510" s="2" t="s">
+        <v>2508</v>
+      </c>
+      <c r="E510" s="2" t="s">
+        <v>2569</v>
+      </c>
+      <c r="F510" s="2" t="s">
+        <v>2509</v>
+      </c>
+      <c r="G510" s="2" t="s">
         <v>2510</v>
-      </c>
-      <c r="D510" s="2" t="s">
-        <v>2511</v>
-      </c>
-      <c r="E510" s="2" t="s">
-        <v>2572</v>
-      </c>
-      <c r="F510" s="2" t="s">
-        <v>2512</v>
-      </c>
-      <c r="G510" s="2" t="s">
-        <v>2513</v>
       </c>
     </row>
     <row r="511" spans="1:7">
@@ -20239,22 +20242,22 @@
         <v>509</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>2514</v>
+        <v>2511</v>
       </c>
       <c r="D511" s="2" t="s">
         <v>576</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>2574</v>
+        <v>2571</v>
       </c>
       <c r="F511" s="2" t="s">
-        <v>2515</v>
+        <v>2512</v>
       </c>
       <c r="G511" s="2" t="s">
-        <v>2516</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="512" spans="1:7">
@@ -20262,22 +20265,22 @@
         <v>510</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>2484</v>
+        <v>2481</v>
       </c>
       <c r="C512" s="2" t="s">
+        <v>2514</v>
+      </c>
+      <c r="D512" s="2" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E512" s="2" t="s">
+        <v>2572</v>
+      </c>
+      <c r="F512" s="2" t="s">
+        <v>2516</v>
+      </c>
+      <c r="G512" s="2" t="s">
         <v>2517</v>
-      </c>
-      <c r="D512" s="2" t="s">
-        <v>2518</v>
-      </c>
-      <c r="E512" s="2" t="s">
-        <v>2575</v>
-      </c>
-      <c r="F512" s="2" t="s">
-        <v>2519</v>
-      </c>
-      <c r="G512" s="2" t="s">
-        <v>2520</v>
       </c>
     </row>
     <row r="513" spans="1:7">
@@ -20285,22 +20288,22 @@
         <v>511</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>2485</v>
+        <v>2482</v>
       </c>
       <c r="C513" s="2" t="s">
+        <v>2518</v>
+      </c>
+      <c r="D513" s="2" t="s">
+        <v>2519</v>
+      </c>
+      <c r="E513" s="2" t="s">
+        <v>2572</v>
+      </c>
+      <c r="F513" s="2" t="s">
+        <v>2520</v>
+      </c>
+      <c r="G513" s="2" t="s">
         <v>2521</v>
-      </c>
-      <c r="D513" s="2" t="s">
-        <v>2522</v>
-      </c>
-      <c r="E513" s="2" t="s">
-        <v>2575</v>
-      </c>
-      <c r="F513" s="2" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G513" s="2" t="s">
-        <v>2524</v>
       </c>
     </row>
     <row r="514" spans="1:7">
@@ -20308,22 +20311,22 @@
         <v>512</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>2486</v>
+        <v>2483</v>
       </c>
       <c r="C514" s="2" t="s">
+        <v>2522</v>
+      </c>
+      <c r="D514" s="2" t="s">
+        <v>2523</v>
+      </c>
+      <c r="E514" s="2" t="s">
+        <v>2572</v>
+      </c>
+      <c r="F514" s="2" t="s">
+        <v>2524</v>
+      </c>
+      <c r="G514" s="2" t="s">
         <v>2525</v>
-      </c>
-      <c r="D514" s="2" t="s">
-        <v>2526</v>
-      </c>
-      <c r="E514" s="2" t="s">
-        <v>2575</v>
-      </c>
-      <c r="F514" s="2" t="s">
-        <v>2527</v>
-      </c>
-      <c r="G514" s="2" t="s">
-        <v>2528</v>
       </c>
     </row>
     <row r="515" spans="1:7">
@@ -20331,22 +20334,22 @@
         <v>513</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>2487</v>
+        <v>2484</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>2132</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>2529</v>
+        <v>2526</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>2575</v>
+        <v>2572</v>
       </c>
       <c r="F515" s="2" t="s">
-        <v>2530</v>
+        <v>2527</v>
       </c>
       <c r="G515" s="2" t="s">
-        <v>2570</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="516" spans="1:7">
@@ -20354,22 +20357,22 @@
         <v>514</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>2488</v>
+        <v>2485</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>2693</v>
+        <v>2690</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>2531</v>
+        <v>2528</v>
       </c>
       <c r="E516" s="2" t="s">
-        <v>2572</v>
+        <v>2569</v>
       </c>
       <c r="F516" s="2" t="s">
-        <v>2532</v>
+        <v>2529</v>
       </c>
       <c r="G516" s="2" t="s">
-        <v>2533</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="517" spans="1:7">
@@ -20377,22 +20380,22 @@
         <v>515</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>2489</v>
+        <v>2486</v>
       </c>
       <c r="C517" s="2" t="s">
+        <v>2531</v>
+      </c>
+      <c r="D517" s="2" t="s">
+        <v>2532</v>
+      </c>
+      <c r="E517" s="2" t="s">
+        <v>2572</v>
+      </c>
+      <c r="F517" s="2" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G517" s="2" t="s">
         <v>2534</v>
-      </c>
-      <c r="D517" s="2" t="s">
-        <v>2535</v>
-      </c>
-      <c r="E517" s="2" t="s">
-        <v>2575</v>
-      </c>
-      <c r="F517" s="2" t="s">
-        <v>2536</v>
-      </c>
-      <c r="G517" s="2" t="s">
-        <v>2537</v>
       </c>
     </row>
     <row r="518" spans="1:7">
@@ -20400,22 +20403,22 @@
         <v>516</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>2490</v>
+        <v>2487</v>
       </c>
       <c r="C518" s="2" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D518" s="2" t="s">
+        <v>2536</v>
+      </c>
+      <c r="E518" s="2" t="s">
+        <v>2570</v>
+      </c>
+      <c r="F518" s="2" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G518" s="2" t="s">
         <v>2538</v>
-      </c>
-      <c r="D518" s="2" t="s">
-        <v>2539</v>
-      </c>
-      <c r="E518" s="2" t="s">
-        <v>2573</v>
-      </c>
-      <c r="F518" s="2" t="s">
-        <v>2540</v>
-      </c>
-      <c r="G518" s="2" t="s">
-        <v>2541</v>
       </c>
     </row>
     <row r="519" spans="1:7">
@@ -20423,22 +20426,22 @@
         <v>517</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>2491</v>
+        <v>2488</v>
       </c>
       <c r="C519" s="2" t="s">
+        <v>2539</v>
+      </c>
+      <c r="D519" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="E519" s="2" t="s">
+        <v>2573</v>
+      </c>
+      <c r="F519" s="2" t="s">
+        <v>2541</v>
+      </c>
+      <c r="G519" s="2" t="s">
         <v>2542</v>
-      </c>
-      <c r="D519" s="2" t="s">
-        <v>2543</v>
-      </c>
-      <c r="E519" s="2" t="s">
-        <v>2576</v>
-      </c>
-      <c r="F519" s="2" t="s">
-        <v>2544</v>
-      </c>
-      <c r="G519" s="2" t="s">
-        <v>2545</v>
       </c>
     </row>
     <row r="520" spans="1:7">
@@ -20446,22 +20449,22 @@
         <v>518</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>2492</v>
+        <v>2489</v>
       </c>
       <c r="C520" s="2" t="s">
+        <v>2543</v>
+      </c>
+      <c r="D520" s="2" t="s">
+        <v>2544</v>
+      </c>
+      <c r="E520" s="2" t="s">
+        <v>2574</v>
+      </c>
+      <c r="F520" s="2" t="s">
+        <v>2545</v>
+      </c>
+      <c r="G520" s="2" t="s">
         <v>2546</v>
-      </c>
-      <c r="D520" s="2" t="s">
-        <v>2547</v>
-      </c>
-      <c r="E520" s="2" t="s">
-        <v>2577</v>
-      </c>
-      <c r="F520" s="2" t="s">
-        <v>2548</v>
-      </c>
-      <c r="G520" s="2" t="s">
-        <v>2549</v>
       </c>
     </row>
     <row r="521" spans="1:7">
@@ -20469,22 +20472,22 @@
         <v>519</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>2493</v>
+        <v>2490</v>
       </c>
       <c r="C521" s="2" t="s">
+        <v>2547</v>
+      </c>
+      <c r="D521" s="2" t="s">
+        <v>2548</v>
+      </c>
+      <c r="E521" s="2" t="s">
+        <v>2570</v>
+      </c>
+      <c r="F521" s="2" t="s">
+        <v>2549</v>
+      </c>
+      <c r="G521" s="2" t="s">
         <v>2550</v>
-      </c>
-      <c r="D521" s="2" t="s">
-        <v>2551</v>
-      </c>
-      <c r="E521" s="2" t="s">
-        <v>2573</v>
-      </c>
-      <c r="F521" s="2" t="s">
-        <v>2552</v>
-      </c>
-      <c r="G521" s="2" t="s">
-        <v>2553</v>
       </c>
     </row>
     <row r="522" spans="1:7">
@@ -20492,22 +20495,22 @@
         <v>520</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>2494</v>
+        <v>2491</v>
       </c>
       <c r="C522" s="2" t="s">
+        <v>2551</v>
+      </c>
+      <c r="D522" s="2" t="s">
+        <v>2552</v>
+      </c>
+      <c r="E522" s="2" t="s">
+        <v>2569</v>
+      </c>
+      <c r="F522" s="2" t="s">
+        <v>2553</v>
+      </c>
+      <c r="G522" s="2" t="s">
         <v>2554</v>
-      </c>
-      <c r="D522" s="2" t="s">
-        <v>2555</v>
-      </c>
-      <c r="E522" s="2" t="s">
-        <v>2572</v>
-      </c>
-      <c r="F522" s="2" t="s">
-        <v>2556</v>
-      </c>
-      <c r="G522" s="2" t="s">
-        <v>2557</v>
       </c>
     </row>
     <row r="523" spans="1:7">
@@ -20515,22 +20518,22 @@
         <v>521</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>2495</v>
+        <v>2492</v>
       </c>
       <c r="C523" s="2" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D523" s="2" t="s">
+        <v>2556</v>
+      </c>
+      <c r="E523" s="2" t="s">
+        <v>2574</v>
+      </c>
+      <c r="F523" s="2" t="s">
+        <v>2557</v>
+      </c>
+      <c r="G523" s="2" t="s">
         <v>2558</v>
-      </c>
-      <c r="D523" s="2" t="s">
-        <v>2559</v>
-      </c>
-      <c r="E523" s="2" t="s">
-        <v>2577</v>
-      </c>
-      <c r="F523" s="2" t="s">
-        <v>2560</v>
-      </c>
-      <c r="G523" s="2" t="s">
-        <v>2561</v>
       </c>
     </row>
     <row r="524" spans="1:7">
@@ -20538,22 +20541,22 @@
         <v>522</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>2496</v>
+        <v>2493</v>
       </c>
       <c r="C524" s="2" t="s">
+        <v>2559</v>
+      </c>
+      <c r="D524" s="2" t="s">
+        <v>2560</v>
+      </c>
+      <c r="E524" s="2" t="s">
+        <v>2571</v>
+      </c>
+      <c r="F524" s="2" t="s">
+        <v>2561</v>
+      </c>
+      <c r="G524" s="2" t="s">
         <v>2562</v>
-      </c>
-      <c r="D524" s="2" t="s">
-        <v>2563</v>
-      </c>
-      <c r="E524" s="2" t="s">
-        <v>2574</v>
-      </c>
-      <c r="F524" s="2" t="s">
-        <v>2564</v>
-      </c>
-      <c r="G524" s="2" t="s">
-        <v>2565</v>
       </c>
     </row>
     <row r="525" spans="1:7">
@@ -20561,22 +20564,22 @@
         <v>523</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>2497</v>
+        <v>2494</v>
       </c>
       <c r="C525" s="2" t="s">
+        <v>2563</v>
+      </c>
+      <c r="D525" s="2" t="s">
+        <v>2564</v>
+      </c>
+      <c r="E525" s="2" t="s">
+        <v>2571</v>
+      </c>
+      <c r="F525" s="2" t="s">
+        <v>2565</v>
+      </c>
+      <c r="G525" s="2" t="s">
         <v>2566</v>
-      </c>
-      <c r="D525" s="2" t="s">
-        <v>2567</v>
-      </c>
-      <c r="E525" s="2" t="s">
-        <v>2574</v>
-      </c>
-      <c r="F525" s="2" t="s">
-        <v>2568</v>
-      </c>
-      <c r="G525" s="2" t="s">
-        <v>2569</v>
       </c>
     </row>
     <row r="526" spans="1:7">
@@ -20584,22 +20587,22 @@
         <v>524</v>
       </c>
       <c r="B526" s="2" t="s">
+        <v>2575</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>2576</v>
+      </c>
+      <c r="D526" s="2" t="s">
+        <v>2577</v>
+      </c>
+      <c r="E526" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F526" s="2" t="s">
         <v>2578</v>
       </c>
-      <c r="C526" s="2" t="s">
+      <c r="G526" s="2" t="s">
         <v>2579</v>
-      </c>
-      <c r="D526" s="2" t="s">
-        <v>2580</v>
-      </c>
-      <c r="E526" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F526" s="2" t="s">
-        <v>2581</v>
-      </c>
-      <c r="G526" s="2" t="s">
-        <v>2582</v>
       </c>
     </row>
     <row r="527" spans="1:7">
@@ -20610,22 +20613,22 @@
         <v>525</v>
       </c>
       <c r="B528" s="2" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C528" s="2" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D528" s="2" t="s">
+        <v>2587</v>
+      </c>
+      <c r="E528" s="2" t="s">
         <v>2588</v>
       </c>
-      <c r="C528" s="2" t="s">
+      <c r="F528" s="2" t="s">
         <v>2589</v>
       </c>
-      <c r="D528" s="2" t="s">
+      <c r="G528" s="2" t="s">
         <v>2590</v>
-      </c>
-      <c r="E528" s="2" t="s">
-        <v>2591</v>
-      </c>
-      <c r="F528" s="2" t="s">
-        <v>2592</v>
-      </c>
-      <c r="G528" s="2" t="s">
-        <v>2593</v>
       </c>
     </row>
     <row r="529" spans="1:7">
@@ -20633,22 +20636,22 @@
         <v>526</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>2659</v>
+        <v>2656</v>
       </c>
       <c r="C529" s="2" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D529" s="2" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E529" s="2" t="s">
+        <v>2655</v>
+      </c>
+      <c r="F529" s="2" t="s">
+        <v>2593</v>
+      </c>
+      <c r="G529" s="2" t="s">
         <v>2594</v>
-      </c>
-      <c r="D529" s="2" t="s">
-        <v>2595</v>
-      </c>
-      <c r="E529" s="2" t="s">
-        <v>2658</v>
-      </c>
-      <c r="F529" s="2" t="s">
-        <v>2596</v>
-      </c>
-      <c r="G529" s="2" t="s">
-        <v>2597</v>
       </c>
     </row>
     <row r="530" spans="1:7">
@@ -20656,22 +20659,22 @@
         <v>527</v>
       </c>
       <c r="B530" s="2" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C530" s="2" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D530" s="2" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E530" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F530" s="2" t="s">
         <v>2598</v>
       </c>
-      <c r="C530" s="2" t="s">
+      <c r="G530" s="2" t="s">
         <v>2599</v>
-      </c>
-      <c r="D530" s="2" t="s">
-        <v>2600</v>
-      </c>
-      <c r="E530" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F530" s="2" t="s">
-        <v>2601</v>
-      </c>
-      <c r="G530" s="2" t="s">
-        <v>2602</v>
       </c>
     </row>
     <row r="531" spans="1:7">
@@ -20679,22 +20682,22 @@
         <v>528</v>
       </c>
       <c r="B531" s="2" t="s">
+        <v>2600</v>
+      </c>
+      <c r="C531" s="2" t="s">
+        <v>2601</v>
+      </c>
+      <c r="D531" s="2" t="s">
+        <v>2602</v>
+      </c>
+      <c r="E531" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F531" s="2" t="s">
         <v>2603</v>
       </c>
-      <c r="C531" s="2" t="s">
+      <c r="G531" s="2" t="s">
         <v>2604</v>
-      </c>
-      <c r="D531" s="2" t="s">
-        <v>2605</v>
-      </c>
-      <c r="E531" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F531" s="2" t="s">
-        <v>2606</v>
-      </c>
-      <c r="G531" s="2" t="s">
-        <v>2607</v>
       </c>
     </row>
     <row r="532" spans="1:7">
@@ -20702,22 +20705,22 @@
         <v>529</v>
       </c>
       <c r="B532" s="2" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>2606</v>
+      </c>
+      <c r="D532" s="2" t="s">
+        <v>2607</v>
+      </c>
+      <c r="E532" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F532" s="2" t="s">
         <v>2608</v>
       </c>
-      <c r="C532" s="2" t="s">
+      <c r="G532" s="2" t="s">
         <v>2609</v>
-      </c>
-      <c r="D532" s="2" t="s">
-        <v>2610</v>
-      </c>
-      <c r="E532" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F532" s="2" t="s">
-        <v>2611</v>
-      </c>
-      <c r="G532" s="2" t="s">
-        <v>2612</v>
       </c>
     </row>
     <row r="533" spans="1:7">
@@ -20725,22 +20728,22 @@
         <v>530</v>
       </c>
       <c r="B533" s="2" t="s">
+        <v>2610</v>
+      </c>
+      <c r="C533" s="2" t="s">
+        <v>2611</v>
+      </c>
+      <c r="D533" s="2" t="s">
+        <v>2612</v>
+      </c>
+      <c r="E533" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F533" s="2" t="s">
         <v>2613</v>
       </c>
-      <c r="C533" s="2" t="s">
+      <c r="G533" s="2" t="s">
         <v>2614</v>
-      </c>
-      <c r="D533" s="2" t="s">
-        <v>2615</v>
-      </c>
-      <c r="E533" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F533" s="2" t="s">
-        <v>2616</v>
-      </c>
-      <c r="G533" s="2" t="s">
-        <v>2617</v>
       </c>
     </row>
     <row r="534" spans="1:7">
@@ -20748,22 +20751,22 @@
         <v>531</v>
       </c>
       <c r="B534" s="2" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C534" s="2" t="s">
+        <v>2616</v>
+      </c>
+      <c r="D534" s="2" t="s">
+        <v>2617</v>
+      </c>
+      <c r="E534" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F534" s="2" t="s">
         <v>2618</v>
       </c>
-      <c r="C534" s="2" t="s">
+      <c r="G534" s="2" t="s">
         <v>2619</v>
-      </c>
-      <c r="D534" s="2" t="s">
-        <v>2620</v>
-      </c>
-      <c r="E534" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F534" s="2" t="s">
-        <v>2621</v>
-      </c>
-      <c r="G534" s="2" t="s">
-        <v>2622</v>
       </c>
     </row>
     <row r="535" spans="1:7">
@@ -20771,22 +20774,22 @@
         <v>532</v>
       </c>
       <c r="B535" s="2" t="s">
+        <v>2620</v>
+      </c>
+      <c r="C535" s="2" t="s">
+        <v>2621</v>
+      </c>
+      <c r="D535" s="2" t="s">
+        <v>2622</v>
+      </c>
+      <c r="E535" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F535" s="2" t="s">
         <v>2623</v>
       </c>
-      <c r="C535" s="2" t="s">
+      <c r="G535" s="2" t="s">
         <v>2624</v>
-      </c>
-      <c r="D535" s="2" t="s">
-        <v>2625</v>
-      </c>
-      <c r="E535" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F535" s="2" t="s">
-        <v>2626</v>
-      </c>
-      <c r="G535" s="2" t="s">
-        <v>2627</v>
       </c>
     </row>
     <row r="536" spans="1:7">
@@ -20794,22 +20797,22 @@
         <v>533</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>2628</v>
+        <v>2625</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>2629</v>
+        <v>2626</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>2630</v>
+        <v>2627</v>
       </c>
       <c r="E536" s="2" t="s">
         <v>1033</v>
       </c>
       <c r="F536" s="2" t="s">
-        <v>2631</v>
+        <v>2628</v>
       </c>
       <c r="G536" s="2" t="s">
-        <v>2632</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="537" spans="1:7">
@@ -20817,22 +20820,22 @@
         <v>534</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>2633</v>
+        <v>2630</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>2634</v>
+        <v>2631</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>2635</v>
+        <v>2632</v>
       </c>
       <c r="E537" s="2" t="s">
         <v>1033</v>
       </c>
       <c r="F537" s="2" t="s">
-        <v>2636</v>
+        <v>2633</v>
       </c>
       <c r="G537" s="2" t="s">
-        <v>2637</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="538" spans="1:7">
@@ -20840,22 +20843,22 @@
         <v>535</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>2638</v>
+        <v>2635</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>2639</v>
+        <v>2636</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>2640</v>
+        <v>2637</v>
       </c>
       <c r="E538" s="2" t="s">
         <v>1027</v>
       </c>
       <c r="F538" s="2" t="s">
-        <v>2641</v>
+        <v>2638</v>
       </c>
       <c r="G538" s="2" t="s">
-        <v>2642</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="539" spans="1:7">
@@ -20863,22 +20866,22 @@
         <v>536</v>
       </c>
       <c r="B539" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>2641</v>
+      </c>
+      <c r="D539" s="2" t="s">
+        <v>2642</v>
+      </c>
+      <c r="E539" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F539" s="2" t="s">
         <v>2643</v>
       </c>
-      <c r="C539" s="2" t="s">
+      <c r="G539" s="2" t="s">
         <v>2644</v>
-      </c>
-      <c r="D539" s="2" t="s">
-        <v>2645</v>
-      </c>
-      <c r="E539" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F539" s="2" t="s">
-        <v>2646</v>
-      </c>
-      <c r="G539" s="2" t="s">
-        <v>2647</v>
       </c>
     </row>
     <row r="540" spans="1:7">
@@ -20886,22 +20889,22 @@
         <v>537</v>
       </c>
       <c r="B540" s="2" t="s">
+        <v>2645</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>2646</v>
+      </c>
+      <c r="D540" s="2" t="s">
+        <v>2647</v>
+      </c>
+      <c r="E540" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F540" s="2" t="s">
         <v>2648</v>
       </c>
-      <c r="C540" s="2" t="s">
+      <c r="G540" s="2" t="s">
         <v>2649</v>
-      </c>
-      <c r="D540" s="2" t="s">
-        <v>2650</v>
-      </c>
-      <c r="E540" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F540" s="2" t="s">
-        <v>2651</v>
-      </c>
-      <c r="G540" s="2" t="s">
-        <v>2652</v>
       </c>
     </row>
     <row r="541" spans="1:7">
@@ -20909,22 +20912,22 @@
         <v>538</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>2653</v>
+        <v>2650</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>2654</v>
+        <v>2651</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>2655</v>
+        <v>2652</v>
       </c>
       <c r="E541" s="2" t="s">
         <v>1029</v>
       </c>
       <c r="F541" s="2" t="s">
-        <v>2656</v>
+        <v>2653</v>
       </c>
       <c r="G541" s="2" t="s">
-        <v>2657</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="543" spans="1:7">
@@ -20932,10 +20935,10 @@
         <v>539</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>2660</v>
+        <v>2657</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>2661</v>
+        <v>2658</v>
       </c>
       <c r="D543" s="2" t="s">
         <v>1289</v>
@@ -20944,7 +20947,7 @@
         <v>872</v>
       </c>
       <c r="F543" s="2" t="s">
-        <v>2676</v>
+        <v>2673</v>
       </c>
       <c r="G543" s="2" t="s">
         <v>1291</v>
@@ -20955,22 +20958,22 @@
         <v>540</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>2662</v>
+        <v>2659</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>2663</v>
+        <v>2660</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>2664</v>
+        <v>2661</v>
       </c>
       <c r="E544" s="2" t="s">
         <v>872</v>
       </c>
       <c r="F544" s="2" t="s">
-        <v>2677</v>
+        <v>2674</v>
       </c>
       <c r="G544" s="2" t="s">
-        <v>2678</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="545" spans="1:7">
@@ -20978,22 +20981,22 @@
         <v>541</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>2665</v>
+        <v>2662</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>2666</v>
+        <v>2663</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>2667</v>
+        <v>2664</v>
       </c>
       <c r="E545" s="2" t="s">
         <v>872</v>
       </c>
       <c r="F545" s="2" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="G545" s="2" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="546" spans="1:7">
@@ -21001,22 +21004,22 @@
         <v>542</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>2668</v>
+        <v>2665</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>2669</v>
+        <v>2666</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>2670</v>
+        <v>2667</v>
       </c>
       <c r="E546" s="2" t="s">
         <v>872</v>
       </c>
       <c r="F546" s="2" t="s">
-        <v>2681</v>
+        <v>2678</v>
       </c>
       <c r="G546" s="2" t="s">
-        <v>2682</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="547" spans="1:7">
@@ -21024,22 +21027,22 @@
         <v>543</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>2671</v>
+        <v>2668</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>2672</v>
+        <v>2669</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>2673</v>
+        <v>2670</v>
       </c>
       <c r="E547" s="2" t="s">
         <v>872</v>
       </c>
       <c r="F547" s="2" t="s">
-        <v>2683</v>
+        <v>2680</v>
       </c>
       <c r="G547" s="2" t="s">
-        <v>2684</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="548" spans="1:7">
@@ -21047,22 +21050,22 @@
         <v>544</v>
       </c>
       <c r="B548" s="2" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C548" s="2" t="s">
+        <v>2683</v>
+      </c>
+      <c r="D548" s="2" t="s">
+        <v>2684</v>
+      </c>
+      <c r="E548" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F548" s="2" t="s">
         <v>2685</v>
       </c>
-      <c r="C548" s="2" t="s">
+      <c r="G548" s="2" t="s">
         <v>2686</v>
-      </c>
-      <c r="D548" s="2" t="s">
-        <v>2687</v>
-      </c>
-      <c r="E548" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F548" s="2" t="s">
-        <v>2688</v>
-      </c>
-      <c r="G548" s="2" t="s">
-        <v>2689</v>
       </c>
     </row>
     <row r="549" spans="1:7">
@@ -21070,22 +21073,22 @@
         <v>545</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>2674</v>
+        <v>2671</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>2675</v>
+        <v>2672</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>2690</v>
+        <v>2687</v>
       </c>
       <c r="E549" s="2" t="s">
         <v>872</v>
       </c>
       <c r="F549" s="2" t="s">
-        <v>2691</v>
+        <v>2688</v>
       </c>
       <c r="G549" s="2" t="s">
-        <v>2692</v>
+        <v>2689</v>
       </c>
     </row>
   </sheetData>

--- a/doc/voca.xlsx
+++ b/doc/voca.xlsx
@@ -6744,9 +6744,6 @@
     <t>[raɪs]</t>
   </si>
   <si>
-    <t>[ˈsælɪd]</t>
-  </si>
-  <si>
     <t>[sup]</t>
   </si>
   <si>
@@ -8146,6 +8143,10 @@
   </si>
   <si>
     <t>[ˈnudḷz]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈsæləd]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8516,8 +8517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G549"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C255" sqref="C255"/>
+    <sheetView tabSelected="1" topLeftCell="A239" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C254" sqref="C254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8550,7 +8551,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -9274,7 +9275,7 @@
         <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="D33" t="s">
         <v>582</v>
@@ -9297,7 +9298,7 @@
         <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="D34" t="s">
         <v>585</v>
@@ -9320,7 +9321,7 @@
         <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="D35" t="s">
         <v>588</v>
@@ -9343,7 +9344,7 @@
         <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="D36" t="s">
         <v>591</v>
@@ -9412,7 +9413,7 @@
         <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="D39" t="s">
         <v>600</v>
@@ -11390,7 +11391,7 @@
         <v>174</v>
       </c>
       <c r="C125" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="D125" t="s">
         <v>793</v>
@@ -12586,7 +12587,7 @@
         <v>226</v>
       </c>
       <c r="C177" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="D177" t="s">
         <v>952</v>
@@ -12678,7 +12679,7 @@
         <v>230</v>
       </c>
       <c r="C181" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="D181" t="s">
         <v>964</v>
@@ -14081,7 +14082,7 @@
         <v>290</v>
       </c>
       <c r="C242" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="D242" t="s">
         <v>1217</v>
@@ -14196,7 +14197,7 @@
         <v>230</v>
       </c>
       <c r="C247" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="D247" t="s">
         <v>1232</v>
@@ -14288,7 +14289,7 @@
         <v>295</v>
       </c>
       <c r="C251" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="D251" t="s">
         <v>1244</v>
@@ -14357,7 +14358,7 @@
         <v>298</v>
       </c>
       <c r="C254" t="s">
-        <v>2236</v>
+        <v>2696</v>
       </c>
       <c r="D254" t="s">
         <v>1253</v>
@@ -14380,7 +14381,7 @@
         <v>299</v>
       </c>
       <c r="C255" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="D255" t="s">
         <v>1256</v>
@@ -14403,7 +14404,7 @@
         <v>300</v>
       </c>
       <c r="C256" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="D256" t="s">
         <v>1259</v>
@@ -14426,7 +14427,7 @@
         <v>301</v>
       </c>
       <c r="C257" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="D257" t="s">
         <v>1262</v>
@@ -14449,7 +14450,7 @@
         <v>302</v>
       </c>
       <c r="C258" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="D258" t="s">
         <v>1265</v>
@@ -14472,7 +14473,7 @@
         <v>303</v>
       </c>
       <c r="C259" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="D259" t="s">
         <v>1268</v>
@@ -14495,7 +14496,7 @@
         <v>304</v>
       </c>
       <c r="C260" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="D260" t="s">
         <v>1271</v>
@@ -14518,7 +14519,7 @@
         <v>305</v>
       </c>
       <c r="C261" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="D261" t="s">
         <v>1274</v>
@@ -14541,7 +14542,7 @@
         <v>306</v>
       </c>
       <c r="C262" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="D262" t="s">
         <v>1277</v>
@@ -14564,7 +14565,7 @@
         <v>307</v>
       </c>
       <c r="C263" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="D263" t="s">
         <v>1280</v>
@@ -14587,7 +14588,7 @@
         <v>308</v>
       </c>
       <c r="C264" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="D264" t="s">
         <v>1283</v>
@@ -14610,7 +14611,7 @@
         <v>309</v>
       </c>
       <c r="C265" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="D265" t="s">
         <v>1286</v>
@@ -14633,7 +14634,7 @@
         <v>310</v>
       </c>
       <c r="C266" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="D266" t="s">
         <v>1289</v>
@@ -14656,7 +14657,7 @@
         <v>311</v>
       </c>
       <c r="C267" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="D267" t="s">
         <v>1292</v>
@@ -14679,7 +14680,7 @@
         <v>312</v>
       </c>
       <c r="C268" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="D268" t="s">
         <v>1295</v>
@@ -14702,7 +14703,7 @@
         <v>313</v>
       </c>
       <c r="C269" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="D269" t="s">
         <v>1298</v>
@@ -14725,7 +14726,7 @@
         <v>314</v>
       </c>
       <c r="C270" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="D270" t="s">
         <v>1301</v>
@@ -14748,7 +14749,7 @@
         <v>315</v>
       </c>
       <c r="C271" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="D271" t="s">
         <v>1304</v>
@@ -14771,7 +14772,7 @@
         <v>316</v>
       </c>
       <c r="C272" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="D272" t="s">
         <v>1307</v>
@@ -14794,7 +14795,7 @@
         <v>317</v>
       </c>
       <c r="C273" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="D273" t="s">
         <v>1310</v>
@@ -14817,7 +14818,7 @@
         <v>318</v>
       </c>
       <c r="C274" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="D274" t="s">
         <v>1313</v>
@@ -14840,7 +14841,7 @@
         <v>319</v>
       </c>
       <c r="C275" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="D275" t="s">
         <v>1316</v>
@@ -14863,7 +14864,7 @@
         <v>320</v>
       </c>
       <c r="C276" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="D276" t="s">
         <v>1319</v>
@@ -14886,7 +14887,7 @@
         <v>321</v>
       </c>
       <c r="C277" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="D277" t="s">
         <v>1322</v>
@@ -14909,7 +14910,7 @@
         <v>322</v>
       </c>
       <c r="C278" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="D278" t="s">
         <v>1325</v>
@@ -14932,7 +14933,7 @@
         <v>323</v>
       </c>
       <c r="C279" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="D279" t="s">
         <v>1328</v>
@@ -14955,7 +14956,7 @@
         <v>324</v>
       </c>
       <c r="C280" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="D280" t="s">
         <v>1331</v>
@@ -14978,7 +14979,7 @@
         <v>325</v>
       </c>
       <c r="C281" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="D281" t="s">
         <v>1334</v>
@@ -15001,7 +15002,7 @@
         <v>326</v>
       </c>
       <c r="C282" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="D282" t="s">
         <v>1337</v>
@@ -15024,7 +15025,7 @@
         <v>327</v>
       </c>
       <c r="C283" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D283" t="s">
         <v>1340</v>
@@ -15047,7 +15048,7 @@
         <v>328</v>
       </c>
       <c r="C284" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="D284" t="s">
         <v>1343</v>
@@ -15070,7 +15071,7 @@
         <v>329</v>
       </c>
       <c r="C285" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D285" t="s">
         <v>1346</v>
@@ -15116,7 +15117,7 @@
         <v>331</v>
       </c>
       <c r="C287" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="D287" t="s">
         <v>1352</v>
@@ -15139,7 +15140,7 @@
         <v>332</v>
       </c>
       <c r="C288" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="D288" t="s">
         <v>1355</v>
@@ -15162,7 +15163,7 @@
         <v>333</v>
       </c>
       <c r="C289" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D289" t="s">
         <v>1358</v>
@@ -15185,7 +15186,7 @@
         <v>334</v>
       </c>
       <c r="C290" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D290" t="s">
         <v>1361</v>
@@ -15208,7 +15209,7 @@
         <v>335</v>
       </c>
       <c r="C291" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="D291" t="s">
         <v>1364</v>
@@ -15231,7 +15232,7 @@
         <v>336</v>
       </c>
       <c r="C292" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="D292" t="s">
         <v>1367</v>
@@ -15254,7 +15255,7 @@
         <v>337</v>
       </c>
       <c r="C293" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="D293" t="s">
         <v>1370</v>
@@ -15277,7 +15278,7 @@
         <v>338</v>
       </c>
       <c r="C294" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="D294" t="s">
         <v>1373</v>
@@ -15300,7 +15301,7 @@
         <v>339</v>
       </c>
       <c r="C295" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="D295" t="s">
         <v>1376</v>
@@ -15323,7 +15324,7 @@
         <v>340</v>
       </c>
       <c r="C296" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="D296" t="s">
         <v>1379</v>
@@ -15346,7 +15347,7 @@
         <v>341</v>
       </c>
       <c r="C297" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D297" t="s">
         <v>1382</v>
@@ -15369,7 +15370,7 @@
         <v>342</v>
       </c>
       <c r="C298" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="D298" t="s">
         <v>1385</v>
@@ -15392,7 +15393,7 @@
         <v>343</v>
       </c>
       <c r="C299" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="D299" t="s">
         <v>1388</v>
@@ -15415,7 +15416,7 @@
         <v>344</v>
       </c>
       <c r="C300" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="D300" t="s">
         <v>1391</v>
@@ -15438,7 +15439,7 @@
         <v>345</v>
       </c>
       <c r="C301" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="D301" t="s">
         <v>1394</v>
@@ -15461,7 +15462,7 @@
         <v>346</v>
       </c>
       <c r="C302" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="D302" t="s">
         <v>1397</v>
@@ -15484,7 +15485,7 @@
         <v>347</v>
       </c>
       <c r="C303" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="D303" t="s">
         <v>1400</v>
@@ -15507,7 +15508,7 @@
         <v>348</v>
       </c>
       <c r="C304" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="D304" t="s">
         <v>1403</v>
@@ -15530,7 +15531,7 @@
         <v>349</v>
       </c>
       <c r="C305" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="D305" t="s">
         <v>1406</v>
@@ -15553,7 +15554,7 @@
         <v>350</v>
       </c>
       <c r="C306" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="D306" t="s">
         <v>1409</v>
@@ -15576,7 +15577,7 @@
         <v>351</v>
       </c>
       <c r="C307" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="D307" t="s">
         <v>1412</v>
@@ -15599,7 +15600,7 @@
         <v>352</v>
       </c>
       <c r="C308" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="D308" t="s">
         <v>1415</v>
@@ -15622,7 +15623,7 @@
         <v>353</v>
       </c>
       <c r="C309" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="D309" t="s">
         <v>1418</v>
@@ -15645,7 +15646,7 @@
         <v>354</v>
       </c>
       <c r="C310" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="D310" t="s">
         <v>1421</v>
@@ -15668,7 +15669,7 @@
         <v>355</v>
       </c>
       <c r="C311" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="D311" t="s">
         <v>1424</v>
@@ -15691,7 +15692,7 @@
         <v>356</v>
       </c>
       <c r="C312" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="D312" t="s">
         <v>1427</v>
@@ -15714,7 +15715,7 @@
         <v>357</v>
       </c>
       <c r="C313" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="D313" t="s">
         <v>1430</v>
@@ -15737,7 +15738,7 @@
         <v>358</v>
       </c>
       <c r="C314" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="D314" t="s">
         <v>1433</v>
@@ -15760,7 +15761,7 @@
         <v>359</v>
       </c>
       <c r="C315" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="D315" t="s">
         <v>1436</v>
@@ -15783,7 +15784,7 @@
         <v>360</v>
       </c>
       <c r="C316" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="D316" t="s">
         <v>1439</v>
@@ -15806,7 +15807,7 @@
         <v>361</v>
       </c>
       <c r="C317" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="D317" t="s">
         <v>1440</v>
@@ -15829,7 +15830,7 @@
         <v>362</v>
       </c>
       <c r="C318" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="D318" t="s">
         <v>1440</v>
@@ -15852,7 +15853,7 @@
         <v>318</v>
       </c>
       <c r="C319" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="D319" t="s">
         <v>1445</v>
@@ -15875,7 +15876,7 @@
         <v>363</v>
       </c>
       <c r="C320" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="D320" t="s">
         <v>1448</v>
@@ -15898,7 +15899,7 @@
         <v>364</v>
       </c>
       <c r="C321" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="D321" t="s">
         <v>1451</v>
@@ -15921,7 +15922,7 @@
         <v>365</v>
       </c>
       <c r="C322" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="D322" t="s">
         <v>1454</v>
@@ -15944,7 +15945,7 @@
         <v>366</v>
       </c>
       <c r="C323" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="D323" t="s">
         <v>1457</v>
@@ -15967,7 +15968,7 @@
         <v>367</v>
       </c>
       <c r="C324" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="D324" t="s">
         <v>1460</v>
@@ -15990,7 +15991,7 @@
         <v>368</v>
       </c>
       <c r="C325" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="D325" t="s">
         <v>1463</v>
@@ -16013,7 +16014,7 @@
         <v>369</v>
       </c>
       <c r="C326" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="D326" t="s">
         <v>1466</v>
@@ -16036,7 +16037,7 @@
         <v>370</v>
       </c>
       <c r="C327" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="D327" t="s">
         <v>1469</v>
@@ -16059,7 +16060,7 @@
         <v>371</v>
       </c>
       <c r="C328" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="D328" t="s">
         <v>1472</v>
@@ -16082,7 +16083,7 @@
         <v>372</v>
       </c>
       <c r="C329" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="D329" t="s">
         <v>1475</v>
@@ -16105,7 +16106,7 @@
         <v>373</v>
       </c>
       <c r="C330" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="D330" t="s">
         <v>1478</v>
@@ -16128,7 +16129,7 @@
         <v>374</v>
       </c>
       <c r="C331" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="D331" t="s">
         <v>1481</v>
@@ -16151,7 +16152,7 @@
         <v>375</v>
       </c>
       <c r="C332" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D332" t="s">
         <v>1484</v>
@@ -16174,7 +16175,7 @@
         <v>376</v>
       </c>
       <c r="C333" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="D333" t="s">
         <v>1487</v>
@@ -16197,7 +16198,7 @@
         <v>377</v>
       </c>
       <c r="C334" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="D334" t="s">
         <v>1490</v>
@@ -16220,7 +16221,7 @@
         <v>378</v>
       </c>
       <c r="C335" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="D335" t="s">
         <v>1493</v>
@@ -16243,7 +16244,7 @@
         <v>379</v>
       </c>
       <c r="C336" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="D336" t="s">
         <v>1496</v>
@@ -16266,7 +16267,7 @@
         <v>380</v>
       </c>
       <c r="C337" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="D337" t="s">
         <v>1499</v>
@@ -16289,7 +16290,7 @@
         <v>381</v>
       </c>
       <c r="C338" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="D338" t="s">
         <v>1502</v>
@@ -16312,7 +16313,7 @@
         <v>382</v>
       </c>
       <c r="C339" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="D339" t="s">
         <v>1505</v>
@@ -16335,7 +16336,7 @@
         <v>383</v>
       </c>
       <c r="C340" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="D340" t="s">
         <v>1508</v>
@@ -16358,7 +16359,7 @@
         <v>384</v>
       </c>
       <c r="C341" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="D341" t="s">
         <v>1511</v>
@@ -16381,7 +16382,7 @@
         <v>385</v>
       </c>
       <c r="C342" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="D342" t="s">
         <v>1514</v>
@@ -16404,7 +16405,7 @@
         <v>386</v>
       </c>
       <c r="C343" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="D343" t="s">
         <v>1517</v>
@@ -16427,7 +16428,7 @@
         <v>387</v>
       </c>
       <c r="C344" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="D344" t="s">
         <v>1520</v>
@@ -16450,7 +16451,7 @@
         <v>388</v>
       </c>
       <c r="C345" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="D345" t="s">
         <v>1523</v>
@@ -16473,7 +16474,7 @@
         <v>389</v>
       </c>
       <c r="C346" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="D346" t="s">
         <v>1526</v>
@@ -16496,7 +16497,7 @@
         <v>390</v>
       </c>
       <c r="C347" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="D347" t="s">
         <v>1529</v>
@@ -16519,7 +16520,7 @@
         <v>391</v>
       </c>
       <c r="C348" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="D348" t="s">
         <v>1391</v>
@@ -16542,7 +16543,7 @@
         <v>392</v>
       </c>
       <c r="C349" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="D349" t="s">
         <v>1532</v>
@@ -16565,7 +16566,7 @@
         <v>393</v>
       </c>
       <c r="C350" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="D350" t="s">
         <v>1535</v>
@@ -16588,7 +16589,7 @@
         <v>394</v>
       </c>
       <c r="C351" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="D351" t="s">
         <v>1538</v>
@@ -16611,7 +16612,7 @@
         <v>395</v>
       </c>
       <c r="C352" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="D352" t="s">
         <v>1541</v>
@@ -16634,7 +16635,7 @@
         <v>396</v>
       </c>
       <c r="C353" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="D353" t="s">
         <v>1544</v>
@@ -16657,7 +16658,7 @@
         <v>397</v>
       </c>
       <c r="C354" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="D354" t="s">
         <v>1547</v>
@@ -16680,7 +16681,7 @@
         <v>398</v>
       </c>
       <c r="C355" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="D355" t="s">
         <v>1550</v>
@@ -16703,7 +16704,7 @@
         <v>399</v>
       </c>
       <c r="C356" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="D356" t="s">
         <v>1553</v>
@@ -16726,7 +16727,7 @@
         <v>400</v>
       </c>
       <c r="C357" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="D357" t="s">
         <v>1556</v>
@@ -16749,7 +16750,7 @@
         <v>401</v>
       </c>
       <c r="C358" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="D358" t="s">
         <v>1559</v>
@@ -16795,7 +16796,7 @@
         <v>402</v>
       </c>
       <c r="C360" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="D360" t="s">
         <v>1565</v>
@@ -16841,7 +16842,7 @@
         <v>404</v>
       </c>
       <c r="C362" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="D362" t="s">
         <v>1571</v>
@@ -16864,7 +16865,7 @@
         <v>405</v>
       </c>
       <c r="C363" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="D363" t="s">
         <v>1574</v>
@@ -16887,7 +16888,7 @@
         <v>406</v>
       </c>
       <c r="C364" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="D364" t="s">
         <v>1577</v>
@@ -16910,7 +16911,7 @@
         <v>407</v>
       </c>
       <c r="C365" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="D365" t="s">
         <v>1580</v>
@@ -16933,7 +16934,7 @@
         <v>408</v>
       </c>
       <c r="C366" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="D366" t="s">
         <v>1583</v>
@@ -16956,7 +16957,7 @@
         <v>409</v>
       </c>
       <c r="C367" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="D367" t="s">
         <v>1586</v>
@@ -16979,7 +16980,7 @@
         <v>410</v>
       </c>
       <c r="C368" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="D368" t="s">
         <v>1589</v>
@@ -17002,7 +17003,7 @@
         <v>411</v>
       </c>
       <c r="C369" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="D369" t="s">
         <v>1592</v>
@@ -17025,7 +17026,7 @@
         <v>412</v>
       </c>
       <c r="C370" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="D370" t="s">
         <v>2</v>
@@ -17048,7 +17049,7 @@
         <v>413</v>
       </c>
       <c r="C371" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="D371" t="s">
         <v>1597</v>
@@ -17071,7 +17072,7 @@
         <v>414</v>
       </c>
       <c r="C372" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="D372" t="s">
         <v>1600</v>
@@ -17094,7 +17095,7 @@
         <v>415</v>
       </c>
       <c r="C373" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="D373" t="s">
         <v>1603</v>
@@ -17117,7 +17118,7 @@
         <v>417</v>
       </c>
       <c r="C374" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="D374" t="s">
         <v>1606</v>
@@ -17140,7 +17141,7 @@
         <v>416</v>
       </c>
       <c r="C375" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="D375" t="s">
         <v>1609</v>
@@ -17163,7 +17164,7 @@
         <v>418</v>
       </c>
       <c r="C376" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="D376" t="s">
         <v>1612</v>
@@ -17186,7 +17187,7 @@
         <v>419</v>
       </c>
       <c r="C377" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="D377" t="s">
         <v>1615</v>
@@ -17209,7 +17210,7 @@
         <v>420</v>
       </c>
       <c r="C378" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="D378" t="s">
         <v>1618</v>
@@ -17232,7 +17233,7 @@
         <v>421</v>
       </c>
       <c r="C379" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="D379" t="s">
         <v>1621</v>
@@ -17255,7 +17256,7 @@
         <v>422</v>
       </c>
       <c r="C380" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="D380" t="s">
         <v>1624</v>
@@ -17278,7 +17279,7 @@
         <v>423</v>
       </c>
       <c r="C381" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="D381" t="s">
         <v>1626</v>
@@ -17301,7 +17302,7 @@
         <v>424</v>
       </c>
       <c r="C382" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="D382" t="s">
         <v>1629</v>
@@ -17324,7 +17325,7 @@
         <v>425</v>
       </c>
       <c r="C383" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="D383" t="s">
         <v>1632</v>
@@ -17347,7 +17348,7 @@
         <v>426</v>
       </c>
       <c r="C384" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="D384" t="s">
         <v>1635</v>
@@ -17370,7 +17371,7 @@
         <v>427</v>
       </c>
       <c r="C385" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="D385" t="s">
         <v>1638</v>
@@ -17393,7 +17394,7 @@
         <v>428</v>
       </c>
       <c r="C386" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="D386" t="s">
         <v>1641</v>
@@ -17416,7 +17417,7 @@
         <v>429</v>
       </c>
       <c r="C387" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="D387" t="s">
         <v>1644</v>
@@ -17439,7 +17440,7 @@
         <v>430</v>
       </c>
       <c r="C388" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="D388" t="s">
         <v>1647</v>
@@ -17462,7 +17463,7 @@
         <v>431</v>
       </c>
       <c r="C389" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="D389" t="s">
         <v>1650</v>
@@ -17485,7 +17486,7 @@
         <v>432</v>
       </c>
       <c r="C390" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D390" t="s">
         <v>1653</v>
@@ -17508,7 +17509,7 @@
         <v>433</v>
       </c>
       <c r="C391" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D391" t="s">
         <v>1656</v>
@@ -17531,7 +17532,7 @@
         <v>434</v>
       </c>
       <c r="C392" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="D392" t="s">
         <v>1659</v>
@@ -17554,7 +17555,7 @@
         <v>435</v>
       </c>
       <c r="C393" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="D393" t="s">
         <v>1662</v>
@@ -17577,7 +17578,7 @@
         <v>436</v>
       </c>
       <c r="C394" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D394" t="s">
         <v>1665</v>
@@ -17600,7 +17601,7 @@
         <v>437</v>
       </c>
       <c r="C395" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="D395" t="s">
         <v>1668</v>
@@ -17623,7 +17624,7 @@
         <v>438</v>
       </c>
       <c r="C396" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="D396" t="s">
         <v>1671</v>
@@ -17646,7 +17647,7 @@
         <v>439</v>
       </c>
       <c r="C397" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="D397" t="s">
         <v>1674</v>
@@ -17669,7 +17670,7 @@
         <v>440</v>
       </c>
       <c r="C398" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="D398" t="s">
         <v>1677</v>
@@ -17692,7 +17693,7 @@
         <v>375</v>
       </c>
       <c r="C399" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D399" t="s">
         <v>1484</v>
@@ -17715,7 +17716,7 @@
         <v>441</v>
       </c>
       <c r="C400" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D400" t="s">
         <v>1680</v>
@@ -17738,7 +17739,7 @@
         <v>442</v>
       </c>
       <c r="C401" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="D401" t="s">
         <v>1683</v>
@@ -17761,7 +17762,7 @@
         <v>443</v>
       </c>
       <c r="C402" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="D402" t="s">
         <v>1481</v>
@@ -17784,7 +17785,7 @@
         <v>444</v>
       </c>
       <c r="C403" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="D403" t="s">
         <v>1688</v>
@@ -17807,7 +17808,7 @@
         <v>445</v>
       </c>
       <c r="C404" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="D404" t="s">
         <v>1691</v>
@@ -17830,7 +17831,7 @@
         <v>446</v>
       </c>
       <c r="C405" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="D405" t="s">
         <v>1694</v>
@@ -17853,7 +17854,7 @@
         <v>447</v>
       </c>
       <c r="C406" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="D406" t="s">
         <v>1697</v>
@@ -17876,7 +17877,7 @@
         <v>448</v>
       </c>
       <c r="C407" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="D407" t="s">
         <v>1700</v>
@@ -17899,7 +17900,7 @@
         <v>449</v>
       </c>
       <c r="C408" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="D408" t="s">
         <v>1703</v>
@@ -17922,7 +17923,7 @@
         <v>450</v>
       </c>
       <c r="C409" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="D409" t="s">
         <v>1706</v>
@@ -17945,7 +17946,7 @@
         <v>451</v>
       </c>
       <c r="C410" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="D410" t="s">
         <v>1709</v>
@@ -17968,7 +17969,7 @@
         <v>452</v>
       </c>
       <c r="C411" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="D411" t="s">
         <v>1712</v>
@@ -17991,7 +17992,7 @@
         <v>453</v>
       </c>
       <c r="C412" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="D412" t="s">
         <v>1715</v>
@@ -18014,7 +18015,7 @@
         <v>454</v>
       </c>
       <c r="C413" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="D413" t="s">
         <v>1718</v>
@@ -18037,7 +18038,7 @@
         <v>455</v>
       </c>
       <c r="C414" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="D414" t="s">
         <v>1721</v>
@@ -18060,7 +18061,7 @@
         <v>456</v>
       </c>
       <c r="C415" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="D415" t="s">
         <v>1724</v>
@@ -18083,7 +18084,7 @@
         <v>457</v>
       </c>
       <c r="C416" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D416" t="s">
         <v>1727</v>
@@ -18106,7 +18107,7 @@
         <v>458</v>
       </c>
       <c r="C417" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="D417" t="s">
         <v>1730</v>
@@ -18129,7 +18130,7 @@
         <v>459</v>
       </c>
       <c r="C418" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="D418" t="s">
         <v>1733</v>
@@ -18152,7 +18153,7 @@
         <v>460</v>
       </c>
       <c r="C419" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="D419" t="s">
         <v>1736</v>
@@ -18198,7 +18199,7 @@
         <v>461</v>
       </c>
       <c r="C421" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="D421" t="s">
         <v>1742</v>
@@ -18221,7 +18222,7 @@
         <v>462</v>
       </c>
       <c r="C422" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="D422" t="s">
         <v>1745</v>
@@ -18244,7 +18245,7 @@
         <v>463</v>
       </c>
       <c r="C423" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D423" t="s">
         <v>1748</v>
@@ -18267,7 +18268,7 @@
         <v>464</v>
       </c>
       <c r="C424" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="D424" t="s">
         <v>1751</v>
@@ -18290,7 +18291,7 @@
         <v>465</v>
       </c>
       <c r="C425" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="D425" t="s">
         <v>1754</v>
@@ -18313,7 +18314,7 @@
         <v>466</v>
       </c>
       <c r="C426" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="D426" t="s">
         <v>1757</v>
@@ -18336,7 +18337,7 @@
         <v>467</v>
       </c>
       <c r="C427" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="D427" t="s">
         <v>1760</v>
@@ -18359,7 +18360,7 @@
         <v>468</v>
       </c>
       <c r="C428" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="D428" t="s">
         <v>1763</v>
@@ -18382,7 +18383,7 @@
         <v>469</v>
       </c>
       <c r="C429" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="D429" t="s">
         <v>1766</v>
@@ -18405,7 +18406,7 @@
         <v>470</v>
       </c>
       <c r="C430" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="D430" t="s">
         <v>1769</v>
@@ -18428,7 +18429,7 @@
         <v>471</v>
       </c>
       <c r="C431" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="D431" t="s">
         <v>1772</v>
@@ -18451,7 +18452,7 @@
         <v>472</v>
       </c>
       <c r="C432" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="D432" t="s">
         <v>1775</v>
@@ -18474,7 +18475,7 @@
         <v>473</v>
       </c>
       <c r="C433" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="D433" t="s">
         <v>1778</v>
@@ -18497,7 +18498,7 @@
         <v>474</v>
       </c>
       <c r="C434" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="D434" t="s">
         <v>1781</v>
@@ -18520,7 +18521,7 @@
         <v>475</v>
       </c>
       <c r="C435" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="D435" t="s">
         <v>1784</v>
@@ -18543,7 +18544,7 @@
         <v>476</v>
       </c>
       <c r="C436" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="D436" t="s">
         <v>1787</v>
@@ -18566,7 +18567,7 @@
         <v>477</v>
       </c>
       <c r="C437" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D437" t="s">
         <v>1790</v>
@@ -18589,7 +18590,7 @@
         <v>478</v>
       </c>
       <c r="C438" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="D438" t="s">
         <v>1793</v>
@@ -18612,7 +18613,7 @@
         <v>479</v>
       </c>
       <c r="C439" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="D439" t="s">
         <v>1796</v>
@@ -18635,7 +18636,7 @@
         <v>480</v>
       </c>
       <c r="C440" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="D440" t="s">
         <v>1799</v>
@@ -18658,7 +18659,7 @@
         <v>481</v>
       </c>
       <c r="C441" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="D441" t="s">
         <v>1802</v>
@@ -18681,7 +18682,7 @@
         <v>482</v>
       </c>
       <c r="C442" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="D442" t="s">
         <v>1805</v>
@@ -18704,7 +18705,7 @@
         <v>483</v>
       </c>
       <c r="C443" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="D443" t="s">
         <v>1808</v>
@@ -18727,7 +18728,7 @@
         <v>484</v>
       </c>
       <c r="C444" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D444" t="s">
         <v>1811</v>
@@ -18750,7 +18751,7 @@
         <v>485</v>
       </c>
       <c r="C445" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="D445" t="s">
         <v>1814</v>
@@ -18773,7 +18774,7 @@
         <v>486</v>
       </c>
       <c r="C446" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="D446" t="s">
         <v>1817</v>
@@ -18796,7 +18797,7 @@
         <v>487</v>
       </c>
       <c r="C447" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="D447" t="s">
         <v>1820</v>
@@ -18819,7 +18820,7 @@
         <v>488</v>
       </c>
       <c r="C448" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="D448" t="s">
         <v>1823</v>
@@ -18842,7 +18843,7 @@
         <v>489</v>
       </c>
       <c r="C449" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="D449" t="s">
         <v>1826</v>
@@ -18865,7 +18866,7 @@
         <v>490</v>
       </c>
       <c r="C450" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="D450" t="s">
         <v>1827</v>
@@ -18888,7 +18889,7 @@
         <v>491</v>
       </c>
       <c r="C451" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="D451" t="s">
         <v>1828</v>
@@ -18911,7 +18912,7 @@
         <v>492</v>
       </c>
       <c r="C452" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="D452" t="s">
         <v>1831</v>
@@ -18934,7 +18935,7 @@
         <v>493</v>
       </c>
       <c r="C453" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="D453" t="s">
         <v>1834</v>
@@ -18957,7 +18958,7 @@
         <v>494</v>
       </c>
       <c r="C454" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="D454" t="s">
         <v>1836</v>
@@ -18980,7 +18981,7 @@
         <v>495</v>
       </c>
       <c r="C455" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="D455" t="s">
         <v>1839</v>
@@ -19003,7 +19004,7 @@
         <v>496</v>
       </c>
       <c r="C456" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="D456" t="s">
         <v>1994</v>
@@ -19049,7 +19050,7 @@
         <v>498</v>
       </c>
       <c r="C458" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="D458" t="s">
         <v>1995</v>
@@ -19072,7 +19073,7 @@
         <v>499</v>
       </c>
       <c r="C459" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="D459" t="s">
         <v>1996</v>
@@ -19095,7 +19096,7 @@
         <v>500</v>
       </c>
       <c r="C460" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="D460" t="s">
         <v>1851</v>
@@ -19118,7 +19119,7 @@
         <v>501</v>
       </c>
       <c r="C461" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="D461" t="s">
         <v>1854</v>
@@ -19141,7 +19142,7 @@
         <v>502</v>
       </c>
       <c r="C462" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="D462" t="s">
         <v>1857</v>
@@ -19164,7 +19165,7 @@
         <v>503</v>
       </c>
       <c r="C463" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="D463" t="s">
         <v>1860</v>
@@ -19187,7 +19188,7 @@
         <v>504</v>
       </c>
       <c r="C464" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="D464" t="s">
         <v>1863</v>
@@ -19210,7 +19211,7 @@
         <v>505</v>
       </c>
       <c r="C465" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="D465" t="s">
         <v>1866</v>
@@ -19233,7 +19234,7 @@
         <v>506</v>
       </c>
       <c r="C466" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="D466" t="s">
         <v>1869</v>
@@ -19256,7 +19257,7 @@
         <v>507</v>
       </c>
       <c r="C467" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="D467" t="s">
         <v>1872</v>
@@ -19279,7 +19280,7 @@
         <v>508</v>
       </c>
       <c r="C468" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="D468" t="s">
         <v>1875</v>
@@ -19302,7 +19303,7 @@
         <v>509</v>
       </c>
       <c r="C469" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="D469" t="s">
         <v>1878</v>
@@ -19325,7 +19326,7 @@
         <v>510</v>
       </c>
       <c r="C470" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="D470" t="s">
         <v>1881</v>
@@ -19348,7 +19349,7 @@
         <v>511</v>
       </c>
       <c r="C471" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="D471" t="s">
         <v>1884</v>
@@ -19371,7 +19372,7 @@
         <v>512</v>
       </c>
       <c r="C472" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="D472" t="s">
         <v>1887</v>
@@ -19394,7 +19395,7 @@
         <v>513</v>
       </c>
       <c r="C473" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="D473" t="s">
         <v>1475</v>
@@ -19417,7 +19418,7 @@
         <v>514</v>
       </c>
       <c r="C474" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="D474" t="s">
         <v>1892</v>
@@ -19440,7 +19441,7 @@
         <v>515</v>
       </c>
       <c r="C475" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D475" t="s">
         <v>1894</v>
@@ -19463,7 +19464,7 @@
         <v>516</v>
       </c>
       <c r="C476" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="D476" t="s">
         <v>1897</v>
@@ -19486,7 +19487,7 @@
         <v>517</v>
       </c>
       <c r="C477" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="D477" t="s">
         <v>1898</v>
@@ -19509,7 +19510,7 @@
         <v>518</v>
       </c>
       <c r="C478" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="D478" t="s">
         <v>1901</v>
@@ -19532,7 +19533,7 @@
         <v>519</v>
       </c>
       <c r="C479" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="D479" t="s">
         <v>1987</v>
@@ -19555,7 +19556,7 @@
         <v>520</v>
       </c>
       <c r="C480" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D480" t="s">
         <v>1906</v>
@@ -19578,7 +19579,7 @@
         <v>521</v>
       </c>
       <c r="C481" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="D481" t="s">
         <v>1909</v>
@@ -19601,7 +19602,7 @@
         <v>522</v>
       </c>
       <c r="C482" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D482" t="s">
         <v>1912</v>
@@ -19624,7 +19625,7 @@
         <v>400</v>
       </c>
       <c r="C483" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="D483" t="s">
         <v>1915</v>
@@ -19647,7 +19648,7 @@
         <v>523</v>
       </c>
       <c r="C484" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="D484" t="s">
         <v>1918</v>
@@ -19670,7 +19671,7 @@
         <v>524</v>
       </c>
       <c r="C485" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="D485" t="s">
         <v>1921</v>
@@ -19693,7 +19694,7 @@
         <v>525</v>
       </c>
       <c r="C486" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="D486" t="s">
         <v>1924</v>
@@ -19716,7 +19717,7 @@
         <v>526</v>
       </c>
       <c r="C487" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="D487" t="s">
         <v>1927</v>
@@ -19739,7 +19740,7 @@
         <v>527</v>
       </c>
       <c r="C488" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="D488" t="s">
         <v>1930</v>
@@ -19762,7 +19763,7 @@
         <v>528</v>
       </c>
       <c r="C489" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D489" t="s">
         <v>1933</v>
@@ -19785,7 +19786,7 @@
         <v>529</v>
       </c>
       <c r="C490" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D490" t="s">
         <v>1936</v>
@@ -19808,7 +19809,7 @@
         <v>530</v>
       </c>
       <c r="C491" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D491" t="s">
         <v>1939</v>
@@ -19831,7 +19832,7 @@
         <v>531</v>
       </c>
       <c r="C492" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D492" t="s">
         <v>1942</v>
@@ -19854,7 +19855,7 @@
         <v>532</v>
       </c>
       <c r="C493" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="D493" t="s">
         <v>1945</v>
@@ -19877,7 +19878,7 @@
         <v>533</v>
       </c>
       <c r="C494" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="D494" t="s">
         <v>1948</v>
@@ -19900,7 +19901,7 @@
         <v>534</v>
       </c>
       <c r="C495" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="D495" t="s">
         <v>1951</v>
@@ -19923,7 +19924,7 @@
         <v>519</v>
       </c>
       <c r="C496" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="D496" t="s">
         <v>1988</v>
@@ -19946,7 +19947,7 @@
         <v>535</v>
       </c>
       <c r="C497" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="D497" t="s">
         <v>1954</v>
@@ -19969,7 +19970,7 @@
         <v>536</v>
       </c>
       <c r="C498" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="D498" t="s">
         <v>1957</v>
@@ -19992,7 +19993,7 @@
         <v>537</v>
       </c>
       <c r="C499" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="D499" t="s">
         <v>1960</v>
@@ -20015,7 +20016,7 @@
         <v>525</v>
       </c>
       <c r="C500" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="D500" t="s">
         <v>1924</v>
@@ -20038,7 +20039,7 @@
         <v>538</v>
       </c>
       <c r="C501" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="D501" t="s">
         <v>1963</v>
@@ -20061,7 +20062,7 @@
         <v>539</v>
       </c>
       <c r="C502" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="D502" t="s">
         <v>1966</v>
@@ -20107,7 +20108,7 @@
         <v>541</v>
       </c>
       <c r="C504" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="D504" t="s">
         <v>1972</v>
@@ -20130,7 +20131,7 @@
         <v>542</v>
       </c>
       <c r="C505" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="D505" t="s">
         <v>1975</v>
@@ -20150,22 +20151,22 @@
         <v>505</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="C507" s="2" t="s">
+        <v>2494</v>
+      </c>
+      <c r="D507" s="2" t="s">
         <v>2495</v>
       </c>
-      <c r="D507" s="2" t="s">
+      <c r="E507" s="2" t="s">
+        <v>2568</v>
+      </c>
+      <c r="F507" s="2" t="s">
         <v>2496</v>
       </c>
-      <c r="E507" s="2" t="s">
-        <v>2569</v>
-      </c>
-      <c r="F507" s="2" t="s">
+      <c r="G507" s="2" t="s">
         <v>2497</v>
-      </c>
-      <c r="G507" s="2" t="s">
-        <v>2498</v>
       </c>
     </row>
     <row r="508" spans="1:7">
@@ -20173,22 +20174,22 @@
         <v>506</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="C508" s="2" t="s">
+        <v>2498</v>
+      </c>
+      <c r="D508" s="2" t="s">
         <v>2499</v>
       </c>
-      <c r="D508" s="2" t="s">
+      <c r="E508" s="2" t="s">
+        <v>2569</v>
+      </c>
+      <c r="F508" s="2" t="s">
         <v>2500</v>
       </c>
-      <c r="E508" s="2" t="s">
-        <v>2570</v>
-      </c>
-      <c r="F508" s="2" t="s">
+      <c r="G508" s="2" t="s">
         <v>2501</v>
-      </c>
-      <c r="G508" s="2" t="s">
-        <v>2502</v>
       </c>
     </row>
     <row r="509" spans="1:7">
@@ -20196,22 +20197,22 @@
         <v>507</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="C509" s="2" t="s">
+        <v>2502</v>
+      </c>
+      <c r="D509" s="2" t="s">
         <v>2503</v>
       </c>
-      <c r="D509" s="2" t="s">
+      <c r="E509" s="2" t="s">
+        <v>2569</v>
+      </c>
+      <c r="F509" s="2" t="s">
         <v>2504</v>
       </c>
-      <c r="E509" s="2" t="s">
-        <v>2570</v>
-      </c>
-      <c r="F509" s="2" t="s">
+      <c r="G509" s="2" t="s">
         <v>2505</v>
-      </c>
-      <c r="G509" s="2" t="s">
-        <v>2506</v>
       </c>
     </row>
     <row r="510" spans="1:7">
@@ -20219,22 +20220,22 @@
         <v>508</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="C510" s="2" t="s">
+        <v>2506</v>
+      </c>
+      <c r="D510" s="2" t="s">
         <v>2507</v>
       </c>
-      <c r="D510" s="2" t="s">
+      <c r="E510" s="2" t="s">
+        <v>2568</v>
+      </c>
+      <c r="F510" s="2" t="s">
         <v>2508</v>
       </c>
-      <c r="E510" s="2" t="s">
-        <v>2569</v>
-      </c>
-      <c r="F510" s="2" t="s">
+      <c r="G510" s="2" t="s">
         <v>2509</v>
-      </c>
-      <c r="G510" s="2" t="s">
-        <v>2510</v>
       </c>
     </row>
     <row r="511" spans="1:7">
@@ -20242,22 +20243,22 @@
         <v>509</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="D511" s="2" t="s">
         <v>576</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="F511" s="2" t="s">
+        <v>2511</v>
+      </c>
+      <c r="G511" s="2" t="s">
         <v>2512</v>
-      </c>
-      <c r="G511" s="2" t="s">
-        <v>2513</v>
       </c>
     </row>
     <row r="512" spans="1:7">
@@ -20265,22 +20266,22 @@
         <v>510</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="C512" s="2" t="s">
+        <v>2513</v>
+      </c>
+      <c r="D512" s="2" t="s">
         <v>2514</v>
       </c>
-      <c r="D512" s="2" t="s">
+      <c r="E512" s="2" t="s">
+        <v>2571</v>
+      </c>
+      <c r="F512" s="2" t="s">
         <v>2515</v>
       </c>
-      <c r="E512" s="2" t="s">
-        <v>2572</v>
-      </c>
-      <c r="F512" s="2" t="s">
+      <c r="G512" s="2" t="s">
         <v>2516</v>
-      </c>
-      <c r="G512" s="2" t="s">
-        <v>2517</v>
       </c>
     </row>
     <row r="513" spans="1:7">
@@ -20288,22 +20289,22 @@
         <v>511</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="C513" s="2" t="s">
+        <v>2517</v>
+      </c>
+      <c r="D513" s="2" t="s">
         <v>2518</v>
       </c>
-      <c r="D513" s="2" t="s">
+      <c r="E513" s="2" t="s">
+        <v>2571</v>
+      </c>
+      <c r="F513" s="2" t="s">
         <v>2519</v>
       </c>
-      <c r="E513" s="2" t="s">
-        <v>2572</v>
-      </c>
-      <c r="F513" s="2" t="s">
+      <c r="G513" s="2" t="s">
         <v>2520</v>
-      </c>
-      <c r="G513" s="2" t="s">
-        <v>2521</v>
       </c>
     </row>
     <row r="514" spans="1:7">
@@ -20311,22 +20312,22 @@
         <v>512</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="C514" s="2" t="s">
+        <v>2521</v>
+      </c>
+      <c r="D514" s="2" t="s">
         <v>2522</v>
       </c>
-      <c r="D514" s="2" t="s">
+      <c r="E514" s="2" t="s">
+        <v>2571</v>
+      </c>
+      <c r="F514" s="2" t="s">
         <v>2523</v>
       </c>
-      <c r="E514" s="2" t="s">
-        <v>2572</v>
-      </c>
-      <c r="F514" s="2" t="s">
+      <c r="G514" s="2" t="s">
         <v>2524</v>
-      </c>
-      <c r="G514" s="2" t="s">
-        <v>2525</v>
       </c>
     </row>
     <row r="515" spans="1:7">
@@ -20334,22 +20335,22 @@
         <v>513</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>2132</v>
       </c>
       <c r="D515" s="2" t="s">
+        <v>2525</v>
+      </c>
+      <c r="E515" s="2" t="s">
+        <v>2571</v>
+      </c>
+      <c r="F515" s="2" t="s">
         <v>2526</v>
       </c>
-      <c r="E515" s="2" t="s">
-        <v>2572</v>
-      </c>
-      <c r="F515" s="2" t="s">
-        <v>2527</v>
-      </c>
       <c r="G515" s="2" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="516" spans="1:7">
@@ -20357,22 +20358,22 @@
         <v>514</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="D516" s="2" t="s">
+        <v>2527</v>
+      </c>
+      <c r="E516" s="2" t="s">
+        <v>2568</v>
+      </c>
+      <c r="F516" s="2" t="s">
         <v>2528</v>
       </c>
-      <c r="E516" s="2" t="s">
-        <v>2569</v>
-      </c>
-      <c r="F516" s="2" t="s">
+      <c r="G516" s="2" t="s">
         <v>2529</v>
-      </c>
-      <c r="G516" s="2" t="s">
-        <v>2530</v>
       </c>
     </row>
     <row r="517" spans="1:7">
@@ -20380,22 +20381,22 @@
         <v>515</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="C517" s="2" t="s">
+        <v>2530</v>
+      </c>
+      <c r="D517" s="2" t="s">
         <v>2531</v>
       </c>
-      <c r="D517" s="2" t="s">
+      <c r="E517" s="2" t="s">
+        <v>2571</v>
+      </c>
+      <c r="F517" s="2" t="s">
         <v>2532</v>
       </c>
-      <c r="E517" s="2" t="s">
-        <v>2572</v>
-      </c>
-      <c r="F517" s="2" t="s">
+      <c r="G517" s="2" t="s">
         <v>2533</v>
-      </c>
-      <c r="G517" s="2" t="s">
-        <v>2534</v>
       </c>
     </row>
     <row r="518" spans="1:7">
@@ -20403,22 +20404,22 @@
         <v>516</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="C518" s="2" t="s">
+        <v>2534</v>
+      </c>
+      <c r="D518" s="2" t="s">
         <v>2535</v>
       </c>
-      <c r="D518" s="2" t="s">
+      <c r="E518" s="2" t="s">
+        <v>2569</v>
+      </c>
+      <c r="F518" s="2" t="s">
         <v>2536</v>
       </c>
-      <c r="E518" s="2" t="s">
-        <v>2570</v>
-      </c>
-      <c r="F518" s="2" t="s">
+      <c r="G518" s="2" t="s">
         <v>2537</v>
-      </c>
-      <c r="G518" s="2" t="s">
-        <v>2538</v>
       </c>
     </row>
     <row r="519" spans="1:7">
@@ -20426,22 +20427,22 @@
         <v>517</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="C519" s="2" t="s">
+        <v>2538</v>
+      </c>
+      <c r="D519" s="2" t="s">
         <v>2539</v>
       </c>
-      <c r="D519" s="2" t="s">
+      <c r="E519" s="2" t="s">
+        <v>2572</v>
+      </c>
+      <c r="F519" s="2" t="s">
         <v>2540</v>
       </c>
-      <c r="E519" s="2" t="s">
-        <v>2573</v>
-      </c>
-      <c r="F519" s="2" t="s">
+      <c r="G519" s="2" t="s">
         <v>2541</v>
-      </c>
-      <c r="G519" s="2" t="s">
-        <v>2542</v>
       </c>
     </row>
     <row r="520" spans="1:7">
@@ -20449,22 +20450,22 @@
         <v>518</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="C520" s="2" t="s">
+        <v>2542</v>
+      </c>
+      <c r="D520" s="2" t="s">
         <v>2543</v>
       </c>
-      <c r="D520" s="2" t="s">
+      <c r="E520" s="2" t="s">
+        <v>2573</v>
+      </c>
+      <c r="F520" s="2" t="s">
         <v>2544</v>
       </c>
-      <c r="E520" s="2" t="s">
-        <v>2574</v>
-      </c>
-      <c r="F520" s="2" t="s">
+      <c r="G520" s="2" t="s">
         <v>2545</v>
-      </c>
-      <c r="G520" s="2" t="s">
-        <v>2546</v>
       </c>
     </row>
     <row r="521" spans="1:7">
@@ -20472,22 +20473,22 @@
         <v>519</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="C521" s="2" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D521" s="2" t="s">
         <v>2547</v>
       </c>
-      <c r="D521" s="2" t="s">
+      <c r="E521" s="2" t="s">
+        <v>2569</v>
+      </c>
+      <c r="F521" s="2" t="s">
         <v>2548</v>
       </c>
-      <c r="E521" s="2" t="s">
-        <v>2570</v>
-      </c>
-      <c r="F521" s="2" t="s">
+      <c r="G521" s="2" t="s">
         <v>2549</v>
-      </c>
-      <c r="G521" s="2" t="s">
-        <v>2550</v>
       </c>
     </row>
     <row r="522" spans="1:7">
@@ -20495,22 +20496,22 @@
         <v>520</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="C522" s="2" t="s">
+        <v>2550</v>
+      </c>
+      <c r="D522" s="2" t="s">
         <v>2551</v>
       </c>
-      <c r="D522" s="2" t="s">
+      <c r="E522" s="2" t="s">
+        <v>2568</v>
+      </c>
+      <c r="F522" s="2" t="s">
         <v>2552</v>
       </c>
-      <c r="E522" s="2" t="s">
-        <v>2569</v>
-      </c>
-      <c r="F522" s="2" t="s">
+      <c r="G522" s="2" t="s">
         <v>2553</v>
-      </c>
-      <c r="G522" s="2" t="s">
-        <v>2554</v>
       </c>
     </row>
     <row r="523" spans="1:7">
@@ -20518,22 +20519,22 @@
         <v>521</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="C523" s="2" t="s">
+        <v>2554</v>
+      </c>
+      <c r="D523" s="2" t="s">
         <v>2555</v>
       </c>
-      <c r="D523" s="2" t="s">
+      <c r="E523" s="2" t="s">
+        <v>2573</v>
+      </c>
+      <c r="F523" s="2" t="s">
         <v>2556</v>
       </c>
-      <c r="E523" s="2" t="s">
-        <v>2574</v>
-      </c>
-      <c r="F523" s="2" t="s">
+      <c r="G523" s="2" t="s">
         <v>2557</v>
-      </c>
-      <c r="G523" s="2" t="s">
-        <v>2558</v>
       </c>
     </row>
     <row r="524" spans="1:7">
@@ -20541,22 +20542,22 @@
         <v>522</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="C524" s="2" t="s">
+        <v>2558</v>
+      </c>
+      <c r="D524" s="2" t="s">
         <v>2559</v>
       </c>
-      <c r="D524" s="2" t="s">
+      <c r="E524" s="2" t="s">
+        <v>2570</v>
+      </c>
+      <c r="F524" s="2" t="s">
         <v>2560</v>
       </c>
-      <c r="E524" s="2" t="s">
-        <v>2571</v>
-      </c>
-      <c r="F524" s="2" t="s">
+      <c r="G524" s="2" t="s">
         <v>2561</v>
-      </c>
-      <c r="G524" s="2" t="s">
-        <v>2562</v>
       </c>
     </row>
     <row r="525" spans="1:7">
@@ -20564,22 +20565,22 @@
         <v>523</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="C525" s="2" t="s">
+        <v>2562</v>
+      </c>
+      <c r="D525" s="2" t="s">
         <v>2563</v>
       </c>
-      <c r="D525" s="2" t="s">
+      <c r="E525" s="2" t="s">
+        <v>2570</v>
+      </c>
+      <c r="F525" s="2" t="s">
         <v>2564</v>
       </c>
-      <c r="E525" s="2" t="s">
-        <v>2571</v>
-      </c>
-      <c r="F525" s="2" t="s">
+      <c r="G525" s="2" t="s">
         <v>2565</v>
-      </c>
-      <c r="G525" s="2" t="s">
-        <v>2566</v>
       </c>
     </row>
     <row r="526" spans="1:7">
@@ -20587,22 +20588,22 @@
         <v>524</v>
       </c>
       <c r="B526" s="2" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C526" s="2" t="s">
         <v>2575</v>
       </c>
-      <c r="C526" s="2" t="s">
+      <c r="D526" s="2" t="s">
         <v>2576</v>
       </c>
-      <c r="D526" s="2" t="s">
+      <c r="E526" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F526" s="2" t="s">
         <v>2577</v>
       </c>
-      <c r="E526" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F526" s="2" t="s">
+      <c r="G526" s="2" t="s">
         <v>2578</v>
-      </c>
-      <c r="G526" s="2" t="s">
-        <v>2579</v>
       </c>
     </row>
     <row r="527" spans="1:7">
@@ -20613,22 +20614,22 @@
         <v>525</v>
       </c>
       <c r="B528" s="2" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C528" s="2" t="s">
         <v>2585</v>
       </c>
-      <c r="C528" s="2" t="s">
+      <c r="D528" s="2" t="s">
         <v>2586</v>
       </c>
-      <c r="D528" s="2" t="s">
+      <c r="E528" s="2" t="s">
         <v>2587</v>
       </c>
-      <c r="E528" s="2" t="s">
+      <c r="F528" s="2" t="s">
         <v>2588</v>
       </c>
-      <c r="F528" s="2" t="s">
+      <c r="G528" s="2" t="s">
         <v>2589</v>
-      </c>
-      <c r="G528" s="2" t="s">
-        <v>2590</v>
       </c>
     </row>
     <row r="529" spans="1:7">
@@ -20636,22 +20637,22 @@
         <v>526</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="C529" s="2" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D529" s="2" t="s">
         <v>2591</v>
       </c>
-      <c r="D529" s="2" t="s">
+      <c r="E529" s="2" t="s">
+        <v>2654</v>
+      </c>
+      <c r="F529" s="2" t="s">
         <v>2592</v>
       </c>
-      <c r="E529" s="2" t="s">
-        <v>2655</v>
-      </c>
-      <c r="F529" s="2" t="s">
+      <c r="G529" s="2" t="s">
         <v>2593</v>
-      </c>
-      <c r="G529" s="2" t="s">
-        <v>2594</v>
       </c>
     </row>
     <row r="530" spans="1:7">
@@ -20659,22 +20660,22 @@
         <v>527</v>
       </c>
       <c r="B530" s="2" t="s">
+        <v>2594</v>
+      </c>
+      <c r="C530" s="2" t="s">
         <v>2595</v>
       </c>
-      <c r="C530" s="2" t="s">
+      <c r="D530" s="2" t="s">
         <v>2596</v>
       </c>
-      <c r="D530" s="2" t="s">
+      <c r="E530" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F530" s="2" t="s">
         <v>2597</v>
       </c>
-      <c r="E530" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F530" s="2" t="s">
+      <c r="G530" s="2" t="s">
         <v>2598</v>
-      </c>
-      <c r="G530" s="2" t="s">
-        <v>2599</v>
       </c>
     </row>
     <row r="531" spans="1:7">
@@ -20682,22 +20683,22 @@
         <v>528</v>
       </c>
       <c r="B531" s="2" t="s">
+        <v>2599</v>
+      </c>
+      <c r="C531" s="2" t="s">
         <v>2600</v>
       </c>
-      <c r="C531" s="2" t="s">
+      <c r="D531" s="2" t="s">
         <v>2601</v>
       </c>
-      <c r="D531" s="2" t="s">
+      <c r="E531" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F531" s="2" t="s">
         <v>2602</v>
       </c>
-      <c r="E531" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F531" s="2" t="s">
+      <c r="G531" s="2" t="s">
         <v>2603</v>
-      </c>
-      <c r="G531" s="2" t="s">
-        <v>2604</v>
       </c>
     </row>
     <row r="532" spans="1:7">
@@ -20705,22 +20706,22 @@
         <v>529</v>
       </c>
       <c r="B532" s="2" t="s">
+        <v>2604</v>
+      </c>
+      <c r="C532" s="2" t="s">
         <v>2605</v>
       </c>
-      <c r="C532" s="2" t="s">
+      <c r="D532" s="2" t="s">
         <v>2606</v>
       </c>
-      <c r="D532" s="2" t="s">
+      <c r="E532" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F532" s="2" t="s">
         <v>2607</v>
       </c>
-      <c r="E532" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F532" s="2" t="s">
+      <c r="G532" s="2" t="s">
         <v>2608</v>
-      </c>
-      <c r="G532" s="2" t="s">
-        <v>2609</v>
       </c>
     </row>
     <row r="533" spans="1:7">
@@ -20728,22 +20729,22 @@
         <v>530</v>
       </c>
       <c r="B533" s="2" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C533" s="2" t="s">
         <v>2610</v>
       </c>
-      <c r="C533" s="2" t="s">
+      <c r="D533" s="2" t="s">
         <v>2611</v>
       </c>
-      <c r="D533" s="2" t="s">
+      <c r="E533" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F533" s="2" t="s">
         <v>2612</v>
       </c>
-      <c r="E533" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F533" s="2" t="s">
+      <c r="G533" s="2" t="s">
         <v>2613</v>
-      </c>
-      <c r="G533" s="2" t="s">
-        <v>2614</v>
       </c>
     </row>
     <row r="534" spans="1:7">
@@ -20751,22 +20752,22 @@
         <v>531</v>
       </c>
       <c r="B534" s="2" t="s">
+        <v>2614</v>
+      </c>
+      <c r="C534" s="2" t="s">
         <v>2615</v>
       </c>
-      <c r="C534" s="2" t="s">
+      <c r="D534" s="2" t="s">
         <v>2616</v>
       </c>
-      <c r="D534" s="2" t="s">
+      <c r="E534" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F534" s="2" t="s">
         <v>2617</v>
       </c>
-      <c r="E534" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F534" s="2" t="s">
+      <c r="G534" s="2" t="s">
         <v>2618</v>
-      </c>
-      <c r="G534" s="2" t="s">
-        <v>2619</v>
       </c>
     </row>
     <row r="535" spans="1:7">
@@ -20774,22 +20775,22 @@
         <v>532</v>
       </c>
       <c r="B535" s="2" t="s">
+        <v>2619</v>
+      </c>
+      <c r="C535" s="2" t="s">
         <v>2620</v>
       </c>
-      <c r="C535" s="2" t="s">
+      <c r="D535" s="2" t="s">
         <v>2621</v>
       </c>
-      <c r="D535" s="2" t="s">
+      <c r="E535" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F535" s="2" t="s">
         <v>2622</v>
       </c>
-      <c r="E535" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F535" s="2" t="s">
+      <c r="G535" s="2" t="s">
         <v>2623</v>
-      </c>
-      <c r="G535" s="2" t="s">
-        <v>2624</v>
       </c>
     </row>
     <row r="536" spans="1:7">
@@ -20797,22 +20798,22 @@
         <v>533</v>
       </c>
       <c r="B536" s="2" t="s">
+        <v>2624</v>
+      </c>
+      <c r="C536" s="2" t="s">
         <v>2625</v>
       </c>
-      <c r="C536" s="2" t="s">
+      <c r="D536" s="2" t="s">
         <v>2626</v>
-      </c>
-      <c r="D536" s="2" t="s">
-        <v>2627</v>
       </c>
       <c r="E536" s="2" t="s">
         <v>1033</v>
       </c>
       <c r="F536" s="2" t="s">
+        <v>2627</v>
+      </c>
+      <c r="G536" s="2" t="s">
         <v>2628</v>
-      </c>
-      <c r="G536" s="2" t="s">
-        <v>2629</v>
       </c>
     </row>
     <row r="537" spans="1:7">
@@ -20820,22 +20821,22 @@
         <v>534</v>
       </c>
       <c r="B537" s="2" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C537" s="2" t="s">
         <v>2630</v>
       </c>
-      <c r="C537" s="2" t="s">
+      <c r="D537" s="2" t="s">
         <v>2631</v>
-      </c>
-      <c r="D537" s="2" t="s">
-        <v>2632</v>
       </c>
       <c r="E537" s="2" t="s">
         <v>1033</v>
       </c>
       <c r="F537" s="2" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G537" s="2" t="s">
         <v>2633</v>
-      </c>
-      <c r="G537" s="2" t="s">
-        <v>2634</v>
       </c>
     </row>
     <row r="538" spans="1:7">
@@ -20843,22 +20844,22 @@
         <v>535</v>
       </c>
       <c r="B538" s="2" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C538" s="2" t="s">
         <v>2635</v>
       </c>
-      <c r="C538" s="2" t="s">
+      <c r="D538" s="2" t="s">
         <v>2636</v>
-      </c>
-      <c r="D538" s="2" t="s">
-        <v>2637</v>
       </c>
       <c r="E538" s="2" t="s">
         <v>1027</v>
       </c>
       <c r="F538" s="2" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G538" s="2" t="s">
         <v>2638</v>
-      </c>
-      <c r="G538" s="2" t="s">
-        <v>2639</v>
       </c>
     </row>
     <row r="539" spans="1:7">
@@ -20866,22 +20867,22 @@
         <v>536</v>
       </c>
       <c r="B539" s="2" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C539" s="2" t="s">
         <v>2640</v>
       </c>
-      <c r="C539" s="2" t="s">
+      <c r="D539" s="2" t="s">
         <v>2641</v>
       </c>
-      <c r="D539" s="2" t="s">
+      <c r="E539" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F539" s="2" t="s">
         <v>2642</v>
       </c>
-      <c r="E539" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F539" s="2" t="s">
+      <c r="G539" s="2" t="s">
         <v>2643</v>
-      </c>
-      <c r="G539" s="2" t="s">
-        <v>2644</v>
       </c>
     </row>
     <row r="540" spans="1:7">
@@ -20889,22 +20890,22 @@
         <v>537</v>
       </c>
       <c r="B540" s="2" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C540" s="2" t="s">
         <v>2645</v>
       </c>
-      <c r="C540" s="2" t="s">
+      <c r="D540" s="2" t="s">
         <v>2646</v>
       </c>
-      <c r="D540" s="2" t="s">
+      <c r="E540" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F540" s="2" t="s">
         <v>2647</v>
       </c>
-      <c r="E540" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F540" s="2" t="s">
+      <c r="G540" s="2" t="s">
         <v>2648</v>
-      </c>
-      <c r="G540" s="2" t="s">
-        <v>2649</v>
       </c>
     </row>
     <row r="541" spans="1:7">
@@ -20912,22 +20913,22 @@
         <v>538</v>
       </c>
       <c r="B541" s="2" t="s">
+        <v>2649</v>
+      </c>
+      <c r="C541" s="2" t="s">
         <v>2650</v>
       </c>
-      <c r="C541" s="2" t="s">
+      <c r="D541" s="2" t="s">
         <v>2651</v>
-      </c>
-      <c r="D541" s="2" t="s">
-        <v>2652</v>
       </c>
       <c r="E541" s="2" t="s">
         <v>1029</v>
       </c>
       <c r="F541" s="2" t="s">
+        <v>2652</v>
+      </c>
+      <c r="G541" s="2" t="s">
         <v>2653</v>
-      </c>
-      <c r="G541" s="2" t="s">
-        <v>2654</v>
       </c>
     </row>
     <row r="543" spans="1:7">
@@ -20935,10 +20936,10 @@
         <v>539</v>
       </c>
       <c r="B543" s="2" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C543" s="2" t="s">
         <v>2657</v>
-      </c>
-      <c r="C543" s="2" t="s">
-        <v>2658</v>
       </c>
       <c r="D543" s="2" t="s">
         <v>1289</v>
@@ -20947,7 +20948,7 @@
         <v>872</v>
       </c>
       <c r="F543" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="G543" s="2" t="s">
         <v>1291</v>
@@ -20958,22 +20959,22 @@
         <v>540</v>
       </c>
       <c r="B544" s="2" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C544" s="2" t="s">
         <v>2659</v>
       </c>
-      <c r="C544" s="2" t="s">
+      <c r="D544" s="2" t="s">
         <v>2660</v>
       </c>
-      <c r="D544" s="2" t="s">
-        <v>2661</v>
-      </c>
       <c r="E544" s="2" t="s">
         <v>872</v>
       </c>
       <c r="F544" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="G544" s="2" t="s">
         <v>2674</v>
-      </c>
-      <c r="G544" s="2" t="s">
-        <v>2675</v>
       </c>
     </row>
     <row r="545" spans="1:7">
@@ -20981,22 +20982,22 @@
         <v>541</v>
       </c>
       <c r="B545" s="2" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C545" s="2" t="s">
         <v>2662</v>
       </c>
-      <c r="C545" s="2" t="s">
+      <c r="D545" s="2" t="s">
         <v>2663</v>
       </c>
-      <c r="D545" s="2" t="s">
-        <v>2664</v>
-      </c>
       <c r="E545" s="2" t="s">
         <v>872</v>
       </c>
       <c r="F545" s="2" t="s">
+        <v>2675</v>
+      </c>
+      <c r="G545" s="2" t="s">
         <v>2676</v>
-      </c>
-      <c r="G545" s="2" t="s">
-        <v>2677</v>
       </c>
     </row>
     <row r="546" spans="1:7">
@@ -21004,22 +21005,22 @@
         <v>542</v>
       </c>
       <c r="B546" s="2" t="s">
+        <v>2664</v>
+      </c>
+      <c r="C546" s="2" t="s">
         <v>2665</v>
       </c>
-      <c r="C546" s="2" t="s">
+      <c r="D546" s="2" t="s">
         <v>2666</v>
       </c>
-      <c r="D546" s="2" t="s">
-        <v>2667</v>
-      </c>
       <c r="E546" s="2" t="s">
         <v>872</v>
       </c>
       <c r="F546" s="2" t="s">
+        <v>2677</v>
+      </c>
+      <c r="G546" s="2" t="s">
         <v>2678</v>
-      </c>
-      <c r="G546" s="2" t="s">
-        <v>2679</v>
       </c>
     </row>
     <row r="547" spans="1:7">
@@ -21027,22 +21028,22 @@
         <v>543</v>
       </c>
       <c r="B547" s="2" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C547" s="2" t="s">
         <v>2668</v>
       </c>
-      <c r="C547" s="2" t="s">
+      <c r="D547" s="2" t="s">
         <v>2669</v>
       </c>
-      <c r="D547" s="2" t="s">
-        <v>2670</v>
-      </c>
       <c r="E547" s="2" t="s">
         <v>872</v>
       </c>
       <c r="F547" s="2" t="s">
+        <v>2679</v>
+      </c>
+      <c r="G547" s="2" t="s">
         <v>2680</v>
-      </c>
-      <c r="G547" s="2" t="s">
-        <v>2681</v>
       </c>
     </row>
     <row r="548" spans="1:7">
@@ -21050,22 +21051,22 @@
         <v>544</v>
       </c>
       <c r="B548" s="2" t="s">
+        <v>2681</v>
+      </c>
+      <c r="C548" s="2" t="s">
         <v>2682</v>
       </c>
-      <c r="C548" s="2" t="s">
+      <c r="D548" s="2" t="s">
         <v>2683</v>
       </c>
-      <c r="D548" s="2" t="s">
+      <c r="E548" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F548" s="2" t="s">
         <v>2684</v>
       </c>
-      <c r="E548" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F548" s="2" t="s">
+      <c r="G548" s="2" t="s">
         <v>2685</v>
-      </c>
-      <c r="G548" s="2" t="s">
-        <v>2686</v>
       </c>
     </row>
     <row r="549" spans="1:7">
@@ -21073,22 +21074,22 @@
         <v>545</v>
       </c>
       <c r="B549" s="2" t="s">
+        <v>2670</v>
+      </c>
+      <c r="C549" s="2" t="s">
         <v>2671</v>
       </c>
-      <c r="C549" s="2" t="s">
-        <v>2672</v>
-      </c>
       <c r="D549" s="2" t="s">
+        <v>2686</v>
+      </c>
+      <c r="E549" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F549" s="2" t="s">
         <v>2687</v>
       </c>
-      <c r="E549" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F549" s="2" t="s">
+      <c r="G549" s="2" t="s">
         <v>2688</v>
-      </c>
-      <c r="G549" s="2" t="s">
-        <v>2689</v>
       </c>
     </row>
   </sheetData>

--- a/doc/voca.xlsx
+++ b/doc/voca.xlsx
@@ -6735,9 +6735,6 @@
     <t>[bif]</t>
   </si>
   <si>
-    <t>[pɔrk]</t>
-  </si>
-  <si>
     <t>[ɛg]</t>
   </si>
   <si>
@@ -6753,9 +6750,6 @@
     <t>[ˈkændɪ]</t>
   </si>
   <si>
-    <t>[ˈtʃɑklɪt]</t>
-  </si>
-  <si>
     <t>[ˈkʊkɪ]</t>
   </si>
   <si>
@@ -6877,9 +6871,6 @@
   </si>
   <si>
     <t>[ˈdaɪnɪŋ ˌrum]</t>
-  </si>
-  <si>
-    <t>[ˈtebəl]</t>
   </si>
   <si>
     <t>[ˈkɪtʃɪn]</t>
@@ -8147,6 +8138,18 @@
   </si>
   <si>
     <t>[ˈsæləd]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[pɔrk]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈtʃɔkəlɪt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈtebḷ]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8517,8 +8520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G549"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C254" sqref="C254"/>
+    <sheetView tabSelected="1" topLeftCell="A287" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C300" sqref="C300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8551,7 +8554,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2567</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -9275,7 +9278,7 @@
         <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>2579</v>
+        <v>2576</v>
       </c>
       <c r="D33" t="s">
         <v>582</v>
@@ -9298,7 +9301,7 @@
         <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>2580</v>
+        <v>2577</v>
       </c>
       <c r="D34" t="s">
         <v>585</v>
@@ -9321,7 +9324,7 @@
         <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>2581</v>
+        <v>2578</v>
       </c>
       <c r="D35" t="s">
         <v>588</v>
@@ -9344,7 +9347,7 @@
         <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>2582</v>
+        <v>2579</v>
       </c>
       <c r="D36" t="s">
         <v>591</v>
@@ -9413,7 +9416,7 @@
         <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>2583</v>
+        <v>2580</v>
       </c>
       <c r="D39" t="s">
         <v>600</v>
@@ -11391,7 +11394,7 @@
         <v>174</v>
       </c>
       <c r="C125" t="s">
-        <v>2692</v>
+        <v>2689</v>
       </c>
       <c r="D125" t="s">
         <v>793</v>
@@ -12587,7 +12590,7 @@
         <v>226</v>
       </c>
       <c r="C177" t="s">
-        <v>2690</v>
+        <v>2687</v>
       </c>
       <c r="D177" t="s">
         <v>952</v>
@@ -12679,7 +12682,7 @@
         <v>230</v>
       </c>
       <c r="C181" t="s">
-        <v>2691</v>
+        <v>2688</v>
       </c>
       <c r="D181" t="s">
         <v>964</v>
@@ -14082,7 +14085,7 @@
         <v>290</v>
       </c>
       <c r="C242" t="s">
-        <v>2693</v>
+        <v>2690</v>
       </c>
       <c r="D242" t="s">
         <v>1217</v>
@@ -14197,7 +14200,7 @@
         <v>230</v>
       </c>
       <c r="C247" t="s">
-        <v>2694</v>
+        <v>2691</v>
       </c>
       <c r="D247" t="s">
         <v>1232</v>
@@ -14266,7 +14269,7 @@
         <v>294</v>
       </c>
       <c r="C250" t="s">
-        <v>2233</v>
+        <v>2694</v>
       </c>
       <c r="D250" t="s">
         <v>1241</v>
@@ -14289,7 +14292,7 @@
         <v>295</v>
       </c>
       <c r="C251" t="s">
-        <v>2695</v>
+        <v>2692</v>
       </c>
       <c r="D251" t="s">
         <v>1244</v>
@@ -14312,7 +14315,7 @@
         <v>296</v>
       </c>
       <c r="C252" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="D252" t="s">
         <v>1247</v>
@@ -14335,7 +14338,7 @@
         <v>297</v>
       </c>
       <c r="C253" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="D253" t="s">
         <v>1250</v>
@@ -14358,7 +14361,7 @@
         <v>298</v>
       </c>
       <c r="C254" t="s">
-        <v>2696</v>
+        <v>2693</v>
       </c>
       <c r="D254" t="s">
         <v>1253</v>
@@ -14381,7 +14384,7 @@
         <v>299</v>
       </c>
       <c r="C255" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="D255" t="s">
         <v>1256</v>
@@ -14404,7 +14407,7 @@
         <v>300</v>
       </c>
       <c r="C256" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="D256" t="s">
         <v>1259</v>
@@ -14427,7 +14430,7 @@
         <v>301</v>
       </c>
       <c r="C257" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="D257" t="s">
         <v>1262</v>
@@ -14450,7 +14453,7 @@
         <v>302</v>
       </c>
       <c r="C258" t="s">
-        <v>2239</v>
+        <v>2695</v>
       </c>
       <c r="D258" t="s">
         <v>1265</v>
@@ -14473,7 +14476,7 @@
         <v>303</v>
       </c>
       <c r="C259" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="D259" t="s">
         <v>1268</v>
@@ -14496,7 +14499,7 @@
         <v>304</v>
       </c>
       <c r="C260" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="D260" t="s">
         <v>1271</v>
@@ -14519,7 +14522,7 @@
         <v>305</v>
       </c>
       <c r="C261" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="D261" t="s">
         <v>1274</v>
@@ -14542,7 +14545,7 @@
         <v>306</v>
       </c>
       <c r="C262" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="D262" t="s">
         <v>1277</v>
@@ -14565,7 +14568,7 @@
         <v>307</v>
       </c>
       <c r="C263" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="D263" t="s">
         <v>1280</v>
@@ -14588,7 +14591,7 @@
         <v>308</v>
       </c>
       <c r="C264" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="D264" t="s">
         <v>1283</v>
@@ -14611,7 +14614,7 @@
         <v>309</v>
       </c>
       <c r="C265" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="D265" t="s">
         <v>1286</v>
@@ -14634,7 +14637,7 @@
         <v>310</v>
       </c>
       <c r="C266" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="D266" t="s">
         <v>1289</v>
@@ -14657,7 +14660,7 @@
         <v>311</v>
       </c>
       <c r="C267" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="D267" t="s">
         <v>1292</v>
@@ -14680,7 +14683,7 @@
         <v>312</v>
       </c>
       <c r="C268" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="D268" t="s">
         <v>1295</v>
@@ -14703,7 +14706,7 @@
         <v>313</v>
       </c>
       <c r="C269" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="D269" t="s">
         <v>1298</v>
@@ -14726,7 +14729,7 @@
         <v>314</v>
       </c>
       <c r="C270" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="D270" t="s">
         <v>1301</v>
@@ -14749,7 +14752,7 @@
         <v>315</v>
       </c>
       <c r="C271" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="D271" t="s">
         <v>1304</v>
@@ -14772,7 +14775,7 @@
         <v>316</v>
       </c>
       <c r="C272" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="D272" t="s">
         <v>1307</v>
@@ -14795,7 +14798,7 @@
         <v>317</v>
       </c>
       <c r="C273" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="D273" t="s">
         <v>1310</v>
@@ -14818,7 +14821,7 @@
         <v>318</v>
       </c>
       <c r="C274" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="D274" t="s">
         <v>1313</v>
@@ -14841,7 +14844,7 @@
         <v>319</v>
       </c>
       <c r="C275" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="D275" t="s">
         <v>1316</v>
@@ -14864,7 +14867,7 @@
         <v>320</v>
       </c>
       <c r="C276" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="D276" t="s">
         <v>1319</v>
@@ -14887,7 +14890,7 @@
         <v>321</v>
       </c>
       <c r="C277" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="D277" t="s">
         <v>1322</v>
@@ -14910,7 +14913,7 @@
         <v>322</v>
       </c>
       <c r="C278" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="D278" t="s">
         <v>1325</v>
@@ -14933,7 +14936,7 @@
         <v>323</v>
       </c>
       <c r="C279" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="D279" t="s">
         <v>1328</v>
@@ -14956,7 +14959,7 @@
         <v>324</v>
       </c>
       <c r="C280" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="D280" t="s">
         <v>1331</v>
@@ -14979,7 +14982,7 @@
         <v>325</v>
       </c>
       <c r="C281" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="D281" t="s">
         <v>1334</v>
@@ -15002,7 +15005,7 @@
         <v>326</v>
       </c>
       <c r="C282" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="D282" t="s">
         <v>1337</v>
@@ -15025,7 +15028,7 @@
         <v>327</v>
       </c>
       <c r="C283" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="D283" t="s">
         <v>1340</v>
@@ -15048,7 +15051,7 @@
         <v>328</v>
       </c>
       <c r="C284" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="D284" t="s">
         <v>1343</v>
@@ -15071,7 +15074,7 @@
         <v>329</v>
       </c>
       <c r="C285" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="D285" t="s">
         <v>1346</v>
@@ -15117,7 +15120,7 @@
         <v>331</v>
       </c>
       <c r="C287" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="D287" t="s">
         <v>1352</v>
@@ -15140,7 +15143,7 @@
         <v>332</v>
       </c>
       <c r="C288" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="D288" t="s">
         <v>1355</v>
@@ -15163,7 +15166,7 @@
         <v>333</v>
       </c>
       <c r="C289" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="D289" t="s">
         <v>1358</v>
@@ -15186,7 +15189,7 @@
         <v>334</v>
       </c>
       <c r="C290" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="D290" t="s">
         <v>1361</v>
@@ -15209,7 +15212,7 @@
         <v>335</v>
       </c>
       <c r="C291" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="D291" t="s">
         <v>1364</v>
@@ -15232,7 +15235,7 @@
         <v>336</v>
       </c>
       <c r="C292" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="D292" t="s">
         <v>1367</v>
@@ -15255,7 +15258,7 @@
         <v>337</v>
       </c>
       <c r="C293" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D293" t="s">
         <v>1370</v>
@@ -15278,7 +15281,7 @@
         <v>338</v>
       </c>
       <c r="C294" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="D294" t="s">
         <v>1373</v>
@@ -15301,7 +15304,7 @@
         <v>339</v>
       </c>
       <c r="C295" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="D295" t="s">
         <v>1376</v>
@@ -15324,7 +15327,7 @@
         <v>340</v>
       </c>
       <c r="C296" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="D296" t="s">
         <v>1379</v>
@@ -15347,7 +15350,7 @@
         <v>341</v>
       </c>
       <c r="C297" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="D297" t="s">
         <v>1382</v>
@@ -15370,7 +15373,7 @@
         <v>342</v>
       </c>
       <c r="C298" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="D298" t="s">
         <v>1385</v>
@@ -15393,7 +15396,7 @@
         <v>343</v>
       </c>
       <c r="C299" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="D299" t="s">
         <v>1388</v>
@@ -15416,7 +15419,7 @@
         <v>344</v>
       </c>
       <c r="C300" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="D300" t="s">
         <v>1391</v>
@@ -15439,7 +15442,7 @@
         <v>345</v>
       </c>
       <c r="C301" t="s">
-        <v>2281</v>
+        <v>2696</v>
       </c>
       <c r="D301" t="s">
         <v>1394</v>
@@ -15462,7 +15465,7 @@
         <v>346</v>
       </c>
       <c r="C302" t="s">
-        <v>2282</v>
+        <v>2279</v>
       </c>
       <c r="D302" t="s">
         <v>1397</v>
@@ -15485,7 +15488,7 @@
         <v>347</v>
       </c>
       <c r="C303" t="s">
-        <v>2283</v>
+        <v>2280</v>
       </c>
       <c r="D303" t="s">
         <v>1400</v>
@@ -15508,7 +15511,7 @@
         <v>348</v>
       </c>
       <c r="C304" t="s">
-        <v>2284</v>
+        <v>2281</v>
       </c>
       <c r="D304" t="s">
         <v>1403</v>
@@ -15531,7 +15534,7 @@
         <v>349</v>
       </c>
       <c r="C305" t="s">
-        <v>2285</v>
+        <v>2282</v>
       </c>
       <c r="D305" t="s">
         <v>1406</v>
@@ -15554,7 +15557,7 @@
         <v>350</v>
       </c>
       <c r="C306" t="s">
-        <v>2286</v>
+        <v>2283</v>
       </c>
       <c r="D306" t="s">
         <v>1409</v>
@@ -15577,7 +15580,7 @@
         <v>351</v>
       </c>
       <c r="C307" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
       <c r="D307" t="s">
         <v>1412</v>
@@ -15600,7 +15603,7 @@
         <v>352</v>
       </c>
       <c r="C308" t="s">
-        <v>2288</v>
+        <v>2285</v>
       </c>
       <c r="D308" t="s">
         <v>1415</v>
@@ -15623,7 +15626,7 @@
         <v>353</v>
       </c>
       <c r="C309" t="s">
-        <v>2289</v>
+        <v>2286</v>
       </c>
       <c r="D309" t="s">
         <v>1418</v>
@@ -15646,7 +15649,7 @@
         <v>354</v>
       </c>
       <c r="C310" t="s">
-        <v>2290</v>
+        <v>2287</v>
       </c>
       <c r="D310" t="s">
         <v>1421</v>
@@ -15669,7 +15672,7 @@
         <v>355</v>
       </c>
       <c r="C311" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
       <c r="D311" t="s">
         <v>1424</v>
@@ -15692,7 +15695,7 @@
         <v>356</v>
       </c>
       <c r="C312" t="s">
-        <v>2292</v>
+        <v>2289</v>
       </c>
       <c r="D312" t="s">
         <v>1427</v>
@@ -15715,7 +15718,7 @@
         <v>357</v>
       </c>
       <c r="C313" t="s">
-        <v>2293</v>
+        <v>2290</v>
       </c>
       <c r="D313" t="s">
         <v>1430</v>
@@ -15738,7 +15741,7 @@
         <v>358</v>
       </c>
       <c r="C314" t="s">
-        <v>2294</v>
+        <v>2291</v>
       </c>
       <c r="D314" t="s">
         <v>1433</v>
@@ -15761,7 +15764,7 @@
         <v>359</v>
       </c>
       <c r="C315" t="s">
-        <v>2295</v>
+        <v>2292</v>
       </c>
       <c r="D315" t="s">
         <v>1436</v>
@@ -15784,7 +15787,7 @@
         <v>360</v>
       </c>
       <c r="C316" t="s">
-        <v>2296</v>
+        <v>2293</v>
       </c>
       <c r="D316" t="s">
         <v>1439</v>
@@ -15807,7 +15810,7 @@
         <v>361</v>
       </c>
       <c r="C317" t="s">
-        <v>2297</v>
+        <v>2294</v>
       </c>
       <c r="D317" t="s">
         <v>1440</v>
@@ -15830,7 +15833,7 @@
         <v>362</v>
       </c>
       <c r="C318" t="s">
-        <v>2298</v>
+        <v>2295</v>
       </c>
       <c r="D318" t="s">
         <v>1440</v>
@@ -15853,7 +15856,7 @@
         <v>318</v>
       </c>
       <c r="C319" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="D319" t="s">
         <v>1445</v>
@@ -15876,7 +15879,7 @@
         <v>363</v>
       </c>
       <c r="C320" t="s">
-        <v>2299</v>
+        <v>2296</v>
       </c>
       <c r="D320" t="s">
         <v>1448</v>
@@ -15899,7 +15902,7 @@
         <v>364</v>
       </c>
       <c r="C321" t="s">
-        <v>2300</v>
+        <v>2297</v>
       </c>
       <c r="D321" t="s">
         <v>1451</v>
@@ -15922,7 +15925,7 @@
         <v>365</v>
       </c>
       <c r="C322" t="s">
-        <v>2301</v>
+        <v>2298</v>
       </c>
       <c r="D322" t="s">
         <v>1454</v>
@@ -15945,7 +15948,7 @@
         <v>366</v>
       </c>
       <c r="C323" t="s">
-        <v>2302</v>
+        <v>2299</v>
       </c>
       <c r="D323" t="s">
         <v>1457</v>
@@ -15968,7 +15971,7 @@
         <v>367</v>
       </c>
       <c r="C324" t="s">
-        <v>2303</v>
+        <v>2300</v>
       </c>
       <c r="D324" t="s">
         <v>1460</v>
@@ -15991,7 +15994,7 @@
         <v>368</v>
       </c>
       <c r="C325" t="s">
-        <v>2304</v>
+        <v>2301</v>
       </c>
       <c r="D325" t="s">
         <v>1463</v>
@@ -16014,7 +16017,7 @@
         <v>369</v>
       </c>
       <c r="C326" t="s">
-        <v>2305</v>
+        <v>2302</v>
       </c>
       <c r="D326" t="s">
         <v>1466</v>
@@ -16037,7 +16040,7 @@
         <v>370</v>
       </c>
       <c r="C327" t="s">
-        <v>2306</v>
+        <v>2303</v>
       </c>
       <c r="D327" t="s">
         <v>1469</v>
@@ -16060,7 +16063,7 @@
         <v>371</v>
       </c>
       <c r="C328" t="s">
-        <v>2307</v>
+        <v>2304</v>
       </c>
       <c r="D328" t="s">
         <v>1472</v>
@@ -16083,7 +16086,7 @@
         <v>372</v>
       </c>
       <c r="C329" t="s">
-        <v>2308</v>
+        <v>2305</v>
       </c>
       <c r="D329" t="s">
         <v>1475</v>
@@ -16106,7 +16109,7 @@
         <v>373</v>
       </c>
       <c r="C330" t="s">
-        <v>2309</v>
+        <v>2306</v>
       </c>
       <c r="D330" t="s">
         <v>1478</v>
@@ -16129,7 +16132,7 @@
         <v>374</v>
       </c>
       <c r="C331" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
       <c r="D331" t="s">
         <v>1481</v>
@@ -16152,7 +16155,7 @@
         <v>375</v>
       </c>
       <c r="C332" t="s">
-        <v>2311</v>
+        <v>2308</v>
       </c>
       <c r="D332" t="s">
         <v>1484</v>
@@ -16175,7 +16178,7 @@
         <v>376</v>
       </c>
       <c r="C333" t="s">
-        <v>2312</v>
+        <v>2309</v>
       </c>
       <c r="D333" t="s">
         <v>1487</v>
@@ -16198,7 +16201,7 @@
         <v>377</v>
       </c>
       <c r="C334" t="s">
-        <v>2313</v>
+        <v>2310</v>
       </c>
       <c r="D334" t="s">
         <v>1490</v>
@@ -16221,7 +16224,7 @@
         <v>378</v>
       </c>
       <c r="C335" t="s">
-        <v>2314</v>
+        <v>2311</v>
       </c>
       <c r="D335" t="s">
         <v>1493</v>
@@ -16244,7 +16247,7 @@
         <v>379</v>
       </c>
       <c r="C336" t="s">
-        <v>2315</v>
+        <v>2312</v>
       </c>
       <c r="D336" t="s">
         <v>1496</v>
@@ -16267,7 +16270,7 @@
         <v>380</v>
       </c>
       <c r="C337" t="s">
-        <v>2316</v>
+        <v>2313</v>
       </c>
       <c r="D337" t="s">
         <v>1499</v>
@@ -16290,7 +16293,7 @@
         <v>381</v>
       </c>
       <c r="C338" t="s">
-        <v>2317</v>
+        <v>2314</v>
       </c>
       <c r="D338" t="s">
         <v>1502</v>
@@ -16313,7 +16316,7 @@
         <v>382</v>
       </c>
       <c r="C339" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
       <c r="D339" t="s">
         <v>1505</v>
@@ -16336,7 +16339,7 @@
         <v>383</v>
       </c>
       <c r="C340" t="s">
-        <v>2319</v>
+        <v>2316</v>
       </c>
       <c r="D340" t="s">
         <v>1508</v>
@@ -16359,7 +16362,7 @@
         <v>384</v>
       </c>
       <c r="C341" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="D341" t="s">
         <v>1511</v>
@@ -16382,7 +16385,7 @@
         <v>385</v>
       </c>
       <c r="C342" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
       <c r="D342" t="s">
         <v>1514</v>
@@ -16405,7 +16408,7 @@
         <v>386</v>
       </c>
       <c r="C343" t="s">
-        <v>2322</v>
+        <v>2319</v>
       </c>
       <c r="D343" t="s">
         <v>1517</v>
@@ -16428,7 +16431,7 @@
         <v>387</v>
       </c>
       <c r="C344" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="D344" t="s">
         <v>1520</v>
@@ -16451,7 +16454,7 @@
         <v>388</v>
       </c>
       <c r="C345" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
       <c r="D345" t="s">
         <v>1523</v>
@@ -16474,7 +16477,7 @@
         <v>389</v>
       </c>
       <c r="C346" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
       <c r="D346" t="s">
         <v>1526</v>
@@ -16497,7 +16500,7 @@
         <v>390</v>
       </c>
       <c r="C347" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
       <c r="D347" t="s">
         <v>1529</v>
@@ -16520,7 +16523,7 @@
         <v>391</v>
       </c>
       <c r="C348" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
       <c r="D348" t="s">
         <v>1391</v>
@@ -16543,7 +16546,7 @@
         <v>392</v>
       </c>
       <c r="C349" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
       <c r="D349" t="s">
         <v>1532</v>
@@ -16566,7 +16569,7 @@
         <v>393</v>
       </c>
       <c r="C350" t="s">
-        <v>2329</v>
+        <v>2326</v>
       </c>
       <c r="D350" t="s">
         <v>1535</v>
@@ -16589,7 +16592,7 @@
         <v>394</v>
       </c>
       <c r="C351" t="s">
-        <v>2330</v>
+        <v>2327</v>
       </c>
       <c r="D351" t="s">
         <v>1538</v>
@@ -16612,7 +16615,7 @@
         <v>395</v>
       </c>
       <c r="C352" t="s">
-        <v>2331</v>
+        <v>2328</v>
       </c>
       <c r="D352" t="s">
         <v>1541</v>
@@ -16635,7 +16638,7 @@
         <v>396</v>
       </c>
       <c r="C353" t="s">
-        <v>2332</v>
+        <v>2329</v>
       </c>
       <c r="D353" t="s">
         <v>1544</v>
@@ -16658,7 +16661,7 @@
         <v>397</v>
       </c>
       <c r="C354" t="s">
-        <v>2333</v>
+        <v>2330</v>
       </c>
       <c r="D354" t="s">
         <v>1547</v>
@@ -16681,7 +16684,7 @@
         <v>398</v>
       </c>
       <c r="C355" t="s">
-        <v>2334</v>
+        <v>2331</v>
       </c>
       <c r="D355" t="s">
         <v>1550</v>
@@ -16704,7 +16707,7 @@
         <v>399</v>
       </c>
       <c r="C356" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
       <c r="D356" t="s">
         <v>1553</v>
@@ -16727,7 +16730,7 @@
         <v>400</v>
       </c>
       <c r="C357" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
       <c r="D357" t="s">
         <v>1556</v>
@@ -16750,7 +16753,7 @@
         <v>401</v>
       </c>
       <c r="C358" t="s">
-        <v>2337</v>
+        <v>2334</v>
       </c>
       <c r="D358" t="s">
         <v>1559</v>
@@ -16796,7 +16799,7 @@
         <v>402</v>
       </c>
       <c r="C360" t="s">
-        <v>2338</v>
+        <v>2335</v>
       </c>
       <c r="D360" t="s">
         <v>1565</v>
@@ -16842,7 +16845,7 @@
         <v>404</v>
       </c>
       <c r="C362" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="D362" t="s">
         <v>1571</v>
@@ -16865,7 +16868,7 @@
         <v>405</v>
       </c>
       <c r="C363" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
       <c r="D363" t="s">
         <v>1574</v>
@@ -16888,7 +16891,7 @@
         <v>406</v>
       </c>
       <c r="C364" t="s">
-        <v>2341</v>
+        <v>2338</v>
       </c>
       <c r="D364" t="s">
         <v>1577</v>
@@ -16911,7 +16914,7 @@
         <v>407</v>
       </c>
       <c r="C365" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
       <c r="D365" t="s">
         <v>1580</v>
@@ -16934,7 +16937,7 @@
         <v>408</v>
       </c>
       <c r="C366" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
       <c r="D366" t="s">
         <v>1583</v>
@@ -16957,7 +16960,7 @@
         <v>409</v>
       </c>
       <c r="C367" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
       <c r="D367" t="s">
         <v>1586</v>
@@ -16980,7 +16983,7 @@
         <v>410</v>
       </c>
       <c r="C368" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="D368" t="s">
         <v>1589</v>
@@ -17003,7 +17006,7 @@
         <v>411</v>
       </c>
       <c r="C369" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
       <c r="D369" t="s">
         <v>1592</v>
@@ -17026,7 +17029,7 @@
         <v>412</v>
       </c>
       <c r="C370" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
       <c r="D370" t="s">
         <v>2</v>
@@ -17049,7 +17052,7 @@
         <v>413</v>
       </c>
       <c r="C371" t="s">
-        <v>2348</v>
+        <v>2345</v>
       </c>
       <c r="D371" t="s">
         <v>1597</v>
@@ -17072,7 +17075,7 @@
         <v>414</v>
       </c>
       <c r="C372" t="s">
-        <v>2349</v>
+        <v>2346</v>
       </c>
       <c r="D372" t="s">
         <v>1600</v>
@@ -17095,7 +17098,7 @@
         <v>415</v>
       </c>
       <c r="C373" t="s">
-        <v>2350</v>
+        <v>2347</v>
       </c>
       <c r="D373" t="s">
         <v>1603</v>
@@ -17118,7 +17121,7 @@
         <v>417</v>
       </c>
       <c r="C374" t="s">
-        <v>2351</v>
+        <v>2348</v>
       </c>
       <c r="D374" t="s">
         <v>1606</v>
@@ -17141,7 +17144,7 @@
         <v>416</v>
       </c>
       <c r="C375" t="s">
-        <v>2352</v>
+        <v>2349</v>
       </c>
       <c r="D375" t="s">
         <v>1609</v>
@@ -17164,7 +17167,7 @@
         <v>418</v>
       </c>
       <c r="C376" t="s">
-        <v>2353</v>
+        <v>2350</v>
       </c>
       <c r="D376" t="s">
         <v>1612</v>
@@ -17187,7 +17190,7 @@
         <v>419</v>
       </c>
       <c r="C377" t="s">
-        <v>2354</v>
+        <v>2351</v>
       </c>
       <c r="D377" t="s">
         <v>1615</v>
@@ -17210,7 +17213,7 @@
         <v>420</v>
       </c>
       <c r="C378" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
       <c r="D378" t="s">
         <v>1618</v>
@@ -17233,7 +17236,7 @@
         <v>421</v>
       </c>
       <c r="C379" t="s">
-        <v>2356</v>
+        <v>2353</v>
       </c>
       <c r="D379" t="s">
         <v>1621</v>
@@ -17256,7 +17259,7 @@
         <v>422</v>
       </c>
       <c r="C380" t="s">
-        <v>2357</v>
+        <v>2354</v>
       </c>
       <c r="D380" t="s">
         <v>1624</v>
@@ -17279,7 +17282,7 @@
         <v>423</v>
       </c>
       <c r="C381" t="s">
-        <v>2358</v>
+        <v>2355</v>
       </c>
       <c r="D381" t="s">
         <v>1626</v>
@@ -17302,7 +17305,7 @@
         <v>424</v>
       </c>
       <c r="C382" t="s">
-        <v>2359</v>
+        <v>2356</v>
       </c>
       <c r="D382" t="s">
         <v>1629</v>
@@ -17325,7 +17328,7 @@
         <v>425</v>
       </c>
       <c r="C383" t="s">
-        <v>2360</v>
+        <v>2357</v>
       </c>
       <c r="D383" t="s">
         <v>1632</v>
@@ -17348,7 +17351,7 @@
         <v>426</v>
       </c>
       <c r="C384" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
       <c r="D384" t="s">
         <v>1635</v>
@@ -17371,7 +17374,7 @@
         <v>427</v>
       </c>
       <c r="C385" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
       <c r="D385" t="s">
         <v>1638</v>
@@ -17394,7 +17397,7 @@
         <v>428</v>
       </c>
       <c r="C386" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="D386" t="s">
         <v>1641</v>
@@ -17417,7 +17420,7 @@
         <v>429</v>
       </c>
       <c r="C387" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
       <c r="D387" t="s">
         <v>1644</v>
@@ -17440,7 +17443,7 @@
         <v>430</v>
       </c>
       <c r="C388" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
       <c r="D388" t="s">
         <v>1647</v>
@@ -17463,7 +17466,7 @@
         <v>431</v>
       </c>
       <c r="C389" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
       <c r="D389" t="s">
         <v>1650</v>
@@ -17486,7 +17489,7 @@
         <v>432</v>
       </c>
       <c r="C390" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="D390" t="s">
         <v>1653</v>
@@ -17509,7 +17512,7 @@
         <v>433</v>
       </c>
       <c r="C391" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
       <c r="D391" t="s">
         <v>1656</v>
@@ -17532,7 +17535,7 @@
         <v>434</v>
       </c>
       <c r="C392" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="D392" t="s">
         <v>1659</v>
@@ -17555,7 +17558,7 @@
         <v>435</v>
       </c>
       <c r="C393" t="s">
-        <v>2370</v>
+        <v>2367</v>
       </c>
       <c r="D393" t="s">
         <v>1662</v>
@@ -17578,7 +17581,7 @@
         <v>436</v>
       </c>
       <c r="C394" t="s">
-        <v>2371</v>
+        <v>2368</v>
       </c>
       <c r="D394" t="s">
         <v>1665</v>
@@ -17601,7 +17604,7 @@
         <v>437</v>
       </c>
       <c r="C395" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
       <c r="D395" t="s">
         <v>1668</v>
@@ -17624,7 +17627,7 @@
         <v>438</v>
       </c>
       <c r="C396" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="D396" t="s">
         <v>1671</v>
@@ -17647,7 +17650,7 @@
         <v>439</v>
       </c>
       <c r="C397" t="s">
-        <v>2373</v>
+        <v>2370</v>
       </c>
       <c r="D397" t="s">
         <v>1674</v>
@@ -17670,7 +17673,7 @@
         <v>440</v>
       </c>
       <c r="C398" t="s">
-        <v>2374</v>
+        <v>2371</v>
       </c>
       <c r="D398" t="s">
         <v>1677</v>
@@ -17693,7 +17696,7 @@
         <v>375</v>
       </c>
       <c r="C399" t="s">
-        <v>2311</v>
+        <v>2308</v>
       </c>
       <c r="D399" t="s">
         <v>1484</v>
@@ -17716,7 +17719,7 @@
         <v>441</v>
       </c>
       <c r="C400" t="s">
-        <v>2375</v>
+        <v>2372</v>
       </c>
       <c r="D400" t="s">
         <v>1680</v>
@@ -17739,7 +17742,7 @@
         <v>442</v>
       </c>
       <c r="C401" t="s">
-        <v>2376</v>
+        <v>2373</v>
       </c>
       <c r="D401" t="s">
         <v>1683</v>
@@ -17762,7 +17765,7 @@
         <v>443</v>
       </c>
       <c r="C402" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="D402" t="s">
         <v>1481</v>
@@ -17785,7 +17788,7 @@
         <v>444</v>
       </c>
       <c r="C403" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
       <c r="D403" t="s">
         <v>1688</v>
@@ -17808,7 +17811,7 @@
         <v>445</v>
       </c>
       <c r="C404" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
       <c r="D404" t="s">
         <v>1691</v>
@@ -17831,7 +17834,7 @@
         <v>446</v>
       </c>
       <c r="C405" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
       <c r="D405" t="s">
         <v>1694</v>
@@ -17854,7 +17857,7 @@
         <v>447</v>
       </c>
       <c r="C406" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
       <c r="D406" t="s">
         <v>1697</v>
@@ -17877,7 +17880,7 @@
         <v>448</v>
       </c>
       <c r="C407" t="s">
-        <v>2382</v>
+        <v>2379</v>
       </c>
       <c r="D407" t="s">
         <v>1700</v>
@@ -17900,7 +17903,7 @@
         <v>449</v>
       </c>
       <c r="C408" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
       <c r="D408" t="s">
         <v>1703</v>
@@ -17923,7 +17926,7 @@
         <v>450</v>
       </c>
       <c r="C409" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="D409" t="s">
         <v>1706</v>
@@ -17946,7 +17949,7 @@
         <v>451</v>
       </c>
       <c r="C410" t="s">
-        <v>2385</v>
+        <v>2382</v>
       </c>
       <c r="D410" t="s">
         <v>1709</v>
@@ -17969,7 +17972,7 @@
         <v>452</v>
       </c>
       <c r="C411" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
       <c r="D411" t="s">
         <v>1712</v>
@@ -17992,7 +17995,7 @@
         <v>453</v>
       </c>
       <c r="C412" t="s">
-        <v>2387</v>
+        <v>2384</v>
       </c>
       <c r="D412" t="s">
         <v>1715</v>
@@ -18015,7 +18018,7 @@
         <v>454</v>
       </c>
       <c r="C413" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="D413" t="s">
         <v>1718</v>
@@ -18038,7 +18041,7 @@
         <v>455</v>
       </c>
       <c r="C414" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
       <c r="D414" t="s">
         <v>1721</v>
@@ -18061,7 +18064,7 @@
         <v>456</v>
       </c>
       <c r="C415" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
       <c r="D415" t="s">
         <v>1724</v>
@@ -18084,7 +18087,7 @@
         <v>457</v>
       </c>
       <c r="C416" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="D416" t="s">
         <v>1727</v>
@@ -18107,7 +18110,7 @@
         <v>458</v>
       </c>
       <c r="C417" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
       <c r="D417" t="s">
         <v>1730</v>
@@ -18130,7 +18133,7 @@
         <v>459</v>
       </c>
       <c r="C418" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="D418" t="s">
         <v>1733</v>
@@ -18153,7 +18156,7 @@
         <v>460</v>
       </c>
       <c r="C419" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
       <c r="D419" t="s">
         <v>1736</v>
@@ -18199,7 +18202,7 @@
         <v>461</v>
       </c>
       <c r="C421" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
       <c r="D421" t="s">
         <v>1742</v>
@@ -18222,7 +18225,7 @@
         <v>462</v>
       </c>
       <c r="C422" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="D422" t="s">
         <v>1745</v>
@@ -18245,7 +18248,7 @@
         <v>463</v>
       </c>
       <c r="C423" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
       <c r="D423" t="s">
         <v>1748</v>
@@ -18268,7 +18271,7 @@
         <v>464</v>
       </c>
       <c r="C424" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="D424" t="s">
         <v>1751</v>
@@ -18291,7 +18294,7 @@
         <v>465</v>
       </c>
       <c r="C425" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
       <c r="D425" t="s">
         <v>1754</v>
@@ -18314,7 +18317,7 @@
         <v>466</v>
       </c>
       <c r="C426" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="D426" t="s">
         <v>1757</v>
@@ -18337,7 +18340,7 @@
         <v>467</v>
       </c>
       <c r="C427" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
       <c r="D427" t="s">
         <v>1760</v>
@@ -18360,7 +18363,7 @@
         <v>468</v>
       </c>
       <c r="C428" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
       <c r="D428" t="s">
         <v>1763</v>
@@ -18383,7 +18386,7 @@
         <v>469</v>
       </c>
       <c r="C429" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
       <c r="D429" t="s">
         <v>1766</v>
@@ -18406,7 +18409,7 @@
         <v>470</v>
       </c>
       <c r="C430" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
       <c r="D430" t="s">
         <v>1769</v>
@@ -18429,7 +18432,7 @@
         <v>471</v>
       </c>
       <c r="C431" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="D431" t="s">
         <v>1772</v>
@@ -18452,7 +18455,7 @@
         <v>472</v>
       </c>
       <c r="C432" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="D432" t="s">
         <v>1775</v>
@@ -18475,7 +18478,7 @@
         <v>473</v>
       </c>
       <c r="C433" t="s">
-        <v>2407</v>
+        <v>2404</v>
       </c>
       <c r="D433" t="s">
         <v>1778</v>
@@ -18498,7 +18501,7 @@
         <v>474</v>
       </c>
       <c r="C434" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
       <c r="D434" t="s">
         <v>1781</v>
@@ -18521,7 +18524,7 @@
         <v>475</v>
       </c>
       <c r="C435" t="s">
-        <v>2409</v>
+        <v>2406</v>
       </c>
       <c r="D435" t="s">
         <v>1784</v>
@@ -18544,7 +18547,7 @@
         <v>476</v>
       </c>
       <c r="C436" t="s">
-        <v>2410</v>
+        <v>2407</v>
       </c>
       <c r="D436" t="s">
         <v>1787</v>
@@ -18567,7 +18570,7 @@
         <v>477</v>
       </c>
       <c r="C437" t="s">
-        <v>2411</v>
+        <v>2408</v>
       </c>
       <c r="D437" t="s">
         <v>1790</v>
@@ -18590,7 +18593,7 @@
         <v>478</v>
       </c>
       <c r="C438" t="s">
-        <v>2412</v>
+        <v>2409</v>
       </c>
       <c r="D438" t="s">
         <v>1793</v>
@@ -18613,7 +18616,7 @@
         <v>479</v>
       </c>
       <c r="C439" t="s">
-        <v>2413</v>
+        <v>2410</v>
       </c>
       <c r="D439" t="s">
         <v>1796</v>
@@ -18636,7 +18639,7 @@
         <v>480</v>
       </c>
       <c r="C440" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="D440" t="s">
         <v>1799</v>
@@ -18659,7 +18662,7 @@
         <v>481</v>
       </c>
       <c r="C441" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
       <c r="D441" t="s">
         <v>1802</v>
@@ -18682,7 +18685,7 @@
         <v>482</v>
       </c>
       <c r="C442" t="s">
-        <v>2416</v>
+        <v>2413</v>
       </c>
       <c r="D442" t="s">
         <v>1805</v>
@@ -18705,7 +18708,7 @@
         <v>483</v>
       </c>
       <c r="C443" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
       <c r="D443" t="s">
         <v>1808</v>
@@ -18728,7 +18731,7 @@
         <v>484</v>
       </c>
       <c r="C444" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
       <c r="D444" t="s">
         <v>1811</v>
@@ -18751,7 +18754,7 @@
         <v>485</v>
       </c>
       <c r="C445" t="s">
-        <v>2419</v>
+        <v>2416</v>
       </c>
       <c r="D445" t="s">
         <v>1814</v>
@@ -18774,7 +18777,7 @@
         <v>486</v>
       </c>
       <c r="C446" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
       <c r="D446" t="s">
         <v>1817</v>
@@ -18797,7 +18800,7 @@
         <v>487</v>
       </c>
       <c r="C447" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
       <c r="D447" t="s">
         <v>1820</v>
@@ -18820,7 +18823,7 @@
         <v>488</v>
       </c>
       <c r="C448" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
       <c r="D448" t="s">
         <v>1823</v>
@@ -18843,7 +18846,7 @@
         <v>489</v>
       </c>
       <c r="C449" t="s">
-        <v>2423</v>
+        <v>2420</v>
       </c>
       <c r="D449" t="s">
         <v>1826</v>
@@ -18866,7 +18869,7 @@
         <v>490</v>
       </c>
       <c r="C450" t="s">
-        <v>2424</v>
+        <v>2421</v>
       </c>
       <c r="D450" t="s">
         <v>1827</v>
@@ -18889,7 +18892,7 @@
         <v>491</v>
       </c>
       <c r="C451" t="s">
-        <v>2425</v>
+        <v>2422</v>
       </c>
       <c r="D451" t="s">
         <v>1828</v>
@@ -18912,7 +18915,7 @@
         <v>492</v>
       </c>
       <c r="C452" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="D452" t="s">
         <v>1831</v>
@@ -18935,7 +18938,7 @@
         <v>493</v>
       </c>
       <c r="C453" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
       <c r="D453" t="s">
         <v>1834</v>
@@ -18958,7 +18961,7 @@
         <v>494</v>
       </c>
       <c r="C454" t="s">
-        <v>2428</v>
+        <v>2425</v>
       </c>
       <c r="D454" t="s">
         <v>1836</v>
@@ -18981,7 +18984,7 @@
         <v>495</v>
       </c>
       <c r="C455" t="s">
-        <v>2429</v>
+        <v>2426</v>
       </c>
       <c r="D455" t="s">
         <v>1839</v>
@@ -19004,7 +19007,7 @@
         <v>496</v>
       </c>
       <c r="C456" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
       <c r="D456" t="s">
         <v>1994</v>
@@ -19050,7 +19053,7 @@
         <v>498</v>
       </c>
       <c r="C458" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="D458" t="s">
         <v>1995</v>
@@ -19073,7 +19076,7 @@
         <v>499</v>
       </c>
       <c r="C459" t="s">
-        <v>2432</v>
+        <v>2429</v>
       </c>
       <c r="D459" t="s">
         <v>1996</v>
@@ -19096,7 +19099,7 @@
         <v>500</v>
       </c>
       <c r="C460" t="s">
-        <v>2433</v>
+        <v>2430</v>
       </c>
       <c r="D460" t="s">
         <v>1851</v>
@@ -19119,7 +19122,7 @@
         <v>501</v>
       </c>
       <c r="C461" t="s">
-        <v>2434</v>
+        <v>2431</v>
       </c>
       <c r="D461" t="s">
         <v>1854</v>
@@ -19142,7 +19145,7 @@
         <v>502</v>
       </c>
       <c r="C462" t="s">
-        <v>2435</v>
+        <v>2432</v>
       </c>
       <c r="D462" t="s">
         <v>1857</v>
@@ -19165,7 +19168,7 @@
         <v>503</v>
       </c>
       <c r="C463" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
       <c r="D463" t="s">
         <v>1860</v>
@@ -19188,7 +19191,7 @@
         <v>504</v>
       </c>
       <c r="C464" t="s">
-        <v>2437</v>
+        <v>2434</v>
       </c>
       <c r="D464" t="s">
         <v>1863</v>
@@ -19211,7 +19214,7 @@
         <v>505</v>
       </c>
       <c r="C465" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
       <c r="D465" t="s">
         <v>1866</v>
@@ -19234,7 +19237,7 @@
         <v>506</v>
       </c>
       <c r="C466" t="s">
-        <v>2439</v>
+        <v>2436</v>
       </c>
       <c r="D466" t="s">
         <v>1869</v>
@@ -19257,7 +19260,7 @@
         <v>507</v>
       </c>
       <c r="C467" t="s">
-        <v>2440</v>
+        <v>2437</v>
       </c>
       <c r="D467" t="s">
         <v>1872</v>
@@ -19280,7 +19283,7 @@
         <v>508</v>
       </c>
       <c r="C468" t="s">
-        <v>2441</v>
+        <v>2438</v>
       </c>
       <c r="D468" t="s">
         <v>1875</v>
@@ -19303,7 +19306,7 @@
         <v>509</v>
       </c>
       <c r="C469" t="s">
-        <v>2442</v>
+        <v>2439</v>
       </c>
       <c r="D469" t="s">
         <v>1878</v>
@@ -19326,7 +19329,7 @@
         <v>510</v>
       </c>
       <c r="C470" t="s">
-        <v>2443</v>
+        <v>2440</v>
       </c>
       <c r="D470" t="s">
         <v>1881</v>
@@ -19349,7 +19352,7 @@
         <v>511</v>
       </c>
       <c r="C471" t="s">
-        <v>2444</v>
+        <v>2441</v>
       </c>
       <c r="D471" t="s">
         <v>1884</v>
@@ -19372,7 +19375,7 @@
         <v>512</v>
       </c>
       <c r="C472" t="s">
-        <v>2445</v>
+        <v>2442</v>
       </c>
       <c r="D472" t="s">
         <v>1887</v>
@@ -19395,7 +19398,7 @@
         <v>513</v>
       </c>
       <c r="C473" t="s">
-        <v>2446</v>
+        <v>2443</v>
       </c>
       <c r="D473" t="s">
         <v>1475</v>
@@ -19418,7 +19421,7 @@
         <v>514</v>
       </c>
       <c r="C474" t="s">
-        <v>2447</v>
+        <v>2444</v>
       </c>
       <c r="D474" t="s">
         <v>1892</v>
@@ -19441,7 +19444,7 @@
         <v>515</v>
       </c>
       <c r="C475" t="s">
-        <v>2448</v>
+        <v>2445</v>
       </c>
       <c r="D475" t="s">
         <v>1894</v>
@@ -19464,7 +19467,7 @@
         <v>516</v>
       </c>
       <c r="C476" t="s">
-        <v>2449</v>
+        <v>2446</v>
       </c>
       <c r="D476" t="s">
         <v>1897</v>
@@ -19487,7 +19490,7 @@
         <v>517</v>
       </c>
       <c r="C477" t="s">
-        <v>2450</v>
+        <v>2447</v>
       </c>
       <c r="D477" t="s">
         <v>1898</v>
@@ -19510,7 +19513,7 @@
         <v>518</v>
       </c>
       <c r="C478" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="D478" t="s">
         <v>1901</v>
@@ -19533,7 +19536,7 @@
         <v>519</v>
       </c>
       <c r="C479" t="s">
-        <v>2452</v>
+        <v>2449</v>
       </c>
       <c r="D479" t="s">
         <v>1987</v>
@@ -19556,7 +19559,7 @@
         <v>520</v>
       </c>
       <c r="C480" t="s">
-        <v>2453</v>
+        <v>2450</v>
       </c>
       <c r="D480" t="s">
         <v>1906</v>
@@ -19579,7 +19582,7 @@
         <v>521</v>
       </c>
       <c r="C481" t="s">
-        <v>2454</v>
+        <v>2451</v>
       </c>
       <c r="D481" t="s">
         <v>1909</v>
@@ -19602,7 +19605,7 @@
         <v>522</v>
       </c>
       <c r="C482" t="s">
-        <v>2455</v>
+        <v>2452</v>
       </c>
       <c r="D482" t="s">
         <v>1912</v>
@@ -19625,7 +19628,7 @@
         <v>400</v>
       </c>
       <c r="C483" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
       <c r="D483" t="s">
         <v>1915</v>
@@ -19648,7 +19651,7 @@
         <v>523</v>
       </c>
       <c r="C484" t="s">
-        <v>2456</v>
+        <v>2453</v>
       </c>
       <c r="D484" t="s">
         <v>1918</v>
@@ -19671,7 +19674,7 @@
         <v>524</v>
       </c>
       <c r="C485" t="s">
-        <v>2457</v>
+        <v>2454</v>
       </c>
       <c r="D485" t="s">
         <v>1921</v>
@@ -19694,7 +19697,7 @@
         <v>525</v>
       </c>
       <c r="C486" t="s">
-        <v>2458</v>
+        <v>2455</v>
       </c>
       <c r="D486" t="s">
         <v>1924</v>
@@ -19717,7 +19720,7 @@
         <v>526</v>
       </c>
       <c r="C487" t="s">
-        <v>2459</v>
+        <v>2456</v>
       </c>
       <c r="D487" t="s">
         <v>1927</v>
@@ -19740,7 +19743,7 @@
         <v>527</v>
       </c>
       <c r="C488" t="s">
-        <v>2460</v>
+        <v>2457</v>
       </c>
       <c r="D488" t="s">
         <v>1930</v>
@@ -19763,7 +19766,7 @@
         <v>528</v>
       </c>
       <c r="C489" t="s">
-        <v>2461</v>
+        <v>2458</v>
       </c>
       <c r="D489" t="s">
         <v>1933</v>
@@ -19786,7 +19789,7 @@
         <v>529</v>
       </c>
       <c r="C490" t="s">
-        <v>2462</v>
+        <v>2459</v>
       </c>
       <c r="D490" t="s">
         <v>1936</v>
@@ -19809,7 +19812,7 @@
         <v>530</v>
       </c>
       <c r="C491" t="s">
-        <v>2463</v>
+        <v>2460</v>
       </c>
       <c r="D491" t="s">
         <v>1939</v>
@@ -19832,7 +19835,7 @@
         <v>531</v>
       </c>
       <c r="C492" t="s">
-        <v>2464</v>
+        <v>2461</v>
       </c>
       <c r="D492" t="s">
         <v>1942</v>
@@ -19855,7 +19858,7 @@
         <v>532</v>
       </c>
       <c r="C493" t="s">
-        <v>2465</v>
+        <v>2462</v>
       </c>
       <c r="D493" t="s">
         <v>1945</v>
@@ -19878,7 +19881,7 @@
         <v>533</v>
       </c>
       <c r="C494" t="s">
-        <v>2466</v>
+        <v>2463</v>
       </c>
       <c r="D494" t="s">
         <v>1948</v>
@@ -19901,7 +19904,7 @@
         <v>534</v>
       </c>
       <c r="C495" t="s">
-        <v>2467</v>
+        <v>2464</v>
       </c>
       <c r="D495" t="s">
         <v>1951</v>
@@ -19924,7 +19927,7 @@
         <v>519</v>
       </c>
       <c r="C496" t="s">
-        <v>2452</v>
+        <v>2449</v>
       </c>
       <c r="D496" t="s">
         <v>1988</v>
@@ -19947,7 +19950,7 @@
         <v>535</v>
       </c>
       <c r="C497" t="s">
-        <v>2468</v>
+        <v>2465</v>
       </c>
       <c r="D497" t="s">
         <v>1954</v>
@@ -19970,7 +19973,7 @@
         <v>536</v>
       </c>
       <c r="C498" t="s">
-        <v>2469</v>
+        <v>2466</v>
       </c>
       <c r="D498" t="s">
         <v>1957</v>
@@ -19993,7 +19996,7 @@
         <v>537</v>
       </c>
       <c r="C499" t="s">
-        <v>2470</v>
+        <v>2467</v>
       </c>
       <c r="D499" t="s">
         <v>1960</v>
@@ -20016,7 +20019,7 @@
         <v>525</v>
       </c>
       <c r="C500" t="s">
-        <v>2458</v>
+        <v>2455</v>
       </c>
       <c r="D500" t="s">
         <v>1924</v>
@@ -20039,7 +20042,7 @@
         <v>538</v>
       </c>
       <c r="C501" t="s">
-        <v>2471</v>
+        <v>2468</v>
       </c>
       <c r="D501" t="s">
         <v>1963</v>
@@ -20062,7 +20065,7 @@
         <v>539</v>
       </c>
       <c r="C502" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="D502" t="s">
         <v>1966</v>
@@ -20108,7 +20111,7 @@
         <v>541</v>
       </c>
       <c r="C504" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="D504" t="s">
         <v>1972</v>
@@ -20131,7 +20134,7 @@
         <v>542</v>
       </c>
       <c r="C505" t="s">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="D505" t="s">
         <v>1975</v>
@@ -20151,22 +20154,22 @@
         <v>505</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>2475</v>
+        <v>2472</v>
       </c>
       <c r="C507" s="2" t="s">
+        <v>2491</v>
+      </c>
+      <c r="D507" s="2" t="s">
+        <v>2492</v>
+      </c>
+      <c r="E507" s="2" t="s">
+        <v>2565</v>
+      </c>
+      <c r="F507" s="2" t="s">
+        <v>2493</v>
+      </c>
+      <c r="G507" s="2" t="s">
         <v>2494</v>
-      </c>
-      <c r="D507" s="2" t="s">
-        <v>2495</v>
-      </c>
-      <c r="E507" s="2" t="s">
-        <v>2568</v>
-      </c>
-      <c r="F507" s="2" t="s">
-        <v>2496</v>
-      </c>
-      <c r="G507" s="2" t="s">
-        <v>2497</v>
       </c>
     </row>
     <row r="508" spans="1:7">
@@ -20174,22 +20177,22 @@
         <v>506</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>2476</v>
+        <v>2473</v>
       </c>
       <c r="C508" s="2" t="s">
+        <v>2495</v>
+      </c>
+      <c r="D508" s="2" t="s">
+        <v>2496</v>
+      </c>
+      <c r="E508" s="2" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F508" s="2" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G508" s="2" t="s">
         <v>2498</v>
-      </c>
-      <c r="D508" s="2" t="s">
-        <v>2499</v>
-      </c>
-      <c r="E508" s="2" t="s">
-        <v>2569</v>
-      </c>
-      <c r="F508" s="2" t="s">
-        <v>2500</v>
-      </c>
-      <c r="G508" s="2" t="s">
-        <v>2501</v>
       </c>
     </row>
     <row r="509" spans="1:7">
@@ -20197,22 +20200,22 @@
         <v>507</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>2477</v>
+        <v>2474</v>
       </c>
       <c r="C509" s="2" t="s">
+        <v>2499</v>
+      </c>
+      <c r="D509" s="2" t="s">
+        <v>2500</v>
+      </c>
+      <c r="E509" s="2" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F509" s="2" t="s">
+        <v>2501</v>
+      </c>
+      <c r="G509" s="2" t="s">
         <v>2502</v>
-      </c>
-      <c r="D509" s="2" t="s">
-        <v>2503</v>
-      </c>
-      <c r="E509" s="2" t="s">
-        <v>2569</v>
-      </c>
-      <c r="F509" s="2" t="s">
-        <v>2504</v>
-      </c>
-      <c r="G509" s="2" t="s">
-        <v>2505</v>
       </c>
     </row>
     <row r="510" spans="1:7">
@@ -20220,22 +20223,22 @@
         <v>508</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="C510" s="2" t="s">
+        <v>2503</v>
+      </c>
+      <c r="D510" s="2" t="s">
+        <v>2504</v>
+      </c>
+      <c r="E510" s="2" t="s">
+        <v>2565</v>
+      </c>
+      <c r="F510" s="2" t="s">
+        <v>2505</v>
+      </c>
+      <c r="G510" s="2" t="s">
         <v>2506</v>
-      </c>
-      <c r="D510" s="2" t="s">
-        <v>2507</v>
-      </c>
-      <c r="E510" s="2" t="s">
-        <v>2568</v>
-      </c>
-      <c r="F510" s="2" t="s">
-        <v>2508</v>
-      </c>
-      <c r="G510" s="2" t="s">
-        <v>2509</v>
       </c>
     </row>
     <row r="511" spans="1:7">
@@ -20243,22 +20246,22 @@
         <v>509</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>2510</v>
+        <v>2507</v>
       </c>
       <c r="D511" s="2" t="s">
         <v>576</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>2570</v>
+        <v>2567</v>
       </c>
       <c r="F511" s="2" t="s">
-        <v>2511</v>
+        <v>2508</v>
       </c>
       <c r="G511" s="2" t="s">
-        <v>2512</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="512" spans="1:7">
@@ -20266,22 +20269,22 @@
         <v>510</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="C512" s="2" t="s">
+        <v>2510</v>
+      </c>
+      <c r="D512" s="2" t="s">
+        <v>2511</v>
+      </c>
+      <c r="E512" s="2" t="s">
+        <v>2568</v>
+      </c>
+      <c r="F512" s="2" t="s">
+        <v>2512</v>
+      </c>
+      <c r="G512" s="2" t="s">
         <v>2513</v>
-      </c>
-      <c r="D512" s="2" t="s">
-        <v>2514</v>
-      </c>
-      <c r="E512" s="2" t="s">
-        <v>2571</v>
-      </c>
-      <c r="F512" s="2" t="s">
-        <v>2515</v>
-      </c>
-      <c r="G512" s="2" t="s">
-        <v>2516</v>
       </c>
     </row>
     <row r="513" spans="1:7">
@@ -20289,22 +20292,22 @@
         <v>511</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="C513" s="2" t="s">
+        <v>2514</v>
+      </c>
+      <c r="D513" s="2" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E513" s="2" t="s">
+        <v>2568</v>
+      </c>
+      <c r="F513" s="2" t="s">
+        <v>2516</v>
+      </c>
+      <c r="G513" s="2" t="s">
         <v>2517</v>
-      </c>
-      <c r="D513" s="2" t="s">
-        <v>2518</v>
-      </c>
-      <c r="E513" s="2" t="s">
-        <v>2571</v>
-      </c>
-      <c r="F513" s="2" t="s">
-        <v>2519</v>
-      </c>
-      <c r="G513" s="2" t="s">
-        <v>2520</v>
       </c>
     </row>
     <row r="514" spans="1:7">
@@ -20312,22 +20315,22 @@
         <v>512</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
       <c r="C514" s="2" t="s">
+        <v>2518</v>
+      </c>
+      <c r="D514" s="2" t="s">
+        <v>2519</v>
+      </c>
+      <c r="E514" s="2" t="s">
+        <v>2568</v>
+      </c>
+      <c r="F514" s="2" t="s">
+        <v>2520</v>
+      </c>
+      <c r="G514" s="2" t="s">
         <v>2521</v>
-      </c>
-      <c r="D514" s="2" t="s">
-        <v>2522</v>
-      </c>
-      <c r="E514" s="2" t="s">
-        <v>2571</v>
-      </c>
-      <c r="F514" s="2" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G514" s="2" t="s">
-        <v>2524</v>
       </c>
     </row>
     <row r="515" spans="1:7">
@@ -20335,22 +20338,22 @@
         <v>513</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>2132</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>2525</v>
+        <v>2522</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>2571</v>
+        <v>2568</v>
       </c>
       <c r="F515" s="2" t="s">
-        <v>2526</v>
+        <v>2523</v>
       </c>
       <c r="G515" s="2" t="s">
-        <v>2566</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="516" spans="1:7">
@@ -20358,22 +20361,22 @@
         <v>514</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>2484</v>
+        <v>2481</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>2689</v>
+        <v>2686</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>2527</v>
+        <v>2524</v>
       </c>
       <c r="E516" s="2" t="s">
-        <v>2568</v>
+        <v>2565</v>
       </c>
       <c r="F516" s="2" t="s">
-        <v>2528</v>
+        <v>2525</v>
       </c>
       <c r="G516" s="2" t="s">
-        <v>2529</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="517" spans="1:7">
@@ -20381,22 +20384,22 @@
         <v>515</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>2485</v>
+        <v>2482</v>
       </c>
       <c r="C517" s="2" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D517" s="2" t="s">
+        <v>2528</v>
+      </c>
+      <c r="E517" s="2" t="s">
+        <v>2568</v>
+      </c>
+      <c r="F517" s="2" t="s">
+        <v>2529</v>
+      </c>
+      <c r="G517" s="2" t="s">
         <v>2530</v>
-      </c>
-      <c r="D517" s="2" t="s">
-        <v>2531</v>
-      </c>
-      <c r="E517" s="2" t="s">
-        <v>2571</v>
-      </c>
-      <c r="F517" s="2" t="s">
-        <v>2532</v>
-      </c>
-      <c r="G517" s="2" t="s">
-        <v>2533</v>
       </c>
     </row>
     <row r="518" spans="1:7">
@@ -20404,22 +20407,22 @@
         <v>516</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>2486</v>
+        <v>2483</v>
       </c>
       <c r="C518" s="2" t="s">
+        <v>2531</v>
+      </c>
+      <c r="D518" s="2" t="s">
+        <v>2532</v>
+      </c>
+      <c r="E518" s="2" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F518" s="2" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G518" s="2" t="s">
         <v>2534</v>
-      </c>
-      <c r="D518" s="2" t="s">
-        <v>2535</v>
-      </c>
-      <c r="E518" s="2" t="s">
-        <v>2569</v>
-      </c>
-      <c r="F518" s="2" t="s">
-        <v>2536</v>
-      </c>
-      <c r="G518" s="2" t="s">
-        <v>2537</v>
       </c>
     </row>
     <row r="519" spans="1:7">
@@ -20427,22 +20430,22 @@
         <v>517</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>2487</v>
+        <v>2484</v>
       </c>
       <c r="C519" s="2" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D519" s="2" t="s">
+        <v>2536</v>
+      </c>
+      <c r="E519" s="2" t="s">
+        <v>2569</v>
+      </c>
+      <c r="F519" s="2" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G519" s="2" t="s">
         <v>2538</v>
-      </c>
-      <c r="D519" s="2" t="s">
-        <v>2539</v>
-      </c>
-      <c r="E519" s="2" t="s">
-        <v>2572</v>
-      </c>
-      <c r="F519" s="2" t="s">
-        <v>2540</v>
-      </c>
-      <c r="G519" s="2" t="s">
-        <v>2541</v>
       </c>
     </row>
     <row r="520" spans="1:7">
@@ -20450,22 +20453,22 @@
         <v>518</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>2488</v>
+        <v>2485</v>
       </c>
       <c r="C520" s="2" t="s">
+        <v>2539</v>
+      </c>
+      <c r="D520" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="E520" s="2" t="s">
+        <v>2570</v>
+      </c>
+      <c r="F520" s="2" t="s">
+        <v>2541</v>
+      </c>
+      <c r="G520" s="2" t="s">
         <v>2542</v>
-      </c>
-      <c r="D520" s="2" t="s">
-        <v>2543</v>
-      </c>
-      <c r="E520" s="2" t="s">
-        <v>2573</v>
-      </c>
-      <c r="F520" s="2" t="s">
-        <v>2544</v>
-      </c>
-      <c r="G520" s="2" t="s">
-        <v>2545</v>
       </c>
     </row>
     <row r="521" spans="1:7">
@@ -20473,22 +20476,22 @@
         <v>519</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>2489</v>
+        <v>2486</v>
       </c>
       <c r="C521" s="2" t="s">
+        <v>2543</v>
+      </c>
+      <c r="D521" s="2" t="s">
+        <v>2544</v>
+      </c>
+      <c r="E521" s="2" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F521" s="2" t="s">
+        <v>2545</v>
+      </c>
+      <c r="G521" s="2" t="s">
         <v>2546</v>
-      </c>
-      <c r="D521" s="2" t="s">
-        <v>2547</v>
-      </c>
-      <c r="E521" s="2" t="s">
-        <v>2569</v>
-      </c>
-      <c r="F521" s="2" t="s">
-        <v>2548</v>
-      </c>
-      <c r="G521" s="2" t="s">
-        <v>2549</v>
       </c>
     </row>
     <row r="522" spans="1:7">
@@ -20496,22 +20499,22 @@
         <v>520</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>2490</v>
+        <v>2487</v>
       </c>
       <c r="C522" s="2" t="s">
+        <v>2547</v>
+      </c>
+      <c r="D522" s="2" t="s">
+        <v>2548</v>
+      </c>
+      <c r="E522" s="2" t="s">
+        <v>2565</v>
+      </c>
+      <c r="F522" s="2" t="s">
+        <v>2549</v>
+      </c>
+      <c r="G522" s="2" t="s">
         <v>2550</v>
-      </c>
-      <c r="D522" s="2" t="s">
-        <v>2551</v>
-      </c>
-      <c r="E522" s="2" t="s">
-        <v>2568</v>
-      </c>
-      <c r="F522" s="2" t="s">
-        <v>2552</v>
-      </c>
-      <c r="G522" s="2" t="s">
-        <v>2553</v>
       </c>
     </row>
     <row r="523" spans="1:7">
@@ -20519,22 +20522,22 @@
         <v>521</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>2491</v>
+        <v>2488</v>
       </c>
       <c r="C523" s="2" t="s">
+        <v>2551</v>
+      </c>
+      <c r="D523" s="2" t="s">
+        <v>2552</v>
+      </c>
+      <c r="E523" s="2" t="s">
+        <v>2570</v>
+      </c>
+      <c r="F523" s="2" t="s">
+        <v>2553</v>
+      </c>
+      <c r="G523" s="2" t="s">
         <v>2554</v>
-      </c>
-      <c r="D523" s="2" t="s">
-        <v>2555</v>
-      </c>
-      <c r="E523" s="2" t="s">
-        <v>2573</v>
-      </c>
-      <c r="F523" s="2" t="s">
-        <v>2556</v>
-      </c>
-      <c r="G523" s="2" t="s">
-        <v>2557</v>
       </c>
     </row>
     <row r="524" spans="1:7">
@@ -20542,22 +20545,22 @@
         <v>522</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>2492</v>
+        <v>2489</v>
       </c>
       <c r="C524" s="2" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D524" s="2" t="s">
+        <v>2556</v>
+      </c>
+      <c r="E524" s="2" t="s">
+        <v>2567</v>
+      </c>
+      <c r="F524" s="2" t="s">
+        <v>2557</v>
+      </c>
+      <c r="G524" s="2" t="s">
         <v>2558</v>
-      </c>
-      <c r="D524" s="2" t="s">
-        <v>2559</v>
-      </c>
-      <c r="E524" s="2" t="s">
-        <v>2570</v>
-      </c>
-      <c r="F524" s="2" t="s">
-        <v>2560</v>
-      </c>
-      <c r="G524" s="2" t="s">
-        <v>2561</v>
       </c>
     </row>
     <row r="525" spans="1:7">
@@ -20565,22 +20568,22 @@
         <v>523</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>2493</v>
+        <v>2490</v>
       </c>
       <c r="C525" s="2" t="s">
+        <v>2559</v>
+      </c>
+      <c r="D525" s="2" t="s">
+        <v>2560</v>
+      </c>
+      <c r="E525" s="2" t="s">
+        <v>2567</v>
+      </c>
+      <c r="F525" s="2" t="s">
+        <v>2561</v>
+      </c>
+      <c r="G525" s="2" t="s">
         <v>2562</v>
-      </c>
-      <c r="D525" s="2" t="s">
-        <v>2563</v>
-      </c>
-      <c r="E525" s="2" t="s">
-        <v>2570</v>
-      </c>
-      <c r="F525" s="2" t="s">
-        <v>2564</v>
-      </c>
-      <c r="G525" s="2" t="s">
-        <v>2565</v>
       </c>
     </row>
     <row r="526" spans="1:7">
@@ -20588,22 +20591,22 @@
         <v>524</v>
       </c>
       <c r="B526" s="2" t="s">
+        <v>2571</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>2572</v>
+      </c>
+      <c r="D526" s="2" t="s">
+        <v>2573</v>
+      </c>
+      <c r="E526" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F526" s="2" t="s">
         <v>2574</v>
       </c>
-      <c r="C526" s="2" t="s">
+      <c r="G526" s="2" t="s">
         <v>2575</v>
-      </c>
-      <c r="D526" s="2" t="s">
-        <v>2576</v>
-      </c>
-      <c r="E526" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F526" s="2" t="s">
-        <v>2577</v>
-      </c>
-      <c r="G526" s="2" t="s">
-        <v>2578</v>
       </c>
     </row>
     <row r="527" spans="1:7">
@@ -20614,22 +20617,22 @@
         <v>525</v>
       </c>
       <c r="B528" s="2" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C528" s="2" t="s">
+        <v>2582</v>
+      </c>
+      <c r="D528" s="2" t="s">
+        <v>2583</v>
+      </c>
+      <c r="E528" s="2" t="s">
         <v>2584</v>
       </c>
-      <c r="C528" s="2" t="s">
+      <c r="F528" s="2" t="s">
         <v>2585</v>
       </c>
-      <c r="D528" s="2" t="s">
+      <c r="G528" s="2" t="s">
         <v>2586</v>
-      </c>
-      <c r="E528" s="2" t="s">
-        <v>2587</v>
-      </c>
-      <c r="F528" s="2" t="s">
-        <v>2588</v>
-      </c>
-      <c r="G528" s="2" t="s">
-        <v>2589</v>
       </c>
     </row>
     <row r="529" spans="1:7">
@@ -20637,22 +20640,22 @@
         <v>526</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>2655</v>
+        <v>2652</v>
       </c>
       <c r="C529" s="2" t="s">
+        <v>2587</v>
+      </c>
+      <c r="D529" s="2" t="s">
+        <v>2588</v>
+      </c>
+      <c r="E529" s="2" t="s">
+        <v>2651</v>
+      </c>
+      <c r="F529" s="2" t="s">
+        <v>2589</v>
+      </c>
+      <c r="G529" s="2" t="s">
         <v>2590</v>
-      </c>
-      <c r="D529" s="2" t="s">
-        <v>2591</v>
-      </c>
-      <c r="E529" s="2" t="s">
-        <v>2654</v>
-      </c>
-      <c r="F529" s="2" t="s">
-        <v>2592</v>
-      </c>
-      <c r="G529" s="2" t="s">
-        <v>2593</v>
       </c>
     </row>
     <row r="530" spans="1:7">
@@ -20660,22 +20663,22 @@
         <v>527</v>
       </c>
       <c r="B530" s="2" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C530" s="2" t="s">
+        <v>2592</v>
+      </c>
+      <c r="D530" s="2" t="s">
+        <v>2593</v>
+      </c>
+      <c r="E530" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F530" s="2" t="s">
         <v>2594</v>
       </c>
-      <c r="C530" s="2" t="s">
+      <c r="G530" s="2" t="s">
         <v>2595</v>
-      </c>
-      <c r="D530" s="2" t="s">
-        <v>2596</v>
-      </c>
-      <c r="E530" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F530" s="2" t="s">
-        <v>2597</v>
-      </c>
-      <c r="G530" s="2" t="s">
-        <v>2598</v>
       </c>
     </row>
     <row r="531" spans="1:7">
@@ -20683,22 +20686,22 @@
         <v>528</v>
       </c>
       <c r="B531" s="2" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C531" s="2" t="s">
+        <v>2597</v>
+      </c>
+      <c r="D531" s="2" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E531" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F531" s="2" t="s">
         <v>2599</v>
       </c>
-      <c r="C531" s="2" t="s">
+      <c r="G531" s="2" t="s">
         <v>2600</v>
-      </c>
-      <c r="D531" s="2" t="s">
-        <v>2601</v>
-      </c>
-      <c r="E531" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F531" s="2" t="s">
-        <v>2602</v>
-      </c>
-      <c r="G531" s="2" t="s">
-        <v>2603</v>
       </c>
     </row>
     <row r="532" spans="1:7">
@@ -20706,22 +20709,22 @@
         <v>529</v>
       </c>
       <c r="B532" s="2" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D532" s="2" t="s">
+        <v>2603</v>
+      </c>
+      <c r="E532" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F532" s="2" t="s">
         <v>2604</v>
       </c>
-      <c r="C532" s="2" t="s">
+      <c r="G532" s="2" t="s">
         <v>2605</v>
-      </c>
-      <c r="D532" s="2" t="s">
-        <v>2606</v>
-      </c>
-      <c r="E532" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F532" s="2" t="s">
-        <v>2607</v>
-      </c>
-      <c r="G532" s="2" t="s">
-        <v>2608</v>
       </c>
     </row>
     <row r="533" spans="1:7">
@@ -20729,22 +20732,22 @@
         <v>530</v>
       </c>
       <c r="B533" s="2" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C533" s="2" t="s">
+        <v>2607</v>
+      </c>
+      <c r="D533" s="2" t="s">
+        <v>2608</v>
+      </c>
+      <c r="E533" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F533" s="2" t="s">
         <v>2609</v>
       </c>
-      <c r="C533" s="2" t="s">
+      <c r="G533" s="2" t="s">
         <v>2610</v>
-      </c>
-      <c r="D533" s="2" t="s">
-        <v>2611</v>
-      </c>
-      <c r="E533" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F533" s="2" t="s">
-        <v>2612</v>
-      </c>
-      <c r="G533" s="2" t="s">
-        <v>2613</v>
       </c>
     </row>
     <row r="534" spans="1:7">
@@ -20752,22 +20755,22 @@
         <v>531</v>
       </c>
       <c r="B534" s="2" t="s">
+        <v>2611</v>
+      </c>
+      <c r="C534" s="2" t="s">
+        <v>2612</v>
+      </c>
+      <c r="D534" s="2" t="s">
+        <v>2613</v>
+      </c>
+      <c r="E534" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F534" s="2" t="s">
         <v>2614</v>
       </c>
-      <c r="C534" s="2" t="s">
+      <c r="G534" s="2" t="s">
         <v>2615</v>
-      </c>
-      <c r="D534" s="2" t="s">
-        <v>2616</v>
-      </c>
-      <c r="E534" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F534" s="2" t="s">
-        <v>2617</v>
-      </c>
-      <c r="G534" s="2" t="s">
-        <v>2618</v>
       </c>
     </row>
     <row r="535" spans="1:7">
@@ -20775,22 +20778,22 @@
         <v>532</v>
       </c>
       <c r="B535" s="2" t="s">
+        <v>2616</v>
+      </c>
+      <c r="C535" s="2" t="s">
+        <v>2617</v>
+      </c>
+      <c r="D535" s="2" t="s">
+        <v>2618</v>
+      </c>
+      <c r="E535" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F535" s="2" t="s">
         <v>2619</v>
       </c>
-      <c r="C535" s="2" t="s">
+      <c r="G535" s="2" t="s">
         <v>2620</v>
-      </c>
-      <c r="D535" s="2" t="s">
-        <v>2621</v>
-      </c>
-      <c r="E535" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F535" s="2" t="s">
-        <v>2622</v>
-      </c>
-      <c r="G535" s="2" t="s">
-        <v>2623</v>
       </c>
     </row>
     <row r="536" spans="1:7">
@@ -20798,22 +20801,22 @@
         <v>533</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>2624</v>
+        <v>2621</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>2625</v>
+        <v>2622</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>2626</v>
+        <v>2623</v>
       </c>
       <c r="E536" s="2" t="s">
         <v>1033</v>
       </c>
       <c r="F536" s="2" t="s">
-        <v>2627</v>
+        <v>2624</v>
       </c>
       <c r="G536" s="2" t="s">
-        <v>2628</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="537" spans="1:7">
@@ -20821,22 +20824,22 @@
         <v>534</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>2629</v>
+        <v>2626</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>2630</v>
+        <v>2627</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>2631</v>
+        <v>2628</v>
       </c>
       <c r="E537" s="2" t="s">
         <v>1033</v>
       </c>
       <c r="F537" s="2" t="s">
-        <v>2632</v>
+        <v>2629</v>
       </c>
       <c r="G537" s="2" t="s">
-        <v>2633</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="538" spans="1:7">
@@ -20844,22 +20847,22 @@
         <v>535</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>2634</v>
+        <v>2631</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>2635</v>
+        <v>2632</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>2636</v>
+        <v>2633</v>
       </c>
       <c r="E538" s="2" t="s">
         <v>1027</v>
       </c>
       <c r="F538" s="2" t="s">
-        <v>2637</v>
+        <v>2634</v>
       </c>
       <c r="G538" s="2" t="s">
-        <v>2638</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="539" spans="1:7">
@@ -20867,22 +20870,22 @@
         <v>536</v>
       </c>
       <c r="B539" s="2" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>2637</v>
+      </c>
+      <c r="D539" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E539" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F539" s="2" t="s">
         <v>2639</v>
       </c>
-      <c r="C539" s="2" t="s">
+      <c r="G539" s="2" t="s">
         <v>2640</v>
-      </c>
-      <c r="D539" s="2" t="s">
-        <v>2641</v>
-      </c>
-      <c r="E539" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F539" s="2" t="s">
-        <v>2642</v>
-      </c>
-      <c r="G539" s="2" t="s">
-        <v>2643</v>
       </c>
     </row>
     <row r="540" spans="1:7">
@@ -20890,22 +20893,22 @@
         <v>537</v>
       </c>
       <c r="B540" s="2" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>2642</v>
+      </c>
+      <c r="D540" s="2" t="s">
+        <v>2643</v>
+      </c>
+      <c r="E540" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F540" s="2" t="s">
         <v>2644</v>
       </c>
-      <c r="C540" s="2" t="s">
+      <c r="G540" s="2" t="s">
         <v>2645</v>
-      </c>
-      <c r="D540" s="2" t="s">
-        <v>2646</v>
-      </c>
-      <c r="E540" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F540" s="2" t="s">
-        <v>2647</v>
-      </c>
-      <c r="G540" s="2" t="s">
-        <v>2648</v>
       </c>
     </row>
     <row r="541" spans="1:7">
@@ -20913,22 +20916,22 @@
         <v>538</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>2649</v>
+        <v>2646</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>2650</v>
+        <v>2647</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>2651</v>
+        <v>2648</v>
       </c>
       <c r="E541" s="2" t="s">
         <v>1029</v>
       </c>
       <c r="F541" s="2" t="s">
-        <v>2652</v>
+        <v>2649</v>
       </c>
       <c r="G541" s="2" t="s">
-        <v>2653</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="543" spans="1:7">
@@ -20936,10 +20939,10 @@
         <v>539</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>2656</v>
+        <v>2653</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>2657</v>
+        <v>2654</v>
       </c>
       <c r="D543" s="2" t="s">
         <v>1289</v>
@@ -20948,7 +20951,7 @@
         <v>872</v>
       </c>
       <c r="F543" s="2" t="s">
-        <v>2672</v>
+        <v>2669</v>
       </c>
       <c r="G543" s="2" t="s">
         <v>1291</v>
@@ -20959,22 +20962,22 @@
         <v>540</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>2658</v>
+        <v>2655</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>2659</v>
+        <v>2656</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>2660</v>
+        <v>2657</v>
       </c>
       <c r="E544" s="2" t="s">
         <v>872</v>
       </c>
       <c r="F544" s="2" t="s">
-        <v>2673</v>
+        <v>2670</v>
       </c>
       <c r="G544" s="2" t="s">
-        <v>2674</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="545" spans="1:7">
@@ -20982,22 +20985,22 @@
         <v>541</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>2661</v>
+        <v>2658</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>2662</v>
+        <v>2659</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>2663</v>
+        <v>2660</v>
       </c>
       <c r="E545" s="2" t="s">
         <v>872</v>
       </c>
       <c r="F545" s="2" t="s">
-        <v>2675</v>
+        <v>2672</v>
       </c>
       <c r="G545" s="2" t="s">
-        <v>2676</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="546" spans="1:7">
@@ -21005,22 +21008,22 @@
         <v>542</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>2664</v>
+        <v>2661</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>2665</v>
+        <v>2662</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>2666</v>
+        <v>2663</v>
       </c>
       <c r="E546" s="2" t="s">
         <v>872</v>
       </c>
       <c r="F546" s="2" t="s">
-        <v>2677</v>
+        <v>2674</v>
       </c>
       <c r="G546" s="2" t="s">
-        <v>2678</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="547" spans="1:7">
@@ -21028,22 +21031,22 @@
         <v>543</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>2667</v>
+        <v>2664</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>2668</v>
+        <v>2665</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>2669</v>
+        <v>2666</v>
       </c>
       <c r="E547" s="2" t="s">
         <v>872</v>
       </c>
       <c r="F547" s="2" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="G547" s="2" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="548" spans="1:7">
@@ -21051,22 +21054,22 @@
         <v>544</v>
       </c>
       <c r="B548" s="2" t="s">
+        <v>2678</v>
+      </c>
+      <c r="C548" s="2" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D548" s="2" t="s">
+        <v>2680</v>
+      </c>
+      <c r="E548" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F548" s="2" t="s">
         <v>2681</v>
       </c>
-      <c r="C548" s="2" t="s">
+      <c r="G548" s="2" t="s">
         <v>2682</v>
-      </c>
-      <c r="D548" s="2" t="s">
-        <v>2683</v>
-      </c>
-      <c r="E548" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F548" s="2" t="s">
-        <v>2684</v>
-      </c>
-      <c r="G548" s="2" t="s">
-        <v>2685</v>
       </c>
     </row>
     <row r="549" spans="1:7">
@@ -21074,22 +21077,22 @@
         <v>545</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>2670</v>
+        <v>2667</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>2671</v>
+        <v>2668</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>2686</v>
+        <v>2683</v>
       </c>
       <c r="E549" s="2" t="s">
         <v>872</v>
       </c>
       <c r="F549" s="2" t="s">
-        <v>2687</v>
+        <v>2684</v>
       </c>
       <c r="G549" s="2" t="s">
-        <v>2688</v>
+        <v>2685</v>
       </c>
     </row>
   </sheetData>
